--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,59 +609,59 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897749</v>
+        <v>897757</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897749.html</t>
+          <t>https://text.khl.ru/text/897757.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K2" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q2" t="n">
         <v>36</v>
@@ -670,10 +670,10 @@
         <v>15</v>
       </c>
       <c r="S2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="U2" t="n">
         <v>6</v>
@@ -682,30 +682,30 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="n">
         <v>5</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>45.5</v>
+        <v>43.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>45.5</v>
+        <v>72.7</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -714,226 +714,226 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897742</v>
+        <v>897747</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897742.html</t>
+          <t>https://text.khl.ru/text/897747.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>49</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14</v>
+      </c>
+      <c r="K3" t="n">
+        <v>63</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>23</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7</v>
+      </c>
+      <c r="S3" t="n">
         <v>24</v>
       </c>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
-      <c r="K3" t="n">
-        <v>64</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>12</v>
       </c>
-      <c r="O3" t="n">
-        <v>8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>37</v>
-      </c>
-      <c r="R3" t="n">
-        <v>11</v>
-      </c>
-      <c r="S3" t="n">
-        <v>13</v>
-      </c>
-      <c r="T3" t="n">
-        <v>8</v>
-      </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="n">
         <v>3</v>
       </c>
-      <c r="AA3" t="n">
-        <v>7</v>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>42.2</v>
+        <v>62.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897702</v>
+        <v>897738</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897702.html</t>
+          <t>https://text.khl.ru/text/897738.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K4" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R4" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="S4" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="T4" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="U4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
         <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>42.9</v>
+        <v>43.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>50</v>
+        <v>44.8</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -942,53 +942,53 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897692</v>
+        <v>897724</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897692.html</t>
+          <t>https://text.khl.ru/text/897724.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1000,54 +1000,54 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R5" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S5" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="T5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
         <v>5</v>
       </c>
-      <c r="W5" t="n">
-        <v>9</v>
-      </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z5" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>50</v>
+        <v>45.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>56.7</v>
+        <v>57.1</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1059,278 +1059,278 @@
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897666</v>
+        <v>897709</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897666.html</t>
+          <t>https://text.khl.ru/text/897709.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
       <c r="I6" t="n">
+        <v>53</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12</v>
+      </c>
+      <c r="P6" t="n">
         <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>33</v>
-      </c>
-      <c r="K6" t="n">
-        <v>58</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P6" t="n">
-        <v>23</v>
       </c>
       <c r="Q6" t="n">
         <v>38</v>
       </c>
       <c r="R6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>14</v>
+      </c>
+      <c r="U6" t="n">
         <v>17</v>
       </c>
-      <c r="T6" t="n">
-        <v>26</v>
-      </c>
-      <c r="U6" t="n">
-        <v>22</v>
-      </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
         <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>37.7</v>
+        <v>39.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>54.2</v>
+        <v>45.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897751</v>
+        <v>897756</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897751.html</t>
+          <t>https://text.khl.ru/text/897756.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K7" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P7" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="n">
         <v>26</v>
       </c>
       <c r="R7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S7" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="T7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W7" t="n">
         <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z7" t="n">
         <v>9</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
       <c r="AA7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>56.7</v>
+        <v>49</v>
       </c>
       <c r="AD7" t="n">
-        <v>45.5</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.8</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897743</v>
+        <v>897747</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897743.html</t>
+          <t>https://text.khl.ru/text/897747.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="K8" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1345,34 +1345,34 @@
         <v>8</v>
       </c>
       <c r="P8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>38</v>
+      </c>
+      <c r="R8" t="n">
         <v>24</v>
       </c>
-      <c r="Q8" t="n">
-        <v>42</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
+        <v>7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>18</v>
+      </c>
+      <c r="U8" t="n">
+        <v>12</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" t="n">
         <v>15</v>
       </c>
-      <c r="S8" t="n">
-        <v>14</v>
-      </c>
-      <c r="T8" t="n">
-        <v>15</v>
-      </c>
-      <c r="U8" t="n">
-        <v>21</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>8</v>
-      </c>
       <c r="Y8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>3</v>
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>36.4</v>
+        <v>37.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>41.7</v>
+        <v>60</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1401,98 +1401,98 @@
         <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897732</v>
+        <v>897735</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897732.html</t>
+          <t>https://text.khl.ru/text/897735.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>24</v>
+      </c>
+      <c r="J9" t="n">
+        <v>51</v>
+      </c>
+      <c r="K9" t="n">
+        <v>75</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
-        <v>36</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>27</v>
+      </c>
+      <c r="R9" t="n">
+        <v>28</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="n">
         <v>20</v>
       </c>
-      <c r="K9" t="n">
-        <v>56</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>21</v>
-      </c>
-      <c r="R9" t="n">
-        <v>8</v>
-      </c>
-      <c r="S9" t="n">
-        <v>19</v>
-      </c>
-      <c r="T9" t="n">
-        <v>12</v>
-      </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V9" t="n">
         <v>5</v>
       </c>
       <c r="W9" t="n">
+        <v>4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z9" t="n">
         <v>2</v>
       </c>
-      <c r="X9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>5</v>
-      </c>
       <c r="AA9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>61.1</v>
+        <v>50</v>
       </c>
       <c r="AD9" t="n">
         <v>57.1</v>
@@ -1512,112 +1512,112 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897674</v>
+        <v>897716</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897674.html</t>
+          <t>https://text.khl.ru/text/897716.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>23</v>
+      </c>
+      <c r="J10" t="n">
+        <v>41</v>
+      </c>
+      <c r="K10" t="n">
+        <v>64</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
         <v>4</v>
       </c>
-      <c r="I10" t="n">
-        <v>43</v>
-      </c>
-      <c r="J10" t="n">
-        <v>25</v>
-      </c>
-      <c r="K10" t="n">
-        <v>68</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6</v>
-      </c>
       <c r="P10" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="R10" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="U10" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V10" t="n">
         <v>2</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>48.2</v>
+        <v>34.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>72.7</v>
+        <v>59.5</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
@@ -1626,101 +1626,101 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.3</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897659</v>
+        <v>897710</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897659.html</t>
+          <t>https://text.khl.ru/text/897710.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K11" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>12</v>
       </c>
       <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>22</v>
+      </c>
+      <c r="R11" t="n">
+        <v>19</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7</v>
+      </c>
+      <c r="T11" t="n">
+        <v>14</v>
+      </c>
+      <c r="U11" t="n">
+        <v>27</v>
+      </c>
+      <c r="V11" t="n">
         <v>6</v>
       </c>
-      <c r="P11" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>29</v>
-      </c>
-      <c r="R11" t="n">
-        <v>18</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
         <v>9</v>
       </c>
-      <c r="T11" t="n">
-        <v>23</v>
-      </c>
-      <c r="U11" t="n">
-        <v>13</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>18</v>
-      </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>48.2</v>
+        <v>48.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>63.9</v>
+        <v>34.1</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1740,284 +1740,284 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897749</v>
+        <v>897754</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897749.html</t>
+          <t>https://text.khl.ru/text/897754.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J12" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K12" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
         <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q12" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="R12" t="n">
         <v>11</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="V12" t="n">
         <v>7</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>54.5</v>
+        <v>70.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>54.5</v>
+        <v>46.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897740</v>
+        <v>897721</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897740.html</t>
+          <t>https://text.khl.ru/text/897721.html</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>37</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16</v>
+      </c>
+      <c r="K13" t="n">
+        <v>53</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>14</v>
+      </c>
+      <c r="P13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>23</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17</v>
+      </c>
+      <c r="S13" t="n">
+        <v>21</v>
+      </c>
+      <c r="T13" t="n">
+        <v>16</v>
+      </c>
+      <c r="U13" t="n">
+        <v>29</v>
+      </c>
+      <c r="V13" t="n">
         <v>3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>29</v>
-      </c>
-      <c r="J13" t="n">
-        <v>31</v>
-      </c>
-      <c r="K13" t="n">
-        <v>60</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>24</v>
-      </c>
-      <c r="R13" t="n">
-        <v>12</v>
-      </c>
-      <c r="S13" t="n">
-        <v>11</v>
-      </c>
-      <c r="T13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>5</v>
       </c>
       <c r="W13" t="n">
         <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="n">
         <v>10</v>
       </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>55.6</v>
+        <v>55.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>83.3</v>
+        <v>35.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.4</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897731</v>
+        <v>897675</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897731.html</t>
+          <t>https://text.khl.ru/text/897675.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K14" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -2026,94 +2026,94 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P14" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q14" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="R14" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="T14" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="U14" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="V14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
         <v>5</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>45.6</v>
+        <v>49.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>61.3</v>
+        <v>48.4</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>0.75</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>20-10-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897722</v>
+        <v>897669</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897722.html</t>
+          <t>https://text.khl.ru/text/897669.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -2122,61 +2122,61 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
+        <v>31</v>
+      </c>
+      <c r="J15" t="n">
+        <v>22</v>
+      </c>
+      <c r="K15" t="n">
+        <v>53</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="n">
         <v>21</v>
       </c>
-      <c r="J15" t="n">
-        <v>30</v>
-      </c>
-      <c r="K15" t="n">
-        <v>51</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="R15" t="n">
+        <v>10</v>
+      </c>
+      <c r="S15" t="n">
+        <v>21</v>
+      </c>
+      <c r="T15" t="n">
+        <v>17</v>
+      </c>
+      <c r="U15" t="n">
+        <v>14</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
         <v>2</v>
       </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>8</v>
-      </c>
-      <c r="P15" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>29</v>
-      </c>
-      <c r="R15" t="n">
-        <v>18</v>
-      </c>
-      <c r="S15" t="n">
-        <v>11</v>
-      </c>
-      <c r="T15" t="n">
-        <v>10</v>
-      </c>
-      <c r="U15" t="n">
-        <v>6</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6</v>
-      </c>
-      <c r="X15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
       <c r="AA15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2184,227 +2184,227 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>53.2</v>
+        <v>56.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>62.5</v>
+        <v>54.8</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>14.3</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19-10-2025</t>
+          <t>18-10-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897667</v>
+        <v>897714</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897667.html</t>
+          <t>https://text.khl.ru/text/897714.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>35</v>
+      </c>
+      <c r="J16" t="n">
         <v>29</v>
       </c>
-      <c r="J16" t="n">
-        <v>46</v>
-      </c>
       <c r="K16" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>22</v>
+      </c>
+      <c r="R16" t="n">
+        <v>16</v>
+      </c>
+      <c r="S16" t="n">
+        <v>12</v>
+      </c>
+      <c r="T16" t="n">
+        <v>16</v>
+      </c>
+      <c r="U16" t="n">
+        <v>9</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4</v>
+      </c>
+      <c r="W16" t="n">
         <v>6</v>
       </c>
-      <c r="O16" t="n">
-        <v>4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>37</v>
-      </c>
-      <c r="R16" t="n">
-        <v>13</v>
-      </c>
-      <c r="S16" t="n">
-        <v>11</v>
-      </c>
-      <c r="T16" t="n">
-        <v>18</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>9</v>
-      </c>
       <c r="X16" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>46.4</v>
+        <v>60.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>94.7</v>
+        <v>64</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897751</v>
+        <v>897725</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897751.html</t>
+          <t>https://text.khl.ru/text/897725.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J17" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K17" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10</v>
+      </c>
+      <c r="P17" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>23</v>
+      </c>
+      <c r="R17" t="n">
         <v>12</v>
       </c>
-      <c r="O17" t="n">
-        <v>8</v>
-      </c>
-      <c r="P17" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>34</v>
-      </c>
-      <c r="R17" t="n">
-        <v>24</v>
-      </c>
       <c r="S17" t="n">
+        <v>22</v>
+      </c>
+      <c r="T17" t="n">
         <v>13</v>
       </c>
-      <c r="T17" t="n">
-        <v>12</v>
-      </c>
       <c r="U17" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="V17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Z17" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2412,341 +2412,341 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>43.3</v>
+        <v>57.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>54.5</v>
+        <v>32.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AG17" t="n">
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>11.5</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>19-10-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897688</v>
+        <v>897665</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897688.html</t>
+          <t>https://text.khl.ru/text/897665.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="P18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="Q18" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R18" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="S18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T18" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="U18" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V18" t="n">
         <v>5</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
         <v>13</v>
       </c>
-      <c r="Y18" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>47.5</v>
+        <v>52.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>57.1</v>
+        <v>46.2</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.7</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>16-10-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897682</v>
+        <v>897652</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897682.html</t>
+          <t>https://text.khl.ru/text/897652.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K19" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P19" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q19" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R19" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S19" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="T19" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC19" t="n">
         <v>50</v>
       </c>
       <c r="AD19" t="n">
-        <v>58.5</v>
+        <v>39.1</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.7</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21-10-2025</t>
+          <t>12-10-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897672</v>
+        <v>897638</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897672.html</t>
+          <t>https://text.khl.ru/text/897638.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26</v>
+      </c>
+      <c r="J20" t="n">
+        <v>23</v>
+      </c>
+      <c r="K20" t="n">
+        <v>49</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>32</v>
-      </c>
-      <c r="J20" t="n">
-        <v>27</v>
-      </c>
-      <c r="K20" t="n">
-        <v>59</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O20" t="n">
         <v>6</v>
       </c>
       <c r="P20" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R20" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T20" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="U20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2754,136 +2754,3550 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>57.9</v>
+        <v>53.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>40</v>
+        <v>44.7</v>
       </c>
       <c r="AE20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06-10-2025</t>
+          <t>10-10-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897616</v>
+        <v>897631</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897616.html</t>
+          <t>https://text.khl.ru/text/897631.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P21" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R21" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S21" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T21" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="U21" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="V21" t="n">
         <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
         <v>15</v>
       </c>
       <c r="Y21" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>897755</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897755.html</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>26</v>
+      </c>
+      <c r="J22" t="n">
+        <v>43</v>
+      </c>
+      <c r="K22" t="n">
+        <v>69</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>33</v>
+      </c>
+      <c r="R22" t="n">
+        <v>28</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>19</v>
+      </c>
+      <c r="U22" t="n">
+        <v>29</v>
+      </c>
+      <c r="V22" t="n">
+        <v>11</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>897748</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897748.html</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>31</v>
+      </c>
+      <c r="J23" t="n">
+        <v>30</v>
+      </c>
+      <c r="K23" t="n">
+        <v>61</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>27</v>
+      </c>
+      <c r="R23" t="n">
+        <v>20</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>9</v>
+      </c>
+      <c r="U23" t="n">
+        <v>12</v>
+      </c>
+      <c r="V23" t="n">
+        <v>3</v>
+      </c>
+      <c r="W23" t="n">
+        <v>4</v>
+      </c>
+      <c r="X23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>897664</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897664.html</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>34</v>
+      </c>
+      <c r="J24" t="n">
+        <v>33</v>
+      </c>
+      <c r="K24" t="n">
+        <v>67</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8</v>
+      </c>
+      <c r="P24" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>36</v>
+      </c>
+      <c r="R24" t="n">
+        <v>17</v>
+      </c>
+      <c r="S24" t="n">
+        <v>17</v>
+      </c>
+      <c r="T24" t="n">
+        <v>14</v>
+      </c>
+      <c r="U24" t="n">
+        <v>18</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y24" t="n">
         <v>21</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08-10-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>897624</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897624.html</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>30</v>
+      </c>
+      <c r="J25" t="n">
+        <v>36</v>
+      </c>
+      <c r="K25" t="n">
+        <v>66</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4</v>
+      </c>
+      <c r="P25" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>29</v>
+      </c>
+      <c r="R25" t="n">
+        <v>14</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>11</v>
+      </c>
+      <c r="U25" t="n">
+        <v>16</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>06-10-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>897618</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897618.html</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>29</v>
+      </c>
+      <c r="J26" t="n">
+        <v>31</v>
+      </c>
+      <c r="K26" t="n">
+        <v>60</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>31</v>
+      </c>
+      <c r="O26" t="n">
+        <v>12</v>
+      </c>
+      <c r="P26" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>35</v>
+      </c>
+      <c r="R26" t="n">
+        <v>15</v>
+      </c>
+      <c r="S26" t="n">
+        <v>14</v>
+      </c>
+      <c r="T26" t="n">
+        <v>15</v>
+      </c>
+      <c r="U26" t="n">
+        <v>35</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z26" t="n">
         <v>3</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>897756</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897756.html</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32</v>
+      </c>
+      <c r="J27" t="n">
+        <v>22</v>
+      </c>
+      <c r="K27" t="n">
+        <v>54</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>25</v>
+      </c>
+      <c r="R27" t="n">
+        <v>18</v>
+      </c>
+      <c r="S27" t="n">
+        <v>16</v>
+      </c>
+      <c r="T27" t="n">
+        <v>14</v>
+      </c>
+      <c r="U27" t="n">
+        <v>14</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>897721</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897721.html</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>16</v>
+      </c>
+      <c r="J28" t="n">
+        <v>37</v>
+      </c>
+      <c r="K28" t="n">
+        <v>53</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>14</v>
+      </c>
+      <c r="O28" t="n">
+        <v>4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>29</v>
+      </c>
+      <c r="R28" t="n">
+        <v>21</v>
+      </c>
+      <c r="S28" t="n">
+        <v>17</v>
+      </c>
+      <c r="T28" t="n">
+        <v>29</v>
+      </c>
+      <c r="U28" t="n">
+        <v>16</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>897713</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897713.html</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>18</v>
+      </c>
+      <c r="J29" t="n">
+        <v>39</v>
+      </c>
+      <c r="K29" t="n">
+        <v>57</v>
+      </c>
+      <c r="L29" t="n">
         <v>2</v>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>21</v>
+      </c>
+      <c r="O29" t="n">
+        <v>22</v>
+      </c>
+      <c r="P29" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>37</v>
+      </c>
+      <c r="R29" t="n">
+        <v>21</v>
+      </c>
+      <c r="S29" t="n">
+        <v>12</v>
+      </c>
+      <c r="T29" t="n">
+        <v>23</v>
+      </c>
+      <c r="U29" t="n">
+        <v>18</v>
+      </c>
+      <c r="V29" t="n">
+        <v>12</v>
+      </c>
+      <c r="W29" t="n">
+        <v>10</v>
+      </c>
+      <c r="X29" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>897705</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897705.html</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>23</v>
+      </c>
+      <c r="J30" t="n">
+        <v>32</v>
+      </c>
+      <c r="K30" t="n">
+        <v>55</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>29</v>
+      </c>
+      <c r="R30" t="n">
+        <v>16</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="n">
+        <v>19</v>
+      </c>
+      <c r="U30" t="n">
+        <v>10</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3</v>
+      </c>
+      <c r="W30" t="n">
+        <v>7</v>
+      </c>
+      <c r="X30" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>21-10-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897672</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897672.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>27</v>
+      </c>
+      <c r="J31" t="n">
+        <v>32</v>
+      </c>
+      <c r="K31" t="n">
+        <v>59</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8</v>
+      </c>
+      <c r="P31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>33</v>
+      </c>
+      <c r="R31" t="n">
+        <v>25</v>
+      </c>
+      <c r="S31" t="n">
+        <v>19</v>
+      </c>
+      <c r="T31" t="n">
+        <v>21</v>
+      </c>
+      <c r="U31" t="n">
+        <v>14</v>
+      </c>
+      <c r="V31" t="n">
+        <v>10</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2</v>
+      </c>
+      <c r="X31" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897752</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897752.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>46</v>
+      </c>
+      <c r="K32" t="n">
+        <v>71</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>6</v>
+      </c>
+      <c r="O32" t="n">
+        <v>10</v>
+      </c>
+      <c r="P32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>34</v>
+      </c>
+      <c r="R32" t="n">
+        <v>23</v>
+      </c>
+      <c r="S32" t="n">
+        <v>15</v>
+      </c>
+      <c r="T32" t="n">
+        <v>8</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB32" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AC21" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>64.90000000000001</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AC32" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
         <v>0.2</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="AG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897746</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897746.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>31</v>
+      </c>
+      <c r="K33" t="n">
+        <v>55</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>37</v>
+      </c>
+      <c r="R33" t="n">
+        <v>16</v>
+      </c>
+      <c r="S33" t="n">
+        <v>19</v>
+      </c>
+      <c r="T33" t="n">
+        <v>7</v>
+      </c>
+      <c r="U33" t="n">
+        <v>14</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897719</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897719.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>33</v>
+      </c>
+      <c r="J34" t="n">
+        <v>39</v>
+      </c>
+      <c r="K34" t="n">
+        <v>72</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>24</v>
+      </c>
+      <c r="R34" t="n">
+        <v>16</v>
+      </c>
+      <c r="S34" t="n">
+        <v>17</v>
+      </c>
+      <c r="T34" t="n">
+        <v>21</v>
+      </c>
+      <c r="U34" t="n">
+        <v>22</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897711</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897711.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+      <c r="I35" t="n">
+        <v>20</v>
+      </c>
+      <c r="J35" t="n">
+        <v>25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>45</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>8</v>
+      </c>
+      <c r="P35" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>22</v>
+      </c>
+      <c r="R35" t="n">
+        <v>15</v>
+      </c>
+      <c r="S35" t="n">
+        <v>14</v>
+      </c>
+      <c r="T35" t="n">
+        <v>16</v>
+      </c>
+      <c r="U35" t="n">
+        <v>17</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>8</v>
+      </c>
+      <c r="X35" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897704</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897704.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>27</v>
+      </c>
+      <c r="J36" t="n">
+        <v>40</v>
+      </c>
+      <c r="K36" t="n">
+        <v>67</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>26</v>
+      </c>
+      <c r="R36" t="n">
+        <v>15</v>
+      </c>
+      <c r="S36" t="n">
+        <v>9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>21</v>
+      </c>
+      <c r="U36" t="n">
+        <v>9</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897752</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897752.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>46</v>
+      </c>
+      <c r="J37" t="n">
+        <v>25</v>
+      </c>
+      <c r="K37" t="n">
+        <v>71</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>25</v>
+      </c>
+      <c r="R37" t="n">
+        <v>15</v>
+      </c>
+      <c r="S37" t="n">
+        <v>23</v>
+      </c>
+      <c r="T37" t="n">
+        <v>10</v>
+      </c>
+      <c r="U37" t="n">
+        <v>8</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897699</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897699.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>20</v>
+      </c>
+      <c r="J38" t="n">
+        <v>26</v>
+      </c>
+      <c r="K38" t="n">
+        <v>46</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>29</v>
+      </c>
+      <c r="R38" t="n">
+        <v>19</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15</v>
+      </c>
+      <c r="T38" t="n">
+        <v>16</v>
+      </c>
+      <c r="U38" t="n">
+        <v>11</v>
+      </c>
+      <c r="V38" t="n">
+        <v>5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG38" t="n">
         <v>0.67</v>
       </c>
-      <c r="AH21" t="n">
-        <v>2.9</v>
+      <c r="AH38" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897694</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897694.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>42</v>
+      </c>
+      <c r="J39" t="n">
+        <v>34</v>
+      </c>
+      <c r="K39" t="n">
+        <v>76</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>10</v>
+      </c>
+      <c r="P39" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>14</v>
+      </c>
+      <c r="S39" t="n">
+        <v>21</v>
+      </c>
+      <c r="T39" t="n">
+        <v>10</v>
+      </c>
+      <c r="U39" t="n">
+        <v>23</v>
+      </c>
+      <c r="V39" t="n">
+        <v>6</v>
+      </c>
+      <c r="W39" t="n">
+        <v>4</v>
+      </c>
+      <c r="X39" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>23-10-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897680</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897680.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>33</v>
+      </c>
+      <c r="J40" t="n">
+        <v>18</v>
+      </c>
+      <c r="K40" t="n">
+        <v>51</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>14</v>
+      </c>
+      <c r="O40" t="n">
+        <v>14</v>
+      </c>
+      <c r="P40" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>35</v>
+      </c>
+      <c r="R40" t="n">
+        <v>9</v>
+      </c>
+      <c r="S40" t="n">
+        <v>22</v>
+      </c>
+      <c r="T40" t="n">
+        <v>28</v>
+      </c>
+      <c r="U40" t="n">
+        <v>24</v>
+      </c>
+      <c r="V40" t="n">
+        <v>6</v>
+      </c>
+      <c r="W40" t="n">
+        <v>4</v>
+      </c>
+      <c r="X40" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>21-10-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897673</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897673.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>41</v>
+      </c>
+      <c r="J41" t="n">
+        <v>28</v>
+      </c>
+      <c r="K41" t="n">
+        <v>69</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>11</v>
+      </c>
+      <c r="O41" t="n">
+        <v>18</v>
+      </c>
+      <c r="P41" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>29</v>
+      </c>
+      <c r="R41" t="n">
+        <v>10</v>
+      </c>
+      <c r="S41" t="n">
+        <v>21</v>
+      </c>
+      <c r="T41" t="n">
+        <v>13</v>
+      </c>
+      <c r="U41" t="n">
+        <v>18</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3</v>
+      </c>
+      <c r="W41" t="n">
+        <v>6</v>
+      </c>
+      <c r="X41" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>897754</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897754.html</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>31</v>
+      </c>
+      <c r="J42" t="n">
+        <v>30</v>
+      </c>
+      <c r="K42" t="n">
+        <v>61</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>4</v>
+      </c>
+      <c r="P42" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>41</v>
+      </c>
+      <c r="R42" t="n">
+        <v>14</v>
+      </c>
+      <c r="S42" t="n">
+        <v>11</v>
+      </c>
+      <c r="T42" t="n">
+        <v>28</v>
+      </c>
+      <c r="U42" t="n">
+        <v>24</v>
+      </c>
+      <c r="V42" t="n">
+        <v>8</v>
+      </c>
+      <c r="W42" t="n">
+        <v>7</v>
+      </c>
+      <c r="X42" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>897710</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897710.html</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>40</v>
+      </c>
+      <c r="J43" t="n">
+        <v>27</v>
+      </c>
+      <c r="K43" t="n">
+        <v>67</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8</v>
+      </c>
+      <c r="O43" t="n">
+        <v>12</v>
+      </c>
+      <c r="P43" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>21</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7</v>
+      </c>
+      <c r="S43" t="n">
+        <v>19</v>
+      </c>
+      <c r="T43" t="n">
+        <v>27</v>
+      </c>
+      <c r="U43" t="n">
+        <v>14</v>
+      </c>
+      <c r="V43" t="n">
+        <v>8</v>
+      </c>
+      <c r="W43" t="n">
+        <v>6</v>
+      </c>
+      <c r="X43" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>897692</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897692.html</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>27</v>
+      </c>
+      <c r="J44" t="n">
+        <v>47</v>
+      </c>
+      <c r="K44" t="n">
+        <v>74</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6</v>
+      </c>
+      <c r="O44" t="n">
+        <v>6</v>
+      </c>
+      <c r="P44" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>28</v>
+      </c>
+      <c r="R44" t="n">
+        <v>17</v>
+      </c>
+      <c r="S44" t="n">
+        <v>7</v>
+      </c>
+      <c r="T44" t="n">
+        <v>13</v>
+      </c>
+      <c r="U44" t="n">
+        <v>17</v>
+      </c>
+      <c r="V44" t="n">
+        <v>9</v>
+      </c>
+      <c r="W44" t="n">
+        <v>5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>19-10-2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>897668</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897668.html</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>36</v>
+      </c>
+      <c r="J45" t="n">
+        <v>22</v>
+      </c>
+      <c r="K45" t="n">
+        <v>58</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4</v>
+      </c>
+      <c r="P45" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>19</v>
+      </c>
+      <c r="R45" t="n">
+        <v>12</v>
+      </c>
+      <c r="S45" t="n">
+        <v>14</v>
+      </c>
+      <c r="T45" t="n">
+        <v>30</v>
+      </c>
+      <c r="U45" t="n">
+        <v>24</v>
+      </c>
+      <c r="V45" t="n">
+        <v>8</v>
+      </c>
+      <c r="W45" t="n">
+        <v>9</v>
+      </c>
+      <c r="X45" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>58.7</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>17-10-2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>897660</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897660.html</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>32</v>
+      </c>
+      <c r="J46" t="n">
+        <v>21</v>
+      </c>
+      <c r="K46" t="n">
+        <v>53</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>15</v>
+      </c>
+      <c r="R46" t="n">
+        <v>11</v>
+      </c>
+      <c r="S46" t="n">
+        <v>16</v>
+      </c>
+      <c r="T46" t="n">
+        <v>20</v>
+      </c>
+      <c r="U46" t="n">
+        <v>28</v>
+      </c>
+      <c r="V46" t="n">
+        <v>8</v>
+      </c>
+      <c r="W46" t="n">
+        <v>7</v>
+      </c>
+      <c r="X46" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>897757</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897757.html</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>40</v>
+      </c>
+      <c r="J47" t="n">
+        <v>29</v>
+      </c>
+      <c r="K47" t="n">
+        <v>69</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>10</v>
+      </c>
+      <c r="P47" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>28</v>
+      </c>
+      <c r="R47" t="n">
+        <v>15</v>
+      </c>
+      <c r="S47" t="n">
+        <v>15</v>
+      </c>
+      <c r="T47" t="n">
+        <v>6</v>
+      </c>
+      <c r="U47" t="n">
+        <v>16</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2</v>
+      </c>
+      <c r="X47" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC47" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>897698</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897698.html</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>41</v>
+      </c>
+      <c r="K48" t="n">
+        <v>59</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>36</v>
+      </c>
+      <c r="R48" t="n">
+        <v>17</v>
+      </c>
+      <c r="S48" t="n">
+        <v>22</v>
+      </c>
+      <c r="T48" t="n">
+        <v>20</v>
+      </c>
+      <c r="U48" t="n">
+        <v>17</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC48" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>897694</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897694.html</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>34</v>
+      </c>
+      <c r="J49" t="n">
+        <v>42</v>
+      </c>
+      <c r="K49" t="n">
+        <v>76</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10</v>
+      </c>
+      <c r="O49" t="n">
+        <v>6</v>
+      </c>
+      <c r="P49" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>31</v>
+      </c>
+      <c r="R49" t="n">
+        <v>21</v>
+      </c>
+      <c r="S49" t="n">
+        <v>14</v>
+      </c>
+      <c r="T49" t="n">
+        <v>23</v>
+      </c>
+      <c r="U49" t="n">
+        <v>10</v>
+      </c>
+      <c r="V49" t="n">
+        <v>4</v>
+      </c>
+      <c r="W49" t="n">
+        <v>6</v>
+      </c>
+      <c r="X49" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>24-10-2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>897685</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897685.html</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+      <c r="I50" t="n">
+        <v>26</v>
+      </c>
+      <c r="J50" t="n">
+        <v>40</v>
+      </c>
+      <c r="K50" t="n">
+        <v>66</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>6</v>
+      </c>
+      <c r="O50" t="n">
+        <v>8</v>
+      </c>
+      <c r="P50" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>26</v>
+      </c>
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
+      <c r="S50" t="n">
+        <v>16</v>
+      </c>
+      <c r="T50" t="n">
+        <v>36</v>
+      </c>
+      <c r="U50" t="n">
+        <v>11</v>
+      </c>
+      <c r="V50" t="n">
+        <v>4</v>
+      </c>
+      <c r="W50" t="n">
+        <v>7</v>
+      </c>
+      <c r="X50" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>09-10-2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>897629</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897629.html</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>23</v>
+      </c>
+      <c r="J51" t="n">
+        <v>44</v>
+      </c>
+      <c r="K51" t="n">
+        <v>67</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>4</v>
+      </c>
+      <c r="P51" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>26</v>
+      </c>
+      <c r="R51" t="n">
+        <v>16</v>
+      </c>
+      <c r="S51" t="n">
+        <v>13</v>
+      </c>
+      <c r="T51" t="n">
+        <v>19</v>
+      </c>
+      <c r="U51" t="n">
+        <v>9</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>3</v>
+      </c>
+      <c r="X51" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC51" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +6311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3050,353 +6464,881 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>166.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>87.20000000000002</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.94</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-2.499999999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.03400000000000001</v>
+      </c>
+      <c r="U2" t="n">
         <v>3.4</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G2" t="n">
-        <v>32</v>
-      </c>
-      <c r="H2" t="n">
-        <v>109</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="J2" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>43.66</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-0.7799999999999997</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="V2" t="n">
         <v>0.1</v>
       </c>
-      <c r="R2" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.05100000000000001</v>
-      </c>
-      <c r="U2" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.76</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.62</v>
+        <v>-0.3099999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="H3" t="n">
-        <v>13.5</v>
+        <v>23.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
-        <v>25.4</v>
+        <v>42.6</v>
       </c>
       <c r="K3" t="n">
-        <v>18.8</v>
+        <v>58.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="M3" t="n">
-        <v>15.2</v>
+        <v>17.6</v>
       </c>
       <c r="N3" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="O3" t="n">
-        <v>50.11999999999999</v>
+        <v>44</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.5199999999999996</v>
+        <v>-0.3600000000000009</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8160000000000001</v>
+        <v>0.836</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01599999999999999</v>
+        <v>-0.091</v>
       </c>
       <c r="U3" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1.4</v>
+        <v>-0.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.48</v>
+        <v>11.94</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.95</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="H4" t="n">
-        <v>52.8</v>
+        <v>38.2</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.6</v>
+        <v>0.4</v>
       </c>
       <c r="J4" t="n">
-        <v>38.4</v>
+        <v>24</v>
       </c>
       <c r="K4" t="n">
-        <v>60.3</v>
+        <v>36.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="M4" t="n">
-        <v>11.6</v>
+        <v>20.6</v>
       </c>
       <c r="N4" t="n">
-        <v>2.899999999999999</v>
+        <v>-1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>51.06</v>
+        <v>58.5</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.86</v>
+        <v>-1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.384</v>
+        <v>0.028</v>
       </c>
       <c r="R4" t="n">
-        <v>0.025</v>
+        <v>-0.014</v>
       </c>
       <c r="S4" t="n">
-        <v>0.784</v>
+        <v>0.9</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.017</v>
+        <v>-0.05</v>
       </c>
       <c r="U4" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.3</v>
+        <v>-2.7</v>
       </c>
       <c r="W4" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.199999999999999</v>
+        <v>6.48</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6500000000000001</v>
+        <v>0.9499999999999998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.6800000000000004</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.05100000000000001</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.150000000000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.05900000000000001</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.005000000000000004</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>5.200000000000001</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.01999999999999984</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>44.52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>11</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>46.44</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1966666666666667</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.002000000000000007</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.4199999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>52.04</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.4300000000000012</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.06600000000000002</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>3.2</v>
       </c>
-      <c r="E5" t="n">
+      <c r="D10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>52.17999999999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10.26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.4099999999999998</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E11" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>32</v>
-      </c>
-      <c r="H5" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="M5" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>50.28000000000001</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.920000000000001</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.884</v>
-      </c>
-      <c r="T5" t="n">
-        <v>-0.091</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="F11" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>77.19999999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>50.16</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.169999999999999</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.008000000000000002</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y11" t="n">
         <v>6.8</v>
       </c>
-      <c r="Z5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>-1.87</v>
+      <c r="Z11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-1.73</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -614,39 +614,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897755</v>
+        <v>897753</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897755.html</t>
+          <t>https://text.khl.ru/text/897753.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -655,57 +655,57 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
         <v>33</v>
       </c>
       <c r="Q2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="R2" t="n">
+        <v>17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>41</v>
+      </c>
+      <c r="U2" t="n">
+        <v>30</v>
+      </c>
+      <c r="V2" t="n">
         <v>4</v>
       </c>
-      <c r="S2" t="n">
-        <v>28</v>
-      </c>
-      <c r="T2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U2" t="n">
-        <v>19</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
       <c r="W2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="n">
         <v>3</v>
       </c>
-      <c r="AA2" t="n">
-        <v>5</v>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>54.1</v>
+        <v>47.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>60.4</v>
+        <v>57.7</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -717,132 +717,132 @@
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897718</v>
+        <v>897741</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897718.html</t>
+          <t>https://text.khl.ru/text/897741.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J3" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K3" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>6</v>
       </c>
       <c r="P3" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="n">
         <v>30</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
+        <v>21</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>28</v>
+      </c>
+      <c r="U3" t="n">
         <v>20</v>
       </c>
-      <c r="R3" t="n">
-        <v>12</v>
-      </c>
-      <c r="S3" t="n">
-        <v>22</v>
-      </c>
-      <c r="T3" t="n">
-        <v>27</v>
-      </c>
-      <c r="U3" t="n">
-        <v>16</v>
-      </c>
       <c r="V3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="n">
         <v>4</v>
       </c>
-      <c r="X3" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>60</v>
+        <v>47.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>62.8</v>
+        <v>58.3</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -851,33 +851,33 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897707</v>
+        <v>897695</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897707.html</t>
+          <t>https://text.khl.ru/text/897695.html</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K4" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -886,43 +886,43 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>31</v>
       </c>
       <c r="Q4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="R4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="S4" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="T4" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="U4" t="n">
+        <v>34</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4</v>
+      </c>
+      <c r="X4" t="n">
         <v>18</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Y4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" t="n">
         <v>3</v>
       </c>
-      <c r="W4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2</v>
-      </c>
       <c r="AA4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -930,46 +930,46 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>54.4</v>
+        <v>43.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>58.1</v>
+        <v>35.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>13.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>25-10-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897696</v>
+        <v>897689</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897696.html</t>
+          <t>https://text.khl.ru/text/897689.html</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -979,87 +979,87 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
         <v>28</v>
       </c>
       <c r="K5" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>28</v>
+      </c>
+      <c r="R5" t="n">
         <v>14</v>
       </c>
-      <c r="O5" t="n">
-        <v>8</v>
-      </c>
-      <c r="P5" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>18</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6</v>
-      </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T5" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="U5" t="n">
+        <v>20</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
         <v>16</v>
       </c>
-      <c r="V5" t="n">
-        <v>4</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="n">
         <v>5</v>
       </c>
-      <c r="X5" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>4</v>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>71</v>
+        <v>46.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>51.5</v>
+        <v>58.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AH5" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
@@ -1070,156 +1070,156 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897681</v>
+        <v>897683</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897681.html</t>
+          <t>https://text.khl.ru/text/897683.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="K6" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P6" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="n">
         <v>26</v>
       </c>
-      <c r="Q6" t="n">
-        <v>24</v>
-      </c>
       <c r="R6" t="n">
+        <v>26</v>
+      </c>
+      <c r="S6" t="n">
         <v>7</v>
       </c>
-      <c r="S6" t="n">
-        <v>13</v>
-      </c>
       <c r="T6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U6" t="n">
+        <v>17</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
         <v>3</v>
       </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1</v>
-      </c>
       <c r="X6" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>52</v>
+        <v>58.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>90</v>
+        <v>57.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AH6" t="n">
-        <v>13.6</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897716</v>
+        <v>897758</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897716.html</t>
+          <t>https://text.khl.ru/text/897758.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K7" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1228,43 +1228,43 @@
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Z7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1272,113 +1272,113 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>65.5</v>
+        <v>53.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897706</v>
+        <v>897744</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897706.html</t>
+          <t>https://text.khl.ru/text/897744.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K8" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="Q8" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="R8" t="n">
         <v>19</v>
       </c>
       <c r="S8" t="n">
+        <v>11</v>
+      </c>
+      <c r="T8" t="n">
         <v>9</v>
       </c>
-      <c r="T8" t="n">
-        <v>18</v>
-      </c>
       <c r="U8" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1386,113 +1386,110 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>67.2</v>
+        <v>39.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>62.1</v>
+        <v>23.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>14.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897697</v>
+        <v>897739</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897697.html</t>
+          <t>https://text.khl.ru/text/897739.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K9" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>26</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>14</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10</v>
+      </c>
+      <c r="U9" t="n">
         <v>33</v>
       </c>
-      <c r="Q9" t="n">
-        <v>34</v>
-      </c>
-      <c r="R9" t="n">
-        <v>15</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="V9" t="n">
+        <v>8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>10</v>
+      </c>
+      <c r="X9" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y9" t="n">
         <v>24</v>
-      </c>
-      <c r="T9" t="n">
-        <v>16</v>
-      </c>
-      <c r="U9" t="n">
-        <v>14</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6</v>
-      </c>
-      <c r="X9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>12</v>
       </c>
       <c r="Z9" t="n">
         <v>4</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1500,110 +1497,110 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>49.3</v>
+        <v>52.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>53.3</v>
+        <v>23.3</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>23-10-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897690</v>
+        <v>897681</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897690.html</t>
+          <t>https://text.khl.ru/text/897681.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
+        <v>22</v>
+      </c>
+      <c r="K10" t="n">
+        <v>49</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>8</v>
+      </c>
+      <c r="P10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>26</v>
+      </c>
+      <c r="R10" t="n">
+        <v>13</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
         <v>27</v>
       </c>
-      <c r="K10" t="n">
-        <v>67</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="n">
-        <v>12</v>
-      </c>
-      <c r="O10" t="n">
-        <v>22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>23</v>
-      </c>
-      <c r="R10" t="n">
-        <v>16</v>
-      </c>
-      <c r="S10" t="n">
-        <v>14</v>
-      </c>
-      <c r="T10" t="n">
-        <v>21</v>
-      </c>
-      <c r="U10" t="n">
-        <v>10</v>
-      </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
@@ -1614,110 +1611,110 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>52.1</v>
+        <v>48</v>
       </c>
       <c r="AD10" t="n">
-        <v>67.7</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>12.5</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>22-10-2025</t>
+          <t>21-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897675</v>
+        <v>897674</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897675.html</t>
+          <t>https://text.khl.ru/text/897674.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K11" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="n">
         <v>27</v>
       </c>
-      <c r="Q11" t="n">
-        <v>26</v>
-      </c>
       <c r="R11" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="S11" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="T11" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W11" t="n">
         <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
         <v>5</v>
@@ -1728,238 +1725,238 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>50.9</v>
+        <v>51.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>51.6</v>
+        <v>27.3</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>04-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897726</v>
+        <v>897762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897726.html</t>
+          <t>https://text.khl.ru/text/897762.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K12" t="n">
         <v>59</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="P12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="R12" t="n">
         <v>19</v>
       </c>
       <c r="S12" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="T12" t="n">
+        <v>21</v>
+      </c>
+      <c r="U12" t="n">
         <v>17</v>
       </c>
-      <c r="U12" t="n">
-        <v>19</v>
-      </c>
       <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
         <v>3</v>
       </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>50</v>
+        <v>41.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>47.2</v>
+        <v>55.3</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30-10-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897708</v>
+        <v>897752</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897708.html</t>
+          <t>https://text.khl.ru/text/897752.html</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P13" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="R13" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="T13" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V13" t="n">
         <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA13" t="n">
         <v>6</v>
       </c>
-      <c r="Y13" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>9</v>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>50</v>
+        <v>57.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>93.3</v>
+        <v>55.6</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1968,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH13" t="n">
-        <v>21.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1982,195 +1979,195 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897701</v>
+        <v>897699</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897701.html</t>
+          <t>https://text.khl.ru/text/897699.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
+        <v>26</v>
+      </c>
+      <c r="K14" t="n">
+        <v>46</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>29</v>
+      </c>
+      <c r="R14" t="n">
+        <v>19</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15</v>
+      </c>
+      <c r="T14" t="n">
+        <v>16</v>
+      </c>
+      <c r="U14" t="n">
+        <v>11</v>
+      </c>
+      <c r="V14" t="n">
         <v>5</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22</v>
-      </c>
-      <c r="J14" t="n">
-        <v>28</v>
-      </c>
-      <c r="K14" t="n">
-        <v>50</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>40</v>
-      </c>
-      <c r="O14" t="n">
-        <v>8</v>
-      </c>
-      <c r="P14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>20</v>
-      </c>
-      <c r="R14" t="n">
-        <v>7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>8</v>
-      </c>
-      <c r="T14" t="n">
-        <v>20</v>
-      </c>
-      <c r="U14" t="n">
-        <v>29</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1</v>
-      </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Y14" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Z14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AE14" t="n">
         <v>3</v>
       </c>
-      <c r="AA14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC14" t="n">
-        <v>59.2</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH14" t="n">
-        <v>22.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897680</v>
+        <v>897694</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897680.html</t>
+          <t>https://text.khl.ru/text/897694.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>37</v>
+      </c>
+      <c r="R15" t="n">
         <v>14</v>
       </c>
-      <c r="O15" t="n">
-        <v>14</v>
-      </c>
-      <c r="P15" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>27</v>
-      </c>
-      <c r="R15" t="n">
-        <v>22</v>
-      </c>
       <c r="S15" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="T15" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="U15" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V15" t="n">
+        <v>6</v>
+      </c>
+      <c r="W15" t="n">
         <v>4</v>
       </c>
-      <c r="W15" t="n">
-        <v>6</v>
-      </c>
       <c r="X15" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y15" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
         <v>2</v>
@@ -2184,110 +2181,110 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>56.5</v>
+        <v>45.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>46.2</v>
+        <v>30.3</v>
       </c>
       <c r="AE15" t="n">
         <v>2</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH15" t="n">
-        <v>27.8</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16-10-2025</t>
+          <t>23-10-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Динамо М</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Драконы</t>
-        </is>
-      </c>
       <c r="D16" t="n">
-        <v>897653</v>
+        <v>897680</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897653.html</t>
+          <t>https://text.khl.ru/text/897680.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J16" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K16" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
+        <v>14</v>
+      </c>
+      <c r="O16" t="n">
+        <v>14</v>
+      </c>
+      <c r="P16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>35</v>
+      </c>
+      <c r="R16" t="n">
+        <v>9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>22</v>
+      </c>
+      <c r="T16" t="n">
+        <v>28</v>
+      </c>
+      <c r="U16" t="n">
+        <v>24</v>
+      </c>
+      <c r="V16" t="n">
+        <v>6</v>
+      </c>
+      <c r="W16" t="n">
         <v>4</v>
       </c>
-      <c r="O16" t="n">
-        <v>4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="X16" t="n">
         <v>26</v>
       </c>
-      <c r="R16" t="n">
-        <v>17</v>
-      </c>
-      <c r="S16" t="n">
-        <v>24</v>
-      </c>
-      <c r="T16" t="n">
-        <v>34</v>
-      </c>
-      <c r="U16" t="n">
-        <v>25</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2</v>
-      </c>
-      <c r="X16" t="n">
-        <v>30</v>
-      </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="Z16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
         <v>2</v>
@@ -2298,65 +2295,65 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>54.4</v>
+        <v>43.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>57.6</v>
+        <v>53.8</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AH16" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897760</v>
+        <v>897724</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897760.html</t>
+          <t>https://text.khl.ru/text/897724.html</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J17" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K17" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2371,51 +2368,51 @@
         <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="S17" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="U17" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z17" t="n">
         <v>4</v>
       </c>
-      <c r="X17" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>12</v>
-      </c>
       <c r="AA17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>40</v>
+        <v>54.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>53.8</v>
+        <v>42.9</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2427,50 +2424,50 @@
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897751</v>
+        <v>897715</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897751.html</t>
+          <t>https://text.khl.ru/text/897715.html</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J18" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K18" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -2479,160 +2476,160 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="R18" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="S18" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="T18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U18" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="V18" t="n">
         <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Z18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>43.3</v>
+        <v>52.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>54.5</v>
+        <v>40.7</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897688</v>
+        <v>897699</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897688.html</t>
+          <t>https://text.khl.ru/text/897699.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J19" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K19" t="n">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R19" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="S19" t="n">
+        <v>19</v>
+      </c>
+      <c r="T19" t="n">
+        <v>11</v>
+      </c>
+      <c r="U19" t="n">
         <v>16</v>
-      </c>
-      <c r="T19" t="n">
-        <v>24</v>
-      </c>
-      <c r="U19" t="n">
-        <v>18</v>
       </c>
       <c r="V19" t="n">
         <v>5</v>
       </c>
       <c r="W19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2640,19 +2637,19 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>47.5</v>
+        <v>46.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>57.1</v>
+        <v>40.7</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AH19" t="n">
         <v>7.7</v>
@@ -2661,71 +2658,71 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897682</v>
+        <v>897676</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897682.html</t>
+          <t>https://text.khl.ru/text/897676.html</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
       <c r="I20" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J20" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K20" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P20" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T20" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="U20" t="n">
         <v>17</v>
@@ -2737,153 +2734,153 @@
         <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
         <v>2</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>50</v>
+        <v>44.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>58.5</v>
+        <v>54.1</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>10.7</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21-10-2025</t>
+          <t>17-10-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897672</v>
+        <v>897660</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897672.html</t>
+          <t>https://text.khl.ru/text/897660.html</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>21</v>
+      </c>
+      <c r="J21" t="n">
         <v>32</v>
       </c>
-      <c r="J21" t="n">
-        <v>27</v>
-      </c>
       <c r="K21" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>38</v>
+      </c>
+      <c r="R21" t="n">
+        <v>16</v>
+      </c>
+      <c r="S21" t="n">
+        <v>11</v>
+      </c>
+      <c r="T21" t="n">
+        <v>28</v>
+      </c>
+      <c r="U21" t="n">
+        <v>20</v>
+      </c>
+      <c r="V21" t="n">
+        <v>7</v>
+      </c>
+      <c r="W21" t="n">
         <v>8</v>
       </c>
-      <c r="O21" t="n">
+      <c r="X21" t="n">
         <v>6</v>
       </c>
-      <c r="P21" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>24</v>
-      </c>
-      <c r="R21" t="n">
-        <v>19</v>
-      </c>
-      <c r="S21" t="n">
-        <v>25</v>
-      </c>
-      <c r="T21" t="n">
+      <c r="Y21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z21" t="n">
         <v>14</v>
       </c>
-      <c r="U21" t="n">
-        <v>21</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>10</v>
-      </c>
-      <c r="X21" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>4</v>
       </c>
-      <c r="AA21" t="n">
-        <v>16</v>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>57.9</v>
+        <v>28.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>40</v>
+        <v>58.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>
@@ -3050,183 +3047,183 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>86.19999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>48.52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.940000000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0.9</v>
       </c>
-      <c r="G2" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>79.30000000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-3.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>25</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.6799999999999997</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.266</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.8719999999999999</v>
-      </c>
       <c r="T2" t="n">
-        <v>-0.06900000000000001</v>
+        <v>-0.08299999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="W2" t="n">
-        <v>10.8</v>
+        <v>12.2</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.2</v>
+        <v>-1.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.9</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.08</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K3" t="n">
+        <v>111</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.4299999999999997</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.2833333333333333</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W3" t="n">
         <v>3.2</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.5000000000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>31</v>
-      </c>
-      <c r="H3" t="n">
-        <v>78.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>41.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>57</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-4.430000000000001</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.9339999999999999</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.03299999999999999</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7.2</v>
-      </c>
       <c r="X3" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>10.22</v>
+        <v>11.08</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.79</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3236,167 +3233,167 @@
         <v>3.4</v>
       </c>
       <c r="D4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.8</v>
       </c>
-      <c r="E4" t="n">
+      <c r="J4" t="n">
+        <v>27</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>48.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.8799999999999997</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.02000000000000001</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.07100000000000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="X4" t="n">
         <v>0.2</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>54.02</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.158</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.129</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>-0.6</v>
-      </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>12.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.46</v>
+        <v>10.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.4800000000000004</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="G5" t="n">
-        <v>32.2</v>
+        <v>25.2</v>
       </c>
       <c r="H5" t="n">
-        <v>29.2</v>
+        <v>33.7</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J5" t="n">
-        <v>31.6</v>
+        <v>24.4</v>
       </c>
       <c r="K5" t="n">
-        <v>36.3</v>
+        <v>20.3</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.8</v>
+        <v>1.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>47.74</v>
+        <v>45.34</v>
       </c>
       <c r="P5" t="n">
-        <v>4.25</v>
+        <v>-5.970000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.182</v>
+        <v>0.166</v>
       </c>
       <c r="R5" t="n">
-        <v>0.074</v>
+        <v>-0.05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.95</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="U5" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>-1.3</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>12.2</v>
+        <v>4.8</v>
       </c>
       <c r="X5" t="n">
-        <v>1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
         <v>-0.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>8.34</v>
+        <v>6.959999999999999</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.04000000000000004</v>
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,92 +609,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897753</v>
+        <v>897712</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897753.html</t>
+          <t>https://text.khl.ru/text/897712.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q2" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="T2" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -702,124 +702,124 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>47.8</v>
+        <v>43.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>57.7</v>
+        <v>52.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897741</v>
+        <v>897707</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897741.html</t>
+          <t>https://text.khl.ru/text/897707.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R3" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="T3" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="U3" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Z3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="n">
         <v>2</v>
       </c>
-      <c r="AA3" t="n">
-        <v>4</v>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>47.4</v>
+        <v>45.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>58.3</v>
+        <v>41.9</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="4">
@@ -842,12 +842,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Нефтехимик</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Барыс</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -859,19 +859,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
       <c r="I4" t="n">
+        <v>32</v>
+      </c>
+      <c r="J4" t="n">
         <v>34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32</v>
       </c>
       <c r="K4" t="n">
         <v>66</v>
@@ -883,57 +883,57 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
         <v>6</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>31</v>
+      </c>
+      <c r="R4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" t="n">
+        <v>27</v>
+      </c>
+      <c r="T4" t="n">
+        <v>34</v>
+      </c>
+      <c r="U4" t="n">
+        <v>19</v>
+      </c>
+      <c r="V4" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>41</v>
-      </c>
-      <c r="R4" t="n">
-        <v>27</v>
-      </c>
-      <c r="S4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T4" t="n">
-        <v>19</v>
-      </c>
-      <c r="U4" t="n">
-        <v>34</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>5</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="n">
         <v>4</v>
       </c>
-      <c r="X4" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>3</v>
       </c>
-      <c r="AA4" t="n">
-        <v>4</v>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>43.1</v>
+        <v>56.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>35.8</v>
+        <v>64.2</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -945,98 +945,98 @@
         <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.800000000000001</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>09-10-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897689</v>
+        <v>897628</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897689.html</t>
+          <t>https://text.khl.ru/text/897628.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J5" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K5" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
         <v>12</v>
       </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
       <c r="P5" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="S5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T5" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="U5" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="V5" t="n">
         <v>5</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1044,124 +1044,124 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>46.2</v>
+        <v>47.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>58.3</v>
+        <v>40.9</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>07-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897683</v>
+        <v>897621</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897683.html</t>
+          <t>https://text.khl.ru/text/897621.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
+        <v>37</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28</v>
+      </c>
+      <c r="K6" t="n">
+        <v>65</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>38</v>
+      </c>
+      <c r="R6" t="n">
+        <v>24</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="n">
+        <v>19</v>
+      </c>
+      <c r="U6" t="n">
         <v>23</v>
       </c>
-      <c r="J6" t="n">
-        <v>41</v>
-      </c>
-      <c r="K6" t="n">
-        <v>64</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA6" t="n">
         <v>2</v>
       </c>
-      <c r="N6" t="n">
-        <v>12</v>
-      </c>
-      <c r="O6" t="n">
-        <v>16</v>
-      </c>
-      <c r="P6" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>26</v>
-      </c>
-      <c r="R6" t="n">
-        <v>26</v>
-      </c>
-      <c r="S6" t="n">
-        <v>7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>23</v>
-      </c>
-      <c r="U6" t="n">
-        <v>17</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3</v>
-      </c>
-      <c r="X6" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>3</v>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>58.1</v>
+        <v>32.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>57.5</v>
+        <v>45.2</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1170,185 +1170,185 @@
         <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>21.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897758</v>
+        <v>897768</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897758.html</t>
+          <t>https://text.khl.ru/text/897768.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27</v>
+      </c>
+      <c r="J7" t="n">
+        <v>33</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>34</v>
-      </c>
-      <c r="J7" t="n">
-        <v>27</v>
-      </c>
-      <c r="K7" t="n">
-        <v>61</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>4</v>
-      </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P7" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="R7" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S7" t="n">
+        <v>8</v>
+      </c>
+      <c r="T7" t="n">
         <v>20</v>
       </c>
-      <c r="T7" t="n">
-        <v>6</v>
-      </c>
       <c r="U7" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="n">
         <v>2</v>
       </c>
-      <c r="AA7" t="n">
-        <v>7</v>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>53.8</v>
+        <v>40.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>30</v>
+        <v>47.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>04-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897744</v>
+        <v>897726</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897744.html</t>
+          <t>https://text.khl.ru/text/897726.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>36</v>
       </c>
       <c r="J8" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K8" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P8" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q8" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="R8" t="n">
         <v>19</v>
@@ -1357,28 +1357,28 @@
         <v>11</v>
       </c>
       <c r="T8" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="U8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1386,10 +1386,10 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>39.7</v>
+        <v>50</v>
       </c>
       <c r="AD8" t="n">
-        <v>23.7</v>
+        <v>47.2</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1397,213 +1397,216 @@
       <c r="AF8" t="n">
         <v>0</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="AH8" t="n">
-        <v>11.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Северсталь</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ХК Сочи</t>
-        </is>
-      </c>
       <c r="D9" t="n">
-        <v>897739</v>
+        <v>897708</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897739.html</t>
+          <t>https://text.khl.ru/text/897708.html</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>28</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>28</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3</v>
+      </c>
+      <c r="W9" t="n">
         <v>5</v>
       </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>37</v>
-      </c>
-      <c r="J9" t="n">
-        <v>19</v>
-      </c>
-      <c r="K9" t="n">
-        <v>56</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>8</v>
-      </c>
-      <c r="P9" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>26</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="X9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA9" t="n">
         <v>9</v>
       </c>
-      <c r="S9" t="n">
-        <v>14</v>
-      </c>
-      <c r="T9" t="n">
-        <v>10</v>
-      </c>
-      <c r="U9" t="n">
-        <v>33</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>10</v>
-      </c>
-      <c r="X9" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>4</v>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>52.7</v>
+        <v>50</v>
       </c>
       <c r="AD9" t="n">
-        <v>23.3</v>
+        <v>93.3</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>13.5</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897681</v>
+        <v>897701</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897681.html</t>
+          <t>https://text.khl.ru/text/897701.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K10" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="O10" t="n">
         <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="U10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
         <v>33</v>
       </c>
       <c r="Y10" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1611,113 +1614,113 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>48</v>
+        <v>59.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>40.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>14.8</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21-10-2025</t>
+          <t>23-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897674</v>
+        <v>897680</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897674.html</t>
+          <t>https://text.khl.ru/text/897680.html</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J11" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K11" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P11" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="Q11" t="n">
         <v>27</v>
       </c>
       <c r="R11" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="S11" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T11" t="n">
+        <v>24</v>
+      </c>
+      <c r="U11" t="n">
+        <v>28</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
         <v>6</v>
       </c>
-      <c r="U11" t="n">
-        <v>16</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
+        <v>43</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z11" t="n">
         <v>2</v>
       </c>
-      <c r="X11" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>7</v>
-      </c>
       <c r="AA11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1725,455 +1728,449 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>51.8</v>
+        <v>56.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>27.3</v>
+        <v>46.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AG11" t="n">
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897762</v>
+        <v>897759</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="R12" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="S12" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T12" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U12" t="n">
         <v>17</v>
       </c>
       <c r="V12" t="n">
+        <v>4</v>
+      </c>
+      <c r="W12" t="n">
         <v>2</v>
       </c>
-      <c r="W12" t="n">
-        <v>3</v>
-      </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA12" t="n">
         <v>4</v>
       </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>41.9</v>
+        <v>45.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>55.3</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.1</v>
+        <v>48.5</v>
       </c>
       <c r="AG12" t="n">
         <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897752</v>
+        <v>897730</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897752.html</t>
+          <t>https://text.khl.ru/text/897730.html</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J13" t="n">
+        <v>39</v>
+      </c>
+      <c r="K13" t="n">
+        <v>64</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>16</v>
+      </c>
+      <c r="O13" t="n">
+        <v>14</v>
+      </c>
+      <c r="P13" t="n">
         <v>25</v>
       </c>
-      <c r="K13" t="n">
-        <v>71</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
+        <v>34</v>
+      </c>
+      <c r="R13" t="n">
+        <v>16</v>
+      </c>
+      <c r="S13" t="n">
+        <v>9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
         <v>6</v>
       </c>
-      <c r="P13" t="n">
+      <c r="V13" t="n">
+        <v>5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
         <v>34</v>
       </c>
-      <c r="Q13" t="n">
-        <v>25</v>
-      </c>
-      <c r="R13" t="n">
-        <v>15</v>
-      </c>
-      <c r="S13" t="n">
-        <v>23</v>
-      </c>
-      <c r="T13" t="n">
-        <v>10</v>
-      </c>
-      <c r="U13" t="n">
-        <v>8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="n">
-        <v>16</v>
-      </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="n">
         <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>57.6</v>
+        <v>42.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>55.6</v>
+        <v>64.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897699</v>
+        <v>897725</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897699.html</t>
+          <t>https://text.khl.ru/text/897725.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24</v>
+      </c>
+      <c r="J14" t="n">
+        <v>44</v>
+      </c>
+      <c r="K14" t="n">
+        <v>68</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>20</v>
-      </c>
-      <c r="J14" t="n">
-        <v>26</v>
-      </c>
-      <c r="K14" t="n">
-        <v>46</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P14" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Q14" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R14" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="U14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W14" t="n">
         <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="Y14" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>53.2</v>
+        <v>42.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>59.3</v>
+        <v>67.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG14" t="n">
-        <v>0.67</v>
-      </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897694</v>
+        <v>897717</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897694.html</t>
+          <t>https://text.khl.ru/text/897717.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J15" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K15" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P15" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q15" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="R15" t="n">
+        <v>18</v>
+      </c>
+      <c r="S15" t="n">
+        <v>16</v>
+      </c>
+      <c r="T15" t="n">
+        <v>28</v>
+      </c>
+      <c r="U15" t="n">
         <v>14</v>
       </c>
-      <c r="S15" t="n">
-        <v>21</v>
-      </c>
-      <c r="T15" t="n">
-        <v>10</v>
-      </c>
-      <c r="U15" t="n">
-        <v>23</v>
-      </c>
       <c r="V15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2181,65 +2178,65 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>45.6</v>
+        <v>46.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>30.3</v>
+        <v>66.7</v>
       </c>
       <c r="AE15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>11.9</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897680</v>
+        <v>897693</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897680.html</t>
+          <t>https://text.khl.ru/text/897693.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K16" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2248,46 +2245,46 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" t="n">
         <v>14</v>
       </c>
-      <c r="O16" t="n">
-        <v>14</v>
-      </c>
-      <c r="P16" t="n">
-        <v>27</v>
-      </c>
       <c r="Q16" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S16" t="n">
         <v>22</v>
       </c>
       <c r="T16" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U16" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
         <v>6</v>
       </c>
-      <c r="W16" t="n">
-        <v>4</v>
-      </c>
-      <c r="X16" t="n">
-        <v>26</v>
-      </c>
       <c r="Y16" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="Z16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2295,10 +2292,10 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>43.5</v>
+        <v>31.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>53.8</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2307,112 +2304,112 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.71</v>
+        <v>0.6</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897724</v>
+        <v>897745</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897724.html</t>
+          <t>https://text.khl.ru/text/897745.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J17" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K17" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="R17" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T17" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="U17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>54.5</v>
+        <v>57.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>42.9</v>
+        <v>61.4</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2421,340 +2418,340 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897715</v>
+        <v>897737</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897715.html</t>
+          <t>https://text.khl.ru/text/897737.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
       <c r="I18" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J18" t="n">
+        <v>29</v>
+      </c>
+      <c r="K18" t="n">
+        <v>56</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="n">
         <v>24</v>
       </c>
-      <c r="K18" t="n">
-        <v>43</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
+        <v>12</v>
+      </c>
+      <c r="S18" t="n">
+        <v>15</v>
+      </c>
+      <c r="T18" t="n">
         <v>22</v>
       </c>
-      <c r="R18" t="n">
-        <v>20</v>
-      </c>
-      <c r="S18" t="n">
-        <v>21</v>
-      </c>
-      <c r="T18" t="n">
-        <v>11</v>
-      </c>
       <c r="U18" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W18" t="n">
         <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y18" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>52.2</v>
+        <v>53.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>40.7</v>
+        <v>48.9</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897699</v>
+        <v>897664</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897699.html</t>
+          <t>https://text.khl.ru/text/897664.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
       <c r="I19" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J19" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K19" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P19" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="R19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T19" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="U19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V19" t="n">
         <v>5</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z19" t="n">
         <v>5</v>
       </c>
-      <c r="X19" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>2</v>
-      </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>46.8</v>
+        <v>60</v>
       </c>
       <c r="AD19" t="n">
-        <v>40.7</v>
+        <v>56.2</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>22-10-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897676</v>
+        <v>897700</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897676.html</t>
+          <t>https://text.khl.ru/text/897700.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K20" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P20" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="Q20" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="R20" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="S20" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="T20" t="n">
         <v>20</v>
       </c>
       <c r="U20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V20" t="n">
+        <v>6</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4</v>
+      </c>
+      <c r="X20" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>52</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="n">
         <v>3</v>
       </c>
-      <c r="W20" t="n">
-        <v>3</v>
-      </c>
-      <c r="X20" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>2</v>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>44.9</v>
+        <v>68.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>54.1</v>
+        <v>58.8</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2763,56 +2760,56 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AH20" t="n">
-        <v>11.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17-10-2025</t>
+          <t>15-10-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>ЦСКА</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Торпедо</t>
-        </is>
-      </c>
       <c r="D21" t="n">
-        <v>897660</v>
+        <v>897651</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897660.html</t>
+          <t>https://text.khl.ru/text/897651.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J21" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K21" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2821,66 +2818,1200 @@
         <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P21" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="Q21" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R21" t="n">
         <v>16</v>
       </c>
       <c r="S21" t="n">
+        <v>25</v>
+      </c>
+      <c r="T21" t="n">
+        <v>29</v>
+      </c>
+      <c r="U21" t="n">
+        <v>33</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>897728</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897728.html</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>39</v>
+      </c>
+      <c r="K22" t="n">
+        <v>64</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>42</v>
+      </c>
+      <c r="R22" t="n">
+        <v>23</v>
+      </c>
+      <c r="S22" t="n">
+        <v>8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>12</v>
+      </c>
+      <c r="U22" t="n">
+        <v>20</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>25-10-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>897688</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897688.html</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>40</v>
+      </c>
+      <c r="J23" t="n">
+        <v>39</v>
+      </c>
+      <c r="K23" t="n">
+        <v>79</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>7</v>
+      </c>
+      <c r="P23" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>28</v>
+      </c>
+      <c r="R23" t="n">
+        <v>16</v>
+      </c>
+      <c r="S23" t="n">
+        <v>21</v>
+      </c>
+      <c r="T23" t="n">
+        <v>18</v>
+      </c>
+      <c r="U23" t="n">
+        <v>24</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23-10-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>897679</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897679.html</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>67</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>28</v>
+      </c>
+      <c r="R24" t="n">
+        <v>12</v>
+      </c>
+      <c r="S24" t="n">
+        <v>18</v>
+      </c>
+      <c r="T24" t="n">
+        <v>15</v>
+      </c>
+      <c r="U24" t="n">
+        <v>9</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
         <v>11</v>
       </c>
-      <c r="T21" t="n">
-        <v>28</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="Z24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>21-10-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>897671</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897671.html</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>24</v>
+      </c>
+      <c r="J25" t="n">
+        <v>31</v>
+      </c>
+      <c r="K25" t="n">
+        <v>55</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>30</v>
+      </c>
+      <c r="R25" t="n">
+        <v>12</v>
+      </c>
+      <c r="S25" t="n">
+        <v>17</v>
+      </c>
+      <c r="T25" t="n">
+        <v>22</v>
+      </c>
+      <c r="U25" t="n">
+        <v>12</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>16-10-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>897654</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897654.html</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
         <v>20</v>
       </c>
-      <c r="V21" t="n">
-        <v>7</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="J26" t="n">
+        <v>49</v>
+      </c>
+      <c r="K26" t="n">
+        <v>69</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>29</v>
+      </c>
+      <c r="R26" t="n">
+        <v>20</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="n">
+        <v>16</v>
+      </c>
+      <c r="U26" t="n">
+        <v>16</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>897739</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897739.html</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>37</v>
+      </c>
+      <c r="K27" t="n">
+        <v>56</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
         <v>8</v>
       </c>
-      <c r="X21" t="n">
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>29</v>
+      </c>
+      <c r="R27" t="n">
+        <v>14</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>33</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10</v>
+      </c>
+      <c r="V27" t="n">
+        <v>10</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>897729</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897729.html</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>33</v>
+      </c>
+      <c r="K28" t="n">
+        <v>62</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8</v>
+      </c>
+      <c r="P28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>25</v>
+      </c>
+      <c r="R28" t="n">
+        <v>23</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="n">
+        <v>38</v>
+      </c>
+      <c r="U28" t="n">
+        <v>31</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>9</v>
+      </c>
+      <c r="X28" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>897723</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897723.html</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>30</v>
+      </c>
+      <c r="J29" t="n">
+        <v>50</v>
+      </c>
+      <c r="K29" t="n">
+        <v>80</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8</v>
+      </c>
+      <c r="P29" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>38</v>
+      </c>
+      <c r="R29" t="n">
+        <v>14</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>39</v>
+      </c>
+      <c r="U29" t="n">
+        <v>30</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22-10-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>897677</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897677.html</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>30</v>
+      </c>
+      <c r="J30" t="n">
+        <v>36</v>
+      </c>
+      <c r="K30" t="n">
+        <v>66</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8</v>
+      </c>
+      <c r="O30" t="n">
+        <v>9</v>
+      </c>
+      <c r="P30" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>33</v>
+      </c>
+      <c r="R30" t="n">
+        <v>16</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15</v>
+      </c>
+      <c r="T30" t="n">
+        <v>37</v>
+      </c>
+      <c r="U30" t="n">
+        <v>24</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4</v>
+      </c>
+      <c r="W30" t="n">
+        <v>3</v>
+      </c>
+      <c r="X30" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17-10-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897658</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897658.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>22</v>
+      </c>
+      <c r="J31" t="n">
+        <v>34</v>
+      </c>
+      <c r="K31" t="n">
+        <v>56</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
         <v>6</v>
       </c>
-      <c r="Y21" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA21" t="n">
+      <c r="P31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>32</v>
+      </c>
+      <c r="R31" t="n">
+        <v>13</v>
+      </c>
+      <c r="S31" t="n">
+        <v>11</v>
+      </c>
+      <c r="T31" t="n">
+        <v>30</v>
+      </c>
+      <c r="U31" t="n">
+        <v>23</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3</v>
+      </c>
+      <c r="X31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z31" t="n">
         <v>4</v>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC21" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>4.8</v>
+      <c r="AA31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.1</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +4025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3047,353 +4178,529 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>27.6</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>25.3</v>
+        <v>15.5</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.9</v>
+        <v>1.2</v>
       </c>
       <c r="J2" t="n">
-        <v>37.8</v>
+        <v>32.8</v>
       </c>
       <c r="K2" t="n">
-        <v>86.19999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="L2" t="n">
-        <v>-3</v>
+        <v>-0.1</v>
       </c>
       <c r="M2" t="n">
-        <v>27.8</v>
+        <v>22.6</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.6</v>
+        <v>-1</v>
       </c>
       <c r="O2" t="n">
-        <v>48.52</v>
+        <v>45.24</v>
       </c>
       <c r="P2" t="n">
-        <v>1.940000000000001</v>
+        <v>-2.090000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0.03299999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.08299999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="U2" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="W2" t="n">
-        <v>12.2</v>
+        <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.6</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.359999999999999</v>
+        <v>7.919999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.74</v>
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1</v>
+        <v>-1</v>
       </c>
       <c r="G3" t="n">
-        <v>31.8</v>
+        <v>23.4</v>
       </c>
       <c r="H3" t="n">
-        <v>29.7</v>
+        <v>72.8</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.7</v>
+        <v>-3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>27.8</v>
       </c>
       <c r="K3" t="n">
-        <v>111</v>
+        <v>27.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>6.8</v>
+        <v>21.8</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.6</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>49.2</v>
+        <v>51.27999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4299999999999997</v>
+        <v>4.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1</v>
+        <v>0.258</v>
       </c>
       <c r="R3" t="n">
-        <v>0.025</v>
+        <v>-0.142</v>
       </c>
       <c r="S3" t="n">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.2833333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="U3" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="V3" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>16</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z3" t="n">
         <v>1.6</v>
       </c>
-      <c r="W3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.8</v>
-      </c>
       <c r="AA3" t="n">
-        <v>11.08</v>
+        <v>18.46</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.57</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D4" t="n">
         <v>3.4</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.8</v>
-      </c>
       <c r="E4" t="n">
-        <v>-0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>33.6</v>
+        <v>22.2</v>
       </c>
       <c r="H4" t="n">
-        <v>113.3</v>
+        <v>7.699999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8</v>
+        <v>-0.8</v>
       </c>
       <c r="J4" t="n">
-        <v>27</v>
+        <v>34.8</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>48.7</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.9</v>
+        <v>-2.5</v>
       </c>
       <c r="M4" t="n">
-        <v>17</v>
+        <v>21.2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>48.36</v>
+        <v>41.56</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.8799999999999997</v>
+        <v>-2.439999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.22</v>
+        <v>0.1175</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02000000000000001</v>
+        <v>0.06633333333333334</v>
       </c>
       <c r="S4" t="n">
-        <v>0.77</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.07100000000000001</v>
+        <v>-0.068</v>
       </c>
       <c r="U4" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.3</v>
+        <v>0.2</v>
       </c>
       <c r="W4" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.2</v>
+        <v>7.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>10.2</v>
+        <v>12.58</v>
       </c>
       <c r="AB4" t="n">
-        <v>-2.33</v>
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>25.2</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
-        <v>33.7</v>
+        <v>31.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
-        <v>24.4</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>20.3</v>
+        <v>45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.7</v>
+        <v>-3</v>
       </c>
       <c r="M5" t="n">
-        <v>16.4</v>
+        <v>23.2</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="O5" t="n">
-        <v>45.34</v>
+        <v>58.02</v>
       </c>
       <c r="P5" t="n">
-        <v>-5.970000000000001</v>
+        <v>-0.08999999999999915</v>
       </c>
       <c r="Q5" t="n">
         <v>0.166</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.05</v>
+        <v>0.06699999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.784</v>
       </c>
       <c r="T5" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.4599999999999998</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.4700000000000003</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1675</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.201</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.6279999999999999</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.074</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-1.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26</v>
+      </c>
+      <c r="H7" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>38</v>
+      </c>
+      <c r="K7" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>45.38</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-1.359999999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.178</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V7" t="n">
         <v>-0.1</v>
       </c>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>6.959999999999999</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1.09</v>
+      <c r="W7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-2.07</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,92 +609,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897772</v>
+        <v>897779</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43</v>
+      </c>
+      <c r="J2" t="n">
+        <v>43</v>
+      </c>
+      <c r="K2" t="n">
+        <v>86</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>9</v>
+      </c>
+      <c r="P2" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>24</v>
+      </c>
+      <c r="R2" t="n">
+        <v>11</v>
+      </c>
+      <c r="S2" t="n">
+        <v>15</v>
+      </c>
+      <c r="T2" t="n">
+        <v>33</v>
+      </c>
+      <c r="U2" t="n">
+        <v>44</v>
+      </c>
+      <c r="V2" t="n">
         <v>4</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31</v>
-      </c>
-      <c r="J2" t="n">
-        <v>27</v>
-      </c>
-      <c r="K2" t="n">
-        <v>58</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="W2" t="n">
         <v>8</v>
       </c>
-      <c r="P2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>40</v>
-      </c>
-      <c r="R2" t="n">
-        <v>17</v>
-      </c>
-      <c r="S2" t="n">
-        <v>13</v>
-      </c>
-      <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
-        <v>20</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6</v>
-      </c>
-      <c r="W2" t="n">
-        <v>5</v>
-      </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -702,274 +702,274 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>42</v>
+        <v>56.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>39.4</v>
+        <v>42.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AG2" t="n">
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>12.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897712</v>
+        <v>897743</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897712.html</t>
+          <t>https://text.khl.ru/text/897743.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K3" t="n">
         <v>61</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>24</v>
+      </c>
+      <c r="R3" t="n">
+        <v>14</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>21</v>
+      </c>
+      <c r="U3" t="n">
+        <v>15</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y3" t="n">
         <v>8</v>
       </c>
-      <c r="P3" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>40</v>
-      </c>
-      <c r="R3" t="n">
-        <v>24</v>
-      </c>
-      <c r="S3" t="n">
-        <v>20</v>
-      </c>
-      <c r="T3" t="n">
-        <v>24</v>
-      </c>
-      <c r="U3" t="n">
-        <v>22</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="n">
         <v>3</v>
       </c>
-      <c r="X3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>43.7</v>
+        <v>63.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>52.2</v>
+        <v>58.3</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>10.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897707</v>
+        <v>897731</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897707.html</t>
+          <t>https://text.khl.ru/text/897731.html</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
       <c r="I4" t="n">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>87</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P4" t="n">
         <v>37</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30</v>
-      </c>
-      <c r="K4" t="n">
-        <v>67</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6</v>
-      </c>
-      <c r="P4" t="n">
-        <v>26</v>
       </c>
       <c r="Q4" t="n">
         <v>31</v>
       </c>
       <c r="R4" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="T4" t="n">
+        <v>12</v>
+      </c>
+      <c r="U4" t="n">
+        <v>19</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y4" t="n">
         <v>18</v>
       </c>
-      <c r="U4" t="n">
-        <v>25</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="Z4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="n">
         <v>5</v>
       </c>
-      <c r="W4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2</v>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>45.6</v>
+        <v>54.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>41.9</v>
+        <v>38.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>16-10-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Барыс</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Нефтехимик</t>
-        </is>
-      </c>
       <c r="D5" t="n">
-        <v>897695</v>
+        <v>897655</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897695.html</t>
+          <t>https://text.khl.ru/text/897655.html</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -979,64 +979,64 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K5" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="P5" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="R5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
         <v>27</v>
       </c>
       <c r="T5" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1044,33 +1044,33 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>56.9</v>
+        <v>46.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>64.2</v>
+        <v>61.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>09-10-2025</t>
+          <t>14-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1079,192 +1079,192 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897628</v>
+        <v>897646</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897628.html</t>
+          <t>https://text.khl.ru/text/897646.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
+        <v>46</v>
+      </c>
+      <c r="J6" t="n">
+        <v>38</v>
+      </c>
+      <c r="K6" t="n">
+        <v>84</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="n">
         <v>31</v>
       </c>
-      <c r="J6" t="n">
-        <v>39</v>
-      </c>
-      <c r="K6" t="n">
-        <v>70</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>13</v>
-      </c>
-      <c r="O6" t="n">
-        <v>12</v>
-      </c>
-      <c r="P6" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>37</v>
-      </c>
       <c r="R6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="U6" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="V6" t="n">
+        <v>11</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="n">
         <v>5</v>
       </c>
-      <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>3</v>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>47.9</v>
+        <v>55.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>40.9</v>
+        <v>46.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.5</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897771</v>
+        <v>897720</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897720.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>24</v>
+      </c>
+      <c r="K7" t="n">
+        <v>48</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>38</v>
-      </c>
-      <c r="J7" t="n">
-        <v>18</v>
-      </c>
-      <c r="K7" t="n">
-        <v>56</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
       <c r="O7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R7" t="n">
+        <v>15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>17</v>
+      </c>
+      <c r="T7" t="n">
+        <v>34</v>
+      </c>
+      <c r="U7" t="n">
+        <v>17</v>
+      </c>
+      <c r="V7" t="n">
+        <v>8</v>
+      </c>
+      <c r="W7" t="n">
         <v>9</v>
       </c>
-      <c r="S7" t="n">
-        <v>10</v>
-      </c>
-      <c r="T7" t="n">
-        <v>22</v>
-      </c>
-      <c r="U7" t="n">
-        <v>27</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6</v>
-      </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
         <v>5</v>
       </c>
       <c r="AA7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1272,688 +1272,694 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>54.7</v>
+        <v>46.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>44.9</v>
+        <v>66.7</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897759</v>
+        <v>897711</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897759.html</t>
+          <t>https://text.khl.ru/text/897711.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J8" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R8" t="n">
+        <v>14</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15</v>
+      </c>
+      <c r="T8" t="n">
+        <v>17</v>
+      </c>
+      <c r="U8" t="n">
+        <v>16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>28</v>
-      </c>
-      <c r="S8" t="n">
-        <v>12</v>
-      </c>
-      <c r="T8" t="n">
-        <v>16</v>
-      </c>
-      <c r="U8" t="n">
-        <v>17</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2</v>
-      </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC8" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>23-10-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897730</v>
+        <v>897682</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897730.html</t>
+          <t>https://text.khl.ru/text/897682.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J9" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K9" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="T9" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="U9" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>42.4</v>
+        <v>50</v>
       </c>
       <c r="AD9" t="n">
-        <v>64.7</v>
+        <v>41.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>10-10-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897725</v>
+        <v>897630</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897725.html</t>
+          <t>https://text.khl.ru/text/897630.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>35</v>
+      </c>
+      <c r="K10" t="n">
+        <v>52</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>26</v>
+      </c>
+      <c r="R10" t="n">
+        <v>33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>14</v>
+      </c>
+      <c r="T10" t="n">
+        <v>29</v>
+      </c>
+      <c r="U10" t="n">
+        <v>25</v>
+      </c>
+      <c r="V10" t="n">
         <v>6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>24</v>
-      </c>
-      <c r="J10" t="n">
-        <v>44</v>
-      </c>
-      <c r="K10" t="n">
-        <v>68</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8</v>
-      </c>
-      <c r="P10" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>31</v>
-      </c>
-      <c r="R10" t="n">
-        <v>22</v>
-      </c>
-      <c r="S10" t="n">
-        <v>12</v>
-      </c>
-      <c r="T10" t="n">
-        <v>27</v>
-      </c>
-      <c r="U10" t="n">
-        <v>13</v>
-      </c>
-      <c r="V10" t="n">
-        <v>9</v>
       </c>
       <c r="W10" t="n">
         <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA10" t="n">
         <v>13</v>
       </c>
-      <c r="AA10" t="n">
-        <v>19</v>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>42.6</v>
+        <v>50.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>67.5</v>
+        <v>53.7</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>4.2</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>08-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897717</v>
+        <v>897624</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897717.html</t>
+          <t>https://text.khl.ru/text/897624.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36</v>
+      </c>
+      <c r="J11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K11" t="n">
+        <v>66</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>15</v>
+      </c>
+      <c r="S11" t="n">
+        <v>14</v>
+      </c>
+      <c r="T11" t="n">
+        <v>16</v>
+      </c>
+      <c r="U11" t="n">
+        <v>11</v>
+      </c>
+      <c r="V11" t="n">
         <v>6</v>
       </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="W11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
         <v>23</v>
       </c>
-      <c r="J11" t="n">
-        <v>28</v>
-      </c>
-      <c r="K11" t="n">
-        <v>51</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="Z11" t="n">
         <v>6</v>
       </c>
-      <c r="O11" t="n">
+      <c r="AA11" t="n">
         <v>6</v>
       </c>
-      <c r="P11" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>30</v>
-      </c>
-      <c r="R11" t="n">
-        <v>18</v>
-      </c>
-      <c r="S11" t="n">
-        <v>16</v>
-      </c>
-      <c r="T11" t="n">
-        <v>28</v>
-      </c>
-      <c r="U11" t="n">
-        <v>14</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1</v>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>46.4</v>
+        <v>51.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>66.7</v>
+        <v>59.3</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>26.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897772</v>
+        <v>897775</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897775.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K12" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P12" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="T12" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U12" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
         <v>5</v>
       </c>
       <c r="W12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>58</v>
+        <v>55.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>60.6</v>
+        <v>45.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897745</v>
+        <v>897713</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897745.html</t>
+          <t>https://text.khl.ru/text/897713.html</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J13" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="P13" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="Q13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R13" t="n">
+        <v>12</v>
+      </c>
+      <c r="S13" t="n">
         <v>21</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
+        <v>18</v>
+      </c>
+      <c r="U13" t="n">
+        <v>23</v>
+      </c>
+      <c r="V13" t="n">
+        <v>10</v>
+      </c>
+      <c r="W13" t="n">
+        <v>12</v>
+      </c>
+      <c r="X13" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y13" t="n">
         <v>20</v>
       </c>
-      <c r="T13" t="n">
-        <v>27</v>
-      </c>
-      <c r="U13" t="n">
-        <v>17</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>19</v>
-      </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>57.8</v>
+        <v>63.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>61.4</v>
+        <v>43.9</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1962,83 +1968,83 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="AH13" t="n">
-        <v>11.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897737</v>
+        <v>897697</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897737.html</t>
+          <t>https://text.khl.ru/text/897697.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="n">
+        <v>33</v>
+      </c>
+      <c r="R14" t="n">
         <v>24</v>
-      </c>
-      <c r="R14" t="n">
-        <v>12</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
       </c>
       <c r="T14" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="U14" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="V14" t="n">
         <v>6</v>
@@ -2047,63 +2053,63 @@
         <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>53.8</v>
+        <v>50.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>48.9</v>
+        <v>46.7</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897664</v>
+        <v>897778</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897664.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2113,172 +2119,172 @@
         <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J15" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K15" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O15" t="n">
+        <v>7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>22</v>
+      </c>
+      <c r="R15" t="n">
+        <v>12</v>
+      </c>
+      <c r="S15" t="n">
+        <v>25</v>
+      </c>
+      <c r="T15" t="n">
+        <v>36</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" t="n">
         <v>4</v>
       </c>
-      <c r="P15" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>24</v>
-      </c>
-      <c r="R15" t="n">
-        <v>17</v>
-      </c>
-      <c r="S15" t="n">
-        <v>17</v>
-      </c>
-      <c r="T15" t="n">
-        <v>18</v>
-      </c>
-      <c r="U15" t="n">
-        <v>14</v>
-      </c>
-      <c r="V15" t="n">
-        <v>5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>60</v>
+        <v>64.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>56.2</v>
+        <v>73.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AG15" t="n">
         <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897700</v>
+        <v>897768</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897700.html</t>
+          <t>https://text.khl.ru/text/897768.html</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>33</v>
+      </c>
+      <c r="J16" t="n">
+        <v>27</v>
+      </c>
+      <c r="K16" t="n">
+        <v>60</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
         <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>40</v>
-      </c>
-      <c r="J16" t="n">
-        <v>19</v>
-      </c>
-      <c r="K16" t="n">
-        <v>59</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q16" t="n">
+        <v>24</v>
+      </c>
+      <c r="R16" t="n">
+        <v>8</v>
+      </c>
+      <c r="S16" t="n">
         <v>17</v>
       </c>
-      <c r="R16" t="n">
-        <v>7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>31</v>
-      </c>
       <c r="T16" t="n">
+        <v>22</v>
+      </c>
+      <c r="U16" t="n">
         <v>20</v>
       </c>
-      <c r="U16" t="n">
-        <v>14</v>
-      </c>
       <c r="V16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="Z16" t="n">
         <v>2</v>
@@ -2292,113 +2298,113 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>68.5</v>
+        <v>59.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>58.8</v>
+        <v>52.4</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897741</v>
+        <v>897716</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897741.html</t>
+          <t>https://text.khl.ru/text/897716.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
+        <v>41</v>
+      </c>
+      <c r="J17" t="n">
+        <v>23</v>
+      </c>
+      <c r="K17" t="n">
+        <v>64</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" t="n">
         <v>36</v>
       </c>
-      <c r="J17" t="n">
-        <v>25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>61</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>10</v>
-      </c>
-      <c r="P17" t="n">
-        <v>30</v>
-      </c>
       <c r="Q17" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="R17" t="n">
+        <v>12</v>
+      </c>
+      <c r="S17" t="n">
+        <v>23</v>
+      </c>
+      <c r="T17" t="n">
         <v>15</v>
       </c>
-      <c r="S17" t="n">
-        <v>21</v>
-      </c>
-      <c r="T17" t="n">
-        <v>20</v>
-      </c>
       <c r="U17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="V17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y17" t="n">
         <v>15</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>18</v>
       </c>
       <c r="Z17" t="n">
         <v>4</v>
       </c>
       <c r="AA17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2406,113 +2412,113 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>52.6</v>
+        <v>65.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>41.7</v>
+        <v>40.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG17" t="n">
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897733</v>
+        <v>897706</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897733.html</t>
+          <t>https://text.khl.ru/text/897706.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J18" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K18" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P18" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="Q18" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="R18" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="S18" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="T18" t="n">
+        <v>18</v>
+      </c>
+      <c r="U18" t="n">
+        <v>11</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z18" t="n">
         <v>7</v>
       </c>
-      <c r="U18" t="n">
-        <v>15</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3</v>
-      </c>
-      <c r="W18" t="n">
-        <v>4</v>
-      </c>
-      <c r="X18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>10</v>
-      </c>
       <c r="AA18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2520,113 +2526,113 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>41.1</v>
+        <v>67.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>31.8</v>
+        <v>62.1</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>5.6</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897689</v>
+        <v>897697</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897689.html</t>
+          <t>https://text.khl.ru/text/897697.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J19" t="n">
+        <v>37</v>
+      </c>
+      <c r="K19" t="n">
+        <v>62</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>34</v>
+      </c>
+      <c r="R19" t="n">
+        <v>15</v>
+      </c>
+      <c r="S19" t="n">
         <v>24</v>
       </c>
-      <c r="K19" t="n">
-        <v>52</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>12</v>
-      </c>
-      <c r="P19" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>24</v>
-      </c>
-      <c r="R19" t="n">
-        <v>20</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
+        <v>16</v>
+      </c>
+      <c r="U19" t="n">
         <v>14</v>
       </c>
-      <c r="T19" t="n">
-        <v>20</v>
-      </c>
-      <c r="U19" t="n">
-        <v>28</v>
-      </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X19" t="n">
         <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2634,221 +2640,218 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>53.8</v>
+        <v>49.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>41.7</v>
+        <v>53.3</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897679</v>
+        <v>897759</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897679.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>24</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12</v>
+      </c>
+      <c r="S20" t="n">
         <v>28</v>
       </c>
-      <c r="Q20" t="n">
-        <v>28</v>
-      </c>
-      <c r="R20" t="n">
-        <v>18</v>
-      </c>
-      <c r="S20" t="n">
-        <v>12</v>
-      </c>
       <c r="T20" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="U20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V20" t="n">
         <v>2</v>
       </c>
       <c r="W20" t="n">
+        <v>4</v>
+      </c>
+      <c r="X20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA20" t="n">
         <v>7</v>
       </c>
-      <c r="X20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>3</v>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>50</v>
+        <v>54.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>37.5</v>
+        <v>51.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>11.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18-10-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897663</v>
+        <v>897748</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897663.html</t>
+          <t>https://text.khl.ru/text/897748.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P21" t="n">
         <v>27</v>
       </c>
       <c r="Q21" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R21" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T21" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="U21" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="V21" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="W21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
         <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
         <v>2</v>
@@ -2862,113 +2865,113 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>50.9</v>
+        <v>55.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>44.7</v>
+        <v>57.1</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>4.2</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897773</v>
+        <v>897735</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897773.html</t>
+          <t>https://text.khl.ru/text/897735.html</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J22" t="n">
         <v>24</v>
       </c>
       <c r="K22" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P22" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R22" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
+        <v>28</v>
+      </c>
+      <c r="T22" t="n">
         <v>15</v>
-      </c>
-      <c r="T22" t="n">
-        <v>20</v>
       </c>
       <c r="U22" t="n">
         <v>20</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2976,46 +2979,46 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>50.8</v>
+        <v>50</v>
       </c>
       <c r="AD22" t="n">
-        <v>50</v>
+        <v>42.9</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>04-11-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897728</v>
+        <v>897715</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897728.html</t>
+          <t>https://text.khl.ru/text/897715.html</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -3025,130 +3028,130 @@
         <v>3</v>
       </c>
       <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>24</v>
+      </c>
+      <c r="J23" t="n">
+        <v>19</v>
+      </c>
+      <c r="K23" t="n">
+        <v>43</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>24</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" t="n">
+        <v>16</v>
+      </c>
+      <c r="U23" t="n">
+        <v>11</v>
+      </c>
+      <c r="V23" t="n">
         <v>3</v>
       </c>
-      <c r="I23" t="n">
-        <v>25</v>
-      </c>
-      <c r="J23" t="n">
-        <v>39</v>
-      </c>
-      <c r="K23" t="n">
-        <v>64</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" t="n">
-        <v>12</v>
-      </c>
-      <c r="O23" t="n">
-        <v>6</v>
-      </c>
-      <c r="P23" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>42</v>
-      </c>
-      <c r="R23" t="n">
-        <v>23</v>
-      </c>
-      <c r="S23" t="n">
-        <v>8</v>
-      </c>
-      <c r="T23" t="n">
-        <v>12</v>
-      </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
+        <v>4</v>
+      </c>
+      <c r="X23" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y23" t="n">
         <v>20</v>
       </c>
-      <c r="V23" t="n">
-        <v>4</v>
-      </c>
-      <c r="W23" t="n">
-        <v>3</v>
-      </c>
-      <c r="X23" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>8</v>
-      </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>40.8</v>
+        <v>47.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>37.5</v>
+        <v>59.3</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>20-10-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897688</v>
+        <v>897669</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897688.html</t>
+          <t>https://text.khl.ru/text/897669.html</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="J24" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K24" t="n">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3160,43 +3163,43 @@
         <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="Q24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R24" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="S24" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="T24" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U24" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5</v>
       </c>
-      <c r="X24" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>13</v>
-      </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -3204,10 +3207,10 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>52.5</v>
+        <v>43.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>42.9</v>
+        <v>45.2</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3219,109 +3222,109 @@
         <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897679</v>
+        <v>897778</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897679.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>27</v>
+      </c>
+      <c r="J25" t="n">
+        <v>34</v>
+      </c>
+      <c r="K25" t="n">
+        <v>61</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7</v>
+      </c>
+      <c r="O25" t="n">
         <v>5</v>
       </c>
-      <c r="I25" t="n">
+      <c r="P25" t="n">
         <v>22</v>
       </c>
-      <c r="J25" t="n">
-        <v>45</v>
-      </c>
-      <c r="K25" t="n">
-        <v>67</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="Q25" t="n">
+        <v>40</v>
+      </c>
+      <c r="R25" t="n">
+        <v>25</v>
+      </c>
+      <c r="S25" t="n">
+        <v>12</v>
+      </c>
+      <c r="T25" t="n">
+        <v>13</v>
+      </c>
+      <c r="U25" t="n">
+        <v>36</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA25" t="n">
         <v>6</v>
       </c>
-      <c r="O25" t="n">
-        <v>6</v>
-      </c>
-      <c r="P25" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>28</v>
-      </c>
-      <c r="R25" t="n">
-        <v>12</v>
-      </c>
-      <c r="S25" t="n">
-        <v>18</v>
-      </c>
-      <c r="T25" t="n">
-        <v>15</v>
-      </c>
-      <c r="U25" t="n">
-        <v>9</v>
-      </c>
-      <c r="V25" t="n">
-        <v>7</v>
-      </c>
-      <c r="W25" t="n">
-        <v>2</v>
-      </c>
-      <c r="X25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1</v>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>50</v>
+        <v>35.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>62.5</v>
+        <v>26.5</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -3330,317 +3333,323 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AH25" t="n">
-        <v>9.1</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>21-10-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897671</v>
+        <v>897678</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897671.html</t>
+          <t>https://text.khl.ru/text/897678.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J26" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K26" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P26" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>25</v>
+      </c>
+      <c r="R26" t="n">
+        <v>20</v>
+      </c>
+      <c r="S26" t="n">
         <v>19</v>
       </c>
-      <c r="Q26" t="n">
-        <v>30</v>
-      </c>
-      <c r="R26" t="n">
+      <c r="T26" t="n">
+        <v>13</v>
+      </c>
+      <c r="U26" t="n">
+        <v>20</v>
+      </c>
+      <c r="V26" t="n">
+        <v>5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
         <v>12</v>
       </c>
-      <c r="S26" t="n">
-        <v>17</v>
-      </c>
-      <c r="T26" t="n">
-        <v>22</v>
-      </c>
-      <c r="U26" t="n">
-        <v>12</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA26" t="n">
         <v>9</v>
       </c>
-      <c r="Y26" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="AE26" t="n">
         <v>3</v>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC26" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>64.7</v>
+      <c r="AF26" t="n">
+        <v>0.75</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>4.2</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>20-10-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897771</v>
+        <v>897670</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897670.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>36</v>
+      </c>
+      <c r="J27" t="n">
+        <v>23</v>
+      </c>
+      <c r="K27" t="n">
+        <v>59</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
         <v>4</v>
       </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>18</v>
-      </c>
-      <c r="J27" t="n">
-        <v>38</v>
-      </c>
-      <c r="K27" t="n">
-        <v>56</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P27" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>34</v>
+      </c>
+      <c r="R27" t="n">
+        <v>15</v>
+      </c>
+      <c r="S27" t="n">
+        <v>30</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10</v>
+      </c>
+      <c r="U27" t="n">
+        <v>11</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y27" t="n">
         <v>24</v>
       </c>
-      <c r="Q27" t="n">
-        <v>29</v>
-      </c>
-      <c r="R27" t="n">
-        <v>10</v>
-      </c>
-      <c r="S27" t="n">
-        <v>9</v>
-      </c>
-      <c r="T27" t="n">
-        <v>27</v>
-      </c>
-      <c r="U27" t="n">
-        <v>22</v>
-      </c>
-      <c r="V27" t="n">
-        <v>6</v>
-      </c>
-      <c r="W27" t="n">
-        <v>2</v>
-      </c>
-      <c r="X27" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>30</v>
-      </c>
       <c r="Z27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>45.3</v>
+        <v>46.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>55.1</v>
+        <v>47.6</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="AH27" t="n">
-        <v>22.2</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>11-10-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897739</v>
+        <v>897549</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897739.html</t>
+          <t>https://text.khl.ru/text/897549.html</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J28" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K28" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="n">
+        <v>12</v>
+      </c>
+      <c r="O28" t="n">
         <v>8</v>
       </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
       <c r="P28" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q28" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R28" t="n">
         <v>14</v>
       </c>
       <c r="S28" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="T28" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="U28" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="V28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Z28" t="n">
         <v>4</v>
@@ -3654,227 +3663,227 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>47.3</v>
+        <v>49.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>76.7</v>
+        <v>45.7</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="AH28" t="n">
-        <v>21.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>04-11-2025</t>
+          <t>09-10-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897729</v>
+        <v>897627</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897729.html</t>
+          <t>https://text.khl.ru/text/897627.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J29" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K29" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O29" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P29" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Q29" t="n">
+        <v>21</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>19</v>
+      </c>
+      <c r="T29" t="n">
+        <v>21</v>
+      </c>
+      <c r="U29" t="n">
         <v>25</v>
       </c>
-      <c r="R29" t="n">
-        <v>23</v>
-      </c>
-      <c r="S29" t="n">
-        <v>10</v>
-      </c>
-      <c r="T29" t="n">
-        <v>38</v>
-      </c>
-      <c r="U29" t="n">
-        <v>31</v>
-      </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA29" t="n">
         <v>3</v>
       </c>
-      <c r="AA29" t="n">
-        <v>5</v>
-      </c>
       <c r="AB29" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>47.9</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>55.1</v>
+        <v>45.7</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897723</v>
+        <v>897776</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897723.html</t>
+          <t>https://text.khl.ru/text/897776.html</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J30" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="K30" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P30" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Q30" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T30" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="U30" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="V30" t="n">
         <v>4</v>
       </c>
       <c r="W30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X30" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3882,33 +3891,33 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>45.7</v>
+        <v>32.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>56.5</v>
+        <v>48</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
         <v>1</v>
       </c>
       <c r="AH30" t="n">
-        <v>16.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22-10-2025</t>
+          <t>24-10-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3917,33 +3926,33 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897677</v>
+        <v>897684</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897677.html</t>
+          <t>https://text.khl.ru/text/897684.html</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J31" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="K31" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3952,66 +3961,3828 @@
         <v>8</v>
       </c>
       <c r="O31" t="n">
+        <v>6</v>
+      </c>
+      <c r="P31" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>32</v>
+      </c>
+      <c r="R31" t="n">
+        <v>24</v>
+      </c>
+      <c r="S31" t="n">
         <v>9</v>
       </c>
-      <c r="P31" t="n">
+      <c r="T31" t="n">
+        <v>16</v>
+      </c>
+      <c r="U31" t="n">
+        <v>13</v>
+      </c>
+      <c r="V31" t="n">
+        <v>10</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>22-10-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897678</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897678.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
         <v>25</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="J32" t="n">
+        <v>26</v>
+      </c>
+      <c r="K32" t="n">
+        <v>51</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>28</v>
+      </c>
+      <c r="R32" t="n">
+        <v>19</v>
+      </c>
+      <c r="S32" t="n">
+        <v>20</v>
+      </c>
+      <c r="T32" t="n">
+        <v>20</v>
+      </c>
+      <c r="U32" t="n">
+        <v>13</v>
+      </c>
+      <c r="V32" t="n">
+        <v>3</v>
+      </c>
+      <c r="W32" t="n">
+        <v>5</v>
+      </c>
+      <c r="X32" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>10-10-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897633</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897633.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" t="n">
+        <v>32</v>
+      </c>
+      <c r="K33" t="n">
+        <v>52</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>22</v>
+      </c>
+      <c r="R33" t="n">
+        <v>16</v>
+      </c>
+      <c r="S33" t="n">
+        <v>13</v>
+      </c>
+      <c r="T33" t="n">
+        <v>17</v>
+      </c>
+      <c r="U33" t="n">
+        <v>12</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3</v>
+      </c>
+      <c r="W33" t="n">
+        <v>3</v>
+      </c>
+      <c r="X33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>07-10-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897623</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897623.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>37</v>
+      </c>
+      <c r="J34" t="n">
+        <v>20</v>
+      </c>
+      <c r="K34" t="n">
+        <v>57</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>19</v>
+      </c>
+      <c r="R34" t="n">
+        <v>15</v>
+      </c>
+      <c r="S34" t="n">
+        <v>16</v>
+      </c>
+      <c r="T34" t="n">
+        <v>11</v>
+      </c>
+      <c r="U34" t="n">
+        <v>18</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>4</v>
+      </c>
+      <c r="X34" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897780</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897780.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>35</v>
+      </c>
+      <c r="J35" t="n">
+        <v>22</v>
+      </c>
+      <c r="K35" t="n">
+        <v>57</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>10</v>
+      </c>
+      <c r="P35" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>34</v>
+      </c>
+      <c r="R35" t="n">
+        <v>10</v>
+      </c>
+      <c r="S35" t="n">
+        <v>16</v>
+      </c>
+      <c r="T35" t="n">
+        <v>10</v>
+      </c>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>4</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3</v>
+      </c>
+      <c r="X35" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>09-11-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897750</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897750.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>34</v>
+      </c>
+      <c r="J36" t="n">
+        <v>32</v>
+      </c>
+      <c r="K36" t="n">
+        <v>66</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>8</v>
+      </c>
+      <c r="P36" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>20</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6</v>
+      </c>
+      <c r="S36" t="n">
+        <v>13</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="n">
+        <v>8</v>
+      </c>
+      <c r="V36" t="n">
+        <v>8</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>07-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897740</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897740.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>31</v>
+      </c>
+      <c r="J37" t="n">
+        <v>29</v>
+      </c>
+      <c r="K37" t="n">
+        <v>60</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>30</v>
+      </c>
+      <c r="R37" t="n">
+        <v>11</v>
+      </c>
+      <c r="S37" t="n">
+        <v>12</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>5</v>
+      </c>
+      <c r="X37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897732</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897732.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>20</v>
+      </c>
+      <c r="J38" t="n">
+        <v>36</v>
+      </c>
+      <c r="K38" t="n">
+        <v>56</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q38" t="n">
         <v>33</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R38" t="n">
+        <v>19</v>
+      </c>
+      <c r="S38" t="n">
+        <v>8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>9</v>
+      </c>
+      <c r="U38" t="n">
+        <v>12</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" t="n">
+        <v>5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897706</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897706.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>31</v>
+      </c>
+      <c r="J39" t="n">
+        <v>27</v>
+      </c>
+      <c r="K39" t="n">
+        <v>58</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>39</v>
+      </c>
+      <c r="R39" t="n">
+        <v>9</v>
+      </c>
+      <c r="S39" t="n">
+        <v>19</v>
+      </c>
+      <c r="T39" t="n">
+        <v>11</v>
+      </c>
+      <c r="U39" t="n">
+        <v>18</v>
+      </c>
+      <c r="V39" t="n">
+        <v>5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>4</v>
+      </c>
+      <c r="X39" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897776</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897776.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>41</v>
+      </c>
+      <c r="J40" t="n">
+        <v>31</v>
+      </c>
+      <c r="K40" t="n">
+        <v>72</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>9</v>
+      </c>
+      <c r="P40" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>19</v>
+      </c>
+      <c r="R40" t="n">
+        <v>13</v>
+      </c>
+      <c r="S40" t="n">
         <v>16</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T40" t="n">
+        <v>13</v>
+      </c>
+      <c r="U40" t="n">
+        <v>12</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>4</v>
+      </c>
+      <c r="X40" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y40" t="n">
         <v>15</v>
       </c>
-      <c r="T31" t="n">
+      <c r="Z40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>52</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897734</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897734.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>19</v>
+      </c>
+      <c r="J41" t="n">
+        <v>41</v>
+      </c>
+      <c r="K41" t="n">
+        <v>60</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>26</v>
+      </c>
+      <c r="R41" t="n">
+        <v>30</v>
+      </c>
+      <c r="S41" t="n">
+        <v>18</v>
+      </c>
+      <c r="T41" t="n">
+        <v>23</v>
+      </c>
+      <c r="U41" t="n">
+        <v>18</v>
+      </c>
+      <c r="V41" t="n">
+        <v>7</v>
+      </c>
+      <c r="W41" t="n">
+        <v>4</v>
+      </c>
+      <c r="X41" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>897727</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897727.html</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33</v>
+      </c>
+      <c r="J42" t="n">
+        <v>38</v>
+      </c>
+      <c r="K42" t="n">
+        <v>71</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>8</v>
+      </c>
+      <c r="P42" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>29</v>
+      </c>
+      <c r="R42" t="n">
+        <v>13</v>
+      </c>
+      <c r="S42" t="n">
+        <v>13</v>
+      </c>
+      <c r="T42" t="n">
+        <v>11</v>
+      </c>
+      <c r="U42" t="n">
+        <v>8</v>
+      </c>
+      <c r="V42" t="n">
+        <v>5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>897718</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897718.html</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>21</v>
+      </c>
+      <c r="K43" t="n">
+        <v>52</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>20</v>
+      </c>
+      <c r="P43" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>30</v>
+      </c>
+      <c r="R43" t="n">
+        <v>22</v>
+      </c>
+      <c r="S43" t="n">
+        <v>12</v>
+      </c>
+      <c r="T43" t="n">
+        <v>16</v>
+      </c>
+      <c r="U43" t="n">
+        <v>27</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>8</v>
+      </c>
+      <c r="X43" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>19-10-2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>897665</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897665.html</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>25</v>
+      </c>
+      <c r="J44" t="n">
+        <v>35</v>
+      </c>
+      <c r="K44" t="n">
+        <v>60</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="n">
+        <v>19</v>
+      </c>
+      <c r="O44" t="n">
+        <v>14</v>
+      </c>
+      <c r="P44" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>35</v>
+      </c>
+      <c r="R44" t="n">
+        <v>13</v>
+      </c>
+      <c r="S44" t="n">
+        <v>11</v>
+      </c>
+      <c r="T44" t="n">
+        <v>14</v>
+      </c>
+      <c r="U44" t="n">
+        <v>12</v>
+      </c>
+      <c r="V44" t="n">
+        <v>8</v>
+      </c>
+      <c r="W44" t="n">
+        <v>5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC44" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>22</v>
+      </c>
+      <c r="J45" t="n">
+        <v>27</v>
+      </c>
+      <c r="K45" t="n">
+        <v>49</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8</v>
+      </c>
+      <c r="O45" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>29</v>
+      </c>
+      <c r="R45" t="n">
+        <v>13</v>
+      </c>
+      <c r="S45" t="n">
+        <v>20</v>
+      </c>
+      <c r="T45" t="n">
+        <v>10</v>
+      </c>
+      <c r="U45" t="n">
+        <v>7</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>897717</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897717.html</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+      <c r="I46" t="n">
+        <v>28</v>
+      </c>
+      <c r="J46" t="n">
+        <v>23</v>
+      </c>
+      <c r="K46" t="n">
+        <v>51</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" t="n">
+        <v>6</v>
+      </c>
+      <c r="P46" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>26</v>
+      </c>
+      <c r="R46" t="n">
+        <v>16</v>
+      </c>
+      <c r="S46" t="n">
+        <v>18</v>
+      </c>
+      <c r="T46" t="n">
+        <v>14</v>
+      </c>
+      <c r="U46" t="n">
+        <v>28</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>897708</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897708.html</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>14</v>
+      </c>
+      <c r="K47" t="n">
+        <v>36</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>20</v>
+      </c>
+      <c r="P47" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>28</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6</v>
+      </c>
+      <c r="S47" t="n">
+        <v>28</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
+        <v>28</v>
+      </c>
+      <c r="V47" t="n">
+        <v>5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>3</v>
+      </c>
+      <c r="X47" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>897703</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897703.html</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>47</v>
+      </c>
+      <c r="J48" t="n">
+        <v>20</v>
+      </c>
+      <c r="K48" t="n">
+        <v>67</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>12</v>
+      </c>
+      <c r="P48" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>23</v>
+      </c>
+      <c r="R48" t="n">
+        <v>10</v>
+      </c>
+      <c r="S48" t="n">
+        <v>9</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3</v>
+      </c>
+      <c r="U48" t="n">
+        <v>21</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC48" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>897693</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897693.html</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>28</v>
+      </c>
+      <c r="J49" t="n">
+        <v>18</v>
+      </c>
+      <c r="K49" t="n">
+        <v>46</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10</v>
+      </c>
+      <c r="O49" t="n">
+        <v>10</v>
+      </c>
+      <c r="P49" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>14</v>
+      </c>
+      <c r="R49" t="n">
+        <v>22</v>
+      </c>
+      <c r="S49" t="n">
+        <v>13</v>
+      </c>
+      <c r="T49" t="n">
+        <v>7</v>
+      </c>
+      <c r="U49" t="n">
+        <v>24</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2</v>
+      </c>
+      <c r="X49" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>897737</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897737.html</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>29</v>
+      </c>
+      <c r="J50" t="n">
+        <v>27</v>
+      </c>
+      <c r="K50" t="n">
+        <v>56</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>6</v>
+      </c>
+      <c r="O50" t="n">
+        <v>8</v>
+      </c>
+      <c r="P50" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>28</v>
+      </c>
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
+      <c r="S50" t="n">
+        <v>12</v>
+      </c>
+      <c r="T50" t="n">
+        <v>23</v>
+      </c>
+      <c r="U50" t="n">
+        <v>22</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3</v>
+      </c>
+      <c r="W50" t="n">
+        <v>6</v>
+      </c>
+      <c r="X50" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>897729</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897729.html</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>33</v>
+      </c>
+      <c r="J51" t="n">
+        <v>29</v>
+      </c>
+      <c r="K51" t="n">
+        <v>62</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8</v>
+      </c>
+      <c r="P51" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>23</v>
+      </c>
+      <c r="R51" t="n">
+        <v>10</v>
+      </c>
+      <c r="S51" t="n">
+        <v>23</v>
+      </c>
+      <c r="T51" t="n">
+        <v>31</v>
+      </c>
+      <c r="U51" t="n">
+        <v>38</v>
+      </c>
+      <c r="V51" t="n">
+        <v>9</v>
+      </c>
+      <c r="W51" t="n">
+        <v>4</v>
+      </c>
+      <c r="X51" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC51" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>897723</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897723.html</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>50</v>
+      </c>
+      <c r="J52" t="n">
+        <v>30</v>
+      </c>
+      <c r="K52" t="n">
+        <v>80</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8</v>
+      </c>
+      <c r="O52" t="n">
+        <v>10</v>
+      </c>
+      <c r="P52" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>32</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>14</v>
+      </c>
+      <c r="T52" t="n">
+        <v>30</v>
+      </c>
+      <c r="U52" t="n">
+        <v>39</v>
+      </c>
+      <c r="V52" t="n">
+        <v>5</v>
+      </c>
+      <c r="W52" t="n">
+        <v>4</v>
+      </c>
+      <c r="X52" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC52" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>17-10-2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>897659</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897659.html</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+      <c r="I53" t="n">
+        <v>32</v>
+      </c>
+      <c r="J53" t="n">
+        <v>33</v>
+      </c>
+      <c r="K53" t="n">
+        <v>65</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>6</v>
+      </c>
+      <c r="O53" t="n">
+        <v>12</v>
+      </c>
+      <c r="P53" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>27</v>
+      </c>
+      <c r="R53" t="n">
+        <v>9</v>
+      </c>
+      <c r="S53" t="n">
+        <v>18</v>
+      </c>
+      <c r="T53" t="n">
+        <v>13</v>
+      </c>
+      <c r="U53" t="n">
+        <v>23</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2</v>
+      </c>
+      <c r="X53" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC53" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>15-10-2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>897649</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897649.html</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41</v>
+      </c>
+      <c r="J54" t="n">
+        <v>41</v>
+      </c>
+      <c r="K54" t="n">
+        <v>82</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>6</v>
+      </c>
+      <c r="P54" t="n">
         <v>37</v>
       </c>
-      <c r="U31" t="n">
+      <c r="Q54" t="n">
+        <v>30</v>
+      </c>
+      <c r="R54" t="n">
+        <v>15</v>
+      </c>
+      <c r="S54" t="n">
+        <v>13</v>
+      </c>
+      <c r="T54" t="n">
+        <v>9</v>
+      </c>
+      <c r="U54" t="n">
+        <v>18</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3</v>
+      </c>
+      <c r="W54" t="n">
+        <v>4</v>
+      </c>
+      <c r="X54" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC54" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>897692</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897692.html</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>47</v>
+      </c>
+      <c r="K55" t="n">
+        <v>74</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>6</v>
+      </c>
+      <c r="O55" t="n">
+        <v>6</v>
+      </c>
+      <c r="P55" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>28</v>
+      </c>
+      <c r="R55" t="n">
+        <v>17</v>
+      </c>
+      <c r="S55" t="n">
+        <v>7</v>
+      </c>
+      <c r="T55" t="n">
+        <v>13</v>
+      </c>
+      <c r="U55" t="n">
+        <v>17</v>
+      </c>
+      <c r="V55" t="n">
+        <v>9</v>
+      </c>
+      <c r="W55" t="n">
+        <v>5</v>
+      </c>
+      <c r="X55" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC55" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>897774</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897774.html</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>40</v>
+      </c>
+      <c r="J56" t="n">
+        <v>29</v>
+      </c>
+      <c r="K56" t="n">
+        <v>69</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>12</v>
+      </c>
+      <c r="O56" t="n">
+        <v>12</v>
+      </c>
+      <c r="P56" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>25</v>
+      </c>
+      <c r="R56" t="n">
+        <v>11</v>
+      </c>
+      <c r="S56" t="n">
+        <v>19</v>
+      </c>
+      <c r="T56" t="n">
+        <v>18</v>
+      </c>
+      <c r="U56" t="n">
+        <v>15</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2</v>
+      </c>
+      <c r="X56" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC56" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>897734</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897734.html</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>41</v>
+      </c>
+      <c r="J57" t="n">
+        <v>19</v>
+      </c>
+      <c r="K57" t="n">
+        <v>60</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>6</v>
+      </c>
+      <c r="O57" t="n">
+        <v>4</v>
+      </c>
+      <c r="P57" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>27</v>
+      </c>
+      <c r="R57" t="n">
+        <v>18</v>
+      </c>
+      <c r="S57" t="n">
+        <v>30</v>
+      </c>
+      <c r="T57" t="n">
+        <v>18</v>
+      </c>
+      <c r="U57" t="n">
+        <v>23</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4</v>
+      </c>
+      <c r="W57" t="n">
+        <v>7</v>
+      </c>
+      <c r="X57" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC57" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>897719</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897719.html</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>39</v>
+      </c>
+      <c r="J58" t="n">
+        <v>33</v>
+      </c>
+      <c r="K58" t="n">
+        <v>72</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>4</v>
+      </c>
+      <c r="P58" t="n">
         <v>24</v>
       </c>
-      <c r="V31" t="n">
+      <c r="Q58" t="n">
+        <v>30</v>
+      </c>
+      <c r="R58" t="n">
+        <v>17</v>
+      </c>
+      <c r="S58" t="n">
+        <v>16</v>
+      </c>
+      <c r="T58" t="n">
+        <v>22</v>
+      </c>
+      <c r="U58" t="n">
+        <v>21</v>
+      </c>
+      <c r="V58" t="n">
+        <v>5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>5</v>
+      </c>
+      <c r="X58" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC58" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>897712</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897712.html</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>33</v>
+      </c>
+      <c r="J59" t="n">
+        <v>28</v>
+      </c>
+      <c r="K59" t="n">
+        <v>61</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8</v>
+      </c>
+      <c r="O59" t="n">
+        <v>10</v>
+      </c>
+      <c r="P59" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>31</v>
+      </c>
+      <c r="R59" t="n">
+        <v>20</v>
+      </c>
+      <c r="S59" t="n">
+        <v>24</v>
+      </c>
+      <c r="T59" t="n">
+        <v>22</v>
+      </c>
+      <c r="U59" t="n">
+        <v>24</v>
+      </c>
+      <c r="V59" t="n">
+        <v>3</v>
+      </c>
+      <c r="W59" t="n">
+        <v>2</v>
+      </c>
+      <c r="X59" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC59" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>897702</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897702.html</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>38</v>
+      </c>
+      <c r="J60" t="n">
+        <v>25</v>
+      </c>
+      <c r="K60" t="n">
+        <v>63</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
         <v>4</v>
       </c>
-      <c r="W31" t="n">
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
+      <c r="P60" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>27</v>
+      </c>
+      <c r="R60" t="n">
+        <v>14</v>
+      </c>
+      <c r="S60" t="n">
+        <v>28</v>
+      </c>
+      <c r="T60" t="n">
+        <v>19</v>
+      </c>
+      <c r="U60" t="n">
+        <v>19</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1</v>
+      </c>
+      <c r="W60" t="n">
+        <v>4</v>
+      </c>
+      <c r="X60" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC60" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
         <v>3</v>
       </c>
-      <c r="X31" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB31" t="inlineStr">
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>27</v>
+      </c>
+      <c r="J61" t="n">
+        <v>22</v>
+      </c>
+      <c r="K61" t="n">
+        <v>49</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6</v>
+      </c>
+      <c r="O61" t="n">
+        <v>8</v>
+      </c>
+      <c r="P61" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>23</v>
+      </c>
+      <c r="R61" t="n">
+        <v>20</v>
+      </c>
+      <c r="S61" t="n">
+        <v>13</v>
+      </c>
+      <c r="T61" t="n">
+        <v>7</v>
+      </c>
+      <c r="U61" t="n">
+        <v>10</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB61" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AC31" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>3.3</v>
+      <c r="AC61" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>14-11-2025</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>897770</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897770.html</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="n">
+        <v>28</v>
+      </c>
+      <c r="J62" t="n">
+        <v>27</v>
+      </c>
+      <c r="K62" t="n">
+        <v>55</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2</v>
+      </c>
+      <c r="P62" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>30</v>
+      </c>
+      <c r="R62" t="n">
+        <v>18</v>
+      </c>
+      <c r="S62" t="n">
+        <v>26</v>
+      </c>
+      <c r="T62" t="n">
+        <v>15</v>
+      </c>
+      <c r="U62" t="n">
+        <v>29</v>
+      </c>
+      <c r="V62" t="n">
+        <v>5</v>
+      </c>
+      <c r="W62" t="n">
+        <v>3</v>
+      </c>
+      <c r="X62" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC62" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>897724</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897724.html</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>23</v>
+      </c>
+      <c r="K63" t="n">
+        <v>49</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>8</v>
+      </c>
+      <c r="O63" t="n">
+        <v>6</v>
+      </c>
+      <c r="P63" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>25</v>
+      </c>
+      <c r="R63" t="n">
+        <v>25</v>
+      </c>
+      <c r="S63" t="n">
+        <v>21</v>
+      </c>
+      <c r="T63" t="n">
+        <v>12</v>
+      </c>
+      <c r="U63" t="n">
+        <v>16</v>
+      </c>
+      <c r="V63" t="n">
+        <v>5</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC63" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>897715</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897715.html</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="n">
+        <v>19</v>
+      </c>
+      <c r="J64" t="n">
+        <v>24</v>
+      </c>
+      <c r="K64" t="n">
+        <v>43</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2</v>
+      </c>
+      <c r="O64" t="n">
+        <v>4</v>
+      </c>
+      <c r="P64" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>22</v>
+      </c>
+      <c r="R64" t="n">
+        <v>20</v>
+      </c>
+      <c r="S64" t="n">
+        <v>21</v>
+      </c>
+      <c r="T64" t="n">
+        <v>11</v>
+      </c>
+      <c r="U64" t="n">
+        <v>16</v>
+      </c>
+      <c r="V64" t="n">
+        <v>4</v>
+      </c>
+      <c r="W64" t="n">
+        <v>3</v>
+      </c>
+      <c r="X64" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC64" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -4025,7 +7796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4178,359 +7949,359 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>31.8</v>
+        <v>40.6</v>
       </c>
       <c r="H2" t="n">
-        <v>10.7</v>
+        <v>87.8</v>
       </c>
       <c r="I2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>55.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.829999999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3179999999999999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.09899999999999999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.4</v>
       </c>
-      <c r="J2" t="n">
-        <v>32.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>47.22000000000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.499999999999999</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-0.091</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.8699999999999999</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.6</v>
-      </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.880000000000001</v>
+        <v>8.879999999999999</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.73</v>
+        <v>0.7099999999999997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="G3" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>45.7</v>
+        <v>47.5</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.7</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K3" t="n">
         <v>32.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>102.7</v>
-      </c>
       <c r="L3" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M3" t="n">
-        <v>20.8</v>
+        <v>22.6</v>
       </c>
       <c r="N3" t="n">
-        <v>2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>46.28</v>
+        <v>50.02</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.93</v>
+        <v>1.089999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.195</v>
+        <v>0.18</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1313333333333333</v>
+        <v>0.065</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8960000000000001</v>
+        <v>0.734</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="U3" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="V3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.6</v>
       </c>
-      <c r="W3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.2</v>
-      </c>
       <c r="Y3" t="n">
-        <v>8.199999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>12.52</v>
+        <v>13.82</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.680000000000001</v>
+        <v>0.08000000000000007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.8</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>-1.5</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>30.8</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>33.2</v>
+        <v>49</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>28.4</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>31.8</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.9</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>21.4</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.9</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
-        <v>59.62</v>
+        <v>56.63333333333333</v>
       </c>
       <c r="P4" t="n">
-        <v>2.32</v>
+        <v>-2.349999999999998</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.066</v>
+        <v>0.05666666666666667</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6839999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.4</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5999999999999999</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.8</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6</v>
+        <v>-5.000000000000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>9.24</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.3</v>
+        <v>-6.899999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3</v>
+        <v>-1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>33.8</v>
+        <v>32</v>
       </c>
       <c r="H5" t="n">
-        <v>66.2</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.5</v>
+        <v>-2.4</v>
       </c>
       <c r="J5" t="n">
-        <v>27.8</v>
+        <v>29</v>
       </c>
       <c r="K5" t="n">
-        <v>33.7</v>
+        <v>28</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="n">
-        <v>15.4</v>
+        <v>21.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4</v>
+        <v>-4.4</v>
       </c>
       <c r="O5" t="n">
-        <v>49.68</v>
+        <v>61.16</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5499999999999993</v>
+        <v>-2.25</v>
       </c>
       <c r="Q5" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T5" t="n">
         <v>0.1</v>
       </c>
-      <c r="R5" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T5" t="n">
-        <v>-0.1</v>
-      </c>
       <c r="U5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="V5" t="n">
-        <v>-1.3</v>
+        <v>0.1</v>
       </c>
       <c r="W5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.6</v>
+        <v>11.62</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.39</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4540,167 +8311,829 @@
         <v>2.2</v>
       </c>
       <c r="D6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F6" t="n">
         <v>-0.3</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
       <c r="G6" t="n">
-        <v>28.2</v>
+        <v>32.4</v>
       </c>
       <c r="H6" t="n">
-        <v>52.2</v>
+        <v>134.3</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.5</v>
+        <v>-3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>35.6</v>
+        <v>25.2</v>
       </c>
       <c r="K6" t="n">
-        <v>66.80000000000001</v>
+        <v>31.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="M6" t="n">
-        <v>17.4</v>
+        <v>14.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="O6" t="n">
-        <v>46.58</v>
+        <v>50.28000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.48</v>
+        <v>-2.910000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1675</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.067</v>
+        <v>-0.02</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.8125</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.1</v>
+        <v>-0.09166666666666666</v>
       </c>
       <c r="U6" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.4</v>
       </c>
-      <c r="W6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>-1.8</v>
-      </c>
       <c r="Y6" t="n">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.8</v>
+        <v>-1.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.9</v>
+        <v>7.42</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.79</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D7" t="n">
         <v>2.6</v>
       </c>
       <c r="E7" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>28</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>49.76</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.420000000000002</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.04099999999999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5940000000000001</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.159</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-5.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27</v>
+      </c>
+      <c r="H8" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>47.64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6.580000000000001</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>43.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-3.550000000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.03000000000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9339999999999999</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.06599999999999999</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="N10" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F7" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>37.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>38.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="O10" t="n">
+        <v>51.67999999999999</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-4.970000000000001</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.03499999999999999</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.07499999999999998</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>105.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>53.76000000000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.790000000000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.02100000000000001</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9339999999999999</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.03299999999999999</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.5699999999999996</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>37</v>
+      </c>
+      <c r="H12" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>32</v>
+      </c>
+      <c r="K12" t="n">
+        <v>30</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>51.92</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.03300000000000001</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.03400000000000001</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>47</v>
+      </c>
+      <c r="M13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>15</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>53.18000000000001</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.3399999999999999</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.9</v>
       </c>
-      <c r="M7" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>45.86</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-0.5999999999999985</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.8879999999999999</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.08700000000000001</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="O15" t="n">
+        <v>51.47499999999999</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.03000000000000185</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8325</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V15" t="n">
         <v>-0.7</v>
       </c>
-      <c r="W7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="W15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z15" t="n">
         <v>-0.8</v>
       </c>
-      <c r="Y7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>-4.220000000000001</v>
+      <c r="AA15" t="n">
+        <v>7.175</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.8899999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH64"/>
+  <dimension ref="A1:AH71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1863,7 +1863,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1873,82 +1873,82 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897713</v>
+        <v>897722</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897713.html</t>
+          <t>https://text.khl.ru/text/897722.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J13" t="n">
+        <v>21</v>
+      </c>
+      <c r="K13" t="n">
+        <v>51</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8</v>
+      </c>
+      <c r="P13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>33</v>
+      </c>
+      <c r="R13" t="n">
+        <v>11</v>
+      </c>
+      <c r="S13" t="n">
         <v>18</v>
       </c>
-      <c r="K13" t="n">
-        <v>57</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>22</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="T13" t="n">
+        <v>6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
         <v>21</v>
       </c>
-      <c r="P13" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>21</v>
-      </c>
-      <c r="R13" t="n">
-        <v>12</v>
-      </c>
-      <c r="S13" t="n">
-        <v>21</v>
-      </c>
-      <c r="T13" t="n">
-        <v>18</v>
-      </c>
-      <c r="U13" t="n">
-        <v>23</v>
-      </c>
-      <c r="V13" t="n">
-        <v>10</v>
-      </c>
-      <c r="W13" t="n">
-        <v>12</v>
-      </c>
-      <c r="X13" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>20</v>
-      </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -1956,28 +1956,28 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>63.8</v>
+        <v>46.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>43.9</v>
+        <v>37.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1987,82 +1987,82 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897697</v>
+        <v>897713</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897697.html</t>
+          <t>https://text.khl.ru/text/897713.html</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
+        <v>39</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18</v>
+      </c>
+      <c r="K14" t="n">
+        <v>57</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>22</v>
+      </c>
+      <c r="O14" t="n">
+        <v>21</v>
+      </c>
+      <c r="P14" t="n">
         <v>37</v>
       </c>
-      <c r="J14" t="n">
-        <v>25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>62</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>34</v>
-      </c>
       <c r="Q14" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="R14" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="T14" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="U14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="V14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -2070,10 +2070,10 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>50.7</v>
+        <v>63.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>46.7</v>
+        <v>43.9</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2082,101 +2082,101 @@
         <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AH14" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897778</v>
+        <v>897705</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897778.html</t>
+          <t>https://text.khl.ru/text/897705.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>32</v>
+      </c>
+      <c r="J15" t="n">
+        <v>23</v>
+      </c>
+      <c r="K15" t="n">
+        <v>55</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>4</v>
+      </c>
+      <c r="P15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>28</v>
+      </c>
+      <c r="R15" t="n">
+        <v>10</v>
+      </c>
+      <c r="S15" t="n">
+        <v>16</v>
+      </c>
+      <c r="T15" t="n">
+        <v>10</v>
+      </c>
+      <c r="U15" t="n">
+        <v>19</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7</v>
+      </c>
+      <c r="W15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>34</v>
-      </c>
-      <c r="J15" t="n">
-        <v>27</v>
-      </c>
-      <c r="K15" t="n">
-        <v>61</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>7</v>
-      </c>
-      <c r="P15" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>22</v>
-      </c>
-      <c r="R15" t="n">
-        <v>12</v>
-      </c>
-      <c r="S15" t="n">
-        <v>25</v>
-      </c>
-      <c r="T15" t="n">
-        <v>36</v>
-      </c>
-      <c r="U15" t="n">
-        <v>13</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4</v>
-      </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
         <v>6</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2184,71 +2184,71 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>64.5</v>
+        <v>50.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>73.5</v>
+        <v>34.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.800000000000001</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13-11-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Ак Барс</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Динамо М</t>
-        </is>
-      </c>
       <c r="D16" t="n">
-        <v>897768</v>
+        <v>897697</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897768.html</t>
+          <t>https://text.khl.ru/text/897697.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J16" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>6</v>
@@ -2257,69 +2257,69 @@
         <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="n">
+        <v>33</v>
+      </c>
+      <c r="R16" t="n">
         <v>24</v>
       </c>
-      <c r="R16" t="n">
-        <v>8</v>
-      </c>
       <c r="S16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T16" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V16" t="n">
+        <v>6</v>
+      </c>
+      <c r="W16" t="n">
         <v>3</v>
       </c>
-      <c r="W16" t="n">
-        <v>1</v>
-      </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>59.3</v>
+        <v>50.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>52.4</v>
+        <v>46.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2329,15 +2329,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897716</v>
+        <v>897778</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897716.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2347,16 +2347,16 @@
         <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K17" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -2365,46 +2365,46 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P17" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q17" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R17" t="n">
         <v>12</v>
       </c>
       <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="n">
+        <v>36</v>
+      </c>
+      <c r="U17" t="n">
+        <v>13</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4</v>
+      </c>
+      <c r="X17" t="n">
         <v>23</v>
       </c>
-      <c r="T17" t="n">
-        <v>15</v>
-      </c>
-      <c r="U17" t="n">
-        <v>22</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>19</v>
-      </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2412,28 +2412,28 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>65.5</v>
+        <v>64.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>40.5</v>
+        <v>73.5</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="AG17" t="n">
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.3</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2443,82 +2443,82 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897706</v>
+        <v>897768</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897706.html</t>
+          <t>https://text.khl.ru/text/897768.html</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>33</v>
+      </c>
+      <c r="J18" t="n">
         <v>27</v>
       </c>
-      <c r="J18" t="n">
-        <v>31</v>
-      </c>
       <c r="K18" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
         <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q18" t="n">
+        <v>24</v>
+      </c>
+      <c r="R18" t="n">
+        <v>8</v>
+      </c>
+      <c r="S18" t="n">
+        <v>17</v>
+      </c>
+      <c r="T18" t="n">
+        <v>22</v>
+      </c>
+      <c r="U18" t="n">
+        <v>20</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
         <v>19</v>
       </c>
-      <c r="R18" t="n">
-        <v>19</v>
-      </c>
-      <c r="S18" t="n">
-        <v>9</v>
-      </c>
-      <c r="T18" t="n">
-        <v>18</v>
-      </c>
-      <c r="U18" t="n">
-        <v>11</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4</v>
-      </c>
-      <c r="W18" t="n">
-        <v>5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>29</v>
-      </c>
       <c r="Y18" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Z18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2526,28 +2526,28 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>67.2</v>
+        <v>59.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>62.1</v>
+        <v>52.4</v>
       </c>
       <c r="AE18" t="n">
         <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2557,15 +2557,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897697</v>
+        <v>897716</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897697.html</t>
+          <t>https://text.khl.ru/text/897716.html</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2575,318 +2575,321 @@
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="J19" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="K19" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P19" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="R19" t="n">
+        <v>12</v>
+      </c>
+      <c r="S19" t="n">
+        <v>23</v>
+      </c>
+      <c r="T19" t="n">
         <v>15</v>
       </c>
-      <c r="S19" t="n">
-        <v>24</v>
-      </c>
-      <c r="T19" t="n">
-        <v>16</v>
-      </c>
       <c r="U19" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
         <v>4</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>49.3</v>
+        <v>65.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>53.3</v>
+        <v>40.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG19" t="n">
         <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897759</v>
+        <v>897706</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897759.html</t>
+          <t>https://text.khl.ru/text/897706.html</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>27</v>
+      </c>
+      <c r="J20" t="n">
+        <v>31</v>
+      </c>
+      <c r="K20" t="n">
+        <v>58</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>19</v>
+      </c>
+      <c r="R20" t="n">
+        <v>19</v>
+      </c>
+      <c r="S20" t="n">
+        <v>9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>18</v>
+      </c>
+      <c r="U20" t="n">
+        <v>11</v>
+      </c>
+      <c r="V20" t="n">
         <v>4</v>
       </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>21</v>
-      </c>
-      <c r="K20" t="n">
-        <v>56</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>8</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="W20" t="n">
+        <v>5</v>
+      </c>
+      <c r="X20" t="n">
         <v>29</v>
       </c>
-      <c r="Q20" t="n">
-        <v>24</v>
-      </c>
-      <c r="R20" t="n">
-        <v>12</v>
-      </c>
-      <c r="S20" t="n">
-        <v>28</v>
-      </c>
-      <c r="T20" t="n">
-        <v>17</v>
-      </c>
-      <c r="U20" t="n">
-        <v>16</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>4</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8</v>
-      </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>54.7</v>
+        <v>67.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>51.5</v>
+        <v>62.1</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>0.33</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.9</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897748</v>
+        <v>897697</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897748.html</t>
+          <t>https://text.khl.ru/text/897697.html</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J21" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K21" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P21" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q21" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="R21" t="n">
         <v>15</v>
       </c>
       <c r="S21" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T21" t="n">
+        <v>16</v>
+      </c>
+      <c r="U21" t="n">
+        <v>14</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="n">
         <v>12</v>
       </c>
-      <c r="U21" t="n">
-        <v>9</v>
-      </c>
-      <c r="V21" t="n">
+      <c r="Z21" t="n">
         <v>4</v>
       </c>
-      <c r="W21" t="n">
-        <v>3</v>
-      </c>
-      <c r="X21" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2</v>
-      </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>55.1</v>
+        <v>49.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>57.1</v>
+        <v>53.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2896,82 +2899,82 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897735</v>
+        <v>897759</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897735.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J22" t="n">
+        <v>21</v>
+      </c>
+      <c r="K22" t="n">
+        <v>56</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>8</v>
+      </c>
+      <c r="P22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="n">
         <v>24</v>
       </c>
-      <c r="K22" t="n">
-        <v>75</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>17</v>
-      </c>
-      <c r="P22" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>27</v>
-      </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
         <v>28</v>
       </c>
       <c r="T22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
         <v>4</v>
       </c>
-      <c r="W22" t="n">
-        <v>5</v>
-      </c>
       <c r="X22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2979,28 +2982,25 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>50</v>
+        <v>54.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>42.9</v>
+        <v>51.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>5.9</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3010,111 +3010,111 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897715</v>
+        <v>897748</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897715.html</t>
+          <t>https://text.khl.ru/text/897748.html</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K23" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P23" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="n">
         <v>22</v>
       </c>
-      <c r="Q23" t="n">
-        <v>24</v>
-      </c>
       <c r="R23" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U23" t="n">
+        <v>9</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y23" t="n">
         <v>11</v>
       </c>
-      <c r="V23" t="n">
-        <v>3</v>
-      </c>
-      <c r="W23" t="n">
-        <v>4</v>
-      </c>
-      <c r="X23" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>20</v>
-      </c>
       <c r="Z23" t="n">
         <v>2</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>47.8</v>
+        <v>55.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>59.3</v>
+        <v>57.1</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AH23" t="n">
-        <v>12.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20-10-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3124,79 +3124,79 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897669</v>
+        <v>897735</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897669.html</t>
+          <t>https://text.khl.ru/text/897735.html</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J24" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K24" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="P24" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Q24" t="n">
         <v>27</v>
       </c>
       <c r="R24" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="T24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U24" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA24" t="n">
         <v>2</v>
@@ -3207,65 +3207,65 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>43.8</v>
+        <v>50</v>
       </c>
       <c r="AD24" t="n">
-        <v>45.2</v>
+        <v>42.9</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AG24" t="n">
         <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>9.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897778</v>
+        <v>897715</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897778.html</t>
+          <t>https://text.khl.ru/text/897715.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J25" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K25" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3274,46 +3274,46 @@
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
         <v>22</v>
       </c>
       <c r="Q25" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="R25" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S25" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T25" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U25" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="V25" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" t="n">
         <v>4</v>
       </c>
-      <c r="W25" t="n">
-        <v>1</v>
-      </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Y25" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
@@ -3321,10 +3321,10 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>35.5</v>
+        <v>47.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>26.5</v>
+        <v>59.3</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -3333,130 +3333,130 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>25.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>22-10-2025</t>
+          <t>20-10-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897678</v>
+        <v>897669</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897678.html</t>
+          <t>https://text.khl.ru/text/897669.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>22</v>
+      </c>
+      <c r="J26" t="n">
+        <v>31</v>
+      </c>
+      <c r="K26" t="n">
+        <v>53</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>4</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>26</v>
-      </c>
-      <c r="J26" t="n">
-        <v>25</v>
-      </c>
-      <c r="K26" t="n">
-        <v>51</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="O26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>27</v>
+      </c>
+      <c r="R26" t="n">
+        <v>21</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="n">
+        <v>14</v>
+      </c>
+      <c r="U26" t="n">
+        <v>17</v>
+      </c>
+      <c r="V26" t="n">
         <v>3</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6</v>
-      </c>
-      <c r="O26" t="n">
-        <v>8</v>
-      </c>
-      <c r="P26" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>25</v>
-      </c>
-      <c r="R26" t="n">
-        <v>20</v>
-      </c>
-      <c r="S26" t="n">
-        <v>19</v>
-      </c>
-      <c r="T26" t="n">
-        <v>13</v>
-      </c>
-      <c r="U26" t="n">
-        <v>20</v>
-      </c>
-      <c r="V26" t="n">
-        <v>5</v>
-      </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="Z26" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>52.8</v>
+        <v>43.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>39.4</v>
+        <v>45.2</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>15.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20-10-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3466,111 +3466,111 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897670</v>
+        <v>897778</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897670.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
+        <v>27</v>
+      </c>
+      <c r="J27" t="n">
+        <v>34</v>
+      </c>
+      <c r="K27" t="n">
+        <v>61</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" t="n">
         <v>5</v>
       </c>
-      <c r="I27" t="n">
+      <c r="P27" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>40</v>
+      </c>
+      <c r="R27" t="n">
+        <v>25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>12</v>
+      </c>
+      <c r="T27" t="n">
+        <v>13</v>
+      </c>
+      <c r="U27" t="n">
         <v>36</v>
       </c>
-      <c r="J27" t="n">
+      <c r="V27" t="n">
+        <v>4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y27" t="n">
         <v>23</v>
       </c>
-      <c r="K27" t="n">
-        <v>59</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="n">
-        <v>14</v>
-      </c>
-      <c r="O27" t="n">
-        <v>10</v>
-      </c>
-      <c r="P27" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>34</v>
-      </c>
-      <c r="R27" t="n">
-        <v>15</v>
-      </c>
-      <c r="S27" t="n">
-        <v>30</v>
-      </c>
-      <c r="T27" t="n">
-        <v>10</v>
-      </c>
-      <c r="U27" t="n">
-        <v>11</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" t="n">
-        <v>2</v>
-      </c>
-      <c r="X27" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>24</v>
-      </c>
       <c r="Z27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>46.9</v>
+        <v>35.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>47.6</v>
+        <v>26.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="AH27" t="n">
-        <v>8.300000000000001</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>11-10-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3580,111 +3580,111 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897549</v>
+        <v>897678</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897549.html</t>
+          <t>https://text.khl.ru/text/897678.html</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J28" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K28" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
         <v>8</v>
       </c>
       <c r="P28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q28" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R28" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S28" t="n">
         <v>19</v>
       </c>
       <c r="T28" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="U28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V28" t="n">
         <v>5</v>
       </c>
       <c r="W28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>49.2</v>
+        <v>52.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>45.7</v>
+        <v>39.4</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>2.5</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>09-10-2025</t>
+          <t>20-10-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3694,82 +3694,82 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897627</v>
+        <v>897670</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897627.html</t>
+          <t>https://text.khl.ru/text/897670.html</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K29" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P29" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q29" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="R29" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S29" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="T29" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="U29" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -3777,124 +3777,124 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>64.40000000000001</v>
+        <v>46.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>45.7</v>
+        <v>47.6</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AH29" t="n">
-        <v>5.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>11-10-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897776</v>
+        <v>897549</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897776.html</t>
+          <t>https://text.khl.ru/text/897549.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
+        <v>40</v>
+      </c>
+      <c r="J30" t="n">
+        <v>33</v>
+      </c>
+      <c r="K30" t="n">
+        <v>73</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>12</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q30" t="n">
         <v>31</v>
       </c>
-      <c r="J30" t="n">
-        <v>41</v>
-      </c>
-      <c r="K30" t="n">
-        <v>72</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>9</v>
-      </c>
-      <c r="O30" t="n">
-        <v>6</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="R30" t="n">
+        <v>14</v>
+      </c>
+      <c r="S30" t="n">
         <v>19</v>
       </c>
-      <c r="Q30" t="n">
-        <v>39</v>
-      </c>
-      <c r="R30" t="n">
-        <v>16</v>
-      </c>
-      <c r="S30" t="n">
-        <v>13</v>
-      </c>
       <c r="T30" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="U30" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="V30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W30" t="n">
         <v>4</v>
       </c>
       <c r="X30" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y30" t="n">
         <v>15</v>
       </c>
-      <c r="Y30" t="n">
-        <v>11</v>
-      </c>
       <c r="Z30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AA30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>32.8</v>
+        <v>49.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>48</v>
+        <v>45.7</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -3903,101 +3903,101 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AH30" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>24-10-2025</t>
+          <t>09-10-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897684</v>
+        <v>897627</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897684.html</t>
+          <t>https://text.khl.ru/text/897627.html</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="J31" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="K31" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
+        <v>12</v>
+      </c>
+      <c r="P31" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>21</v>
+      </c>
+      <c r="R31" t="n">
         <v>6</v>
       </c>
-      <c r="P31" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>32</v>
-      </c>
-      <c r="R31" t="n">
-        <v>24</v>
-      </c>
       <c r="S31" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="T31" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U31" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="V31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z31" t="n">
         <v>5</v>
       </c>
-      <c r="X31" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>20</v>
-      </c>
       <c r="AA31" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
@@ -4005,28 +4005,28 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>45.8</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>55.2</v>
+        <v>45.7</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>9.1</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>22-10-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4036,93 +4036,93 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>897678</v>
+        <v>897776</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897678.html</t>
+          <t>https://text.khl.ru/text/897776.html</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J32" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K32" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
         <v>6</v>
       </c>
       <c r="P32" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q32" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="R32" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S32" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T32" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U32" t="n">
         <v>13</v>
       </c>
       <c r="V32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA32" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>47.2</v>
+        <v>32.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>60.6</v>
+        <v>48</v>
       </c>
       <c r="AE32" t="n">
         <v>0</v>
@@ -4131,16 +4131,16 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10-10-2025</t>
+          <t>24-10-2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4150,111 +4150,111 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>897633</v>
+        <v>897684</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897633.html</t>
+          <t>https://text.khl.ru/text/897684.html</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J33" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
         <v>6</v>
       </c>
       <c r="P33" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>32</v>
+      </c>
+      <c r="R33" t="n">
+        <v>24</v>
+      </c>
+      <c r="S33" t="n">
+        <v>9</v>
+      </c>
+      <c r="T33" t="n">
+        <v>16</v>
+      </c>
+      <c r="U33" t="n">
+        <v>13</v>
+      </c>
+      <c r="V33" t="n">
+        <v>10</v>
+      </c>
+      <c r="W33" t="n">
+        <v>5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z33" t="n">
         <v>20</v>
       </c>
-      <c r="Q33" t="n">
-        <v>22</v>
-      </c>
-      <c r="R33" t="n">
-        <v>16</v>
-      </c>
-      <c r="S33" t="n">
-        <v>13</v>
-      </c>
-      <c r="T33" t="n">
-        <v>17</v>
-      </c>
-      <c r="U33" t="n">
-        <v>12</v>
-      </c>
-      <c r="V33" t="n">
-        <v>3</v>
-      </c>
-      <c r="W33" t="n">
-        <v>3</v>
-      </c>
-      <c r="X33" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>13</v>
-      </c>
       <c r="AA33" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>47.6</v>
+        <v>45.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>58.6</v>
+        <v>55.2</v>
       </c>
       <c r="AE33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>07-10-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4264,310 +4264,310 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>897623</v>
+        <v>897678</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897623.html</t>
+          <t>https://text.khl.ru/text/897678.html</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+      <c r="J34" t="n">
+        <v>26</v>
+      </c>
+      <c r="K34" t="n">
+        <v>51</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
         <v>3</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>37</v>
-      </c>
-      <c r="J34" t="n">
-        <v>20</v>
-      </c>
-      <c r="K34" t="n">
-        <v>57</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
         <v>6</v>
       </c>
       <c r="P34" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q34" t="n">
+        <v>28</v>
+      </c>
+      <c r="R34" t="n">
         <v>19</v>
       </c>
-      <c r="R34" t="n">
-        <v>15</v>
-      </c>
       <c r="S34" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T34" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="U34" t="n">
+        <v>13</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3</v>
+      </c>
+      <c r="W34" t="n">
+        <v>5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA34" t="n">
         <v>18</v>
       </c>
-      <c r="V34" t="n">
-        <v>5</v>
-      </c>
-      <c r="W34" t="n">
-        <v>4</v>
-      </c>
-      <c r="X34" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>9</v>
-      </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>64.8</v>
+        <v>47.2</v>
       </c>
       <c r="AD34" t="n">
-        <v>37.9</v>
+        <v>60.6</v>
       </c>
       <c r="AE34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AH34" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>10-10-2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>897780</v>
+        <v>897633</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897780.html</t>
+          <t>https://text.khl.ru/text/897633.html</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>20</v>
+      </c>
+      <c r="J35" t="n">
+        <v>32</v>
+      </c>
+      <c r="K35" t="n">
+        <v>52</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>22</v>
+      </c>
+      <c r="R35" t="n">
+        <v>16</v>
+      </c>
+      <c r="S35" t="n">
+        <v>13</v>
+      </c>
+      <c r="T35" t="n">
+        <v>17</v>
+      </c>
+      <c r="U35" t="n">
+        <v>12</v>
+      </c>
+      <c r="V35" t="n">
         <v>3</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-      <c r="I35" t="n">
-        <v>35</v>
-      </c>
-      <c r="J35" t="n">
-        <v>22</v>
-      </c>
-      <c r="K35" t="n">
-        <v>57</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2</v>
-      </c>
-      <c r="O35" t="n">
-        <v>10</v>
-      </c>
-      <c r="P35" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>34</v>
-      </c>
-      <c r="R35" t="n">
-        <v>10</v>
-      </c>
-      <c r="S35" t="n">
-        <v>16</v>
-      </c>
-      <c r="T35" t="n">
-        <v>10</v>
-      </c>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
-      <c r="V35" t="n">
-        <v>4</v>
       </c>
       <c r="W35" t="n">
         <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>40.4</v>
+        <v>47.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>66.7</v>
+        <v>58.6</v>
       </c>
       <c r="AE35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AG35" t="n">
         <v>1</v>
       </c>
       <c r="AH35" t="n">
-        <v>8.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>07-10-2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>897750</v>
+        <v>897623</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897750.html</t>
+          <t>https://text.khl.ru/text/897623.html</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>37</v>
+      </c>
+      <c r="J36" t="n">
+        <v>20</v>
+      </c>
+      <c r="K36" t="n">
+        <v>57</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>19</v>
+      </c>
+      <c r="R36" t="n">
+        <v>15</v>
+      </c>
+      <c r="S36" t="n">
+        <v>16</v>
+      </c>
+      <c r="T36" t="n">
+        <v>11</v>
+      </c>
+      <c r="U36" t="n">
+        <v>18</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5</v>
+      </c>
+      <c r="W36" t="n">
         <v>4</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34</v>
-      </c>
-      <c r="J36" t="n">
-        <v>32</v>
-      </c>
-      <c r="K36" t="n">
-        <v>66</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>8</v>
-      </c>
-      <c r="O36" t="n">
-        <v>8</v>
-      </c>
-      <c r="P36" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>20</v>
-      </c>
-      <c r="R36" t="n">
-        <v>6</v>
-      </c>
-      <c r="S36" t="n">
-        <v>13</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2</v>
-      </c>
-      <c r="U36" t="n">
-        <v>8</v>
-      </c>
-      <c r="V36" t="n">
-        <v>8</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2</v>
-      </c>
       <c r="X36" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>10</v>
       </c>
       <c r="Z36" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
@@ -4575,28 +4575,28 @@
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>59.2</v>
+        <v>64.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>20</v>
+        <v>37.9</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG36" t="n">
         <v>1</v>
       </c>
       <c r="AH36" t="n">
-        <v>11.8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4606,15 +4606,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>897740</v>
+        <v>897780</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897740.html</t>
+          <t>https://text.khl.ru/text/897780.html</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4624,93 +4624,93 @@
         <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J37" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K37" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q37" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S37" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U37" t="n">
         <v>5</v>
       </c>
       <c r="V37" t="n">
+        <v>4</v>
+      </c>
+      <c r="W37" t="n">
         <v>3</v>
       </c>
-      <c r="W37" t="n">
-        <v>5</v>
-      </c>
       <c r="X37" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Y37" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AA37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>44.4</v>
+        <v>40.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>16.7</v>
+        <v>66.7</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AG37" t="n">
         <v>1</v>
       </c>
       <c r="AH37" t="n">
-        <v>9.699999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4720,82 +4720,82 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>897732</v>
+        <v>897750</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897732.html</t>
+          <t>https://text.khl.ru/text/897750.html</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
+        <v>34</v>
+      </c>
+      <c r="J38" t="n">
+        <v>32</v>
+      </c>
+      <c r="K38" t="n">
+        <v>66</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>8</v>
+      </c>
+      <c r="O38" t="n">
+        <v>8</v>
+      </c>
+      <c r="P38" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q38" t="n">
         <v>20</v>
       </c>
-      <c r="J38" t="n">
-        <v>36</v>
-      </c>
-      <c r="K38" t="n">
-        <v>56</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>4</v>
-      </c>
-      <c r="O38" t="n">
-        <v>4</v>
-      </c>
-      <c r="P38" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>33</v>
-      </c>
       <c r="R38" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="S38" t="n">
+        <v>13</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="n">
         <v>8</v>
       </c>
-      <c r="T38" t="n">
-        <v>9</v>
-      </c>
-      <c r="U38" t="n">
-        <v>12</v>
-      </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA38" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
@@ -4803,28 +4803,28 @@
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>38.9</v>
+        <v>59.2</v>
       </c>
       <c r="AD38" t="n">
-        <v>42.9</v>
+        <v>20</v>
       </c>
       <c r="AE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>1</v>
       </c>
       <c r="AH38" t="n">
-        <v>10</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4834,40 +4834,40 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>897706</v>
+        <v>897740</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897706.html</t>
+          <t>https://text.khl.ru/text/897740.html</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>31</v>
       </c>
       <c r="J39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K39" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>6</v>
@@ -4876,297 +4876,297 @@
         <v>6</v>
       </c>
       <c r="P39" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q39" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="R39" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S39" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="T39" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
+        <v>3</v>
+      </c>
+      <c r="W39" t="n">
         <v>5</v>
       </c>
-      <c r="W39" t="n">
-        <v>4</v>
-      </c>
       <c r="X39" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Y39" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="Z39" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>32.8</v>
+        <v>44.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>37.9</v>
+        <v>16.7</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>897776</v>
+        <v>897732</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897776.html</t>
+          <t>https://text.khl.ru/text/897732.html</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J40" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K40" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O40" t="n">
+        <v>4</v>
+      </c>
+      <c r="P40" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>33</v>
+      </c>
+      <c r="R40" t="n">
+        <v>19</v>
+      </c>
+      <c r="S40" t="n">
+        <v>8</v>
+      </c>
+      <c r="T40" t="n">
         <v>9</v>
-      </c>
-      <c r="P40" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>19</v>
-      </c>
-      <c r="R40" t="n">
-        <v>13</v>
-      </c>
-      <c r="S40" t="n">
-        <v>16</v>
-      </c>
-      <c r="T40" t="n">
-        <v>13</v>
       </c>
       <c r="U40" t="n">
         <v>12</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X40" t="n">
         <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Z40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>67.2</v>
+        <v>38.9</v>
       </c>
       <c r="AD40" t="n">
-        <v>52</v>
+        <v>42.9</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG40" t="n">
         <v>1</v>
       </c>
       <c r="AH40" t="n">
-        <v>2.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>897734</v>
+        <v>897706</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897734.html</t>
+          <t>https://text.khl.ru/text/897706.html</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>4</v>
       </c>
-      <c r="H41" t="n">
-        <v>3</v>
-      </c>
       <c r="I41" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J41" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="K41" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
         <v>6</v>
       </c>
       <c r="P41" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Q41" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="R41" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="S41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T41" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="U41" t="n">
         <v>18</v>
       </c>
       <c r="V41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W41" t="n">
         <v>4</v>
       </c>
       <c r="X41" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Y41" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Z41" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>50.9</v>
+        <v>32.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>56.1</v>
+        <v>37.9</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH41" t="n">
-        <v>21.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5176,70 +5176,70 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>897727</v>
+        <v>897776</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897727.html</t>
+          <t>https://text.khl.ru/text/897776.html</t>
         </is>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J42" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K42" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P42" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q42" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R42" t="n">
         <v>13</v>
       </c>
       <c r="S42" t="n">
+        <v>16</v>
+      </c>
+      <c r="T42" t="n">
         <v>13</v>
       </c>
-      <c r="T42" t="n">
-        <v>11</v>
-      </c>
       <c r="U42" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X42" t="n">
         <v>11</v>
@@ -5251,36 +5251,36 @@
         <v>7</v>
       </c>
       <c r="AA42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC42" t="n">
-        <v>52.5</v>
+        <v>67.2</v>
       </c>
       <c r="AD42" t="n">
-        <v>57.9</v>
+        <v>52</v>
       </c>
       <c r="AE42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
         <v>1</v>
       </c>
       <c r="AH42" t="n">
-        <v>15.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5290,111 +5290,111 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>897718</v>
+        <v>897734</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897718.html</t>
+          <t>https://text.khl.ru/text/897734.html</t>
         </is>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J43" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K43" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" t="n">
         <v>6</v>
       </c>
-      <c r="O43" t="n">
-        <v>20</v>
-      </c>
       <c r="P43" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q43" t="n">
+        <v>26</v>
+      </c>
+      <c r="R43" t="n">
         <v>30</v>
       </c>
-      <c r="R43" t="n">
-        <v>22</v>
-      </c>
       <c r="S43" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T43" t="n">
+        <v>23</v>
+      </c>
+      <c r="U43" t="n">
+        <v>18</v>
+      </c>
+      <c r="V43" t="n">
+        <v>7</v>
+      </c>
+      <c r="W43" t="n">
+        <v>4</v>
+      </c>
+      <c r="X43" t="n">
         <v>16</v>
       </c>
-      <c r="U43" t="n">
-        <v>27</v>
-      </c>
-      <c r="V43" t="n">
-        <v>4</v>
-      </c>
-      <c r="W43" t="n">
-        <v>8</v>
-      </c>
-      <c r="X43" t="n">
-        <v>45</v>
-      </c>
       <c r="Y43" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Z43" t="n">
         <v>3</v>
       </c>
       <c r="AA43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC43" t="n">
-        <v>40</v>
+        <v>50.9</v>
       </c>
       <c r="AD43" t="n">
-        <v>37.2</v>
+        <v>56.1</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH43" t="n">
-        <v>3.2</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>19-10-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5404,310 +5404,310 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>897665</v>
+        <v>897727</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897665.html</t>
+          <t>https://text.khl.ru/text/897727.html</t>
         </is>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J44" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K44" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="O44" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P44" t="n">
         <v>32</v>
       </c>
       <c r="Q44" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="R44" t="n">
         <v>13</v>
       </c>
       <c r="S44" t="n">
+        <v>13</v>
+      </c>
+      <c r="T44" t="n">
         <v>11</v>
       </c>
-      <c r="T44" t="n">
-        <v>14</v>
-      </c>
       <c r="U44" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V44" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y44" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Z44" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AA44" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC44" t="n">
-        <v>47.8</v>
+        <v>52.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>53.8</v>
+        <v>57.9</v>
       </c>
       <c r="AE44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.29</v>
+        <v>0.75</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="AH44" t="n">
-        <v>24</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>897777</v>
+        <v>897718</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897777.html</t>
+          <t>https://text.khl.ru/text/897718.html</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>31</v>
+      </c>
+      <c r="J45" t="n">
+        <v>21</v>
+      </c>
+      <c r="K45" t="n">
+        <v>52</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6</v>
+      </c>
+      <c r="O45" t="n">
+        <v>20</v>
+      </c>
+      <c r="P45" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>30</v>
+      </c>
+      <c r="R45" t="n">
+        <v>22</v>
+      </c>
+      <c r="S45" t="n">
+        <v>12</v>
+      </c>
+      <c r="T45" t="n">
+        <v>16</v>
+      </c>
+      <c r="U45" t="n">
+        <v>27</v>
+      </c>
+      <c r="V45" t="n">
         <v>4</v>
       </c>
-      <c r="H45" t="n">
+      <c r="W45" t="n">
+        <v>8</v>
+      </c>
+      <c r="X45" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z45" t="n">
         <v>3</v>
       </c>
-      <c r="I45" t="n">
-        <v>22</v>
-      </c>
-      <c r="J45" t="n">
-        <v>27</v>
-      </c>
-      <c r="K45" t="n">
-        <v>49</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>8</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="AA45" t="n">
         <v>6</v>
       </c>
-      <c r="P45" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>29</v>
-      </c>
-      <c r="R45" t="n">
-        <v>13</v>
-      </c>
-      <c r="S45" t="n">
-        <v>20</v>
-      </c>
-      <c r="T45" t="n">
-        <v>10</v>
-      </c>
-      <c r="U45" t="n">
-        <v>7</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1</v>
-      </c>
-      <c r="W45" t="n">
-        <v>2</v>
-      </c>
-      <c r="X45" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>5</v>
-      </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC45" t="n">
-        <v>44.2</v>
+        <v>40</v>
       </c>
       <c r="AD45" t="n">
-        <v>58.8</v>
+        <v>37.2</v>
       </c>
       <c r="AE45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AG45" t="n">
         <v>0.67</v>
       </c>
-      <c r="AF45" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>1</v>
-      </c>
       <c r="AH45" t="n">
-        <v>18.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>19-10-2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>897717</v>
+        <v>897665</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897717.html</t>
+          <t>https://text.khl.ru/text/897665.html</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I46" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J46" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K46" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O46" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q46" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R46" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S46" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="T46" t="n">
         <v>14</v>
       </c>
       <c r="U46" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X46" t="n">
         <v>12</v>
       </c>
       <c r="Y46" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z46" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AA46" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
@@ -5715,28 +5715,28 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>53.6</v>
+        <v>47.8</v>
       </c>
       <c r="AD46" t="n">
-        <v>33.3</v>
+        <v>53.8</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AH46" t="n">
-        <v>10.7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>30-10-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5746,22 +5746,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>897708</v>
+        <v>897777</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897708.html</t>
+          <t>https://text.khl.ru/text/897777.html</t>
         </is>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
         <v>3</v>
@@ -5770,87 +5770,87 @@
         <v>22</v>
       </c>
       <c r="J47" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K47" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O47" t="n">
+        <v>6</v>
+      </c>
+      <c r="P47" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>29</v>
+      </c>
+      <c r="R47" t="n">
+        <v>13</v>
+      </c>
+      <c r="S47" t="n">
         <v>20</v>
       </c>
-      <c r="P47" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>28</v>
-      </c>
-      <c r="R47" t="n">
-        <v>6</v>
-      </c>
-      <c r="S47" t="n">
-        <v>28</v>
-      </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U47" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="V47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2</v>
+      </c>
+      <c r="X47" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z47" t="n">
         <v>5</v>
-      </c>
-      <c r="W47" t="n">
-        <v>3</v>
-      </c>
-      <c r="X47" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>9</v>
       </c>
       <c r="AA47" t="n">
         <v>5</v>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>50</v>
+        <v>44.2</v>
       </c>
       <c r="AD47" t="n">
-        <v>6.7</v>
+        <v>58.8</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AG47" t="n">
         <v>1</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5860,111 +5860,111 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>897703</v>
+        <v>897717</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897703.html</t>
+          <t>https://text.khl.ru/text/897717.html</t>
         </is>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="n">
         <v>6</v>
       </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
       <c r="I48" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J48" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K48" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O48" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>26</v>
+      </c>
+      <c r="R48" t="n">
+        <v>16</v>
+      </c>
+      <c r="S48" t="n">
+        <v>18</v>
+      </c>
+      <c r="T48" t="n">
+        <v>14</v>
+      </c>
+      <c r="U48" t="n">
+        <v>28</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
         <v>12</v>
       </c>
-      <c r="P48" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>23</v>
-      </c>
-      <c r="R48" t="n">
-        <v>10</v>
-      </c>
-      <c r="S48" t="n">
+      <c r="Y48" t="n">
         <v>9</v>
       </c>
-      <c r="T48" t="n">
-        <v>3</v>
-      </c>
-      <c r="U48" t="n">
-        <v>21</v>
-      </c>
-      <c r="V48" t="n">
-        <v>2</v>
-      </c>
-      <c r="W48" t="n">
-        <v>2</v>
-      </c>
-      <c r="X48" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>8</v>
-      </c>
       <c r="Z48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC48" t="n">
-        <v>52.1</v>
+        <v>53.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>12.5</v>
+        <v>33.3</v>
       </c>
       <c r="AE48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH48" t="n">
-        <v>12.8</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5974,310 +5974,310 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>897693</v>
+        <v>897708</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897693.html</t>
+          <t>https://text.khl.ru/text/897708.html</t>
         </is>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49" t="n">
+        <v>22</v>
+      </c>
+      <c r="J49" t="n">
+        <v>14</v>
+      </c>
+      <c r="K49" t="n">
+        <v>36</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>20</v>
+      </c>
+      <c r="P49" t="n">
         <v>28</v>
       </c>
-      <c r="J49" t="n">
-        <v>18</v>
-      </c>
-      <c r="K49" t="n">
-        <v>46</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>10</v>
-      </c>
-      <c r="O49" t="n">
-        <v>10</v>
-      </c>
-      <c r="P49" t="n">
-        <v>31</v>
-      </c>
       <c r="Q49" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="R49" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="S49" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="T49" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="V49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X49" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y49" t="n">
         <v>6</v>
       </c>
       <c r="Z49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA49" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC49" t="n">
-        <v>68.90000000000001</v>
+        <v>50</v>
       </c>
       <c r="AD49" t="n">
-        <v>22.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
         <v>1</v>
       </c>
       <c r="AH49" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>897737</v>
+        <v>897703</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897737.html</t>
+          <t>https://text.khl.ru/text/897703.html</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J50" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K50" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
+        <v>12</v>
+      </c>
+      <c r="P50" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>23</v>
+      </c>
+      <c r="R50" t="n">
+        <v>10</v>
+      </c>
+      <c r="S50" t="n">
+        <v>9</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3</v>
+      </c>
+      <c r="U50" t="n">
+        <v>21</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2</v>
+      </c>
+      <c r="X50" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y50" t="n">
         <v>8</v>
       </c>
-      <c r="P50" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>28</v>
-      </c>
-      <c r="R50" t="n">
-        <v>15</v>
-      </c>
-      <c r="S50" t="n">
-        <v>12</v>
-      </c>
-      <c r="T50" t="n">
-        <v>23</v>
-      </c>
-      <c r="U50" t="n">
-        <v>22</v>
-      </c>
-      <c r="V50" t="n">
-        <v>3</v>
-      </c>
-      <c r="W50" t="n">
-        <v>6</v>
-      </c>
-      <c r="X50" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>25</v>
-      </c>
       <c r="Z50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA50" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC50" t="n">
-        <v>46.2</v>
+        <v>52.1</v>
       </c>
       <c r="AD50" t="n">
-        <v>51.1</v>
+        <v>12.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH50" t="n">
-        <v>6.9</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>04-11-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>897729</v>
+        <v>897693</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897729.html</t>
+          <t>https://text.khl.ru/text/897693.html</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J51" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K51" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
+        <v>10</v>
+      </c>
+      <c r="O51" t="n">
+        <v>10</v>
+      </c>
+      <c r="P51" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>14</v>
+      </c>
+      <c r="R51" t="n">
+        <v>22</v>
+      </c>
+      <c r="S51" t="n">
+        <v>13</v>
+      </c>
+      <c r="T51" t="n">
+        <v>7</v>
+      </c>
+      <c r="U51" t="n">
+        <v>24</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1</v>
+      </c>
+      <c r="W51" t="n">
+        <v>2</v>
+      </c>
+      <c r="X51" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z51" t="n">
         <v>8</v>
       </c>
-      <c r="O51" t="n">
-        <v>8</v>
-      </c>
-      <c r="P51" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>23</v>
-      </c>
-      <c r="R51" t="n">
-        <v>10</v>
-      </c>
-      <c r="S51" t="n">
-        <v>23</v>
-      </c>
-      <c r="T51" t="n">
-        <v>31</v>
-      </c>
-      <c r="U51" t="n">
-        <v>38</v>
-      </c>
-      <c r="V51" t="n">
-        <v>9</v>
-      </c>
-      <c r="W51" t="n">
-        <v>4</v>
-      </c>
-      <c r="X51" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>5</v>
-      </c>
       <c r="AA51" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
@@ -6285,28 +6285,28 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>52.1</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="AD51" t="n">
-        <v>44.9</v>
+        <v>22.6</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG51" t="n">
         <v>1</v>
       </c>
       <c r="AH51" t="n">
-        <v>3</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6316,15 +6316,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>897723</v>
+        <v>897737</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897723.html</t>
+          <t>https://text.khl.ru/text/897737.html</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -6337,61 +6337,61 @@
         <v>5</v>
       </c>
       <c r="I52" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="J52" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K52" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
+        <v>6</v>
+      </c>
+      <c r="O52" t="n">
         <v>8</v>
       </c>
-      <c r="O52" t="n">
-        <v>10</v>
-      </c>
       <c r="P52" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Q52" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S52" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T52" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="U52" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="V52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y52" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
@@ -6399,28 +6399,28 @@
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>54.3</v>
+        <v>46.2</v>
       </c>
       <c r="AD52" t="n">
-        <v>43.5</v>
+        <v>51.1</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AH52" t="n">
-        <v>4</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>17-10-2025</t>
+          <t>04-11-2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6430,111 +6430,111 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>897659</v>
+        <v>897729</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897659.html</t>
+          <t>https://text.khl.ru/text/897729.html</t>
         </is>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>29</v>
+      </c>
+      <c r="K53" t="n">
+        <v>62</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8</v>
+      </c>
+      <c r="O53" t="n">
+        <v>8</v>
+      </c>
+      <c r="P53" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>23</v>
+      </c>
+      <c r="R53" t="n">
+        <v>10</v>
+      </c>
+      <c r="S53" t="n">
+        <v>23</v>
+      </c>
+      <c r="T53" t="n">
+        <v>31</v>
+      </c>
+      <c r="U53" t="n">
+        <v>38</v>
+      </c>
+      <c r="V53" t="n">
+        <v>9</v>
+      </c>
+      <c r="W53" t="n">
+        <v>4</v>
+      </c>
+      <c r="X53" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA53" t="n">
         <v>3</v>
       </c>
-      <c r="H53" t="n">
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC53" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH53" t="n">
         <v>3</v>
-      </c>
-      <c r="I53" t="n">
-        <v>32</v>
-      </c>
-      <c r="J53" t="n">
-        <v>33</v>
-      </c>
-      <c r="K53" t="n">
-        <v>65</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>6</v>
-      </c>
-      <c r="O53" t="n">
-        <v>12</v>
-      </c>
-      <c r="P53" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>27</v>
-      </c>
-      <c r="R53" t="n">
-        <v>9</v>
-      </c>
-      <c r="S53" t="n">
-        <v>18</v>
-      </c>
-      <c r="T53" t="n">
-        <v>13</v>
-      </c>
-      <c r="U53" t="n">
-        <v>23</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1</v>
-      </c>
-      <c r="W53" t="n">
-        <v>2</v>
-      </c>
-      <c r="X53" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC53" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>36.1</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>9.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>15-10-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6544,82 +6544,82 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>897649</v>
+        <v>897723</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897649.html</t>
+          <t>https://text.khl.ru/text/897723.html</t>
         </is>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J54" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K54" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O54" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P54" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q54" t="n">
+        <v>32</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>14</v>
+      </c>
+      <c r="T54" t="n">
         <v>30</v>
       </c>
-      <c r="R54" t="n">
-        <v>15</v>
-      </c>
-      <c r="S54" t="n">
-        <v>13</v>
-      </c>
-      <c r="T54" t="n">
-        <v>9</v>
-      </c>
       <c r="U54" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="V54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W54" t="n">
         <v>4</v>
       </c>
       <c r="X54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y54" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Z54" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
@@ -6627,68 +6627,68 @@
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>55.2</v>
+        <v>54.3</v>
       </c>
       <c r="AD54" t="n">
-        <v>33.3</v>
+        <v>43.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG54" t="n">
         <v>0.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>7.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>17-10-2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>897692</v>
+        <v>897659</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897692.html</t>
+          <t>https://text.khl.ru/text/897659.html</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J55" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K55" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -6697,157 +6697,157 @@
         <v>6</v>
       </c>
       <c r="O55" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P55" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q55" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R55" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="S55" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="T55" t="n">
         <v>13</v>
       </c>
       <c r="U55" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="V55" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="W55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y55" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z55" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AA55" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>50</v>
+        <v>51.8</v>
       </c>
       <c r="AD55" t="n">
-        <v>43.3</v>
+        <v>36.1</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG55" t="n">
         <v>1</v>
       </c>
       <c r="AH55" t="n">
-        <v>25.9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>15-10-2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>897774</v>
+        <v>897649</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897774.html</t>
+          <t>https://text.khl.ru/text/897649.html</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J56" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K56" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O56" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P56" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q56" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R56" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S56" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T56" t="n">
+        <v>9</v>
+      </c>
+      <c r="U56" t="n">
         <v>18</v>
       </c>
-      <c r="U56" t="n">
+      <c r="V56" t="n">
+        <v>3</v>
+      </c>
+      <c r="W56" t="n">
+        <v>4</v>
+      </c>
+      <c r="X56" t="n">
         <v>15</v>
       </c>
-      <c r="V56" t="n">
+      <c r="Y56" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z56" t="n">
         <v>4</v>
       </c>
-      <c r="W56" t="n">
-        <v>2</v>
-      </c>
-      <c r="X56" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>2</v>
-      </c>
       <c r="AA56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB56" t="inlineStr">
         <is>
@@ -6855,113 +6855,113 @@
         </is>
       </c>
       <c r="AC56" t="n">
-        <v>59</v>
+        <v>55.2</v>
       </c>
       <c r="AD56" t="n">
-        <v>54.5</v>
+        <v>33.3</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>2.5</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>897734</v>
+        <v>897779</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897734.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F57" t="n">
         <v>1</v>
       </c>
       <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>43</v>
+      </c>
+      <c r="J57" t="n">
+        <v>43</v>
+      </c>
+      <c r="K57" t="n">
+        <v>86</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
         <v>3</v>
       </c>
-      <c r="H57" t="n">
+      <c r="N57" t="n">
+        <v>9</v>
+      </c>
+      <c r="O57" t="n">
+        <v>6</v>
+      </c>
+      <c r="P57" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>31</v>
+      </c>
+      <c r="R57" t="n">
+        <v>15</v>
+      </c>
+      <c r="S57" t="n">
+        <v>11</v>
+      </c>
+      <c r="T57" t="n">
+        <v>44</v>
+      </c>
+      <c r="U57" t="n">
+        <v>33</v>
+      </c>
+      <c r="V57" t="n">
+        <v>8</v>
+      </c>
+      <c r="W57" t="n">
         <v>4</v>
       </c>
-      <c r="I57" t="n">
-        <v>41</v>
-      </c>
-      <c r="J57" t="n">
-        <v>19</v>
-      </c>
-      <c r="K57" t="n">
-        <v>60</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="n">
-        <v>6</v>
-      </c>
-      <c r="O57" t="n">
-        <v>4</v>
-      </c>
-      <c r="P57" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>27</v>
-      </c>
-      <c r="R57" t="n">
+      <c r="X57" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z57" t="n">
         <v>18</v>
       </c>
-      <c r="S57" t="n">
-        <v>30</v>
-      </c>
-      <c r="T57" t="n">
-        <v>18</v>
-      </c>
-      <c r="U57" t="n">
-        <v>23</v>
-      </c>
-      <c r="V57" t="n">
-        <v>4</v>
-      </c>
-      <c r="W57" t="n">
-        <v>7</v>
-      </c>
-      <c r="X57" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>3</v>
-      </c>
       <c r="AA57" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AB57" t="inlineStr">
         <is>
@@ -6969,10 +6969,10 @@
         </is>
       </c>
       <c r="AC57" t="n">
-        <v>49.1</v>
+        <v>43.6</v>
       </c>
       <c r="AD57" t="n">
-        <v>43.9</v>
+        <v>57.1</v>
       </c>
       <c r="AE57" t="n">
         <v>0</v>
@@ -6981,101 +6981,101 @@
         <v>0</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AH57" t="n">
-        <v>7.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>897719</v>
+        <v>897764</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897719.html</t>
+          <t>https://text.khl.ru/text/897764.html</t>
         </is>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J58" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K58" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O58" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P58" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Q58" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="R58" t="n">
+        <v>7</v>
+      </c>
+      <c r="S58" t="n">
+        <v>31</v>
+      </c>
+      <c r="T58" t="n">
+        <v>14</v>
+      </c>
+      <c r="U58" t="n">
         <v>17</v>
       </c>
-      <c r="S58" t="n">
-        <v>16</v>
-      </c>
-      <c r="T58" t="n">
-        <v>22</v>
-      </c>
-      <c r="U58" t="n">
-        <v>21</v>
-      </c>
       <c r="V58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="W58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="X58" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Y58" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z58" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AA58" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AB58" t="inlineStr">
         <is>
@@ -7083,113 +7083,113 @@
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>44.4</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AD58" t="n">
-        <v>51.2</v>
+        <v>45.2</v>
       </c>
       <c r="AE58" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AG58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH58" t="n">
-        <v>10.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>897712</v>
+        <v>897754</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897712.html</t>
+          <t>https://text.khl.ru/text/897754.html</t>
         </is>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J59" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K59" t="n">
         <v>61</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O59" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P59" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="Q59" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="R59" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S59" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="T59" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U59" t="n">
         <v>24</v>
       </c>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W59" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X59" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Y59" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Z59" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AA59" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AB59" t="inlineStr">
         <is>
@@ -7197,167 +7197,167 @@
         </is>
       </c>
       <c r="AC59" t="n">
-        <v>56.3</v>
+        <v>29.3</v>
       </c>
       <c r="AD59" t="n">
-        <v>47.8</v>
+        <v>53.8</v>
       </c>
       <c r="AE59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF59" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH59" t="n">
-        <v>18.2</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>897702</v>
+        <v>897710</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897702.html</t>
+          <t>https://text.khl.ru/text/897710.html</t>
         </is>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J60" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K60" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O60" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P60" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Q60" t="n">
+        <v>21</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7</v>
+      </c>
+      <c r="S60" t="n">
+        <v>19</v>
+      </c>
+      <c r="T60" t="n">
         <v>27</v>
       </c>
-      <c r="R60" t="n">
+      <c r="U60" t="n">
         <v>14</v>
       </c>
-      <c r="S60" t="n">
-        <v>28</v>
-      </c>
-      <c r="T60" t="n">
-        <v>19</v>
-      </c>
-      <c r="U60" t="n">
-        <v>19</v>
-      </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X60" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Y60" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Z60" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="AA60" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC60" t="n">
-        <v>57.1</v>
+        <v>51.2</v>
       </c>
       <c r="AD60" t="n">
-        <v>50</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AE60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG60" t="n">
         <v>1</v>
       </c>
       <c r="AH60" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>897777</v>
+        <v>897692</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897777.html</t>
+          <t>https://text.khl.ru/text/897692.html</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H61" t="n">
         <v>4</v>
@@ -7366,69 +7366,69 @@
         <v>27</v>
       </c>
       <c r="J61" t="n">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K61" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>6</v>
       </c>
       <c r="O61" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P61" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q61" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R61" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S61" t="n">
+        <v>7</v>
+      </c>
+      <c r="T61" t="n">
         <v>13</v>
       </c>
-      <c r="T61" t="n">
-        <v>7</v>
-      </c>
       <c r="U61" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X61" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Y61" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z61" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AA61" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC61" t="n">
-        <v>55.8</v>
+        <v>50</v>
       </c>
       <c r="AD61" t="n">
-        <v>41.2</v>
+        <v>43.3</v>
       </c>
       <c r="AE61" t="n">
         <v>0</v>
@@ -7437,101 +7437,101 @@
         <v>0</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AH61" t="n">
-        <v>11.1</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>897770</v>
+        <v>897774</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897770.html</t>
+          <t>https://text.khl.ru/text/897774.html</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J62" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K62" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P62" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Q62" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R62" t="n">
+        <v>11</v>
+      </c>
+      <c r="S62" t="n">
+        <v>19</v>
+      </c>
+      <c r="T62" t="n">
         <v>18</v>
       </c>
-      <c r="S62" t="n">
-        <v>26</v>
-      </c>
-      <c r="T62" t="n">
+      <c r="U62" t="n">
         <v>15</v>
       </c>
-      <c r="U62" t="n">
-        <v>29</v>
-      </c>
       <c r="V62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X62" t="n">
         <v>11</v>
       </c>
       <c r="Y62" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Z62" t="n">
         <v>2</v>
       </c>
       <c r="AA62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB62" t="inlineStr">
         <is>
@@ -7539,113 +7539,113 @@
         </is>
       </c>
       <c r="AC62" t="n">
-        <v>43.4</v>
+        <v>59</v>
       </c>
       <c r="AD62" t="n">
-        <v>34.1</v>
+        <v>54.5</v>
       </c>
       <c r="AE62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AH62" t="n">
-        <v>7.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>897724</v>
+        <v>897734</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897724.html</t>
+          <t>https://text.khl.ru/text/897734.html</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
+        <v>41</v>
+      </c>
+      <c r="J63" t="n">
+        <v>19</v>
+      </c>
+      <c r="K63" t="n">
+        <v>60</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>6</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4</v>
+      </c>
+      <c r="P63" t="n">
         <v>26</v>
       </c>
-      <c r="J63" t="n">
+      <c r="Q63" t="n">
+        <v>27</v>
+      </c>
+      <c r="R63" t="n">
+        <v>18</v>
+      </c>
+      <c r="S63" t="n">
+        <v>30</v>
+      </c>
+      <c r="T63" t="n">
+        <v>18</v>
+      </c>
+      <c r="U63" t="n">
         <v>23</v>
       </c>
-      <c r="K63" t="n">
-        <v>49</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>8</v>
-      </c>
-      <c r="O63" t="n">
-        <v>6</v>
-      </c>
-      <c r="P63" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>25</v>
-      </c>
-      <c r="R63" t="n">
-        <v>25</v>
-      </c>
-      <c r="S63" t="n">
-        <v>21</v>
-      </c>
-      <c r="T63" t="n">
-        <v>12</v>
-      </c>
-      <c r="U63" t="n">
+      <c r="V63" t="n">
+        <v>4</v>
+      </c>
+      <c r="W63" t="n">
+        <v>7</v>
+      </c>
+      <c r="X63" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y63" t="n">
         <v>16</v>
       </c>
-      <c r="V63" t="n">
-        <v>5</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1</v>
-      </c>
-      <c r="X63" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>14</v>
-      </c>
       <c r="Z63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB63" t="inlineStr">
         <is>
@@ -7653,10 +7653,10 @@
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>54.5</v>
+        <v>49.1</v>
       </c>
       <c r="AD63" t="n">
-        <v>42.9</v>
+        <v>43.9</v>
       </c>
       <c r="AE63" t="n">
         <v>0</v>
@@ -7665,59 +7665,59 @@
         <v>0</v>
       </c>
       <c r="AG63" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH63" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>897715</v>
+        <v>897719</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897715.html</t>
+          <t>https://text.khl.ru/text/897719.html</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
         <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J64" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="K64" t="n">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>2</v>
@@ -7729,60 +7729,858 @@
         <v>24</v>
       </c>
       <c r="Q64" t="n">
+        <v>30</v>
+      </c>
+      <c r="R64" t="n">
+        <v>17</v>
+      </c>
+      <c r="S64" t="n">
+        <v>16</v>
+      </c>
+      <c r="T64" t="n">
         <v>22</v>
       </c>
-      <c r="R64" t="n">
+      <c r="U64" t="n">
+        <v>21</v>
+      </c>
+      <c r="V64" t="n">
+        <v>5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>5</v>
+      </c>
+      <c r="X64" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC64" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>897712</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897712.html</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>33</v>
+      </c>
+      <c r="J65" t="n">
+        <v>28</v>
+      </c>
+      <c r="K65" t="n">
+        <v>61</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>8</v>
+      </c>
+      <c r="O65" t="n">
+        <v>10</v>
+      </c>
+      <c r="P65" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>31</v>
+      </c>
+      <c r="R65" t="n">
         <v>20</v>
       </c>
-      <c r="S64" t="n">
+      <c r="S65" t="n">
+        <v>24</v>
+      </c>
+      <c r="T65" t="n">
+        <v>22</v>
+      </c>
+      <c r="U65" t="n">
+        <v>24</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3</v>
+      </c>
+      <c r="W65" t="n">
+        <v>2</v>
+      </c>
+      <c r="X65" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC65" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>897702</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897702.html</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>38</v>
+      </c>
+      <c r="J66" t="n">
+        <v>25</v>
+      </c>
+      <c r="K66" t="n">
+        <v>63</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>4</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
+      <c r="P66" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>27</v>
+      </c>
+      <c r="R66" t="n">
+        <v>14</v>
+      </c>
+      <c r="S66" t="n">
+        <v>28</v>
+      </c>
+      <c r="T66" t="n">
+        <v>19</v>
+      </c>
+      <c r="U66" t="n">
+        <v>19</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1</v>
+      </c>
+      <c r="W66" t="n">
+        <v>4</v>
+      </c>
+      <c r="X66" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC66" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3</v>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="n">
+        <v>22</v>
+      </c>
+      <c r="K67" t="n">
+        <v>49</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6</v>
+      </c>
+      <c r="O67" t="n">
+        <v>8</v>
+      </c>
+      <c r="P67" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>23</v>
+      </c>
+      <c r="R67" t="n">
+        <v>20</v>
+      </c>
+      <c r="S67" t="n">
+        <v>13</v>
+      </c>
+      <c r="T67" t="n">
+        <v>7</v>
+      </c>
+      <c r="U67" t="n">
+        <v>10</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC67" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>14-11-2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>897770</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897770.html</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28</v>
+      </c>
+      <c r="J68" t="n">
+        <v>27</v>
+      </c>
+      <c r="K68" t="n">
+        <v>55</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>30</v>
+      </c>
+      <c r="R68" t="n">
+        <v>18</v>
+      </c>
+      <c r="S68" t="n">
+        <v>26</v>
+      </c>
+      <c r="T68" t="n">
+        <v>15</v>
+      </c>
+      <c r="U68" t="n">
+        <v>29</v>
+      </c>
+      <c r="V68" t="n">
+        <v>5</v>
+      </c>
+      <c r="W68" t="n">
+        <v>3</v>
+      </c>
+      <c r="X68" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC68" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>897724</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897724.html</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>26</v>
+      </c>
+      <c r="J69" t="n">
+        <v>23</v>
+      </c>
+      <c r="K69" t="n">
+        <v>49</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>8</v>
+      </c>
+      <c r="O69" t="n">
+        <v>6</v>
+      </c>
+      <c r="P69" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>25</v>
+      </c>
+      <c r="R69" t="n">
+        <v>25</v>
+      </c>
+      <c r="S69" t="n">
         <v>21</v>
       </c>
-      <c r="T64" t="n">
+      <c r="T69" t="n">
+        <v>12</v>
+      </c>
+      <c r="U69" t="n">
+        <v>16</v>
+      </c>
+      <c r="V69" t="n">
+        <v>5</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X69" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC69" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>897715</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897715.html</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>19</v>
+      </c>
+      <c r="J70" t="n">
+        <v>24</v>
+      </c>
+      <c r="K70" t="n">
+        <v>43</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="n">
+        <v>4</v>
+      </c>
+      <c r="P70" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>22</v>
+      </c>
+      <c r="R70" t="n">
+        <v>20</v>
+      </c>
+      <c r="S70" t="n">
+        <v>21</v>
+      </c>
+      <c r="T70" t="n">
         <v>11</v>
       </c>
-      <c r="U64" t="n">
+      <c r="U70" t="n">
         <v>16</v>
       </c>
-      <c r="V64" t="n">
+      <c r="V70" t="n">
         <v>4</v>
       </c>
-      <c r="W64" t="n">
+      <c r="W70" t="n">
         <v>3</v>
       </c>
-      <c r="X64" t="n">
+      <c r="X70" t="n">
         <v>20</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="Y70" t="n">
         <v>27</v>
       </c>
-      <c r="Z64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB64" t="inlineStr">
+      <c r="Z70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB70" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AC64" t="n">
+      <c r="AC70" t="n">
         <v>52.2</v>
       </c>
-      <c r="AD64" t="n">
+      <c r="AD70" t="n">
         <v>40.7</v>
       </c>
-      <c r="AE64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF64" t="n">
+      <c r="AE70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF70" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH64" t="n">
+      <c r="AG70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH70" t="n">
         <v>10.5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>897699</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897699.html</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26</v>
+      </c>
+      <c r="J71" t="n">
+        <v>20</v>
+      </c>
+      <c r="K71" t="n">
+        <v>46</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="n">
+        <v>10</v>
+      </c>
+      <c r="O71" t="n">
+        <v>6</v>
+      </c>
+      <c r="P71" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>33</v>
+      </c>
+      <c r="R71" t="n">
+        <v>15</v>
+      </c>
+      <c r="S71" t="n">
+        <v>19</v>
+      </c>
+      <c r="T71" t="n">
+        <v>11</v>
+      </c>
+      <c r="U71" t="n">
+        <v>16</v>
+      </c>
+      <c r="V71" t="n">
+        <v>5</v>
+      </c>
+      <c r="W71" t="n">
+        <v>5</v>
+      </c>
+      <c r="X71" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC71" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -8129,85 +8927,85 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.333333333333333</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.333333333333333</v>
+        <v>3.8</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.5</v>
+        <v>-0.7</v>
       </c>
       <c r="F4" t="n">
         <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>32.8</v>
       </c>
       <c r="H4" t="n">
-        <v>49</v>
+        <v>27.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
         <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="M4" t="n">
-        <v>12.33333333333333</v>
+        <v>10.6</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O4" t="n">
-        <v>56.63333333333333</v>
+        <v>53.52</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.349999999999998</v>
+        <v>-0.529999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05666666666666667</v>
+        <v>0.134</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.08500000000000001</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.8140000000000001</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0.025</v>
       </c>
       <c r="U4" t="n">
-        <v>7.666666666666667</v>
+        <v>6.4</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>10.4</v>
       </c>
       <c r="X4" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.66666666666667</v>
+        <v>9.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>-5.000000000000001</v>
+        <v>-2.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.200000000000001</v>
+        <v>6.88</v>
       </c>
       <c r="AB4" t="n">
-        <v>-6.899999999999999</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="5">
@@ -8921,43 +9719,85 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>2.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.7</v>
       </c>
       <c r="G13" t="n">
-        <v>27</v>
+        <v>36.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>47</v>
+        <v>34.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.1</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>25.2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>50</v>
+        <v>48.64</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.5099999999999995</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.176</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.022</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0.866</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.134</v>
       </c>
       <c r="U13" t="n">
-        <v>15</v>
+        <v>18.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.3</v>
       </c>
       <c r="W13" t="n">
-        <v>6</v>
+        <v>6.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>6</v>
+        <v>7.8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>25.9</v>
+        <v>10.74</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="14">
@@ -9055,85 +9895,85 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="D15" t="n">
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="H15" t="n">
-        <v>16.66666666666667</v>
+        <v>12.7</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.6</v>
+        <v>-1.1</v>
       </c>
       <c r="J15" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.666666666666667</v>
+        <v>6.699999999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2</v>
+        <v>-0.7</v>
       </c>
       <c r="M15" t="n">
-        <v>11.25</v>
+        <v>11.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="O15" t="n">
-        <v>51.47499999999999</v>
+        <v>50.54</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03000000000000185</v>
+        <v>-0.9199999999999996</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.375</v>
+        <v>0.366</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05</v>
+        <v>0.016</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8325</v>
+        <v>0.746</v>
       </c>
       <c r="T15" t="n">
-        <v>0.201</v>
+        <v>0.014</v>
       </c>
       <c r="U15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="W15" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.175</v>
+        <v>7.279999999999999</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.8899999999999999</v>
+        <v>-0.3399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,92 +609,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897781</v>
+        <v>897790</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897781.html</t>
+          <t>https://text.khl.ru/text/897790.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
+        <v>14</v>
+      </c>
+      <c r="T2" t="n">
         <v>11</v>
       </c>
-      <c r="T2" t="n">
-        <v>14</v>
-      </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
@@ -702,113 +702,113 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>39.3</v>
+        <v>55.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>56</v>
+        <v>34.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.08</v>
+        <v>0.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.09</v>
+        <v>0.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AH2" t="n">
-        <v>12.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897771</v>
+        <v>897720</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897720.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24</v>
+      </c>
+      <c r="J3" t="n">
+        <v>24</v>
+      </c>
+      <c r="K3" t="n">
+        <v>48</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>38</v>
-      </c>
-      <c r="J3" t="n">
-        <v>18</v>
-      </c>
-      <c r="K3" t="n">
-        <v>56</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6</v>
-      </c>
       <c r="O3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
+        <v>15</v>
+      </c>
+      <c r="S3" t="n">
+        <v>17</v>
+      </c>
+      <c r="T3" t="n">
+        <v>34</v>
+      </c>
+      <c r="U3" t="n">
+        <v>17</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W3" t="n">
         <v>9</v>
       </c>
-      <c r="S3" t="n">
-        <v>10</v>
-      </c>
-      <c r="T3" t="n">
-        <v>22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>27</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
       <c r="X3" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
         <v>5</v>
       </c>
       <c r="AA3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -816,863 +816,869 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>54.7</v>
+        <v>46.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>44.9</v>
+        <v>66.7</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897759</v>
+        <v>897711</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897759.html</t>
+          <t>https://text.khl.ru/text/897711.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R4" t="n">
+        <v>14</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" t="n">
+        <v>17</v>
+      </c>
+      <c r="U4" t="n">
+        <v>16</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH4" t="n">
         <v>28</v>
-      </c>
-      <c r="S4" t="n">
-        <v>12</v>
-      </c>
-      <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
-        <v>17</v>
-      </c>
-      <c r="V4" t="n">
-        <v>4</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC4" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>23-10-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897730</v>
+        <v>897682</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897730.html</t>
+          <t>https://text.khl.ru/text/897682.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K5" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S5" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="T5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Z5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>42.4</v>
+        <v>50</v>
       </c>
       <c r="AD5" t="n">
-        <v>64.7</v>
+        <v>41.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>10-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897725</v>
+        <v>897630</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897725.html</t>
+          <t>https://text.khl.ru/text/897630.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17</v>
+      </c>
+      <c r="J6" t="n">
+        <v>35</v>
+      </c>
+      <c r="K6" t="n">
+        <v>52</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>26</v>
+      </c>
+      <c r="R6" t="n">
+        <v>33</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14</v>
+      </c>
+      <c r="T6" t="n">
+        <v>29</v>
+      </c>
+      <c r="U6" t="n">
+        <v>25</v>
+      </c>
+      <c r="V6" t="n">
         <v>6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>44</v>
-      </c>
-      <c r="K6" t="n">
-        <v>68</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8</v>
-      </c>
-      <c r="P6" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>31</v>
-      </c>
-      <c r="R6" t="n">
-        <v>22</v>
-      </c>
-      <c r="S6" t="n">
-        <v>12</v>
-      </c>
-      <c r="T6" t="n">
-        <v>27</v>
-      </c>
-      <c r="U6" t="n">
-        <v>13</v>
-      </c>
-      <c r="V6" t="n">
-        <v>9</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA6" t="n">
         <v>13</v>
       </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>42.6</v>
+        <v>50.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>67.5</v>
+        <v>53.7</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.2</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897783</v>
+        <v>897788</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897783.html</t>
+          <t>https://text.khl.ru/text/897788.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" t="n">
+        <v>26</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>28</v>
+      </c>
+      <c r="R7" t="n">
         <v>21</v>
       </c>
-      <c r="K7" t="n">
-        <v>57</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P7" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>30</v>
-      </c>
-      <c r="R7" t="n">
-        <v>11</v>
-      </c>
       <c r="S7" t="n">
+        <v>13</v>
+      </c>
+      <c r="T7" t="n">
+        <v>22</v>
+      </c>
+      <c r="U7" t="n">
+        <v>31</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
         <v>23</v>
       </c>
-      <c r="T7" t="n">
-        <v>27</v>
-      </c>
-      <c r="U7" t="n">
-        <v>20</v>
-      </c>
-      <c r="V7" t="n">
-        <v>8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>26</v>
-      </c>
       <c r="Z7" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>49.2</v>
+        <v>54.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>57.4</v>
+        <v>41.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>11.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897772</v>
+        <v>897775</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897775.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K8" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P8" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="R8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="T8" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
         <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>58</v>
+        <v>55.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>60.6</v>
+        <v>45.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897745</v>
+        <v>897722</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897745.html</t>
+          <t>https://text.khl.ru/text/897722.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
+        <v>21</v>
+      </c>
+      <c r="K9" t="n">
+        <v>51</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
         <v>29</v>
       </c>
-      <c r="K9" t="n">
-        <v>56</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
+        <v>33</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11</v>
+      </c>
+      <c r="S9" t="n">
+        <v>18</v>
+      </c>
+      <c r="T9" t="n">
         <v>6</v>
       </c>
-      <c r="P9" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>19</v>
-      </c>
-      <c r="R9" t="n">
+      <c r="U9" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
         <v>21</v>
       </c>
-      <c r="S9" t="n">
-        <v>20</v>
-      </c>
-      <c r="T9" t="n">
-        <v>27</v>
-      </c>
-      <c r="U9" t="n">
-        <v>17</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>19</v>
-      </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="n">
         <v>1</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>57.8</v>
+        <v>46.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>61.4</v>
+        <v>37.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>11.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897737</v>
+        <v>897713</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897737.html</t>
+          <t>https://text.khl.ru/text/897713.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J10" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K10" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="P10" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R10" t="n">
         <v>12</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="T10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="U10" t="n">
         <v>23</v>
       </c>
       <c r="V10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>53.8</v>
+        <v>63.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>48.9</v>
+        <v>43.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897664</v>
+        <v>897705</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897664.html</t>
+          <t>https://text.khl.ru/text/897705.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>8</v>
@@ -1681,51 +1687,51 @@
         <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q11" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" t="n">
+        <v>16</v>
+      </c>
+      <c r="T11" t="n">
+        <v>10</v>
+      </c>
+      <c r="U11" t="n">
+        <v>19</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
         <v>17</v>
       </c>
-      <c r="S11" t="n">
-        <v>17</v>
-      </c>
-      <c r="T11" t="n">
-        <v>18</v>
-      </c>
-      <c r="U11" t="n">
-        <v>14</v>
-      </c>
-      <c r="V11" t="n">
-        <v>5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>21</v>
-      </c>
       <c r="Y11" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>60</v>
+        <v>50.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>56.2</v>
+        <v>34.5</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1734,98 +1740,98 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897783</v>
+        <v>897709</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897783.html</t>
+          <t>https://text.khl.ru/text/897709.html</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>53</v>
+      </c>
+      <c r="K12" t="n">
+        <v>76</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12</v>
+      </c>
+      <c r="O12" t="n">
+        <v>12</v>
+      </c>
+      <c r="P12" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>20</v>
+      </c>
+      <c r="T12" t="n">
+        <v>17</v>
+      </c>
+      <c r="U12" t="n">
+        <v>14</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
         <v>4</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21</v>
-      </c>
-      <c r="J12" t="n">
-        <v>36</v>
-      </c>
-      <c r="K12" t="n">
-        <v>57</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>6</v>
-      </c>
-      <c r="P12" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>29</v>
-      </c>
-      <c r="R12" t="n">
-        <v>23</v>
-      </c>
-      <c r="S12" t="n">
-        <v>11</v>
-      </c>
-      <c r="T12" t="n">
-        <v>20</v>
-      </c>
-      <c r="U12" t="n">
-        <v>27</v>
-      </c>
-      <c r="V12" t="n">
-        <v>8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8</v>
-      </c>
-      <c r="X12" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
       </c>
       <c r="AA12" t="n">
         <v>3</v>
@@ -1836,113 +1842,113 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>50.8</v>
+        <v>60.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>42.6</v>
+        <v>54.8</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.3</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897741</v>
+        <v>897703</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897741.html</t>
+          <t>https://text.khl.ru/text/897703.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J13" t="n">
+        <v>47</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="n">
         <v>25</v>
       </c>
-      <c r="K13" t="n">
-        <v>61</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="R13" t="n">
+        <v>9</v>
+      </c>
+      <c r="S13" t="n">
         <v>10</v>
       </c>
-      <c r="P13" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>27</v>
-      </c>
-      <c r="R13" t="n">
-        <v>15</v>
-      </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>21</v>
       </c>
-      <c r="T13" t="n">
-        <v>20</v>
-      </c>
       <c r="U13" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -1950,10 +1956,10 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>52.6</v>
+        <v>47.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>41.7</v>
+        <v>87.5</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1962,329 +1968,329 @@
         <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897733</v>
+        <v>897691</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897733.html</t>
+          <t>https://text.khl.ru/text/897691.html</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J14" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K14" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P14" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q14" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S14" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="U14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AA14" t="n">
         <v>4</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>41.1</v>
+        <v>49.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>31.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG14" t="n">
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>24-10-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897689</v>
+        <v>897687</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897689.html</t>
+          <t>https://text.khl.ru/text/897687.html</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J15" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K15" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>26</v>
+      </c>
+      <c r="R15" t="n">
+        <v>16</v>
+      </c>
+      <c r="S15" t="n">
+        <v>19</v>
+      </c>
+      <c r="T15" t="n">
+        <v>14</v>
+      </c>
+      <c r="U15" t="n">
+        <v>9</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
         <v>12</v>
       </c>
-      <c r="P15" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>24</v>
-      </c>
-      <c r="R15" t="n">
-        <v>20</v>
-      </c>
-      <c r="S15" t="n">
-        <v>14</v>
-      </c>
-      <c r="T15" t="n">
-        <v>20</v>
-      </c>
-      <c r="U15" t="n">
-        <v>28</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA15" t="n">
         <v>5</v>
       </c>
-      <c r="X15" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>2</v>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>53.8</v>
+        <v>42.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>41.7</v>
+        <v>60.9</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>09-10-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897679</v>
+        <v>897626</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897679.html</t>
+          <t>https://text.khl.ru/text/897626.html</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
+        <v>25</v>
+      </c>
+      <c r="J16" t="n">
         <v>45</v>
       </c>
-      <c r="J16" t="n">
-        <v>22</v>
-      </c>
       <c r="K16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q16" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="R16" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="S16" t="n">
         <v>12</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2292,95 +2298,95 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>50</v>
+        <v>44.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>37.5</v>
+        <v>48.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH16" t="n">
-        <v>11.1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897782</v>
+        <v>897787</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897787.html</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J17" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K17" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S17" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T17" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="U17" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -2389,16 +2395,16 @@
         <v>6</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2406,10 +2412,10 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>50</v>
+        <v>44.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>43.6</v>
+        <v>51.6</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2418,21 +2424,21 @@
         <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2441,27 +2447,27 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897771</v>
+        <v>897759</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
       <c r="I18" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K18" t="n">
         <v>56</v>
@@ -2470,60 +2476,60 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="n">
         <v>24</v>
       </c>
-      <c r="Q18" t="n">
-        <v>29</v>
-      </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="T18" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="U18" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X18" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
         <v>4</v>
       </c>
       <c r="AA18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>45.3</v>
+        <v>54.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>55.1</v>
+        <v>51.5</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -2531,54 +2537,51 @@
       <c r="AF18" t="n">
         <v>0</v>
       </c>
-      <c r="AG18" t="n">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AH18" t="n">
-        <v>22.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897739</v>
+        <v>897748</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897739.html</t>
+          <t>https://text.khl.ru/text/897748.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J19" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K19" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -2590,43 +2593,43 @@
         <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S19" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" t="n">
+        <v>12</v>
+      </c>
+      <c r="U19" t="n">
         <v>9</v>
       </c>
-      <c r="T19" t="n">
-        <v>33</v>
-      </c>
-      <c r="U19" t="n">
-        <v>10</v>
-      </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2634,68 +2637,68 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>47.3</v>
+        <v>55.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>76.7</v>
+        <v>57.1</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AG19" t="n">
         <v>0.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>21.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>04-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897729</v>
+        <v>897735</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897729.html</t>
+          <t>https://text.khl.ru/text/897735.html</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="J20" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K20" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2704,43 +2707,43 @@
         <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R20" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="T20" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="U20" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="V20" t="n">
         <v>4</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X20" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2748,136 +2751,4690 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>47.9</v>
+        <v>50</v>
       </c>
       <c r="AD20" t="n">
-        <v>55.1</v>
+        <v>42.9</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="AG20" t="n">
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>897715</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897715.html</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>24</v>
+      </c>
+      <c r="J21" t="n">
+        <v>19</v>
+      </c>
+      <c r="K21" t="n">
+        <v>43</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>24</v>
+      </c>
+      <c r="R21" t="n">
+        <v>21</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="n">
+        <v>16</v>
+      </c>
+      <c r="U21" t="n">
+        <v>11</v>
+      </c>
+      <c r="V21" t="n">
+        <v>3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4</v>
+      </c>
+      <c r="X21" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>897765</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897765.html</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>20</v>
+      </c>
+      <c r="K22" t="n">
+        <v>75</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>28</v>
+      </c>
+      <c r="R22" t="n">
+        <v>19</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T22" t="n">
+        <v>14</v>
+      </c>
+      <c r="U22" t="n">
+        <v>16</v>
+      </c>
+      <c r="V22" t="n">
+        <v>7</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>897757</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897757.html</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>29</v>
+      </c>
+      <c r="J23" t="n">
+        <v>40</v>
+      </c>
+      <c r="K23" t="n">
+        <v>69</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>36</v>
+      </c>
+      <c r="R23" t="n">
+        <v>15</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>16</v>
+      </c>
+      <c r="U23" t="n">
+        <v>6</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5</v>
+      </c>
+      <c r="X23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>897747</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897747.html</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>49</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14</v>
+      </c>
+      <c r="K24" t="n">
+        <v>63</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>23</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>24</v>
+      </c>
+      <c r="T24" t="n">
+        <v>12</v>
+      </c>
+      <c r="U24" t="n">
+        <v>18</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>897738</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897738.html</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>34</v>
+      </c>
+      <c r="J25" t="n">
+        <v>26</v>
+      </c>
+      <c r="K25" t="n">
+        <v>60</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8</v>
+      </c>
+      <c r="P25" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>43</v>
+      </c>
+      <c r="R25" t="n">
+        <v>13</v>
+      </c>
+      <c r="S25" t="n">
+        <v>29</v>
+      </c>
+      <c r="T25" t="n">
+        <v>13</v>
+      </c>
+      <c r="U25" t="n">
+        <v>16</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3</v>
+      </c>
+      <c r="X25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>897724</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897724.html</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>23</v>
+      </c>
+      <c r="J26" t="n">
+        <v>26</v>
+      </c>
+      <c r="K26" t="n">
+        <v>49</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8</v>
+      </c>
+      <c r="P26" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>30</v>
+      </c>
+      <c r="R26" t="n">
+        <v>21</v>
+      </c>
+      <c r="S26" t="n">
+        <v>25</v>
+      </c>
+      <c r="T26" t="n">
+        <v>16</v>
+      </c>
+      <c r="U26" t="n">
+        <v>12</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>897784</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897784.html</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>33</v>
+      </c>
+      <c r="J27" t="n">
+        <v>49</v>
+      </c>
+      <c r="K27" t="n">
+        <v>82</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>30</v>
+      </c>
+      <c r="R27" t="n">
+        <v>17</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10</v>
+      </c>
+      <c r="U27" t="n">
+        <v>15</v>
+      </c>
+      <c r="V27" t="n">
+        <v>6</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>897780</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897780.html</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>35</v>
+      </c>
+      <c r="J28" t="n">
+        <v>22</v>
+      </c>
+      <c r="K28" t="n">
+        <v>57</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>34</v>
+      </c>
+      <c r="R28" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" t="n">
+        <v>16</v>
+      </c>
+      <c r="T28" t="n">
+        <v>10</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3</v>
+      </c>
+      <c r="X28" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>09-11-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>897750</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897750.html</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>34</v>
+      </c>
+      <c r="J29" t="n">
+        <v>32</v>
+      </c>
+      <c r="K29" t="n">
+        <v>66</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8</v>
+      </c>
+      <c r="P29" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>20</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>13</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>59.2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>07-11-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>897740</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897740.html</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>31</v>
+      </c>
+      <c r="J30" t="n">
+        <v>29</v>
+      </c>
+      <c r="K30" t="n">
+        <v>60</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>30</v>
+      </c>
+      <c r="R30" t="n">
+        <v>11</v>
+      </c>
+      <c r="S30" t="n">
+        <v>12</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3</v>
+      </c>
+      <c r="W30" t="n">
+        <v>5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897732</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897732.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20</v>
+      </c>
+      <c r="J31" t="n">
+        <v>36</v>
+      </c>
+      <c r="K31" t="n">
+        <v>56</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>4</v>
+      </c>
+      <c r="P31" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>33</v>
+      </c>
+      <c r="R31" t="n">
+        <v>19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>8</v>
+      </c>
+      <c r="T31" t="n">
+        <v>9</v>
+      </c>
+      <c r="U31" t="n">
+        <v>12</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897785</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897785.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22</v>
+      </c>
+      <c r="J32" t="n">
+        <v>20</v>
+      </c>
+      <c r="K32" t="n">
+        <v>42</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>35</v>
+      </c>
+      <c r="R32" t="n">
+        <v>13</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12</v>
+      </c>
+      <c r="T32" t="n">
+        <v>5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>15</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>27</v>
+      </c>
+      <c r="K33" t="n">
+        <v>49</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>29</v>
+      </c>
+      <c r="R33" t="n">
+        <v>13</v>
+      </c>
+      <c r="S33" t="n">
+        <v>20</v>
+      </c>
+      <c r="T33" t="n">
+        <v>10</v>
+      </c>
+      <c r="U33" t="n">
+        <v>7</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897717</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897717.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>28</v>
+      </c>
+      <c r="J34" t="n">
+        <v>23</v>
+      </c>
+      <c r="K34" t="n">
+        <v>51</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>26</v>
+      </c>
+      <c r="R34" t="n">
+        <v>16</v>
+      </c>
+      <c r="S34" t="n">
+        <v>18</v>
+      </c>
+      <c r="T34" t="n">
+        <v>14</v>
+      </c>
+      <c r="U34" t="n">
+        <v>28</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897708</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897708.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>22</v>
+      </c>
+      <c r="J35" t="n">
+        <v>14</v>
+      </c>
+      <c r="K35" t="n">
+        <v>36</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>20</v>
+      </c>
+      <c r="P35" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>28</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6</v>
+      </c>
+      <c r="S35" t="n">
+        <v>28</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>28</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3</v>
+      </c>
+      <c r="X35" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897703</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897703.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>47</v>
+      </c>
+      <c r="J36" t="n">
+        <v>20</v>
+      </c>
+      <c r="K36" t="n">
+        <v>67</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>12</v>
+      </c>
+      <c r="P36" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>23</v>
+      </c>
+      <c r="R36" t="n">
+        <v>10</v>
+      </c>
+      <c r="S36" t="n">
+        <v>9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3</v>
+      </c>
+      <c r="U36" t="n">
+        <v>21</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897765</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897765.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>20</v>
+      </c>
+      <c r="J37" t="n">
+        <v>55</v>
+      </c>
+      <c r="K37" t="n">
+        <v>75</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>23</v>
+      </c>
+      <c r="R37" t="n">
+        <v>15</v>
+      </c>
+      <c r="S37" t="n">
+        <v>19</v>
+      </c>
+      <c r="T37" t="n">
+        <v>16</v>
+      </c>
+      <c r="U37" t="n">
+        <v>14</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897752</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897752.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+      <c r="J38" t="n">
+        <v>46</v>
+      </c>
+      <c r="K38" t="n">
+        <v>71</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>34</v>
+      </c>
+      <c r="R38" t="n">
+        <v>23</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15</v>
+      </c>
+      <c r="T38" t="n">
+        <v>8</v>
+      </c>
+      <c r="U38" t="n">
+        <v>10</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>3</v>
+      </c>
+      <c r="X38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897746</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897746.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>24</v>
+      </c>
+      <c r="J39" t="n">
+        <v>31</v>
+      </c>
+      <c r="K39" t="n">
+        <v>55</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>37</v>
+      </c>
+      <c r="R39" t="n">
+        <v>16</v>
+      </c>
+      <c r="S39" t="n">
+        <v>19</v>
+      </c>
+      <c r="T39" t="n">
+        <v>7</v>
+      </c>
+      <c r="U39" t="n">
+        <v>14</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>02-11-2025</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897719</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897719.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>33</v>
+      </c>
+      <c r="J40" t="n">
+        <v>39</v>
+      </c>
+      <c r="K40" t="n">
+        <v>72</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>24</v>
+      </c>
+      <c r="R40" t="n">
+        <v>16</v>
+      </c>
+      <c r="S40" t="n">
+        <v>17</v>
+      </c>
+      <c r="T40" t="n">
+        <v>21</v>
+      </c>
+      <c r="U40" t="n">
+        <v>22</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897711</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897711.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>20</v>
+      </c>
+      <c r="J41" t="n">
+        <v>25</v>
+      </c>
+      <c r="K41" t="n">
+        <v>45</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>8</v>
+      </c>
+      <c r="P41" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>22</v>
+      </c>
+      <c r="R41" t="n">
+        <v>15</v>
+      </c>
+      <c r="S41" t="n">
+        <v>14</v>
+      </c>
+      <c r="T41" t="n">
+        <v>16</v>
+      </c>
+      <c r="U41" t="n">
+        <v>17</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>8</v>
+      </c>
+      <c r="X41" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>897787</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897787.html</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
+        <v>31</v>
+      </c>
+      <c r="J42" t="n">
+        <v>28</v>
+      </c>
+      <c r="K42" t="n">
+        <v>59</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>8</v>
+      </c>
+      <c r="P42" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>19</v>
+      </c>
+      <c r="R42" t="n">
+        <v>12</v>
+      </c>
+      <c r="S42" t="n">
+        <v>15</v>
+      </c>
+      <c r="T42" t="n">
+        <v>15</v>
+      </c>
+      <c r="U42" t="n">
+        <v>16</v>
+      </c>
+      <c r="V42" t="n">
+        <v>6</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>897737</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897737.html</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>29</v>
+      </c>
+      <c r="J43" t="n">
+        <v>27</v>
+      </c>
+      <c r="K43" t="n">
+        <v>56</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8</v>
+      </c>
+      <c r="P43" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>28</v>
+      </c>
+      <c r="R43" t="n">
+        <v>15</v>
+      </c>
+      <c r="S43" t="n">
+        <v>12</v>
+      </c>
+      <c r="T43" t="n">
+        <v>23</v>
+      </c>
+      <c r="U43" t="n">
+        <v>22</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3</v>
+      </c>
+      <c r="W43" t="n">
+        <v>6</v>
+      </c>
+      <c r="X43" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>ХК Сочи</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D44" t="n">
+        <v>897729</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897729.html</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>33</v>
+      </c>
+      <c r="J44" t="n">
+        <v>29</v>
+      </c>
+      <c r="K44" t="n">
+        <v>62</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>8</v>
+      </c>
+      <c r="P44" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>23</v>
+      </c>
+      <c r="R44" t="n">
+        <v>10</v>
+      </c>
+      <c r="S44" t="n">
+        <v>23</v>
+      </c>
+      <c r="T44" t="n">
+        <v>31</v>
+      </c>
+      <c r="U44" t="n">
+        <v>38</v>
+      </c>
+      <c r="V44" t="n">
+        <v>9</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4</v>
+      </c>
+      <c r="X44" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC44" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Спартак</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>897723</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://text.khl.ru/text/897723.html</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
         <v>5</v>
       </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="I45" t="n">
+        <v>50</v>
+      </c>
+      <c r="J45" t="n">
         <v>30</v>
       </c>
-      <c r="J21" t="n">
-        <v>50</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="K45" t="n">
         <v>80</v>
       </c>
-      <c r="L21" t="n">
-        <v>2</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>8</v>
+      </c>
+      <c r="O45" t="n">
         <v>10</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P45" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>32</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>14</v>
+      </c>
+      <c r="T45" t="n">
+        <v>30</v>
+      </c>
+      <c r="U45" t="n">
+        <v>39</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>4</v>
+      </c>
+      <c r="X45" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>17-10-2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>897659</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897659.html</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>32</v>
+      </c>
+      <c r="J46" t="n">
+        <v>33</v>
+      </c>
+      <c r="K46" t="n">
+        <v>65</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" t="n">
+        <v>12</v>
+      </c>
+      <c r="P46" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>27</v>
+      </c>
+      <c r="R46" t="n">
+        <v>9</v>
+      </c>
+      <c r="S46" t="n">
+        <v>18</v>
+      </c>
+      <c r="T46" t="n">
+        <v>13</v>
+      </c>
+      <c r="U46" t="n">
+        <v>23</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2</v>
+      </c>
+      <c r="X46" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>897788</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897788.html</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>26</v>
+      </c>
+      <c r="J47" t="n">
+        <v>34</v>
+      </c>
+      <c r="K47" t="n">
+        <v>60</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
         <v>8</v>
       </c>
-      <c r="P21" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P47" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>34</v>
+      </c>
+      <c r="R47" t="n">
+        <v>13</v>
+      </c>
+      <c r="S47" t="n">
+        <v>21</v>
+      </c>
+      <c r="T47" t="n">
+        <v>31</v>
+      </c>
+      <c r="U47" t="n">
+        <v>22</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>9</v>
+      </c>
+      <c r="X47" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC47" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>897779</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897779.html</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>43</v>
+      </c>
+      <c r="J48" t="n">
+        <v>43</v>
+      </c>
+      <c r="K48" t="n">
+        <v>86</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9</v>
+      </c>
+      <c r="O48" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>31</v>
+      </c>
+      <c r="R48" t="n">
+        <v>15</v>
+      </c>
+      <c r="S48" t="n">
+        <v>11</v>
+      </c>
+      <c r="T48" t="n">
+        <v>44</v>
+      </c>
+      <c r="U48" t="n">
+        <v>33</v>
+      </c>
+      <c r="V48" t="n">
+        <v>8</v>
+      </c>
+      <c r="W48" t="n">
+        <v>4</v>
+      </c>
+      <c r="X48" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC48" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>897764</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897764.html</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>43</v>
+      </c>
+      <c r="J49" t="n">
+        <v>24</v>
+      </c>
+      <c r="K49" t="n">
+        <v>67</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>11</v>
+      </c>
+      <c r="P49" t="n">
         <v>38</v>
       </c>
-      <c r="R21" t="n">
+      <c r="Q49" t="n">
+        <v>17</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7</v>
+      </c>
+      <c r="S49" t="n">
+        <v>31</v>
+      </c>
+      <c r="T49" t="n">
         <v>14</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U49" t="n">
+        <v>17</v>
+      </c>
+      <c r="V49" t="n">
+        <v>9</v>
+      </c>
+      <c r="W49" t="n">
+        <v>10</v>
+      </c>
+      <c r="X49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>897754</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897754.html</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>30</v>
+      </c>
+      <c r="K50" t="n">
+        <v>61</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="n">
+        <v>4</v>
+      </c>
+      <c r="P50" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>41</v>
+      </c>
+      <c r="R50" t="n">
+        <v>14</v>
+      </c>
+      <c r="S50" t="n">
+        <v>11</v>
+      </c>
+      <c r="T50" t="n">
+        <v>28</v>
+      </c>
+      <c r="U50" t="n">
+        <v>24</v>
+      </c>
+      <c r="V50" t="n">
+        <v>8</v>
+      </c>
+      <c r="W50" t="n">
+        <v>7</v>
+      </c>
+      <c r="X50" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>897710</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897710.html</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>40</v>
+      </c>
+      <c r="J51" t="n">
+        <v>27</v>
+      </c>
+      <c r="K51" t="n">
+        <v>67</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8</v>
+      </c>
+      <c r="O51" t="n">
+        <v>12</v>
+      </c>
+      <c r="P51" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>21</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7</v>
+      </c>
+      <c r="S51" t="n">
+        <v>19</v>
+      </c>
+      <c r="T51" t="n">
+        <v>27</v>
+      </c>
+      <c r="U51" t="n">
+        <v>14</v>
+      </c>
+      <c r="V51" t="n">
+        <v>8</v>
+      </c>
+      <c r="W51" t="n">
+        <v>6</v>
+      </c>
+      <c r="X51" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC51" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="n">
         <v>5</v>
       </c>
-      <c r="T21" t="n">
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>897784</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897784.html</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" t="n">
+        <v>49</v>
+      </c>
+      <c r="J52" t="n">
+        <v>33</v>
+      </c>
+      <c r="K52" t="n">
+        <v>82</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>6</v>
+      </c>
+      <c r="O52" t="n">
+        <v>6</v>
+      </c>
+      <c r="P52" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>19</v>
+      </c>
+      <c r="R52" t="n">
+        <v>8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>17</v>
+      </c>
+      <c r="T52" t="n">
+        <v>15</v>
+      </c>
+      <c r="U52" t="n">
+        <v>10</v>
+      </c>
+      <c r="V52" t="n">
+        <v>7</v>
+      </c>
+      <c r="W52" t="n">
+        <v>6</v>
+      </c>
+      <c r="X52" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC52" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>897774</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897774.html</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>29</v>
+      </c>
+      <c r="K53" t="n">
+        <v>69</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>12</v>
+      </c>
+      <c r="O53" t="n">
+        <v>12</v>
+      </c>
+      <c r="P53" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>25</v>
+      </c>
+      <c r="R53" t="n">
+        <v>11</v>
+      </c>
+      <c r="S53" t="n">
+        <v>19</v>
+      </c>
+      <c r="T53" t="n">
+        <v>18</v>
+      </c>
+      <c r="U53" t="n">
+        <v>15</v>
+      </c>
+      <c r="V53" t="n">
+        <v>4</v>
+      </c>
+      <c r="W53" t="n">
+        <v>2</v>
+      </c>
+      <c r="X53" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC53" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>897734</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897734.html</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41</v>
+      </c>
+      <c r="J54" t="n">
+        <v>19</v>
+      </c>
+      <c r="K54" t="n">
+        <v>60</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>6</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4</v>
+      </c>
+      <c r="P54" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>27</v>
+      </c>
+      <c r="R54" t="n">
+        <v>18</v>
+      </c>
+      <c r="S54" t="n">
+        <v>30</v>
+      </c>
+      <c r="T54" t="n">
+        <v>18</v>
+      </c>
+      <c r="U54" t="n">
+        <v>23</v>
+      </c>
+      <c r="V54" t="n">
+        <v>4</v>
+      </c>
+      <c r="W54" t="n">
+        <v>7</v>
+      </c>
+      <c r="X54" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC54" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>897719</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897719.html</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="n">
         <v>39</v>
       </c>
-      <c r="U21" t="n">
+      <c r="J55" t="n">
+        <v>33</v>
+      </c>
+      <c r="K55" t="n">
+        <v>72</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4</v>
+      </c>
+      <c r="P55" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q55" t="n">
         <v>30</v>
       </c>
-      <c r="V21" t="n">
+      <c r="R55" t="n">
+        <v>17</v>
+      </c>
+      <c r="S55" t="n">
+        <v>16</v>
+      </c>
+      <c r="T55" t="n">
+        <v>22</v>
+      </c>
+      <c r="U55" t="n">
+        <v>21</v>
+      </c>
+      <c r="V55" t="n">
+        <v>5</v>
+      </c>
+      <c r="W55" t="n">
+        <v>5</v>
+      </c>
+      <c r="X55" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC55" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>897712</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897712.html</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>33</v>
+      </c>
+      <c r="J56" t="n">
+        <v>28</v>
+      </c>
+      <c r="K56" t="n">
+        <v>61</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>8</v>
+      </c>
+      <c r="O56" t="n">
+        <v>10</v>
+      </c>
+      <c r="P56" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>31</v>
+      </c>
+      <c r="R56" t="n">
+        <v>20</v>
+      </c>
+      <c r="S56" t="n">
+        <v>24</v>
+      </c>
+      <c r="T56" t="n">
+        <v>22</v>
+      </c>
+      <c r="U56" t="n">
+        <v>24</v>
+      </c>
+      <c r="V56" t="n">
+        <v>3</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2</v>
+      </c>
+      <c r="X56" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC56" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>897786</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897786.html</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
         <v>4</v>
       </c>
-      <c r="W21" t="n">
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15</v>
+      </c>
+      <c r="J57" t="n">
+        <v>25</v>
+      </c>
+      <c r="K57" t="n">
+        <v>40</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>11</v>
+      </c>
+      <c r="O57" t="n">
+        <v>10</v>
+      </c>
+      <c r="P57" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>25</v>
+      </c>
+      <c r="R57" t="n">
+        <v>17</v>
+      </c>
+      <c r="S57" t="n">
+        <v>8</v>
+      </c>
+      <c r="T57" t="n">
+        <v>22</v>
+      </c>
+      <c r="U57" t="n">
+        <v>19</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3</v>
+      </c>
+      <c r="W57" t="n">
         <v>5</v>
       </c>
-      <c r="X21" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="inlineStr">
+      <c r="X57" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB57" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="AC21" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AC57" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+      <c r="I58" t="n">
+        <v>27</v>
+      </c>
+      <c r="J58" t="n">
+        <v>22</v>
+      </c>
+      <c r="K58" t="n">
+        <v>49</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="n">
+        <v>6</v>
+      </c>
+      <c r="O58" t="n">
+        <v>8</v>
+      </c>
+      <c r="P58" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>23</v>
+      </c>
+      <c r="R58" t="n">
+        <v>20</v>
+      </c>
+      <c r="S58" t="n">
+        <v>13</v>
+      </c>
+      <c r="T58" t="n">
+        <v>7</v>
+      </c>
+      <c r="U58" t="n">
+        <v>10</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC58" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>14-11-2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>897770</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897770.html</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>28</v>
+      </c>
+      <c r="J59" t="n">
+        <v>27</v>
+      </c>
+      <c r="K59" t="n">
+        <v>55</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+      <c r="P59" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>30</v>
+      </c>
+      <c r="R59" t="n">
+        <v>18</v>
+      </c>
+      <c r="S59" t="n">
+        <v>26</v>
+      </c>
+      <c r="T59" t="n">
+        <v>15</v>
+      </c>
+      <c r="U59" t="n">
+        <v>29</v>
+      </c>
+      <c r="V59" t="n">
+        <v>5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>3</v>
+      </c>
+      <c r="X59" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC59" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>897724</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897724.html</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>23</v>
+      </c>
+      <c r="K60" t="n">
+        <v>49</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>8</v>
+      </c>
+      <c r="O60" t="n">
+        <v>6</v>
+      </c>
+      <c r="P60" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>25</v>
+      </c>
+      <c r="R60" t="n">
+        <v>25</v>
+      </c>
+      <c r="S60" t="n">
+        <v>21</v>
+      </c>
+      <c r="T60" t="n">
+        <v>12</v>
+      </c>
+      <c r="U60" t="n">
+        <v>16</v>
+      </c>
+      <c r="V60" t="n">
+        <v>5</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1</v>
+      </c>
+      <c r="X60" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC60" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>897715</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897715.html</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>19</v>
+      </c>
+      <c r="J61" t="n">
+        <v>24</v>
+      </c>
+      <c r="K61" t="n">
+        <v>43</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>4</v>
+      </c>
+      <c r="P61" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>22</v>
+      </c>
+      <c r="R61" t="n">
+        <v>20</v>
+      </c>
+      <c r="S61" t="n">
+        <v>21</v>
+      </c>
+      <c r="T61" t="n">
+        <v>11</v>
+      </c>
+      <c r="U61" t="n">
+        <v>16</v>
+      </c>
+      <c r="V61" t="n">
+        <v>4</v>
+      </c>
+      <c r="W61" t="n">
+        <v>3</v>
+      </c>
+      <c r="X61" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC61" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF61" t="n">
         <v>0.5</v>
       </c>
-      <c r="AF21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>16.7</v>
+      <c r="AG61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -2891,7 +7448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3044,353 +7601,1057 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="F2" t="n">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>26.4</v>
+        <v>25.4</v>
       </c>
       <c r="H2" t="n">
-        <v>44.3</v>
+        <v>34.3</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.3</v>
+        <v>-2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>33.2</v>
+        <v>28</v>
       </c>
       <c r="K2" t="n">
-        <v>98.69999999999999</v>
+        <v>38.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>21.6</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="O2" t="n">
-        <v>44.86</v>
+        <v>50.72</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.5699999999999996</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.135</v>
+        <v>0.23</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.003333333333333325</v>
+        <v>-0.02</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8959999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.092</v>
+        <v>0.001000000000000012</v>
       </c>
       <c r="U2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>-0.7</v>
       </c>
       <c r="W2" t="n">
-        <v>13.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.8</v>
+        <v>0.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.4</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>-7.7</v>
+        <v>3.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.800000000000001</v>
+        <v>16.34</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.39</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4</v>
+        <v>1.3</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>32.2</v>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>23.2</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.6</v>
+        <v>0.9</v>
       </c>
       <c r="J3" t="n">
-        <v>28.8</v>
+        <v>22.2</v>
       </c>
       <c r="K3" t="n">
-        <v>23.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>2.4</v>
+        <v>-1.1</v>
       </c>
       <c r="M3" t="n">
-        <v>22.8</v>
+        <v>12.2</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.6</v>
+        <v>-1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>55.76000000000001</v>
+        <v>54.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.739999999999999</v>
+        <v>0.06000000000000014</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.146</v>
+        <v>0.134</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.047</v>
+        <v>-0.017</v>
       </c>
       <c r="S3" t="n">
-        <v>0.75</v>
+        <v>0.764</v>
       </c>
       <c r="T3" t="n">
-        <v>0.025</v>
+        <v>-0.068</v>
       </c>
       <c r="U3" t="n">
-        <v>2.6</v>
+        <v>9.4</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6</v>
+        <v>-3</v>
       </c>
       <c r="W3" t="n">
-        <v>6.8</v>
+        <v>10.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.6</v>
+        <v>10.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.960000000000001</v>
+        <v>6.38</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.45</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4</v>
+        <v>-1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>33.2</v>
+        <v>26.6</v>
       </c>
       <c r="H4" t="n">
-        <v>82.69999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>28.4</v>
+        <v>39.6</v>
       </c>
       <c r="K4" t="n">
-        <v>43.3</v>
+        <v>166.8</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>15.2</v>
+        <v>19.2</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.2</v>
+        <v>-0.3</v>
       </c>
       <c r="O4" t="n">
-        <v>49.66</v>
+        <v>48.83999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.03999999999999986</v>
+        <v>-3.709999999999999</v>
       </c>
       <c r="Q4" t="n">
         <v>0.1</v>
       </c>
       <c r="R4" t="n">
-        <v>0.083</v>
+        <v>-0.034</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.834</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08</v>
+        <v>0.001000000000000012</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="X4" t="n">
-        <v>-1</v>
+        <v>-1.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.62</v>
+        <v>8.16</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.06999999999999976</v>
+        <v>0.7700000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="E5" t="n">
         <v>0.4</v>
       </c>
       <c r="F5" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>50.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2499999999999986</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.008333333333333333</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.8999999999999998</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>38</v>
+      </c>
+      <c r="H6" t="n">
+        <v>183</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>93.19999999999999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.03999999999999986</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-1.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>44.34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.4200000000000003</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.9339999999999999</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.06599999999999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.44</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.3099999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.859999999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.001000000000000001</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-2.899999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8160000000000001</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5.220000000000001</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>35</v>
+      </c>
+      <c r="H10" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.300000000000001</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>52.04</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.009999999999999431</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.009000000000000005</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>47.68000000000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.2300000000000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="U11" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X11" t="n">
         <v>-0.1</v>
       </c>
-      <c r="G5" t="n">
-        <v>26</v>
-      </c>
-      <c r="H5" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M5" t="n">
-        <v>32.2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>47.23999999999999</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-0.5999999999999993</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="Y11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>19</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>54</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-2.440000000000001</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8.879999999999999</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D13" t="n">
         <v>2.6</v>
       </c>
-      <c r="V5" t="n">
+      <c r="E13" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23</v>
+      </c>
+      <c r="H13" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L13" t="n">
         <v>-0.1</v>
       </c>
-      <c r="W5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.5399999999999998</v>
+      <c r="M13" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>50.76000000000001</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.7300000000000011</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-4.35</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,103 +609,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897753</v>
+        <v>897796</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897753.html</t>
+          <t>https://text.khl.ru/text/897796.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>30</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K2" t="n">
+        <v>60</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>4</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>52</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+      <c r="P2" t="n">
         <v>32</v>
       </c>
-      <c r="K2" t="n">
-        <v>84</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9</v>
-      </c>
-      <c r="O2" t="n">
-        <v>21</v>
-      </c>
-      <c r="P2" t="n">
-        <v>36</v>
-      </c>
       <c r="Q2" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="R2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T2" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="U2" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="n">
         <v>3</v>
       </c>
-      <c r="AA2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>52.2</v>
+        <v>64</v>
       </c>
       <c r="AD2" t="n">
-        <v>42.3</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -717,31 +717,31 @@
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897745</v>
+        <v>897788</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897745.html</t>
+          <t>https://text.khl.ru/text/897788.html</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -751,64 +751,64 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
         <v>6</v>
       </c>
-      <c r="O3" t="n">
-        <v>4</v>
-      </c>
       <c r="P3" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T3" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="U3" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="V3" t="n">
+        <v>9</v>
+      </c>
+      <c r="W3" t="n">
         <v>2</v>
       </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -816,65 +816,65 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>42.2</v>
+        <v>54.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>38.6</v>
+        <v>41.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897738</v>
+        <v>897775</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897738.html</t>
+          <t>https://text.khl.ru/text/897775.html</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K4" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -886,90 +886,90 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P4" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>12</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA4" t="n">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>33</v>
-      </c>
-      <c r="R4" t="n">
-        <v>29</v>
-      </c>
-      <c r="S4" t="n">
-        <v>13</v>
-      </c>
-      <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
-        <v>13</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2</v>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>56.6</v>
+        <v>55.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>55.2</v>
+        <v>45.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AG4" t="n">
         <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>11.5</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18-10-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897662</v>
+        <v>897722</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897662.html</t>
+          <t>https://text.khl.ru/text/897722.html</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -979,64 +979,64 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21</v>
+      </c>
+      <c r="K5" t="n">
+        <v>51</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>28</v>
-      </c>
-      <c r="J5" t="n">
-        <v>30</v>
-      </c>
-      <c r="K5" t="n">
-        <v>58</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R5" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="S5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1044,569 +1044,569 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>48.2</v>
+        <v>46.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16-10-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897654</v>
+        <v>897713</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897654.html</t>
+          <t>https://text.khl.ru/text/897713.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
+        <v>18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>57</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>22</v>
+      </c>
+      <c r="O6" t="n">
+        <v>21</v>
+      </c>
+      <c r="P6" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12</v>
+      </c>
+      <c r="S6" t="n">
+        <v>21</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>23</v>
+      </c>
+      <c r="V6" t="n">
+        <v>10</v>
+      </c>
+      <c r="W6" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y6" t="n">
         <v>20</v>
       </c>
-      <c r="K6" t="n">
-        <v>69</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>10</v>
-      </c>
-      <c r="S6" t="n">
-        <v>20</v>
-      </c>
-      <c r="T6" t="n">
-        <v>16</v>
-      </c>
-      <c r="U6" t="n">
-        <v>16</v>
-      </c>
-      <c r="V6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3</v>
-      </c>
-      <c r="X6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>6</v>
-      </c>
       <c r="Z6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA6" t="n">
         <v>5</v>
       </c>
-      <c r="AA6" t="n">
-        <v>2</v>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>54.7</v>
+        <v>63.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>50</v>
+        <v>43.9</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897750</v>
+        <v>897793</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897750.html</t>
+          <t>https://text.khl.ru/text/897793.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J7" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="K7" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>8</v>
       </c>
       <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>38</v>
+      </c>
+      <c r="R7" t="n">
+        <v>32</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12</v>
+      </c>
+      <c r="T7" t="n">
+        <v>12</v>
+      </c>
+      <c r="U7" t="n">
+        <v>14</v>
+      </c>
+      <c r="V7" t="n">
         <v>8</v>
       </c>
-      <c r="P7" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>29</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="W7" t="n">
+        <v>2</v>
+      </c>
+      <c r="X7" t="n">
         <v>13</v>
       </c>
-      <c r="S7" t="n">
-        <v>6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>10</v>
-      </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="Z7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>40.8</v>
+        <v>33.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>80</v>
+        <v>46.2</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>3.1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897742</v>
+        <v>897709</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897742.html</t>
+          <t>https://text.khl.ru/text/897709.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J8" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="K8" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>12</v>
       </c>
       <c r="P8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S8" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="T8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="U8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA8" t="n">
         <v>3</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>57.8</v>
+        <v>60.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>50</v>
+        <v>54.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
         <v>0.17</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897733</v>
+        <v>897703</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897733.html</t>
+          <t>https://text.khl.ru/text/897703.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20</v>
+      </c>
+      <c r="J9" t="n">
+        <v>47</v>
+      </c>
+      <c r="K9" t="n">
+        <v>67</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
-        <v>35</v>
-      </c>
-      <c r="J9" t="n">
-        <v>36</v>
-      </c>
-      <c r="K9" t="n">
-        <v>71</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R9" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="n">
+        <v>21</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2</v>
+      </c>
+      <c r="X9" t="n">
         <v>8</v>
       </c>
-      <c r="T9" t="n">
-        <v>15</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="Y9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z9" t="n">
         <v>7</v>
       </c>
-      <c r="V9" t="n">
-        <v>4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="AA9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH9" t="n">
         <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC9" t="n">
-        <v>58.9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897727</v>
+        <v>897691</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897727.html</t>
+          <t>https://text.khl.ru/text/897691.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
       <c r="I10" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J10" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K10" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>31</v>
+      </c>
+      <c r="R10" t="n">
+        <v>14</v>
+      </c>
+      <c r="S10" t="n">
+        <v>25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>12</v>
+      </c>
+      <c r="V10" t="n">
         <v>4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>32</v>
-      </c>
-      <c r="R10" t="n">
-        <v>13</v>
-      </c>
-      <c r="S10" t="n">
-        <v>13</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8</v>
-      </c>
-      <c r="U10" t="n">
-        <v>11</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="Z10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1614,22 +1614,22 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>47.5</v>
+        <v>49.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>42.1</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Барыс</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Амур</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>32</v>
@@ -1681,57 +1681,57 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
         <v>10</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>26</v>
+      </c>
+      <c r="R11" t="n">
+        <v>16</v>
+      </c>
+      <c r="S11" t="n">
+        <v>19</v>
+      </c>
+      <c r="T11" t="n">
+        <v>14</v>
+      </c>
+      <c r="U11" t="n">
+        <v>9</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="n">
         <v>6</v>
       </c>
-      <c r="P11" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>19</v>
-      </c>
-      <c r="R11" t="n">
-        <v>19</v>
-      </c>
-      <c r="S11" t="n">
-        <v>16</v>
-      </c>
-      <c r="T11" t="n">
-        <v>9</v>
-      </c>
-      <c r="U11" t="n">
-        <v>14</v>
-      </c>
-      <c r="V11" t="n">
-        <v>6</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
       <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
         <v>13</v>
       </c>
-      <c r="Y11" t="n">
-        <v>12</v>
-      </c>
       <c r="Z11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA11" t="n">
         <v>5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>7</v>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>57.8</v>
+        <v>42.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>39.1</v>
+        <v>60.9</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1743,18 +1743,18 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1763,57 +1763,57 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897770</v>
+        <v>897798</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897770.html</t>
+          <t>https://text.khl.ru/text/897798.html</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>47</v>
+      </c>
+      <c r="K12" t="n">
+        <v>66</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>33</v>
+      </c>
+      <c r="R12" t="n">
         <v>27</v>
       </c>
-      <c r="J12" t="n">
-        <v>28</v>
-      </c>
-      <c r="K12" t="n">
-        <v>55</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>23</v>
-      </c>
-      <c r="R12" t="n">
-        <v>26</v>
-      </c>
       <c r="S12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T12" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="U12" t="n">
         <v>15</v>
@@ -1825,82 +1825,82 @@
         <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="n">
         <v>4</v>
       </c>
-      <c r="AA12" t="n">
-        <v>2</v>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>56.6</v>
+        <v>46.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>65.90000000000001</v>
+        <v>46.4</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AH12" t="n">
-        <v>11.1</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897753</v>
+        <v>897765</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897753.html</t>
+          <t>https://text.khl.ru/text/897765.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J13" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1909,57 +1909,57 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>28</v>
+      </c>
+      <c r="R13" t="n">
+        <v>19</v>
+      </c>
+      <c r="S13" t="n">
+        <v>15</v>
+      </c>
+      <c r="T13" t="n">
+        <v>14</v>
+      </c>
+      <c r="U13" t="n">
+        <v>16</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3</v>
+      </c>
+      <c r="X13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA13" t="n">
         <v>9</v>
       </c>
-      <c r="P13" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>36</v>
-      </c>
-      <c r="R13" t="n">
-        <v>17</v>
-      </c>
-      <c r="S13" t="n">
-        <v>6</v>
-      </c>
-      <c r="T13" t="n">
-        <v>41</v>
-      </c>
-      <c r="U13" t="n">
-        <v>30</v>
-      </c>
-      <c r="V13" t="n">
-        <v>4</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6</v>
-      </c>
-      <c r="X13" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>3</v>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>47.8</v>
+        <v>45.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>57.7</v>
+        <v>46.7</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1971,50 +1971,50 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.1</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897741</v>
+        <v>897757</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897741.html</t>
+          <t>https://text.khl.ru/text/897757.html</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J14" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K14" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2029,40 +2029,40 @@
         <v>6</v>
       </c>
       <c r="P14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="R14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
       </c>
       <c r="T14" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U14" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="V14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
         <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -2070,10 +2070,10 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>47.4</v>
+        <v>43.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>58.3</v>
+        <v>72.7</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
@@ -2085,50 +2085,50 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>4</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897695</v>
+        <v>897747</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897695.html</t>
+          <t>https://text.khl.ru/text/897747.html</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="J15" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="K15" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2137,57 +2137,57 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="R15" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="T15" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="U15" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="n">
         <v>4</v>
       </c>
-      <c r="X15" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>3</v>
       </c>
-      <c r="AA15" t="n">
-        <v>4</v>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>43.1</v>
+        <v>62.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>35.8</v>
+        <v>40</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2199,50 +2199,50 @@
         <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897689</v>
+        <v>897738</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897689.html</t>
+          <t>https://text.khl.ru/text/897738.html</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2251,57 +2251,57 @@
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P16" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="R16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S16" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>46.2</v>
+        <v>43.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>58.3</v>
+        <v>44.8</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>4.2</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="17">
@@ -2324,87 +2324,87 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897792</v>
+        <v>897791</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897792.html</t>
+          <t>https://text.khl.ru/text/897791.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J17" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K17" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q17" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="R17" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="S17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="U17" t="n">
+        <v>29</v>
+      </c>
+      <c r="V17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6</v>
+      </c>
+      <c r="X17" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y17" t="n">
         <v>36</v>
       </c>
-      <c r="V17" t="n">
-        <v>1</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3</v>
-      </c>
-      <c r="X17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>14</v>
-      </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>39.6</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>35.7</v>
+        <v>47.3</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH17" t="n">
-        <v>3.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="18">
@@ -2438,12 +2438,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Салават Юлаев</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Локомотив</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2455,52 +2455,52 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
         <v>3</v>
       </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
       <c r="I18" t="n">
+        <v>36</v>
+      </c>
+      <c r="J18" t="n">
         <v>21</v>
-      </c>
-      <c r="J18" t="n">
-        <v>36</v>
       </c>
       <c r="K18" t="n">
         <v>57</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
         <v>10</v>
       </c>
-      <c r="O18" t="n">
-        <v>6</v>
-      </c>
       <c r="P18" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q18" t="n">
         <v>30</v>
       </c>
-      <c r="Q18" t="n">
-        <v>29</v>
-      </c>
       <c r="R18" t="n">
+        <v>11</v>
+      </c>
+      <c r="S18" t="n">
         <v>23</v>
       </c>
-      <c r="S18" t="n">
-        <v>11</v>
-      </c>
       <c r="T18" t="n">
+        <v>27</v>
+      </c>
+      <c r="U18" t="n">
         <v>20</v>
-      </c>
-      <c r="U18" t="n">
-        <v>27</v>
       </c>
       <c r="V18" t="n">
         <v>8</v>
@@ -2509,130 +2509,130 @@
         <v>8</v>
       </c>
       <c r="X18" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y18" t="n">
         <v>26</v>
       </c>
-      <c r="Y18" t="n">
-        <v>18</v>
-      </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>50.8</v>
+        <v>49.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>42.6</v>
+        <v>57.4</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>14.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897741</v>
+        <v>897772</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897741.html</t>
+          <t>https://text.khl.ru/text/897772.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J19" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K19" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S19" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="T19" t="n">
         <v>20</v>
       </c>
       <c r="U19" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="V19" t="n">
         <v>5</v>
       </c>
       <c r="W19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2640,10 +2640,10 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>52.6</v>
+        <v>58</v>
       </c>
       <c r="AD19" t="n">
-        <v>41.7</v>
+        <v>60.6</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -2661,92 +2661,92 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897733</v>
+        <v>897745</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897733.html</t>
+          <t>https://text.khl.ru/text/897745.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>27</v>
+      </c>
+      <c r="J20" t="n">
+        <v>29</v>
+      </c>
+      <c r="K20" t="n">
+        <v>56</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>19</v>
+      </c>
+      <c r="R20" t="n">
+        <v>21</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="n">
+        <v>27</v>
+      </c>
+      <c r="U20" t="n">
+        <v>17</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>35</v>
-      </c>
-      <c r="K20" t="n">
-        <v>71</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>8</v>
-      </c>
-      <c r="P20" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>33</v>
-      </c>
-      <c r="R20" t="n">
-        <v>8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>17</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7</v>
-      </c>
-      <c r="U20" t="n">
-        <v>15</v>
-      </c>
-      <c r="V20" t="n">
-        <v>3</v>
-      </c>
-      <c r="W20" t="n">
-        <v>4</v>
-      </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2754,10 +2754,10 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>41.1</v>
+        <v>57.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>31.8</v>
+        <v>61.4</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2766,65 +2766,65 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5.6</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897689</v>
+        <v>897737</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897689.html</t>
+          <t>https://text.khl.ru/text/897737.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
       <c r="I21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J21" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K21" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P21" t="n">
         <v>28</v>
@@ -2833,34 +2833,34 @@
         <v>24</v>
       </c>
       <c r="R21" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="S21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="U21" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2871,19 +2871,2293 @@
         <v>53.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>41.7</v>
+        <v>48.9</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AG21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.1</v>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>897766</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897766.html</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>42</v>
+      </c>
+      <c r="J22" t="n">
+        <v>14</v>
+      </c>
+      <c r="K22" t="n">
+        <v>56</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>18</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>17</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>11</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>897725</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897725.html</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>44</v>
+      </c>
+      <c r="J23" t="n">
+        <v>24</v>
+      </c>
+      <c r="K23" t="n">
+        <v>68</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>23</v>
+      </c>
+      <c r="R23" t="n">
+        <v>12</v>
+      </c>
+      <c r="S23" t="n">
+        <v>22</v>
+      </c>
+      <c r="T23" t="n">
+        <v>13</v>
+      </c>
+      <c r="U23" t="n">
+        <v>27</v>
+      </c>
+      <c r="V23" t="n">
+        <v>5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>9</v>
+      </c>
+      <c r="X23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>19-10-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>897665</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897665.html</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>60</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14</v>
+      </c>
+      <c r="O24" t="n">
+        <v>19</v>
+      </c>
+      <c r="P24" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>32</v>
+      </c>
+      <c r="R24" t="n">
+        <v>11</v>
+      </c>
+      <c r="S24" t="n">
+        <v>13</v>
+      </c>
+      <c r="T24" t="n">
+        <v>12</v>
+      </c>
+      <c r="U24" t="n">
+        <v>14</v>
+      </c>
+      <c r="V24" t="n">
+        <v>5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>16-10-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>897652</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897652.html</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>33</v>
+      </c>
+      <c r="J25" t="n">
+        <v>26</v>
+      </c>
+      <c r="K25" t="n">
+        <v>59</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8</v>
+      </c>
+      <c r="P25" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>30</v>
+      </c>
+      <c r="R25" t="n">
+        <v>10</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>9</v>
+      </c>
+      <c r="U25" t="n">
+        <v>14</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4</v>
+      </c>
+      <c r="W25" t="n">
+        <v>9</v>
+      </c>
+      <c r="X25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12-10-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>897638</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897638.html</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26</v>
+      </c>
+      <c r="J26" t="n">
+        <v>23</v>
+      </c>
+      <c r="K26" t="n">
+        <v>49</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>26</v>
+      </c>
+      <c r="R26" t="n">
+        <v>9</v>
+      </c>
+      <c r="S26" t="n">
+        <v>20</v>
+      </c>
+      <c r="T26" t="n">
+        <v>21</v>
+      </c>
+      <c r="U26" t="n">
+        <v>26</v>
+      </c>
+      <c r="V26" t="n">
+        <v>8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6</v>
+      </c>
+      <c r="X26" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>897795</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897795.html</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>39</v>
+      </c>
+      <c r="K27" t="n">
+        <v>57</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>38</v>
+      </c>
+      <c r="R27" t="n">
+        <v>32</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10</v>
+      </c>
+      <c r="U27" t="n">
+        <v>15</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>897765</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897765.html</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>55</v>
+      </c>
+      <c r="K28" t="n">
+        <v>75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>23</v>
+      </c>
+      <c r="R28" t="n">
+        <v>15</v>
+      </c>
+      <c r="S28" t="n">
+        <v>19</v>
+      </c>
+      <c r="T28" t="n">
+        <v>16</v>
+      </c>
+      <c r="U28" t="n">
+        <v>14</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7</v>
+      </c>
+      <c r="X28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>897752</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897752.html</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>46</v>
+      </c>
+      <c r="K29" t="n">
+        <v>71</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>10</v>
+      </c>
+      <c r="P29" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>34</v>
+      </c>
+      <c r="R29" t="n">
+        <v>23</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15</v>
+      </c>
+      <c r="T29" t="n">
+        <v>8</v>
+      </c>
+      <c r="U29" t="n">
+        <v>10</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>897746</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897746.html</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>24</v>
+      </c>
+      <c r="J30" t="n">
+        <v>31</v>
+      </c>
+      <c r="K30" t="n">
+        <v>55</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>37</v>
+      </c>
+      <c r="R30" t="n">
+        <v>16</v>
+      </c>
+      <c r="S30" t="n">
+        <v>19</v>
+      </c>
+      <c r="T30" t="n">
+        <v>7</v>
+      </c>
+      <c r="U30" t="n">
+        <v>14</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897719</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897719.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>33</v>
+      </c>
+      <c r="J31" t="n">
+        <v>39</v>
+      </c>
+      <c r="K31" t="n">
+        <v>72</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>24</v>
+      </c>
+      <c r="R31" t="n">
+        <v>16</v>
+      </c>
+      <c r="S31" t="n">
+        <v>17</v>
+      </c>
+      <c r="T31" t="n">
+        <v>21</v>
+      </c>
+      <c r="U31" t="n">
+        <v>22</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897797</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897797.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>33</v>
+      </c>
+      <c r="J32" t="n">
+        <v>30</v>
+      </c>
+      <c r="K32" t="n">
+        <v>63</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>10</v>
+      </c>
+      <c r="P32" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>27</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6</v>
+      </c>
+      <c r="S32" t="n">
+        <v>17</v>
+      </c>
+      <c r="T32" t="n">
+        <v>19</v>
+      </c>
+      <c r="U32" t="n">
+        <v>26</v>
+      </c>
+      <c r="V32" t="n">
+        <v>16</v>
+      </c>
+      <c r="W32" t="n">
+        <v>15</v>
+      </c>
+      <c r="X32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897787</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897787.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>31</v>
+      </c>
+      <c r="J33" t="n">
+        <v>28</v>
+      </c>
+      <c r="K33" t="n">
+        <v>59</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>8</v>
+      </c>
+      <c r="P33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>19</v>
+      </c>
+      <c r="R33" t="n">
+        <v>12</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>15</v>
+      </c>
+      <c r="U33" t="n">
+        <v>16</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897737</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897737.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>29</v>
+      </c>
+      <c r="J34" t="n">
+        <v>27</v>
+      </c>
+      <c r="K34" t="n">
+        <v>56</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>28</v>
+      </c>
+      <c r="R34" t="n">
+        <v>15</v>
+      </c>
+      <c r="S34" t="n">
+        <v>12</v>
+      </c>
+      <c r="T34" t="n">
+        <v>23</v>
+      </c>
+      <c r="U34" t="n">
+        <v>22</v>
+      </c>
+      <c r="V34" t="n">
+        <v>3</v>
+      </c>
+      <c r="W34" t="n">
+        <v>6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>51.1</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897729</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897729.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>33</v>
+      </c>
+      <c r="J35" t="n">
+        <v>29</v>
+      </c>
+      <c r="K35" t="n">
+        <v>62</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>8</v>
+      </c>
+      <c r="P35" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>23</v>
+      </c>
+      <c r="R35" t="n">
+        <v>10</v>
+      </c>
+      <c r="S35" t="n">
+        <v>23</v>
+      </c>
+      <c r="T35" t="n">
+        <v>31</v>
+      </c>
+      <c r="U35" t="n">
+        <v>38</v>
+      </c>
+      <c r="V35" t="n">
+        <v>9</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897723</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897723.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>50</v>
+      </c>
+      <c r="J36" t="n">
+        <v>30</v>
+      </c>
+      <c r="K36" t="n">
+        <v>80</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>10</v>
+      </c>
+      <c r="P36" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>32</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>14</v>
+      </c>
+      <c r="T36" t="n">
+        <v>30</v>
+      </c>
+      <c r="U36" t="n">
+        <v>39</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>19-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897792</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897792.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>31</v>
+      </c>
+      <c r="J37" t="n">
+        <v>30</v>
+      </c>
+      <c r="K37" t="n">
+        <v>61</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>12</v>
+      </c>
+      <c r="P37" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>21</v>
+      </c>
+      <c r="R37" t="n">
+        <v>13</v>
+      </c>
+      <c r="S37" t="n">
+        <v>18</v>
+      </c>
+      <c r="T37" t="n">
+        <v>36</v>
+      </c>
+      <c r="U37" t="n">
+        <v>20</v>
+      </c>
+      <c r="V37" t="n">
+        <v>3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17-11-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897782</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897782.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>34</v>
+      </c>
+      <c r="J38" t="n">
+        <v>28</v>
+      </c>
+      <c r="K38" t="n">
+        <v>62</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>7</v>
+      </c>
+      <c r="P38" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>29</v>
+      </c>
+      <c r="R38" t="n">
+        <v>13</v>
+      </c>
+      <c r="S38" t="n">
+        <v>18</v>
+      </c>
+      <c r="T38" t="n">
+        <v>24</v>
+      </c>
+      <c r="U38" t="n">
+        <v>31</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>15-11-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897771</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897771.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>18</v>
+      </c>
+      <c r="J39" t="n">
+        <v>38</v>
+      </c>
+      <c r="K39" t="n">
+        <v>56</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>13</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>29</v>
+      </c>
+      <c r="R39" t="n">
+        <v>10</v>
+      </c>
+      <c r="S39" t="n">
+        <v>9</v>
+      </c>
+      <c r="T39" t="n">
+        <v>27</v>
+      </c>
+      <c r="U39" t="n">
+        <v>22</v>
+      </c>
+      <c r="V39" t="n">
+        <v>6</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897739</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897739.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>19</v>
+      </c>
+      <c r="J40" t="n">
+        <v>37</v>
+      </c>
+      <c r="K40" t="n">
+        <v>56</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>29</v>
+      </c>
+      <c r="R40" t="n">
+        <v>14</v>
+      </c>
+      <c r="S40" t="n">
+        <v>9</v>
+      </c>
+      <c r="T40" t="n">
+        <v>33</v>
+      </c>
+      <c r="U40" t="n">
+        <v>10</v>
+      </c>
+      <c r="V40" t="n">
+        <v>10</v>
+      </c>
+      <c r="W40" t="n">
+        <v>8</v>
+      </c>
+      <c r="X40" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897729</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897729.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>29</v>
+      </c>
+      <c r="J41" t="n">
+        <v>33</v>
+      </c>
+      <c r="K41" t="n">
+        <v>62</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8</v>
+      </c>
+      <c r="O41" t="n">
+        <v>8</v>
+      </c>
+      <c r="P41" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>25</v>
+      </c>
+      <c r="R41" t="n">
+        <v>23</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="n">
+        <v>38</v>
+      </c>
+      <c r="U41" t="n">
+        <v>31</v>
+      </c>
+      <c r="V41" t="n">
+        <v>4</v>
+      </c>
+      <c r="W41" t="n">
+        <v>9</v>
+      </c>
+      <c r="X41" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +5171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3050,353 +5324,705 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
         <v>2.8</v>
       </c>
-      <c r="D2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="E2" t="n">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>36.8</v>
+        <v>31.8</v>
       </c>
       <c r="H2" t="n">
-        <v>158.7</v>
+        <v>24.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7</v>
+        <v>-1.4</v>
       </c>
       <c r="J2" t="n">
-        <v>28.6</v>
+        <v>23.6</v>
       </c>
       <c r="K2" t="n">
-        <v>29.8</v>
+        <v>21.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="M2" t="n">
-        <v>18</v>
+        <v>12.6</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="O2" t="n">
-        <v>50.77999999999999</v>
+        <v>56.96</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.1</v>
+        <v>0.8400000000000005</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.24</v>
+        <v>0.134</v>
       </c>
       <c r="R2" t="n">
-        <v>0.009999999999999998</v>
+        <v>-0.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.03600000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.5</v>
+        <v>1.9</v>
       </c>
       <c r="W2" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="X2" t="n">
-        <v>1.2</v>
+        <v>-3.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.6</v>
+        <v>10.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.2</v>
+        <v>-3.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.58</v>
+        <v>7.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.4699999999999998</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3</v>
+        <v>1.1</v>
       </c>
       <c r="F3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>176.7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>46.58000000000001</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.6700000000000017</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.3</v>
       </c>
-      <c r="G3" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>52.56</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.034</v>
-      </c>
       <c r="R3" t="n">
-        <v>0.017</v>
+        <v>0.184</v>
       </c>
       <c r="S3" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="T3" t="n">
-        <v>0.025</v>
+        <v>-0.067</v>
       </c>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7</v>
+        <v>-1.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
         <v>6.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.64</v>
+        <v>9.959999999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>-1.04</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>216.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>189.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.2</v>
       </c>
-      <c r="F4" t="n">
+      <c r="O4" t="n">
+        <v>48.27999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.2</v>
       </c>
-      <c r="G4" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>99.19999999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>48.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.549999999999999</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S4" t="n">
-        <v>0.766</v>
+        <v>0.834</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.166</v>
+        <v>0.03400000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W4" t="n">
-        <v>10.2</v>
+        <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.24</v>
+        <v>13.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8099999999999998</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>57.44000000000001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.060000000000002</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6839999999999999</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.03400000000000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>9.360000000000001</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-2.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>54.64000000000001</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>42</v>
+      </c>
+      <c r="K7" t="n">
+        <v>81</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-2.99</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3825</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.4243333333333333</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.6</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="W7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="L8" t="n">
         <v>-0.1</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="H5" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>30.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="M8" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>53.10000000000001</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9300000000000004</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>50.18</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="U9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z9" t="n">
         <v>1.3</v>
       </c>
-      <c r="O5" t="n">
-        <v>47.58</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-1.87</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.01599999999999999</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.9199999999999999</v>
-      </c>
-      <c r="T5" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>-2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.1100000000000001</v>
+      <c r="AA9" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.5200000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -609,44 +609,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897796</v>
+        <v>897789</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897796.html</t>
+          <t>https://text.khl.ru/text/897789.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -655,57 +655,57 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S2" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="T2" t="n">
+        <v>22</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
         <v>12</v>
       </c>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
-      </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>64</v>
+        <v>66.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>70.59999999999999</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -713,22 +713,19 @@
       <c r="AF2" t="n">
         <v>0</v>
       </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
       <c r="AH2" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -737,147 +734,147 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897788</v>
+        <v>897779</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897788.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J3" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="K3" t="n">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>9</v>
+      </c>
+      <c r="P3" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>24</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15</v>
+      </c>
+      <c r="T3" t="n">
+        <v>33</v>
+      </c>
+      <c r="U3" t="n">
+        <v>44</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
         <v>8</v>
       </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>28</v>
-      </c>
-      <c r="R3" t="n">
-        <v>21</v>
-      </c>
-      <c r="S3" t="n">
-        <v>13</v>
-      </c>
-      <c r="T3" t="n">
-        <v>22</v>
-      </c>
-      <c r="U3" t="n">
-        <v>31</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>23</v>
       </c>
       <c r="Z3" t="n">
         <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>54.8</v>
+        <v>56.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>41.5</v>
+        <v>42.9</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Адмирал</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Амур</t>
-        </is>
-      </c>
       <c r="D4" t="n">
-        <v>897775</v>
+        <v>897743</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897775.html</t>
+          <t>https://text.khl.ru/text/897743.html</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="K4" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -886,77 +883,77 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" t="n">
+        <v>14</v>
+      </c>
+      <c r="S4" t="n">
         <v>15</v>
       </c>
-      <c r="S4" t="n">
-        <v>12</v>
-      </c>
       <c r="T4" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="U4" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>55.4</v>
+        <v>63.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>45.5</v>
+        <v>58.3</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -965,11 +962,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897722</v>
+        <v>897731</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897722.html</t>
+          <t>https://text.khl.ru/text/897731.html</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -982,61 +979,61 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K5" t="n">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S5" t="n">
+        <v>17</v>
+      </c>
+      <c r="T5" t="n">
+        <v>12</v>
+      </c>
+      <c r="U5" t="n">
+        <v>19</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y5" t="n">
         <v>18</v>
       </c>
-      <c r="T5" t="n">
-        <v>6</v>
-      </c>
-      <c r="U5" t="n">
-        <v>10</v>
-      </c>
-      <c r="V5" t="n">
-        <v>6</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>21</v>
-      </c>
       <c r="Z5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1044,113 +1041,113 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>46.8</v>
+        <v>54.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>37.5</v>
+        <v>38.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>16-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897713</v>
+        <v>897655</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897713.html</t>
+          <t>https://text.khl.ru/text/897655.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>44</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29</v>
+      </c>
+      <c r="K6" t="n">
+        <v>73</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>40</v>
+      </c>
+      <c r="R6" t="n">
+        <v>14</v>
+      </c>
+      <c r="S6" t="n">
+        <v>27</v>
+      </c>
+      <c r="T6" t="n">
+        <v>21</v>
+      </c>
+      <c r="U6" t="n">
+        <v>13</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
         <v>5</v>
       </c>
-      <c r="I6" t="n">
-        <v>39</v>
-      </c>
-      <c r="J6" t="n">
-        <v>18</v>
-      </c>
-      <c r="K6" t="n">
-        <v>57</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>22</v>
-      </c>
-      <c r="O6" t="n">
-        <v>21</v>
-      </c>
-      <c r="P6" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>21</v>
-      </c>
-      <c r="R6" t="n">
-        <v>12</v>
-      </c>
-      <c r="S6" t="n">
-        <v>21</v>
-      </c>
-      <c r="T6" t="n">
-        <v>18</v>
-      </c>
-      <c r="U6" t="n">
-        <v>23</v>
-      </c>
-      <c r="V6" t="n">
-        <v>10</v>
-      </c>
-      <c r="W6" t="n">
-        <v>12</v>
-      </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1158,113 +1155,113 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>63.8</v>
+        <v>46.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>43.9</v>
+        <v>61.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897793</v>
+        <v>897799</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897793.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>58</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>48</v>
-      </c>
-      <c r="K7" t="n">
-        <v>72</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
       <c r="O7" t="n">
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q7" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="T7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="U7" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="V7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
@@ -1272,227 +1269,227 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>33.3</v>
+        <v>50</v>
       </c>
       <c r="AD7" t="n">
-        <v>46.2</v>
+        <v>40.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30-10-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897709</v>
+        <v>897753</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897709.html</t>
+          <t>https://text.khl.ru/text/897753.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>52</v>
+      </c>
+      <c r="J8" t="n">
+        <v>32</v>
+      </c>
+      <c r="K8" t="n">
+        <v>84</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>21</v>
+      </c>
+      <c r="P8" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>33</v>
+      </c>
+      <c r="R8" t="n">
         <v>6</v>
       </c>
-      <c r="I8" t="n">
-        <v>23</v>
-      </c>
-      <c r="J8" t="n">
-        <v>53</v>
-      </c>
-      <c r="K8" t="n">
-        <v>76</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12</v>
-      </c>
-      <c r="O8" t="n">
-        <v>12</v>
-      </c>
-      <c r="P8" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
+        <v>17</v>
+      </c>
+      <c r="T8" t="n">
+        <v>30</v>
+      </c>
+      <c r="U8" t="n">
+        <v>41</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y8" t="n">
         <v>25</v>
       </c>
-      <c r="R8" t="n">
-        <v>9</v>
-      </c>
-      <c r="S8" t="n">
-        <v>20</v>
-      </c>
-      <c r="T8" t="n">
-        <v>17</v>
-      </c>
-      <c r="U8" t="n">
-        <v>14</v>
-      </c>
-      <c r="V8" t="n">
-        <v>5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>15</v>
-      </c>
       <c r="Z8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>60.3</v>
+        <v>52.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>54.8</v>
+        <v>42.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
-        <v>8.699999999999999</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897703</v>
+        <v>897745</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897703.html</t>
+          <t>https://text.khl.ru/text/897745.html</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>29</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27</v>
+      </c>
+      <c r="K9" t="n">
+        <v>56</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>6</v>
       </c>
-      <c r="I9" t="n">
+      <c r="O9" t="n">
+        <v>4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>26</v>
+      </c>
+      <c r="R9" t="n">
         <v>20</v>
       </c>
-      <c r="J9" t="n">
-        <v>47</v>
-      </c>
-      <c r="K9" t="n">
-        <v>67</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="n">
-        <v>12</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>25</v>
-      </c>
-      <c r="R9" t="n">
-        <v>9</v>
-      </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="T9" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="V9" t="n">
         <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
@@ -1500,113 +1497,113 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>47.9</v>
+        <v>42.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>87.5</v>
+        <v>38.6</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897691</v>
+        <v>897738</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897691.html</t>
+          <t>https://text.khl.ru/text/897738.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
+        <v>26</v>
+      </c>
+      <c r="J10" t="n">
+        <v>34</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q10" t="n">
         <v>33</v>
       </c>
-      <c r="J10" t="n">
-        <v>21</v>
-      </c>
-      <c r="K10" t="n">
-        <v>54</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P10" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>31</v>
-      </c>
       <c r="R10" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="T10" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="U10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1614,33 +1611,33 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>49.2</v>
+        <v>56.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>67.59999999999999</v>
+        <v>55.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AG10" t="n">
         <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>3</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>24-10-2025</t>
+          <t>18-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1649,30 +1646,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897687</v>
+        <v>897662</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897687.html</t>
+          <t>https://text.khl.ru/text/897662.html</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1681,43 +1678,43 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>29</v>
+      </c>
+      <c r="R11" t="n">
         <v>19</v>
       </c>
-      <c r="Q11" t="n">
-        <v>26</v>
-      </c>
-      <c r="R11" t="n">
-        <v>16</v>
-      </c>
       <c r="S11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T11" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA11" t="n">
         <v>5</v>
@@ -1728,10 +1725,10 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>42.2</v>
+        <v>48.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>60.9</v>
+        <v>50</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1743,98 +1740,98 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>3.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897798</v>
+        <v>897800</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897798.html</t>
+          <t>https://text.khl.ru/text/897800.html</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J12" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="K12" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P12" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q12" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R12" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="S12" t="n">
         <v>19</v>
       </c>
       <c r="T12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="n">
         <v>3</v>
       </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>13</v>
-      </c>
       <c r="Z12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1842,124 +1839,124 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>46.8</v>
+        <v>57.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>46.4</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>26.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897765</v>
+        <v>897750</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897765.html</t>
+          <t>https://text.khl.ru/text/897750.html</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>32</v>
+      </c>
+      <c r="J13" t="n">
+        <v>34</v>
+      </c>
+      <c r="K13" t="n">
+        <v>66</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8</v>
+      </c>
+      <c r="P13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>29</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>55</v>
-      </c>
-      <c r="J13" t="n">
-        <v>20</v>
-      </c>
-      <c r="K13" t="n">
-        <v>75</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>28</v>
-      </c>
-      <c r="R13" t="n">
-        <v>19</v>
-      </c>
-      <c r="S13" t="n">
-        <v>15</v>
-      </c>
-      <c r="T13" t="n">
-        <v>14</v>
-      </c>
-      <c r="U13" t="n">
-        <v>16</v>
-      </c>
-      <c r="V13" t="n">
-        <v>7</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3</v>
-      </c>
-      <c r="X13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>18</v>
-      </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>45.1</v>
+        <v>40.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>46.7</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1971,164 +1968,164 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.7</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897757</v>
+        <v>897742</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897757.html</t>
+          <t>https://text.khl.ru/text/897742.html</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J14" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K14" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>27</v>
+      </c>
+      <c r="R14" t="n">
+        <v>13</v>
+      </c>
+      <c r="S14" t="n">
+        <v>11</v>
+      </c>
+      <c r="T14" t="n">
+        <v>8</v>
+      </c>
+      <c r="U14" t="n">
+        <v>8</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2</v>
+      </c>
+      <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6</v>
       </c>
-      <c r="P14" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>36</v>
-      </c>
-      <c r="R14" t="n">
-        <v>15</v>
-      </c>
-      <c r="S14" t="n">
-        <v>15</v>
-      </c>
-      <c r="T14" t="n">
-        <v>16</v>
-      </c>
-      <c r="U14" t="n">
-        <v>6</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>19</v>
-      </c>
       <c r="Z14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA14" t="n">
         <v>3</v>
       </c>
-      <c r="AA14" t="n">
-        <v>5</v>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>43.8</v>
+        <v>57.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>72.7</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897747</v>
+        <v>897733</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897747.html</t>
+          <t>https://text.khl.ru/text/897733.html</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K15" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2140,43 +2137,43 @@
         <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q15" t="n">
         <v>23</v>
       </c>
       <c r="R15" t="n">
+        <v>17</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>15</v>
+      </c>
+      <c r="U15" t="n">
         <v>7</v>
       </c>
-      <c r="S15" t="n">
-        <v>24</v>
-      </c>
-      <c r="T15" t="n">
-        <v>12</v>
-      </c>
-      <c r="U15" t="n">
-        <v>18</v>
-      </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W15" t="n">
         <v>3</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
         <v>4</v>
       </c>
       <c r="AA15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2184,10 +2181,10 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>62.3</v>
+        <v>58.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>40</v>
+        <v>68.2</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2199,109 +2196,109 @@
         <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897738</v>
+        <v>897727</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897738.html</t>
+          <t>https://text.khl.ru/text/897727.html</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>38</v>
+      </c>
+      <c r="J16" t="n">
+        <v>33</v>
+      </c>
+      <c r="K16" t="n">
+        <v>71</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>34</v>
-      </c>
-      <c r="J16" t="n">
-        <v>26</v>
-      </c>
-      <c r="K16" t="n">
-        <v>60</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>8</v>
-      </c>
       <c r="P16" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q16" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="R16" t="n">
         <v>13</v>
       </c>
       <c r="S16" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="T16" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U16" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>43.4</v>
+        <v>47.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>44.8</v>
+        <v>42.1</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2310,101 +2307,101 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AH16" t="n">
-        <v>11.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897791</v>
+        <v>897744</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897791.html</t>
+          <t>https://text.khl.ru/text/897744.html</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J17" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K17" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S17" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T17" t="n">
+        <v>29</v>
+      </c>
+      <c r="U17" t="n">
+        <v>9</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="n">
         <v>26</v>
       </c>
-      <c r="U17" t="n">
-        <v>29</v>
-      </c>
-      <c r="V17" t="n">
-        <v>5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>6</v>
-      </c>
-      <c r="X17" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>36</v>
-      </c>
       <c r="Z17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2412,238 +2409,232 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>68.40000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
+        <v>76.3</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897783</v>
+        <v>897701</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897783.html</t>
+          <t>https://text.khl.ru/text/897701.html</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="P18" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q18" t="n">
         <v>29</v>
       </c>
-      <c r="Q18" t="n">
-        <v>30</v>
-      </c>
       <c r="R18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S18" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T18" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U18" t="n">
         <v>20</v>
       </c>
       <c r="V18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Z18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA18" t="n">
         <v>3</v>
       </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>49.2</v>
+        <v>40.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>57.4</v>
+        <v>59.2</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>11.1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-10-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897772</v>
+        <v>897653</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897653.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>23</v>
+      </c>
+      <c r="J19" t="n">
+        <v>42</v>
+      </c>
+      <c r="K19" t="n">
+        <v>65</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
         <v>4</v>
       </c>
-      <c r="I19" t="n">
-        <v>27</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="O19" t="n">
+        <v>4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="n">
         <v>31</v>
       </c>
-      <c r="K19" t="n">
-        <v>58</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
-        <v>8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>29</v>
-      </c>
       <c r="R19" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="S19" t="n">
         <v>17</v>
       </c>
       <c r="T19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U19" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2</v>
+      </c>
+      <c r="X19" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="n">
         <v>5</v>
       </c>
-      <c r="W19" t="n">
-        <v>6</v>
-      </c>
-      <c r="X19" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>3</v>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>58</v>
+        <v>45.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>60.6</v>
+        <v>42.4</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -2655,31 +2646,31 @@
         <v>0.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>14-10-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897745</v>
+        <v>897661</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897745.html</t>
+          <t>https://text.khl.ru/text/897661.html</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2689,61 +2680,61 @@
         <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K20" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>6</v>
       </c>
       <c r="P20" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="Q20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R20" t="n">
         <v>21</v>
       </c>
       <c r="S20" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="T20" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="U20" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
         <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
         <v>1</v>
@@ -2754,113 +2745,113 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>57.8</v>
+        <v>58.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>61.4</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AH20" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>11-10-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897737</v>
+        <v>897549</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897737.html</t>
+          <t>https://text.khl.ru/text/897549.html</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J21" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K21" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P21" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Q21" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R21" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="S21" t="n">
+        <v>14</v>
+      </c>
+      <c r="T21" t="n">
+        <v>25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>21</v>
+      </c>
+      <c r="V21" t="n">
+        <v>4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" t="n">
         <v>15</v>
       </c>
-      <c r="T21" t="n">
-        <v>22</v>
-      </c>
-      <c r="U21" t="n">
-        <v>23</v>
-      </c>
-      <c r="V21" t="n">
-        <v>6</v>
-      </c>
-      <c r="W21" t="n">
-        <v>3</v>
-      </c>
-      <c r="X21" t="n">
-        <v>25</v>
-      </c>
       <c r="Y21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
@@ -2868,22 +2859,22 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>53.8</v>
+        <v>50.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>48.9</v>
+        <v>54.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>18.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="22">
@@ -2894,12 +2885,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Металлург Мг</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Лада</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2911,184 +2902,184 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
         <v>6</v>
       </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
       <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
         <v>42</v>
-      </c>
-      <c r="J22" t="n">
-        <v>14</v>
       </c>
       <c r="K22" t="n">
         <v>56</v>
       </c>
       <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
         <v>3</v>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
       <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
         <v>4</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>27</v>
+      </c>
+      <c r="R22" t="n">
+        <v>17</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>11</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4</v>
+      </c>
+      <c r="X22" t="n">
         <v>7</v>
       </c>
-      <c r="P22" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>18</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>17</v>
-      </c>
-      <c r="T22" t="n">
-        <v>3</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="Y22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA22" t="n">
         <v>11</v>
       </c>
-      <c r="V22" t="n">
-        <v>4</v>
-      </c>
-      <c r="W22" t="n">
-        <v>3</v>
-      </c>
-      <c r="X22" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>5</v>
-      </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AD22" t="n">
-        <v>21.4</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AH22" t="n">
-        <v>14.3</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897725</v>
+        <v>897756</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897725.html</t>
+          <t>https://text.khl.ru/text/897756.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J23" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K23" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
         <v>10</v>
       </c>
       <c r="P23" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S23" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U23" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="V23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W23" t="n">
+        <v>4</v>
+      </c>
+      <c r="X23" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z23" t="n">
         <v>9</v>
       </c>
-      <c r="X23" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>19</v>
-      </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -3096,113 +3087,113 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>57.4</v>
+        <v>49</v>
       </c>
       <c r="AD23" t="n">
-        <v>32.5</v>
+        <v>50</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AG23" t="n">
         <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>13.6</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>19-10-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897665</v>
+        <v>897747</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897665.html</t>
+          <t>https://text.khl.ru/text/897747.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="K24" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="P24" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="R24" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="S24" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T24" t="n">
+        <v>18</v>
+      </c>
+      <c r="U24" t="n">
         <v>12</v>
       </c>
-      <c r="U24" t="n">
-        <v>14</v>
-      </c>
       <c r="V24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
         <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AA24" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -3210,124 +3201,124 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>52.2</v>
+        <v>37.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>46.2</v>
+        <v>60</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>25.7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16-10-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897652</v>
+        <v>897735</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897652.html</t>
+          <t>https://text.khl.ru/text/897735.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J25" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="K25" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
         <v>8</v>
       </c>
       <c r="P25" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q25" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="S25" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T25" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="U25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V25" t="n">
+        <v>5</v>
+      </c>
+      <c r="W25" t="n">
         <v>4</v>
       </c>
-      <c r="W25" t="n">
-        <v>9</v>
-      </c>
       <c r="X25" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Z25" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AA25" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC25" t="n">
         <v>50</v>
       </c>
       <c r="AD25" t="n">
-        <v>39.1</v>
+        <v>57.1</v>
       </c>
       <c r="AE25" t="n">
         <v>0</v>
@@ -3336,112 +3327,112 @@
         <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.2</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897638</v>
+        <v>897716</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897638.html</t>
+          <t>https://text.khl.ru/text/897716.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J26" t="n">
+        <v>41</v>
+      </c>
+      <c r="K26" t="n">
+        <v>64</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>36</v>
+      </c>
+      <c r="R26" t="n">
         <v>23</v>
       </c>
-      <c r="K26" t="n">
-        <v>49</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="S26" t="n">
+        <v>12</v>
+      </c>
+      <c r="T26" t="n">
+        <v>22</v>
+      </c>
+      <c r="U26" t="n">
+        <v>15</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA26" t="n">
         <v>4</v>
       </c>
-      <c r="O26" t="n">
-        <v>6</v>
-      </c>
-      <c r="P26" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>26</v>
-      </c>
-      <c r="R26" t="n">
-        <v>9</v>
-      </c>
-      <c r="S26" t="n">
-        <v>20</v>
-      </c>
-      <c r="T26" t="n">
-        <v>21</v>
-      </c>
-      <c r="U26" t="n">
-        <v>26</v>
-      </c>
-      <c r="V26" t="n">
-        <v>8</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6</v>
-      </c>
-      <c r="X26" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>13</v>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>53.6</v>
+        <v>34.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>44.7</v>
+        <v>59.5</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -3450,53 +3441,53 @@
         <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH26" t="n">
-        <v>3.8</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897795</v>
+        <v>897799</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897795.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J27" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K27" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -3505,46 +3496,46 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
         <v>6</v>
       </c>
       <c r="P27" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q27" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R27" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="S27" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="U27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
@@ -3552,10 +3543,10 @@
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>28.3</v>
+        <v>50</v>
       </c>
       <c r="AD27" t="n">
-        <v>40</v>
+        <v>59.5</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -3567,109 +3558,109 @@
         <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>16.7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897765</v>
+        <v>897770</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897765.html</t>
+          <t>https://text.khl.ru/text/897770.html</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J28" t="n">
+        <v>28</v>
+      </c>
+      <c r="K28" t="n">
         <v>55</v>
       </c>
-      <c r="K28" t="n">
-        <v>75</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q28" t="n">
         <v>23</v>
       </c>
       <c r="R28" t="n">
+        <v>26</v>
+      </c>
+      <c r="S28" t="n">
+        <v>18</v>
+      </c>
+      <c r="T28" t="n">
+        <v>29</v>
+      </c>
+      <c r="U28" t="n">
         <v>15</v>
-      </c>
-      <c r="S28" t="n">
-        <v>19</v>
-      </c>
-      <c r="T28" t="n">
-        <v>16</v>
-      </c>
-      <c r="U28" t="n">
-        <v>14</v>
       </c>
       <c r="V28" t="n">
         <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
         <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA28" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>54.9</v>
+        <v>56.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>53.3</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -3678,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="29">
@@ -3692,84 +3683,84 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897752</v>
+        <v>897753</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897752.html</t>
+          <t>https://text.khl.ru/text/897753.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>32</v>
+      </c>
+      <c r="J29" t="n">
+        <v>52</v>
+      </c>
+      <c r="K29" t="n">
+        <v>84</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>21</v>
+      </c>
+      <c r="O29" t="n">
+        <v>9</v>
+      </c>
+      <c r="P29" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>36</v>
+      </c>
+      <c r="R29" t="n">
+        <v>17</v>
+      </c>
+      <c r="S29" t="n">
         <v>6</v>
       </c>
-      <c r="I29" t="n">
+      <c r="T29" t="n">
+        <v>41</v>
+      </c>
+      <c r="U29" t="n">
+        <v>30</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6</v>
+      </c>
+      <c r="X29" t="n">
         <v>25</v>
       </c>
-      <c r="J29" t="n">
-        <v>46</v>
-      </c>
-      <c r="K29" t="n">
-        <v>71</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>6</v>
-      </c>
-      <c r="O29" t="n">
-        <v>10</v>
-      </c>
-      <c r="P29" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>34</v>
-      </c>
-      <c r="R29" t="n">
-        <v>23</v>
-      </c>
-      <c r="S29" t="n">
-        <v>15</v>
-      </c>
-      <c r="T29" t="n">
-        <v>8</v>
-      </c>
-      <c r="U29" t="n">
-        <v>10</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>3</v>
-      </c>
-      <c r="X29" t="n">
-        <v>23</v>
-      </c>
       <c r="Y29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA29" t="n">
         <v>3</v>
@@ -3780,335 +3771,341 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>42.4</v>
+        <v>47.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>44.4</v>
+        <v>57.7</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897746</v>
+        <v>897741</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897746.html</t>
+          <t>https://text.khl.ru/text/897741.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+      <c r="J30" t="n">
+        <v>36</v>
+      </c>
+      <c r="K30" t="n">
+        <v>61</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>30</v>
+      </c>
+      <c r="R30" t="n">
+        <v>21</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15</v>
+      </c>
+      <c r="T30" t="n">
+        <v>28</v>
+      </c>
+      <c r="U30" t="n">
+        <v>20</v>
+      </c>
+      <c r="V30" t="n">
         <v>4</v>
       </c>
-      <c r="I30" t="n">
-        <v>24</v>
-      </c>
-      <c r="J30" t="n">
-        <v>31</v>
-      </c>
-      <c r="K30" t="n">
-        <v>55</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>6</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>37</v>
-      </c>
-      <c r="R30" t="n">
-        <v>16</v>
-      </c>
-      <c r="S30" t="n">
-        <v>19</v>
-      </c>
-      <c r="T30" t="n">
-        <v>7</v>
-      </c>
-      <c r="U30" t="n">
-        <v>14</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2</v>
-      </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA30" t="n">
         <v>4</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>30.2</v>
+        <v>47.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>33.3</v>
+        <v>58.3</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897719</v>
+        <v>897695</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897719.html</t>
+          <t>https://text.khl.ru/text/897695.html</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>3</v>
       </c>
       <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>34</v>
+      </c>
+      <c r="J31" t="n">
+        <v>32</v>
+      </c>
+      <c r="K31" t="n">
+        <v>66</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" t="n">
         <v>4</v>
       </c>
-      <c r="I31" t="n">
-        <v>33</v>
-      </c>
-      <c r="J31" t="n">
-        <v>39</v>
-      </c>
-      <c r="K31" t="n">
-        <v>72</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
       <c r="P31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q31" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="R31" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="S31" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="T31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U31" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="V31" t="n">
         <v>5</v>
       </c>
       <c r="W31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X31" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y31" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>55.6</v>
+        <v>43.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>48.8</v>
+        <v>35.8</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="n">
         <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>9.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>897797</v>
+        <v>897800</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897797.html</t>
+          <t>https://text.khl.ru/text/897800.html</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>27</v>
+      </c>
+      <c r="J32" t="n">
+        <v>31</v>
+      </c>
+      <c r="K32" t="n">
+        <v>58</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12</v>
+      </c>
+      <c r="O32" t="n">
+        <v>12</v>
+      </c>
+      <c r="P32" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>37</v>
+      </c>
+      <c r="R32" t="n">
+        <v>19</v>
+      </c>
+      <c r="S32" t="n">
+        <v>14</v>
+      </c>
+      <c r="T32" t="n">
+        <v>11</v>
+      </c>
+      <c r="U32" t="n">
+        <v>9</v>
+      </c>
+      <c r="V32" t="n">
+        <v>7</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" t="n">
         <v>3</v>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-      <c r="I32" t="n">
-        <v>33</v>
-      </c>
-      <c r="J32" t="n">
-        <v>30</v>
-      </c>
-      <c r="K32" t="n">
-        <v>63</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>10</v>
-      </c>
-      <c r="P32" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>27</v>
-      </c>
-      <c r="R32" t="n">
-        <v>6</v>
-      </c>
-      <c r="S32" t="n">
-        <v>17</v>
-      </c>
-      <c r="T32" t="n">
-        <v>19</v>
-      </c>
-      <c r="U32" t="n">
-        <v>26</v>
-      </c>
-      <c r="V32" t="n">
-        <v>16</v>
-      </c>
-      <c r="W32" t="n">
-        <v>15</v>
-      </c>
-      <c r="X32" t="n">
-        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>14</v>
       </c>
       <c r="Z32" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AA32" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -4116,147 +4113,147 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>57.1</v>
+        <v>42.2</v>
       </c>
       <c r="AD32" t="n">
-        <v>42.2</v>
+        <v>55</v>
       </c>
       <c r="AE32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
         <v>1</v>
       </c>
       <c r="AH32" t="n">
-        <v>9.1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>897787</v>
+        <v>897792</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897787.html</t>
+          <t>https://text.khl.ru/text/897792.html</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>2</v>
       </c>
       <c r="I33" t="n">
+        <v>30</v>
+      </c>
+      <c r="J33" t="n">
         <v>31</v>
       </c>
-      <c r="J33" t="n">
-        <v>28</v>
-      </c>
       <c r="K33" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O33" t="n">
         <v>8</v>
       </c>
       <c r="P33" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q33" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="R33" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T33" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U33" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="V33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>55.8</v>
+        <v>39.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>48.4</v>
+        <v>35.7</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>12.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4265,75 +4262,75 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>897737</v>
+        <v>897783</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897737.html</t>
+          <t>https://text.khl.ru/text/897783.html</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
+        <v>21</v>
+      </c>
+      <c r="J34" t="n">
+        <v>36</v>
+      </c>
+      <c r="K34" t="n">
+        <v>57</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q34" t="n">
         <v>29</v>
       </c>
-      <c r="J34" t="n">
+      <c r="R34" t="n">
+        <v>23</v>
+      </c>
+      <c r="S34" t="n">
+        <v>11</v>
+      </c>
+      <c r="T34" t="n">
+        <v>20</v>
+      </c>
+      <c r="U34" t="n">
         <v>27</v>
       </c>
-      <c r="K34" t="n">
-        <v>56</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="V34" t="n">
         <v>8</v>
       </c>
-      <c r="P34" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>28</v>
-      </c>
-      <c r="R34" t="n">
-        <v>15</v>
-      </c>
-      <c r="S34" t="n">
-        <v>12</v>
-      </c>
-      <c r="T34" t="n">
-        <v>23</v>
-      </c>
-      <c r="U34" t="n">
-        <v>22</v>
-      </c>
-      <c r="V34" t="n">
-        <v>3</v>
-      </c>
       <c r="W34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Z34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34" t="n">
         <v>3</v>
@@ -4344,65 +4341,65 @@
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>46.2</v>
+        <v>50.8</v>
       </c>
       <c r="AD34" t="n">
-        <v>51.1</v>
+        <v>42.6</v>
       </c>
       <c r="AE34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AH34" t="n">
-        <v>6.9</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>04-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>897729</v>
+        <v>897741</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897729.html</t>
+          <t>https://text.khl.ru/text/897741.html</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J35" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K35" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -4411,57 +4408,57 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P35" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q35" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T35" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U35" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="V35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="W35" t="n">
         <v>4</v>
       </c>
       <c r="X35" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="Z35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>52.1</v>
+        <v>52.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>44.9</v>
+        <v>41.7</v>
       </c>
       <c r="AE35" t="n">
         <v>0</v>
@@ -4473,31 +4470,31 @@
         <v>1</v>
       </c>
       <c r="AH35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>897723</v>
+        <v>897733</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897723.html</t>
+          <t>https://text.khl.ru/text/897733.html</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4507,75 +4504,75 @@
         <v>2</v>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J36" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K36" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O36" t="n">
         <v>8</v>
       </c>
-      <c r="O36" t="n">
-        <v>10</v>
-      </c>
       <c r="P36" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Q36" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S36" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T36" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="U36" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="V36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
         <v>4</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y36" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>54.3</v>
+        <v>41.1</v>
       </c>
       <c r="AD36" t="n">
-        <v>43.5</v>
+        <v>31.8</v>
       </c>
       <c r="AE36" t="n">
         <v>0</v>
@@ -4584,112 +4581,112 @@
         <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH36" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>897792</v>
+        <v>897796</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897792.html</t>
+          <t>https://text.khl.ru/text/897796.html</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
         <v>30</v>
       </c>
       <c r="K37" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O37" t="n">
+        <v>4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>14</v>
+      </c>
+      <c r="S37" t="n">
+        <v>15</v>
+      </c>
+      <c r="T37" t="n">
+        <v>5</v>
+      </c>
+      <c r="U37" t="n">
         <v>12</v>
       </c>
-      <c r="P37" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="V37" t="n">
+        <v>4</v>
+      </c>
+      <c r="W37" t="n">
+        <v>3</v>
+      </c>
+      <c r="X37" t="n">
         <v>21</v>
       </c>
-      <c r="R37" t="n">
-        <v>13</v>
-      </c>
-      <c r="S37" t="n">
-        <v>18</v>
-      </c>
-      <c r="T37" t="n">
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
         <v>36</v>
       </c>
-      <c r="U37" t="n">
-        <v>20</v>
-      </c>
-      <c r="V37" t="n">
-        <v>3</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1</v>
-      </c>
-      <c r="X37" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC37" t="n">
-        <v>60.4</v>
-      </c>
       <c r="AD37" t="n">
-        <v>64.3</v>
+        <v>29.4</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -4698,53 +4695,53 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH37" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>897782</v>
+        <v>897785</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897785.html</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J38" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K38" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -4753,57 +4750,57 @@
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P38" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="R38" t="n">
         <v>13</v>
       </c>
       <c r="S38" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T38" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="U38" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="n">
         <v>6</v>
       </c>
       <c r="Z38" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AA38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>50</v>
+        <v>40.7</v>
       </c>
       <c r="AD38" t="n">
-        <v>43.6</v>
+        <v>25</v>
       </c>
       <c r="AE38" t="n">
         <v>0</v>
@@ -4812,34 +4809,34 @@
         <v>0</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AH38" t="n">
-        <v>2.9</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>897771</v>
+        <v>897777</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897777.html</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4849,61 +4846,61 @@
         <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J39" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K39" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O39" t="n">
         <v>6</v>
       </c>
       <c r="P39" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q39" t="n">
         <v>29</v>
       </c>
       <c r="R39" t="n">
+        <v>13</v>
+      </c>
+      <c r="S39" t="n">
+        <v>20</v>
+      </c>
+      <c r="T39" t="n">
         <v>10</v>
       </c>
-      <c r="S39" t="n">
-        <v>9</v>
-      </c>
-      <c r="T39" t="n">
-        <v>27</v>
-      </c>
       <c r="U39" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="V39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
         <v>2</v>
       </c>
       <c r="X39" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Y39" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="Z39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA39" t="n">
         <v>5</v>
@@ -4914,160 +4911,160 @@
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>45.3</v>
+        <v>44.2</v>
       </c>
       <c r="AD39" t="n">
-        <v>55.1</v>
+        <v>58.8</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.6899999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH39" t="n">
-        <v>22.2</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>897739</v>
+        <v>897717</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897739.html</t>
+          <t>https://text.khl.ru/text/897717.html</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>28</v>
+      </c>
+      <c r="J40" t="n">
+        <v>23</v>
+      </c>
+      <c r="K40" t="n">
+        <v>51</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>26</v>
+      </c>
+      <c r="R40" t="n">
+        <v>16</v>
+      </c>
+      <c r="S40" t="n">
+        <v>18</v>
+      </c>
+      <c r="T40" t="n">
+        <v>14</v>
+      </c>
+      <c r="U40" t="n">
+        <v>28</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="n">
         <v>5</v>
       </c>
-      <c r="I40" t="n">
-        <v>19</v>
-      </c>
-      <c r="J40" t="n">
-        <v>37</v>
-      </c>
-      <c r="K40" t="n">
-        <v>56</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>8</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2</v>
-      </c>
-      <c r="P40" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>29</v>
-      </c>
-      <c r="R40" t="n">
-        <v>14</v>
-      </c>
-      <c r="S40" t="n">
-        <v>9</v>
-      </c>
-      <c r="T40" t="n">
-        <v>33</v>
-      </c>
-      <c r="U40" t="n">
-        <v>10</v>
-      </c>
-      <c r="V40" t="n">
-        <v>10</v>
-      </c>
-      <c r="W40" t="n">
-        <v>8</v>
-      </c>
-      <c r="X40" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>4</v>
-      </c>
       <c r="AB40" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>47.3</v>
+        <v>53.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>76.7</v>
+        <v>33.3</v>
       </c>
       <c r="AE40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AH40" t="n">
-        <v>21.1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>04-11-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>897729</v>
+        <v>897708</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897729.html</t>
+          <t>https://text.khl.ru/text/897708.html</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -5077,16 +5074,16 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J41" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K41" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5095,43 +5092,43 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P41" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q41" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R41" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="T41" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="V41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W41" t="n">
+        <v>3</v>
+      </c>
+      <c r="X41" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z41" t="n">
         <v>9</v>
-      </c>
-      <c r="X41" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>3</v>
       </c>
       <c r="AA41" t="n">
         <v>5</v>
@@ -5142,10 +5139,10 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>47.9</v>
+        <v>50</v>
       </c>
       <c r="AD41" t="n">
-        <v>55.1</v>
+        <v>6.7</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
@@ -5324,705 +5321,705 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6</v>
+        <v>-1.3</v>
       </c>
       <c r="G2" t="n">
-        <v>31.8</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>24.2</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="J2" t="n">
-        <v>23.6</v>
+        <v>34.6</v>
       </c>
       <c r="K2" t="n">
-        <v>21.3</v>
+        <v>70.8</v>
       </c>
       <c r="L2" t="n">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="M2" t="n">
-        <v>12.6</v>
+        <v>21.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="O2" t="n">
-        <v>56.96</v>
+        <v>57.56</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8400000000000005</v>
+        <v>4.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.134</v>
+        <v>0.238</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.05</v>
+        <v>-0.012</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8640000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03600000000000001</v>
+        <v>0.166</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
-        <v>-3.6</v>
+        <v>-2.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.2</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>-3.6</v>
+        <v>-2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.1</v>
+        <v>6.98</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.96</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.4</v>
       </c>
-      <c r="D3" t="n">
-        <v>4.2</v>
-      </c>
       <c r="E3" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="G3" t="n">
-        <v>26.4</v>
+        <v>33.2</v>
       </c>
       <c r="H3" t="n">
-        <v>33.3</v>
+        <v>113.7</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.6</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>40.2</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>176.7</v>
+        <v>9.5</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>-0.8</v>
       </c>
       <c r="M3" t="n">
-        <v>17.8</v>
+        <v>18.2</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.2</v>
+        <v>2.6</v>
       </c>
       <c r="O3" t="n">
-        <v>46.58000000000001</v>
+        <v>49.84</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.6700000000000017</v>
+        <v>-0.08000000000000043</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R3" t="n">
-        <v>0.184</v>
+        <v>-0.05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.85</v>
+        <v>0.9339999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.067</v>
+        <v>-0.06599999999999999</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>-1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>-0.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.959999999999999</v>
+        <v>7.88</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.95</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>37.2</v>
+        <v>35.2</v>
       </c>
       <c r="H4" t="n">
-        <v>216.2</v>
+        <v>14.7</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.4</v>
+        <v>-1.7</v>
       </c>
       <c r="J4" t="n">
-        <v>29.4</v>
+        <v>30.8</v>
       </c>
       <c r="K4" t="n">
-        <v>189.8</v>
+        <v>25.7</v>
       </c>
       <c r="L4" t="n">
-        <v>4.8</v>
+        <v>-1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>13.6</v>
+        <v>9.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="O4" t="n">
-        <v>48.27999999999999</v>
+        <v>52.56</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.04</v>
+        <v>0.2499999999999993</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2</v>
+        <v>0.034</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.834</v>
+        <v>0.75</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03400000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="U4" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.6</v>
+        <v>2.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.6</v>
+        <v>5.06</v>
       </c>
       <c r="AB4" t="n">
-        <v>4.17</v>
+        <v>0.2600000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>2.8</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="G5" t="n">
-        <v>33.2</v>
+        <v>30.2</v>
       </c>
       <c r="H5" t="n">
-        <v>93.2</v>
+        <v>36.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="J5" t="n">
-        <v>24.8</v>
+        <v>34.8</v>
       </c>
       <c r="K5" t="n">
-        <v>51.2</v>
+        <v>61.2</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.8</v>
+        <v>-2</v>
       </c>
       <c r="M5" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
-        <v>57.44000000000001</v>
+        <v>51.27999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>2.060000000000002</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.146</v>
+        <v>0.125</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.026</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6839999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03400000000000001</v>
+        <v>0.025</v>
       </c>
       <c r="U5" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="W5" t="n">
         <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>12.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.360000000000001</v>
+        <v>6.839999999999999</v>
       </c>
       <c r="AB5" t="n">
-        <v>-2.48</v>
+        <v>-0.9099999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>19.4</v>
       </c>
       <c r="H6" t="n">
-        <v>52.5</v>
+        <v>24.8</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>-2</v>
       </c>
       <c r="J6" t="n">
-        <v>22.4</v>
+        <v>43</v>
       </c>
       <c r="K6" t="n">
-        <v>23.3</v>
+        <v>56.5</v>
       </c>
       <c r="L6" t="n">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="M6" t="n">
-        <v>11.6</v>
+        <v>17</v>
       </c>
       <c r="N6" t="n">
-        <v>-3.2</v>
+        <v>-2.8</v>
       </c>
       <c r="O6" t="n">
-        <v>54.64000000000001</v>
+        <v>42.23999999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.294</v>
+        <v>0.14</v>
       </c>
       <c r="R6" t="n">
-        <v>0.212</v>
+        <v>0.12</v>
       </c>
       <c r="S6" t="n">
-        <v>0.642</v>
+        <v>0.73</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1</v>
+        <v>-0.098</v>
       </c>
       <c r="U6" t="n">
-        <v>12.6</v>
+        <v>4.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.12</v>
+        <v>17.66</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.64</v>
+        <v>3.260000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>33.5</v>
+        <v>14.5</v>
       </c>
       <c r="I7" t="n">
-        <v>-3.4</v>
+        <v>-1.2</v>
       </c>
       <c r="J7" t="n">
-        <v>42</v>
+        <v>35.8</v>
       </c>
       <c r="K7" t="n">
-        <v>81</v>
+        <v>90.2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="M7" t="n">
-        <v>12.4</v>
+        <v>28.4</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.3</v>
+        <v>1.3</v>
       </c>
       <c r="O7" t="n">
-        <v>42.28</v>
+        <v>48.98</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.99</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3825</v>
+        <v>0.066</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.4243333333333333</v>
+        <v>0.066</v>
       </c>
       <c r="S7" t="n">
-        <v>0.866</v>
+        <v>0.8</v>
       </c>
       <c r="T7" t="n">
-        <v>0.067</v>
+        <v>-0.1</v>
       </c>
       <c r="U7" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="V7" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="W7" t="n">
-        <v>5.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>0.4</v>
+        <v>-1.6</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.56</v>
+        <v>6.88</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.52</v>
+        <v>0.4299999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="D8" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G8" t="n">
-        <v>35.2</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
-        <v>71.2</v>
+        <v>40.5</v>
       </c>
       <c r="I8" t="n">
-        <v>-3.6</v>
+        <v>-2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>28.8</v>
+        <v>31.6</v>
       </c>
       <c r="K8" t="n">
-        <v>1.7</v>
+        <v>18.8</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="M8" t="n">
-        <v>23.6</v>
+        <v>15.6</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.8</v>
+        <v>0.8</v>
       </c>
       <c r="O8" t="n">
-        <v>53.10000000000001</v>
+        <v>45.26000000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9300000000000004</v>
+        <v>-1.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="S8" t="n">
-        <v>0.834</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="V8" t="n">
-        <v>3.2</v>
+        <v>-1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.6</v>
+        <v>2.6</v>
       </c>
       <c r="Y8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.18</v>
+        <v>5.38</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.01</v>
+        <v>-0.04999999999999991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="D9" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="F9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="N9" t="n">
         <v>-0.3</v>
       </c>
-      <c r="G9" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-1.3</v>
-      </c>
       <c r="O9" t="n">
-        <v>50.18</v>
+        <v>44.9</v>
       </c>
       <c r="P9" t="n">
-        <v>2.77</v>
+        <v>-4.09</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2</v>
+        <v>0.134</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.638</v>
+        <v>0.884</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.125</v>
+        <v>0.007999999999999997</v>
       </c>
       <c r="U9" t="n">
-        <v>3.2</v>
+        <v>5.8</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="W9" t="n">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.6</v>
+        <v>0.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.3</v>
+        <v>-3.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.54</v>
+        <v>11.42</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.5200000000000001</v>
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,10 +605,3413 @@
           <t>SH_pct</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>_order_in_team</t>
-        </is>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>22-11-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>897804</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897804.html</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>21</v>
+      </c>
+      <c r="J2" t="n">
+        <v>48</v>
+      </c>
+      <c r="K2" t="n">
+        <v>69</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>45</v>
+      </c>
+      <c r="R2" t="n">
+        <v>26</v>
+      </c>
+      <c r="S2" t="n">
+        <v>13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>14</v>
+      </c>
+      <c r="U2" t="n">
+        <v>33</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>897793</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897793.html</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24</v>
+      </c>
+      <c r="J3" t="n">
+        <v>48</v>
+      </c>
+      <c r="K3" t="n">
+        <v>72</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>38</v>
+      </c>
+      <c r="R3" t="n">
+        <v>32</v>
+      </c>
+      <c r="S3" t="n">
+        <v>12</v>
+      </c>
+      <c r="T3" t="n">
+        <v>12</v>
+      </c>
+      <c r="U3" t="n">
+        <v>14</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>897709</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897709.html</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23</v>
+      </c>
+      <c r="J4" t="n">
+        <v>53</v>
+      </c>
+      <c r="K4" t="n">
+        <v>76</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P4" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>9</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" t="n">
+        <v>17</v>
+      </c>
+      <c r="U4" t="n">
+        <v>14</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>897703</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897703.html</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47</v>
+      </c>
+      <c r="K5" t="n">
+        <v>67</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>9</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="n">
+        <v>21</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>897691</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897691.html</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21</v>
+      </c>
+      <c r="K6" t="n">
+        <v>54</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>31</v>
+      </c>
+      <c r="R6" t="n">
+        <v>14</v>
+      </c>
+      <c r="S6" t="n">
+        <v>25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>897795</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897795.html</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>39</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18</v>
+      </c>
+      <c r="K7" t="n">
+        <v>57</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9</v>
+      </c>
+      <c r="S7" t="n">
+        <v>32</v>
+      </c>
+      <c r="T7" t="n">
+        <v>15</v>
+      </c>
+      <c r="U7" t="n">
+        <v>10</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>897787</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897787.html</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>31</v>
+      </c>
+      <c r="K8" t="n">
+        <v>59</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>24</v>
+      </c>
+      <c r="R8" t="n">
+        <v>15</v>
+      </c>
+      <c r="S8" t="n">
+        <v>12</v>
+      </c>
+      <c r="T8" t="n">
+        <v>16</v>
+      </c>
+      <c r="U8" t="n">
+        <v>15</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>897759</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897759.html</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>35</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21</v>
+      </c>
+      <c r="K9" t="n">
+        <v>56</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>24</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12</v>
+      </c>
+      <c r="S9" t="n">
+        <v>28</v>
+      </c>
+      <c r="T9" t="n">
+        <v>17</v>
+      </c>
+      <c r="U9" t="n">
+        <v>16</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>897748</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897748.html</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K10" t="n">
+        <v>61</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>22</v>
+      </c>
+      <c r="R10" t="n">
+        <v>15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20</v>
+      </c>
+      <c r="T10" t="n">
+        <v>12</v>
+      </c>
+      <c r="U10" t="n">
+        <v>9</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>897735</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897735.html</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>51</v>
+      </c>
+      <c r="J11" t="n">
+        <v>24</v>
+      </c>
+      <c r="K11" t="n">
+        <v>75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>27</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>28</v>
+      </c>
+      <c r="T11" t="n">
+        <v>15</v>
+      </c>
+      <c r="U11" t="n">
+        <v>20</v>
+      </c>
+      <c r="V11" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>22-11-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>897804</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897804.html</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>48</v>
+      </c>
+      <c r="J12" t="n">
+        <v>21</v>
+      </c>
+      <c r="K12" t="n">
+        <v>69</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>15</v>
+      </c>
+      <c r="R12" t="n">
+        <v>13</v>
+      </c>
+      <c r="S12" t="n">
+        <v>26</v>
+      </c>
+      <c r="T12" t="n">
+        <v>33</v>
+      </c>
+      <c r="U12" t="n">
+        <v>14</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>19-11-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>897791</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897791.html</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>49</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>63</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13</v>
+      </c>
+      <c r="S13" t="n">
+        <v>23</v>
+      </c>
+      <c r="T13" t="n">
+        <v>26</v>
+      </c>
+      <c r="U13" t="n">
+        <v>29</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>17-11-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>897783</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897783.html</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>57</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>30</v>
+      </c>
+      <c r="R14" t="n">
+        <v>11</v>
+      </c>
+      <c r="S14" t="n">
+        <v>23</v>
+      </c>
+      <c r="T14" t="n">
+        <v>27</v>
+      </c>
+      <c r="U14" t="n">
+        <v>20</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8</v>
+      </c>
+      <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>57.4</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15-11-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Барыс</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>897772</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897772.html</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>27</v>
+      </c>
+      <c r="J15" t="n">
+        <v>31</v>
+      </c>
+      <c r="K15" t="n">
+        <v>58</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>29</v>
+      </c>
+      <c r="R15" t="n">
+        <v>13</v>
+      </c>
+      <c r="S15" t="n">
+        <v>17</v>
+      </c>
+      <c r="T15" t="n">
+        <v>20</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
+        <v>58</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>897745</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897745.html</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>27</v>
+      </c>
+      <c r="J16" t="n">
+        <v>29</v>
+      </c>
+      <c r="K16" t="n">
+        <v>56</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>19</v>
+      </c>
+      <c r="R16" t="n">
+        <v>21</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="n">
+        <v>27</v>
+      </c>
+      <c r="U16" t="n">
+        <v>17</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
+        <v>57.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>897763</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897763.html</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>29</v>
+      </c>
+      <c r="J17" t="n">
+        <v>30</v>
+      </c>
+      <c r="K17" t="n">
+        <v>59</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>23</v>
+      </c>
+      <c r="R17" t="n">
+        <v>15</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>15</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>897755</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897755.html</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>43</v>
+      </c>
+      <c r="K18" t="n">
+        <v>69</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>33</v>
+      </c>
+      <c r="R18" t="n">
+        <v>28</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>19</v>
+      </c>
+      <c r="U18" t="n">
+        <v>29</v>
+      </c>
+      <c r="V18" t="n">
+        <v>11</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC18" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>897748</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897748.html</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>31</v>
+      </c>
+      <c r="J19" t="n">
+        <v>30</v>
+      </c>
+      <c r="K19" t="n">
+        <v>61</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>8</v>
+      </c>
+      <c r="P19" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>27</v>
+      </c>
+      <c r="R19" t="n">
+        <v>20</v>
+      </c>
+      <c r="S19" t="n">
+        <v>15</v>
+      </c>
+      <c r="T19" t="n">
+        <v>9</v>
+      </c>
+      <c r="U19" t="n">
+        <v>12</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC19" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>897664</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897664.html</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>34</v>
+      </c>
+      <c r="J20" t="n">
+        <v>33</v>
+      </c>
+      <c r="K20" t="n">
+        <v>67</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>8</v>
+      </c>
+      <c r="P20" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>36</v>
+      </c>
+      <c r="R20" t="n">
+        <v>17</v>
+      </c>
+      <c r="S20" t="n">
+        <v>17</v>
+      </c>
+      <c r="T20" t="n">
+        <v>14</v>
+      </c>
+      <c r="U20" t="n">
+        <v>18</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08-10-2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>897624</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897624.html</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>30</v>
+      </c>
+      <c r="J21" t="n">
+        <v>36</v>
+      </c>
+      <c r="K21" t="n">
+        <v>66</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>29</v>
+      </c>
+      <c r="R21" t="n">
+        <v>14</v>
+      </c>
+      <c r="S21" t="n">
+        <v>15</v>
+      </c>
+      <c r="T21" t="n">
+        <v>11</v>
+      </c>
+      <c r="U21" t="n">
+        <v>16</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC21" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>22-11-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>897801</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897801.html</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20</v>
+      </c>
+      <c r="J22" t="n">
+        <v>36</v>
+      </c>
+      <c r="K22" t="n">
+        <v>56</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>27</v>
+      </c>
+      <c r="R22" t="n">
+        <v>16</v>
+      </c>
+      <c r="S22" t="n">
+        <v>8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>32</v>
+      </c>
+      <c r="U22" t="n">
+        <v>33</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>897795</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897795.html</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18</v>
+      </c>
+      <c r="J23" t="n">
+        <v>39</v>
+      </c>
+      <c r="K23" t="n">
+        <v>57</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>32</v>
+      </c>
+      <c r="S23" t="n">
+        <v>9</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10</v>
+      </c>
+      <c r="U23" t="n">
+        <v>15</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>897765</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897765.html</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>20</v>
+      </c>
+      <c r="J24" t="n">
+        <v>55</v>
+      </c>
+      <c r="K24" t="n">
+        <v>75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>23</v>
+      </c>
+      <c r="R24" t="n">
+        <v>15</v>
+      </c>
+      <c r="S24" t="n">
+        <v>19</v>
+      </c>
+      <c r="T24" t="n">
+        <v>16</v>
+      </c>
+      <c r="U24" t="n">
+        <v>14</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" t="n">
+        <v>7</v>
+      </c>
+      <c r="X24" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>897752</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897752.html</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+      <c r="J25" t="n">
+        <v>46</v>
+      </c>
+      <c r="K25" t="n">
+        <v>71</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>34</v>
+      </c>
+      <c r="R25" t="n">
+        <v>23</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>8</v>
+      </c>
+      <c r="U25" t="n">
+        <v>10</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3</v>
+      </c>
+      <c r="X25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>897746</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897746.html</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>24</v>
+      </c>
+      <c r="J26" t="n">
+        <v>31</v>
+      </c>
+      <c r="K26" t="n">
+        <v>55</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>37</v>
+      </c>
+      <c r="R26" t="n">
+        <v>16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>19</v>
+      </c>
+      <c r="T26" t="n">
+        <v>7</v>
+      </c>
+      <c r="U26" t="n">
+        <v>14</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC26" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>897758</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897758.html</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>27</v>
+      </c>
+      <c r="J27" t="n">
+        <v>34</v>
+      </c>
+      <c r="K27" t="n">
+        <v>61</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>28</v>
+      </c>
+      <c r="R27" t="n">
+        <v>20</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9</v>
+      </c>
+      <c r="T27" t="n">
+        <v>14</v>
+      </c>
+      <c r="U27" t="n">
+        <v>6</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>897746</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897746.html</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>24</v>
+      </c>
+      <c r="K28" t="n">
+        <v>55</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>16</v>
+      </c>
+      <c r="R28" t="n">
+        <v>19</v>
+      </c>
+      <c r="S28" t="n">
+        <v>16</v>
+      </c>
+      <c r="T28" t="n">
+        <v>14</v>
+      </c>
+      <c r="U28" t="n">
+        <v>7</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC28" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>897736</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897736.html</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29</v>
+      </c>
+      <c r="J29" t="n">
+        <v>20</v>
+      </c>
+      <c r="K29" t="n">
+        <v>49</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>27</v>
+      </c>
+      <c r="R29" t="n">
+        <v>19</v>
+      </c>
+      <c r="S29" t="n">
+        <v>19</v>
+      </c>
+      <c r="T29" t="n">
+        <v>14</v>
+      </c>
+      <c r="U29" t="n">
+        <v>13</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>897691</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897691.html</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21</v>
+      </c>
+      <c r="J30" t="n">
+        <v>33</v>
+      </c>
+      <c r="K30" t="n">
+        <v>54</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>30</v>
+      </c>
+      <c r="R30" t="n">
+        <v>25</v>
+      </c>
+      <c r="S30" t="n">
+        <v>14</v>
+      </c>
+      <c r="T30" t="n">
+        <v>12</v>
+      </c>
+      <c r="U30" t="n">
+        <v>25</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4</v>
+      </c>
+      <c r="X30" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20-10-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897670</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897670.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>23</v>
+      </c>
+      <c r="J31" t="n">
+        <v>36</v>
+      </c>
+      <c r="K31" t="n">
+        <v>59</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>14</v>
+      </c>
+      <c r="P31" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>30</v>
+      </c>
+      <c r="R31" t="n">
+        <v>30</v>
+      </c>
+      <c r="S31" t="n">
+        <v>15</v>
+      </c>
+      <c r="T31" t="n">
+        <v>11</v>
+      </c>
+      <c r="U31" t="n">
+        <v>10</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>21.7</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +4025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -772,6 +4175,534 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>43.14</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-6.300000000000001</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.07200000000000001</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Динамо М</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>15</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>55.14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3.250000000000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.06799999999999999</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>116.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>61.67999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.480000000000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7.319999999999999</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.05000000000000018</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O5" t="n">
+        <v>45.58</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.729999999999999</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.9099999999999999</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5.199999999999999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.070000000000001</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.1325</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.05233333333333333</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>54.82000000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5200000000000002</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.04699999999999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8675</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-2.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -609,89 +609,89 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897804</v>
+        <v>897805</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897804.html</t>
+          <t>https://text.khl.ru/text/897805.html</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J2" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>33</v>
+      </c>
+      <c r="R2" t="n">
+        <v>16</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12</v>
+      </c>
+      <c r="T2" t="n">
         <v>15</v>
       </c>
-      <c r="Q2" t="n">
-        <v>45</v>
-      </c>
-      <c r="R2" t="n">
-        <v>26</v>
-      </c>
-      <c r="S2" t="n">
-        <v>13</v>
-      </c>
-      <c r="T2" t="n">
-        <v>14</v>
-      </c>
       <c r="U2" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="V2" t="n">
         <v>5</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA2" t="n">
         <v>3</v>
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>25</v>
+        <v>44.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>29.8</v>
+        <v>45.5</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -714,101 +714,101 @@
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>28.6</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897793</v>
+        <v>897789</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897793.html</t>
+          <t>https://text.khl.ru/text/897789.html</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38</v>
+      </c>
+      <c r="J3" t="n">
+        <v>23</v>
+      </c>
+      <c r="K3" t="n">
+        <v>61</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>24</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48</v>
-      </c>
-      <c r="K3" t="n">
-        <v>72</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
       <c r="P3" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="R3" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="S3" t="n">
+        <v>25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3</v>
+      </c>
+      <c r="X3" t="n">
         <v>12</v>
       </c>
-      <c r="T3" t="n">
-        <v>12</v>
-      </c>
-      <c r="U3" t="n">
-        <v>14</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>13</v>
       </c>
-      <c r="Y3" t="n">
-        <v>24</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
@@ -816,227 +816,224 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>33.3</v>
+        <v>66.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>46.2</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30-10-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897709</v>
+        <v>897779</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897709.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>43</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43</v>
+      </c>
+      <c r="K4" t="n">
+        <v>86</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>6</v>
       </c>
-      <c r="I4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J4" t="n">
-        <v>53</v>
-      </c>
-      <c r="K4" t="n">
-        <v>76</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12</v>
-      </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P4" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" t="n">
+        <v>11</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" t="n">
+        <v>33</v>
+      </c>
+      <c r="U4" t="n">
+        <v>44</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" t="n">
+        <v>8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y4" t="n">
         <v>9</v>
       </c>
-      <c r="S4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T4" t="n">
-        <v>17</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="Z4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
         <v>14</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC4" t="n">
-        <v>60.3</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>54.8</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897703</v>
+        <v>897743</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897703.html</t>
+          <t>https://text.khl.ru/text/897743.html</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J5" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K5" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="n">
         <v>21</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>2</v>
       </c>
       <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
         <v>8</v>
       </c>
-      <c r="Y5" t="n">
-        <v>14</v>
-      </c>
       <c r="Z5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1044,10 +1041,10 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>47.9</v>
+        <v>63.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>87.5</v>
+        <v>58.3</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1056,212 +1053,212 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Амур</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ЦСКА</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>897691</v>
+        <v>897731</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897691.html</t>
+          <t>https://text.khl.ru/text/897731.html</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>46</v>
+      </c>
+      <c r="J6" t="n">
+        <v>41</v>
+      </c>
+      <c r="K6" t="n">
+        <v>87</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
         <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>21</v>
-      </c>
-      <c r="K6" t="n">
-        <v>54</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q6" t="n">
         <v>31</v>
       </c>
       <c r="R6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="T6" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="U6" t="n">
+        <v>19</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="n">
         <v>12</v>
       </c>
-      <c r="V6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="AA6" t="n">
         <v>5</v>
       </c>
-      <c r="X6" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>4</v>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>49.2</v>
+        <v>54.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>67.59999999999999</v>
+        <v>38.7</v>
       </c>
       <c r="AE6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF6" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1</v>
-      </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897795</v>
+        <v>897807</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897795.html</t>
+          <t>https://text.khl.ru/text/897807.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K7" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R7" t="n">
+        <v>12</v>
+      </c>
+      <c r="S7" t="n">
+        <v>14</v>
+      </c>
+      <c r="T7" t="n">
+        <v>24</v>
+      </c>
+      <c r="U7" t="n">
+        <v>29</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" t="n">
         <v>9</v>
       </c>
-      <c r="S7" t="n">
-        <v>32</v>
-      </c>
-      <c r="T7" t="n">
-        <v>15</v>
-      </c>
-      <c r="U7" t="n">
-        <v>10</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1</v>
-      </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Z7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
@@ -1272,10 +1269,10 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>71.7</v>
+        <v>56.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>60</v>
+        <v>45.3</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1283,113 +1280,110 @@
       <c r="AF7" t="n">
         <v>0</v>
       </c>
-      <c r="AG7" t="n">
-        <v>0.67</v>
-      </c>
       <c r="AH7" t="n">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897787</v>
+        <v>897799</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897787.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q8" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R8" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="S8" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="T8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>44.2</v>
+        <v>50</v>
       </c>
       <c r="AD8" t="n">
-        <v>51.6</v>
+        <v>40.5</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1398,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.1</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1412,98 +1406,98 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897759</v>
+        <v>897753</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897759.html</t>
+          <t>https://text.khl.ru/text/897753.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J9" t="n">
+        <v>32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>84</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
         <v>21</v>
       </c>
-      <c r="K9" t="n">
-        <v>56</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>8</v>
-      </c>
       <c r="P9" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S9" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="T9" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="U9" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W9" t="n">
         <v>4</v>
       </c>
       <c r="X9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>54.7</v>
+        <v>52.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>51.5</v>
+        <v>42.3</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -1511,8 +1505,11 @@
       <c r="AF9" t="n">
         <v>0</v>
       </c>
+      <c r="AG9" t="n">
+        <v>1</v>
+      </c>
       <c r="AH9" t="n">
-        <v>2.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="10">
@@ -1523,84 +1520,84 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897748</v>
+        <v>897745</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897748.html</t>
+          <t>https://text.khl.ru/text/897745.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>26</v>
+      </c>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="n">
+        <v>21</v>
+      </c>
+      <c r="T10" t="n">
+        <v>17</v>
+      </c>
+      <c r="U10" t="n">
         <v>27</v>
       </c>
-      <c r="Q10" t="n">
-        <v>22</v>
-      </c>
-      <c r="R10" t="n">
-        <v>15</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
         <v>20</v>
       </c>
-      <c r="T10" t="n">
-        <v>12</v>
-      </c>
-      <c r="U10" t="n">
-        <v>9</v>
-      </c>
-      <c r="V10" t="n">
-        <v>4</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3</v>
-      </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
         <v>1</v>
@@ -1611,22 +1608,22 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>55.1</v>
+        <v>42.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>57.1</v>
+        <v>38.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="11">
@@ -1637,42 +1634,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897735</v>
+        <v>897738</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897735.html</t>
+          <t>https://text.khl.ru/text/897738.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1681,37 +1678,37 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>33</v>
+      </c>
+      <c r="R11" t="n">
+        <v>29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>13</v>
+      </c>
+      <c r="T11" t="n">
+        <v>16</v>
+      </c>
+      <c r="U11" t="n">
+        <v>13</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
         <v>17</v>
-      </c>
-      <c r="P11" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>27</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>28</v>
-      </c>
-      <c r="T11" t="n">
-        <v>15</v>
-      </c>
-      <c r="U11" t="n">
-        <v>20</v>
-      </c>
-      <c r="V11" t="n">
-        <v>4</v>
-      </c>
-      <c r="W11" t="n">
-        <v>5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8</v>
       </c>
       <c r="Z11" t="n">
         <v>8</v>
@@ -1725,227 +1722,227 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>50</v>
+        <v>56.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>42.9</v>
+        <v>55.2</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.24</v>
+        <v>0.5</v>
       </c>
       <c r="AG11" t="n">
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.9</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897804</v>
+        <v>897808</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897804.html</t>
+          <t>https://text.khl.ru/text/897808.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>29</v>
+      </c>
+      <c r="K12" t="n">
+        <v>52</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>26</v>
+      </c>
+      <c r="R12" t="n">
+        <v>14</v>
+      </c>
+      <c r="S12" t="n">
+        <v>12</v>
+      </c>
+      <c r="T12" t="n">
+        <v>21</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
         <v>4</v>
       </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>48</v>
-      </c>
-      <c r="J12" t="n">
-        <v>21</v>
-      </c>
-      <c r="K12" t="n">
-        <v>69</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="AA12" t="n">
         <v>10</v>
       </c>
-      <c r="P12" t="n">
-        <v>45</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>15</v>
-      </c>
-      <c r="R12" t="n">
-        <v>13</v>
-      </c>
-      <c r="S12" t="n">
-        <v>26</v>
-      </c>
-      <c r="T12" t="n">
-        <v>33</v>
-      </c>
-      <c r="U12" t="n">
-        <v>14</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2</v>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>75</v>
+        <v>39.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>70.2</v>
+        <v>95.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
         <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897791</v>
+        <v>897766</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897791.html</t>
+          <t>https://text.khl.ru/text/897766.html</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>42</v>
+      </c>
+      <c r="K13" t="n">
+        <v>56</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
         <v>3</v>
       </c>
-      <c r="H13" t="n">
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>49</v>
-      </c>
-      <c r="J13" t="n">
-        <v>14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>63</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6</v>
-      </c>
       <c r="P13" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S13" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="U13" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>4</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="n">
         <v>5</v>
       </c>
-      <c r="W13" t="n">
-        <v>6</v>
-      </c>
-      <c r="X13" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>4</v>
-      </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -1953,33 +1950,33 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>68.40000000000001</v>
+        <v>40</v>
       </c>
       <c r="AD13" t="n">
-        <v>47.3</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.67</v>
+        <v>0.14</v>
       </c>
       <c r="AH13" t="n">
-        <v>6.1</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1988,78 +1985,78 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897783</v>
+        <v>897756</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897783.html</t>
+          <t>https://text.khl.ru/text/897756.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J14" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K14" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>10</v>
       </c>
       <c r="P14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="R14" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T14" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="U14" t="n">
+        <v>14</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>4</v>
+      </c>
+      <c r="X14" t="n">
         <v>20</v>
       </c>
-      <c r="V14" t="n">
-        <v>8</v>
-      </c>
-      <c r="W14" t="n">
-        <v>8</v>
-      </c>
-      <c r="X14" t="n">
-        <v>18</v>
-      </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -2067,124 +2064,124 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>49.2</v>
+        <v>49</v>
       </c>
       <c r="AD14" t="n">
-        <v>57.4</v>
+        <v>50</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AG14" t="n">
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>11.1</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897772</v>
+        <v>897747</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897747.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14</v>
+      </c>
+      <c r="J15" t="n">
+        <v>49</v>
+      </c>
+      <c r="K15" t="n">
+        <v>63</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>27</v>
-      </c>
-      <c r="J15" t="n">
-        <v>31</v>
-      </c>
-      <c r="K15" t="n">
-        <v>58</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
+        <v>8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>38</v>
+      </c>
+      <c r="R15" t="n">
+        <v>24</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7</v>
+      </c>
+      <c r="T15" t="n">
+        <v>18</v>
+      </c>
+      <c r="U15" t="n">
+        <v>12</v>
+      </c>
+      <c r="V15" t="n">
+        <v>3</v>
+      </c>
+      <c r="W15" t="n">
         <v>2</v>
       </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>29</v>
-      </c>
-      <c r="R15" t="n">
-        <v>13</v>
-      </c>
-      <c r="S15" t="n">
-        <v>17</v>
-      </c>
-      <c r="T15" t="n">
-        <v>20</v>
-      </c>
-      <c r="U15" t="n">
-        <v>13</v>
-      </c>
-      <c r="V15" t="n">
-        <v>5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>6</v>
-      </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>58</v>
+        <v>37.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>60.6</v>
+        <v>60</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2193,112 +2190,112 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897745</v>
+        <v>897735</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897745.html</t>
+          <t>https://text.khl.ru/text/897735.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
+        <v>24</v>
+      </c>
+      <c r="J16" t="n">
+        <v>51</v>
+      </c>
+      <c r="K16" t="n">
+        <v>75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>17</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" t="n">
         <v>27</v>
       </c>
-      <c r="J16" t="n">
-        <v>29</v>
-      </c>
-      <c r="K16" t="n">
-        <v>56</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="Q16" t="n">
+        <v>27</v>
+      </c>
+      <c r="R16" t="n">
+        <v>28</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>20</v>
+      </c>
+      <c r="U16" t="n">
+        <v>15</v>
+      </c>
+      <c r="V16" t="n">
+        <v>5</v>
+      </c>
+      <c r="W16" t="n">
         <v>4</v>
       </c>
-      <c r="O16" t="n">
+      <c r="X16" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6</v>
       </c>
-      <c r="P16" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>19</v>
-      </c>
-      <c r="R16" t="n">
-        <v>21</v>
-      </c>
-      <c r="S16" t="n">
-        <v>20</v>
-      </c>
-      <c r="T16" t="n">
-        <v>27</v>
-      </c>
-      <c r="U16" t="n">
-        <v>17</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
         <v>2</v>
       </c>
-      <c r="X16" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>57.8</v>
+        <v>50</v>
       </c>
       <c r="AD16" t="n">
-        <v>61.4</v>
+        <v>57.1</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -2307,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="AH16" t="n">
-        <v>11.1</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2330,78 +2327,78 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897763</v>
+        <v>897806</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897763.html</t>
+          <t>https://text.khl.ru/text/897806.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K17" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P17" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Q17" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R17" t="n">
+        <v>18</v>
+      </c>
+      <c r="S17" t="n">
         <v>15</v>
-      </c>
-      <c r="S17" t="n">
-        <v>20</v>
       </c>
       <c r="T17" t="n">
         <v>15</v>
       </c>
       <c r="U17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W17" t="n">
         <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2409,164 +2406,164 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>48.9</v>
+        <v>54.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AH17" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897755</v>
+        <v>897799</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897755.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J18" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K18" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
         <v>6</v>
       </c>
       <c r="P18" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="Q18" t="n">
         <v>33</v>
       </c>
       <c r="R18" t="n">
+        <v>25</v>
+      </c>
+      <c r="S18" t="n">
         <v>28</v>
       </c>
-      <c r="S18" t="n">
-        <v>4</v>
-      </c>
       <c r="T18" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U18" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>45.9</v>
+        <v>50</v>
       </c>
       <c r="AD18" t="n">
-        <v>39.6</v>
+        <v>59.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>3.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897748</v>
+        <v>897770</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897748.html</t>
+          <t>https://text.khl.ru/text/897770.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -2575,58 +2572,58 @@
         <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J19" t="n">
+        <v>28</v>
+      </c>
+      <c r="K19" t="n">
+        <v>55</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
         <v>30</v>
       </c>
-      <c r="K19" t="n">
-        <v>61</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10</v>
-      </c>
-      <c r="O19" t="n">
-        <v>8</v>
-      </c>
-      <c r="P19" t="n">
-        <v>22</v>
-      </c>
       <c r="Q19" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R19" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="S19" t="n">
+        <v>18</v>
+      </c>
+      <c r="T19" t="n">
+        <v>29</v>
+      </c>
+      <c r="U19" t="n">
         <v>15</v>
-      </c>
-      <c r="T19" t="n">
-        <v>9</v>
-      </c>
-      <c r="U19" t="n">
-        <v>12</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
       </c>
       <c r="W19" t="n">
+        <v>5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z19" t="n">
         <v>4</v>
-      </c>
-      <c r="X19" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1</v>
       </c>
       <c r="AA19" t="n">
         <v>2</v>
@@ -2637,80 +2634,80 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>44.9</v>
+        <v>56.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>42.9</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.699999999999999</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897664</v>
+        <v>897753</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897664.html</t>
+          <t>https://text.khl.ru/text/897753.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J20" t="n">
+        <v>52</v>
+      </c>
+      <c r="K20" t="n">
+        <v>84</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>21</v>
+      </c>
+      <c r="O20" t="n">
+        <v>9</v>
+      </c>
+      <c r="P20" t="n">
         <v>33</v>
-      </c>
-      <c r="K20" t="n">
-        <v>67</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>8</v>
-      </c>
-      <c r="P20" t="n">
-        <v>24</v>
       </c>
       <c r="Q20" t="n">
         <v>36</v>
@@ -2719,31 +2716,31 @@
         <v>17</v>
       </c>
       <c r="S20" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="T20" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="U20" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2751,10 +2748,10 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>40</v>
+        <v>47.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>43.8</v>
+        <v>57.7</v>
       </c>
       <c r="AE20" t="n">
         <v>0</v>
@@ -2766,326 +2763,326 @@
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>5.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08-10-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897624</v>
+        <v>897741</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897624.html</t>
+          <t>https://text.khl.ru/text/897741.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J21" t="n">
         <v>36</v>
       </c>
       <c r="K21" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P21" t="n">
         <v>27</v>
       </c>
       <c r="Q21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
       </c>
       <c r="T21" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="U21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="V21" t="n">
+        <v>4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z21" t="n">
         <v>2</v>
       </c>
-      <c r="W21" t="n">
-        <v>6</v>
-      </c>
-      <c r="X21" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>6</v>
-      </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>48.2</v>
+        <v>47.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>40.7</v>
+        <v>58.3</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897801</v>
+        <v>897769</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897801.html</t>
+          <t>https://text.khl.ru/text/897769.html</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>52</v>
+      </c>
+      <c r="L22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>36</v>
-      </c>
-      <c r="K22" t="n">
-        <v>56</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>12</v>
+      </c>
+      <c r="P22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>22</v>
+      </c>
+      <c r="R22" t="n">
+        <v>10</v>
+      </c>
+      <c r="S22" t="n">
+        <v>21</v>
+      </c>
+      <c r="T22" t="n">
+        <v>14</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
         <v>8</v>
       </c>
-      <c r="O22" t="n">
-        <v>6</v>
-      </c>
-      <c r="P22" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="W22" t="n">
+        <v>4</v>
+      </c>
+      <c r="X22" t="n">
         <v>27</v>
       </c>
-      <c r="R22" t="n">
-        <v>16</v>
-      </c>
-      <c r="S22" t="n">
-        <v>8</v>
-      </c>
-      <c r="T22" t="n">
-        <v>32</v>
-      </c>
-      <c r="U22" t="n">
-        <v>33</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>9</v>
-      </c>
       <c r="Y22" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
         <v>3</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>52.6</v>
+        <v>56.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>49.2</v>
+        <v>87.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG22" t="n">
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897795</v>
+        <v>897762</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897795.html</t>
+          <t>https://text.khl.ru/text/897762.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
       </c>
       <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>27</v>
+      </c>
+      <c r="J23" t="n">
+        <v>32</v>
+      </c>
+      <c r="K23" t="n">
+        <v>59</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>21</v>
+      </c>
+      <c r="P23" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>36</v>
+      </c>
+      <c r="R23" t="n">
+        <v>19</v>
+      </c>
+      <c r="S23" t="n">
+        <v>18</v>
+      </c>
+      <c r="T23" t="n">
+        <v>21</v>
+      </c>
+      <c r="U23" t="n">
+        <v>17</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
+      <c r="W23" t="n">
         <v>3</v>
       </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>39</v>
-      </c>
-      <c r="K23" t="n">
-        <v>57</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6</v>
-      </c>
-      <c r="O23" t="n">
-        <v>6</v>
-      </c>
-      <c r="P23" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>38</v>
-      </c>
-      <c r="R23" t="n">
-        <v>32</v>
-      </c>
-      <c r="S23" t="n">
+      <c r="X23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y23" t="n">
         <v>9</v>
       </c>
-      <c r="T23" t="n">
-        <v>10</v>
-      </c>
-      <c r="U23" t="n">
-        <v>15</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1</v>
-      </c>
-      <c r="X23" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>18</v>
-      </c>
       <c r="Z23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -3093,124 +3090,124 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>28.3</v>
+        <v>41.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>40</v>
+        <v>55.3</v>
       </c>
       <c r="AE23" t="n">
         <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="AG23" t="n">
         <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Сибирь</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Динамо Мн</t>
-        </is>
-      </c>
       <c r="D24" t="n">
-        <v>897765</v>
+        <v>897752</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897765.html</t>
+          <t>https://text.khl.ru/text/897752.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J24" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K24" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>6</v>
       </c>
       <c r="P24" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R24" t="n">
         <v>15</v>
       </c>
       <c r="S24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U24" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AA24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>54.9</v>
+        <v>57.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>53.3</v>
+        <v>55.6</v>
       </c>
       <c r="AE24" t="n">
         <v>0</v>
@@ -3219,59 +3216,59 @@
         <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897752</v>
+        <v>897699</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897752.html</t>
+          <t>https://text.khl.ru/text/897699.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
+        <v>26</v>
+      </c>
+      <c r="K25" t="n">
         <v>46</v>
       </c>
-      <c r="K25" t="n">
-        <v>71</v>
-      </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>6</v>
@@ -3280,273 +3277,279 @@
         <v>10</v>
       </c>
       <c r="P25" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R25" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
       </c>
       <c r="T25" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="U25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W25" t="n">
+        <v>5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>59.3</v>
+      </c>
+      <c r="AE25" t="n">
         <v>3</v>
       </c>
-      <c r="X25" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC25" t="n">
-        <v>42.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1</v>
-      </c>
       <c r="AF25" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897746</v>
+        <v>897694</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897746.html</t>
+          <t>https://text.khl.ru/text/897694.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J26" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K26" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P26" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="Q26" t="n">
         <v>37</v>
       </c>
       <c r="R26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="V26" t="n">
+        <v>6</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z26" t="n">
         <v>2</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1</v>
-      </c>
       <c r="AA26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>30.2</v>
+        <v>45.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>33.3</v>
+        <v>30.3</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.4</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897758</v>
+        <v>897801</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897758.html</t>
+          <t>https://text.khl.ru/text/897801.html</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
+        <v>36</v>
+      </c>
+      <c r="J27" t="n">
+        <v>20</v>
+      </c>
+      <c r="K27" t="n">
+        <v>56</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8</v>
+      </c>
+      <c r="P27" t="n">
         <v>27</v>
       </c>
-      <c r="J27" t="n">
-        <v>34</v>
-      </c>
-      <c r="K27" t="n">
-        <v>61</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4</v>
-      </c>
-      <c r="O27" t="n">
-        <v>4</v>
-      </c>
-      <c r="P27" t="n">
-        <v>24</v>
-      </c>
       <c r="Q27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R27" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="S27" t="n">
+        <v>16</v>
+      </c>
+      <c r="T27" t="n">
+        <v>33</v>
+      </c>
+      <c r="U27" t="n">
+        <v>32</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y27" t="n">
         <v>9</v>
       </c>
-      <c r="T27" t="n">
-        <v>14</v>
-      </c>
-      <c r="U27" t="n">
-        <v>6</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" t="n">
-        <v>5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>31</v>
-      </c>
       <c r="Z27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA27" t="n">
         <v>2</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>46.2</v>
+        <v>47.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>70</v>
+        <v>50.8</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -3558,98 +3561,98 @@
         <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897746</v>
+        <v>897792</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897746.html</t>
+          <t>https://text.khl.ru/text/897792.html</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>31</v>
       </c>
       <c r="J28" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K28" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P28" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q28" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="R28" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T28" t="n">
+        <v>36</v>
+      </c>
+      <c r="U28" t="n">
+        <v>20</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
         <v>14</v>
       </c>
-      <c r="U28" t="n">
-        <v>7</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2</v>
-      </c>
-      <c r="X28" t="n">
-        <v>16</v>
-      </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
         <v>4</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3657,43 +3660,46 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>69.8</v>
+        <v>60.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>66.7</v>
+        <v>64.3</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.67</v>
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.75</v>
       </c>
       <c r="AH28" t="n">
-        <v>12.9</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897736</v>
+        <v>897782</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897736.html</t>
+          <t>https://text.khl.ru/text/897782.html</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3706,61 +3712,61 @@
         <v>2</v>
       </c>
       <c r="I29" t="n">
+        <v>34</v>
+      </c>
+      <c r="J29" t="n">
+        <v>28</v>
+      </c>
+      <c r="K29" t="n">
+        <v>62</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>7</v>
+      </c>
+      <c r="P29" t="n">
         <v>29</v>
       </c>
-      <c r="J29" t="n">
-        <v>20</v>
-      </c>
-      <c r="K29" t="n">
-        <v>49</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="Q29" t="n">
+        <v>29</v>
+      </c>
+      <c r="R29" t="n">
+        <v>13</v>
+      </c>
+      <c r="S29" t="n">
+        <v>18</v>
+      </c>
+      <c r="T29" t="n">
+        <v>24</v>
+      </c>
+      <c r="U29" t="n">
+        <v>31</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1</v>
+      </c>
+      <c r="W29" t="n">
         <v>6</v>
       </c>
-      <c r="O29" t="n">
-        <v>4</v>
-      </c>
-      <c r="P29" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>27</v>
-      </c>
-      <c r="R29" t="n">
-        <v>19</v>
-      </c>
-      <c r="S29" t="n">
-        <v>19</v>
-      </c>
-      <c r="T29" t="n">
-        <v>14</v>
-      </c>
-      <c r="U29" t="n">
-        <v>13</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1</v>
-      </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y29" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="Z29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -3768,10 +3774,10 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>54.2</v>
+        <v>50</v>
       </c>
       <c r="AD29" t="n">
-        <v>51.9</v>
+        <v>43.6</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -3780,101 +3786,101 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897691</v>
+        <v>897771</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897691.html</t>
+          <t>https://text.khl.ru/text/897771.html</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J30" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K30" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
         <v>6</v>
       </c>
       <c r="P30" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="n">
+        <v>29</v>
+      </c>
+      <c r="R30" t="n">
+        <v>10</v>
+      </c>
+      <c r="S30" t="n">
+        <v>9</v>
+      </c>
+      <c r="T30" t="n">
+        <v>27</v>
+      </c>
+      <c r="U30" t="n">
+        <v>22</v>
+      </c>
+      <c r="V30" t="n">
+        <v>6</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2</v>
+      </c>
+      <c r="X30" t="n">
         <v>30</v>
       </c>
-      <c r="R30" t="n">
-        <v>25</v>
-      </c>
-      <c r="S30" t="n">
-        <v>14</v>
-      </c>
-      <c r="T30" t="n">
-        <v>12</v>
-      </c>
-      <c r="U30" t="n">
-        <v>25</v>
-      </c>
-      <c r="V30" t="n">
-        <v>5</v>
-      </c>
-      <c r="W30" t="n">
-        <v>4</v>
-      </c>
-      <c r="X30" t="n">
-        <v>39</v>
-      </c>
       <c r="Y30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z30" t="n">
         <v>4</v>
       </c>
       <c r="AA30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3882,10 +3888,10 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>50.8</v>
+        <v>45.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>32.4</v>
+        <v>55.1</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -3894,124 +3900,124 @@
         <v>0</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.5</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20-10-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897670</v>
+        <v>897739</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897670.html</t>
+          <t>https://text.khl.ru/text/897739.html</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
         <v>5</v>
       </c>
-      <c r="H31" t="n">
-        <v>3</v>
-      </c>
       <c r="I31" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J31" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K31" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>29</v>
+      </c>
+      <c r="R31" t="n">
         <v>14</v>
       </c>
-      <c r="P31" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>30</v>
-      </c>
-      <c r="R31" t="n">
-        <v>30</v>
-      </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T31" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="U31" t="n">
         <v>10</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
         <v>24</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Z31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>53.1</v>
+        <v>47.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>52.4</v>
+        <v>76.7</v>
       </c>
       <c r="AE31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AH31" t="n">
-        <v>21.7</v>
+        <v>21.1</v>
       </c>
     </row>
   </sheetData>
@@ -4178,7 +4184,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4188,261 +4194,261 @@
         <v>3.4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>24.2</v>
+        <v>35.8</v>
       </c>
       <c r="H2" t="n">
-        <v>26.7</v>
+        <v>90.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>43.4</v>
+        <v>34</v>
       </c>
       <c r="K2" t="n">
-        <v>162.3</v>
+        <v>81</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>-4.4</v>
       </c>
       <c r="M2" t="n">
-        <v>17.8</v>
+        <v>20.6</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.1</v>
+        <v>0.7</v>
       </c>
       <c r="O2" t="n">
-        <v>43.14</v>
+        <v>57.04000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>-6.300000000000001</v>
+        <v>-1.749999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3</v>
+        <v>0.184</v>
       </c>
       <c r="R2" t="n">
-        <v>0.034</v>
+        <v>-0.05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.77</v>
+        <v>0.8325</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.07200000000000001</v>
+        <v>0.201</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.7</v>
+        <v>-1.3</v>
       </c>
       <c r="W2" t="n">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
       <c r="X2" t="n">
         <v>0.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>15.06</v>
+        <v>9.66</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.62</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>-0.5</v>
       </c>
       <c r="G3" t="n">
-        <v>36.6</v>
+        <v>35.2</v>
       </c>
       <c r="H3" t="n">
-        <v>83.3</v>
+        <v>107.7</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.6</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>28.6</v>
       </c>
       <c r="K3" t="n">
-        <v>34.5</v>
+        <v>19.3</v>
       </c>
       <c r="L3" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>51.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.09899999999999999</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
         <v>-1.2</v>
       </c>
-      <c r="M3" t="n">
-        <v>15</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>55.14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.250000000000001</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.06799999999999999</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>-0.7</v>
-      </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.4</v>
+        <v>-1.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.6</v>
+        <v>6.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>-3</v>
+        <v>-0.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.06</v>
+        <v>7.519999999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3999999999999999</v>
+        <v>-0.6100000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.8</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.6</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G4" t="n">
-        <v>37.4</v>
+        <v>19.4</v>
       </c>
       <c r="H4" t="n">
-        <v>116.3</v>
+        <v>24.8</v>
       </c>
       <c r="I4" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-5.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>43.23999999999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-1.87</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="Y4" t="n">
         <v>6.4</v>
       </c>
-      <c r="J4" t="n">
-        <v>23.2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>61.67999999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4.480000000000001</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.734</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X4" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>6.8</v>
-      </c>
       <c r="Z4" t="n">
-        <v>1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.319999999999999</v>
+        <v>14.18</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05000000000000018</v>
+        <v>-0.3499999999999996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4452,255 +4458,255 @@
         <v>1.6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>28.6</v>
       </c>
       <c r="H5" t="n">
-        <v>8.5</v>
+        <v>10.3</v>
       </c>
       <c r="I5" t="n">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="J5" t="n">
-        <v>34.4</v>
+        <v>36</v>
       </c>
       <c r="K5" t="n">
-        <v>29.3</v>
+        <v>88.5</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.2</v>
+        <v>-2.7</v>
       </c>
       <c r="M5" t="n">
-        <v>13.6</v>
+        <v>27.6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.3</v>
+        <v>-4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>45.58</v>
+        <v>51.31999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>0.729999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.216</v>
+        <v>0.066</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.034</v>
+        <v>0.033</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9099999999999999</v>
+        <v>0.764</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05</v>
+        <v>-0.03600000000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>5.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>-1.2</v>
+        <v>-1.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.22</v>
+        <v>5.74</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.19</v>
+        <v>0.2500000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.9</v>
+        <v>0.6</v>
       </c>
       <c r="G6" t="n">
-        <v>21.4</v>
+        <v>32.4</v>
       </c>
       <c r="H6" t="n">
-        <v>8.799999999999999</v>
+        <v>122.3</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.5</v>
+        <v>-2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>41.4</v>
+        <v>28.4</v>
       </c>
       <c r="K6" t="n">
-        <v>87.3</v>
+        <v>18.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3</v>
+        <v>-1.2</v>
       </c>
       <c r="M6" t="n">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="N6" t="n">
-        <v>5.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="O6" t="n">
-        <v>41.68</v>
+        <v>51.04000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>3.070000000000001</v>
+        <v>1.129999999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1325</v>
+        <v>0.286</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05233333333333333</v>
+        <v>-0.064</v>
       </c>
       <c r="S6" t="n">
-        <v>0.866</v>
+        <v>0.8280000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.134</v>
+        <v>0.09899999999999999</v>
       </c>
       <c r="U6" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.1</v>
       </c>
-      <c r="W6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Y6" t="n">
-        <v>5.6</v>
+        <v>11.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.74</v>
+        <v>12.42</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.47</v>
+        <v>-0.5500000000000002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="H7" t="n">
-        <v>17.2</v>
+        <v>72.30000000000001</v>
       </c>
       <c r="I7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>50.08</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.05600000000000001</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z7" t="n">
         <v>1.8</v>
       </c>
-      <c r="J7" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>13</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>54.82000000000001</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.5200000000000002</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-0.04699999999999999</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.8675</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="X7" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>-2</v>
-      </c>
       <c r="AA7" t="n">
-        <v>10.98</v>
+        <v>11.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>-2.52</v>
+        <v>-5.23</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,86 +609,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>11-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897805</v>
+        <v>897761</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897805.html</t>
+          <t>https://text.khl.ru/text/897761.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
         <v>54</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>35</v>
+      </c>
+      <c r="P2" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>22</v>
+      </c>
+      <c r="R2" t="n">
+        <v>14</v>
+      </c>
+      <c r="S2" t="n">
+        <v>16</v>
+      </c>
+      <c r="T2" t="n">
+        <v>13</v>
+      </c>
+      <c r="U2" t="n">
+        <v>16</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>12</v>
       </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>33</v>
-      </c>
-      <c r="R2" t="n">
-        <v>16</v>
-      </c>
-      <c r="S2" t="n">
-        <v>12</v>
-      </c>
-      <c r="T2" t="n">
-        <v>15</v>
-      </c>
-      <c r="U2" t="n">
-        <v>18</v>
-      </c>
-      <c r="V2" t="n">
-        <v>5</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>6</v>
-      </c>
-      <c r="X2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>27</v>
       </c>
       <c r="Z2" t="n">
         <v>4</v>
@@ -702,124 +702,124 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>44.1</v>
+        <v>57.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>45.5</v>
+        <v>44.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AG2" t="n">
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.9</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897789</v>
+        <v>897751</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897789.html</t>
+          <t>https://text.khl.ru/text/897751.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P3" t="n">
         <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T3" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
+        <v>12</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
       </c>
-      <c r="V3" t="n">
-        <v>7</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>13</v>
-      </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>66.7</v>
+        <v>56.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>71</v>
+        <v>45.5</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -827,150 +827,153 @@
       <c r="AF3" t="n">
         <v>0</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.75</v>
+      </c>
       <c r="AH3" t="n">
-        <v>7.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Авангард</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Торпедо</t>
-        </is>
-      </c>
       <c r="D4" t="n">
-        <v>897779</v>
+        <v>897743</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897779.html</t>
+          <t>https://text.khl.ru/text/897743.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J4" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K4" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P4" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>42</v>
+      </c>
+      <c r="R4" t="n">
+        <v>15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>14</v>
+      </c>
+      <c r="T4" t="n">
+        <v>15</v>
+      </c>
+      <c r="U4" t="n">
+        <v>21</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
         <v>3</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
-      <c r="O4" t="n">
-        <v>9</v>
-      </c>
-      <c r="P4" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>24</v>
-      </c>
-      <c r="R4" t="n">
-        <v>11</v>
-      </c>
-      <c r="S4" t="n">
-        <v>15</v>
-      </c>
-      <c r="T4" t="n">
-        <v>33</v>
-      </c>
-      <c r="U4" t="n">
-        <v>44</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="AA4" t="n">
         <v>4</v>
       </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>18</v>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>56.4</v>
+        <v>36.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>42.9</v>
+        <v>41.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
         <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>14</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897743</v>
+        <v>897732</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897743.html</t>
+          <t>https://text.khl.ru/text/897732.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -979,58 +982,58 @@
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
         <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Q5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="T5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="U5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W5" t="n">
         <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
         <v>3</v>
@@ -1041,10 +1044,10 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>63.6</v>
+        <v>61.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>58.3</v>
+        <v>57.1</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1053,148 +1056,148 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>21-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897731</v>
+        <v>897674</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897731.html</t>
+          <t>https://text.khl.ru/text/897674.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J6" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P6" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R6" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="U6" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="V6" t="n">
         <v>2</v>
       </c>
       <c r="W6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>7</v>
       </c>
-      <c r="X6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>5</v>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>54.4</v>
+        <v>48.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>38.7</v>
+        <v>72.7</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897807</v>
+        <v>897809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897807.html</t>
+          <t>https://text.khl.ru/text/897809.html</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1204,61 +1207,61 @@
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J7" t="n">
+        <v>31</v>
+      </c>
+      <c r="K7" t="n">
+        <v>62</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
         <v>23</v>
       </c>
-      <c r="K7" t="n">
-        <v>61</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>27</v>
-      </c>
       <c r="Q7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T7" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="U7" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="Y7" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="n">
         <v>5</v>
@@ -1269,110 +1272,113 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>56.2</v>
+        <v>40.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>45.3</v>
+        <v>39.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.33</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897799</v>
+        <v>897804</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897799.html</t>
+          <t>https://text.khl.ru/text/897804.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="K8" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
       </c>
       <c r="P8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>45</v>
+      </c>
+      <c r="R8" t="n">
+        <v>26</v>
+      </c>
+      <c r="S8" t="n">
+        <v>13</v>
+      </c>
+      <c r="T8" t="n">
+        <v>14</v>
+      </c>
+      <c r="U8" t="n">
         <v>33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>33</v>
-      </c>
-      <c r="R8" t="n">
-        <v>28</v>
-      </c>
-      <c r="S8" t="n">
-        <v>25</v>
-      </c>
-      <c r="T8" t="n">
-        <v>17</v>
-      </c>
-      <c r="U8" t="n">
-        <v>25</v>
       </c>
       <c r="V8" t="n">
         <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
@@ -1380,10 +1386,10 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AD8" t="n">
-        <v>40.5</v>
+        <v>29.8</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1392,215 +1398,215 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.699999999999999</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897753</v>
+        <v>897793</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897753.html</t>
+          <t>https://text.khl.ru/text/897793.html</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
+        <v>48</v>
+      </c>
+      <c r="K9" t="n">
+        <v>72</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>38</v>
+      </c>
+      <c r="R9" t="n">
         <v>32</v>
       </c>
-      <c r="K9" t="n">
-        <v>84</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>21</v>
-      </c>
-      <c r="P9" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>33</v>
-      </c>
-      <c r="R9" t="n">
-        <v>6</v>
-      </c>
       <c r="S9" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="T9" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="U9" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="V9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
       </c>
       <c r="Y9" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC9" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH9" t="n">
         <v>25</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC9" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>7.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>30-10-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897745</v>
+        <v>897709</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897745.html</t>
+          <t>https://text.khl.ru/text/897709.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="K10" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="P10" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R10" t="n">
+        <v>9</v>
+      </c>
+      <c r="S10" t="n">
         <v>20</v>
-      </c>
-      <c r="S10" t="n">
-        <v>21</v>
       </c>
       <c r="T10" t="n">
         <v>17</v>
       </c>
       <c r="U10" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1608,113 +1614,113 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>42.2</v>
+        <v>60.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>38.6</v>
+        <v>54.8</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AG10" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AH10" t="n">
-        <v>3.4</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897738</v>
+        <v>897703</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897738.html</t>
+          <t>https://text.khl.ru/text/897703.html</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47</v>
+      </c>
+      <c r="K11" t="n">
+        <v>67</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>9</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="n">
+        <v>21</v>
+      </c>
+      <c r="U11" t="n">
         <v>3</v>
       </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>26</v>
-      </c>
-      <c r="J11" t="n">
-        <v>34</v>
-      </c>
-      <c r="K11" t="n">
-        <v>60</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X11" t="n">
         <v>8</v>
       </c>
-      <c r="O11" t="n">
-        <v>4</v>
-      </c>
-      <c r="P11" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>33</v>
-      </c>
-      <c r="R11" t="n">
-        <v>29</v>
-      </c>
-      <c r="S11" t="n">
-        <v>13</v>
-      </c>
-      <c r="T11" t="n">
-        <v>16</v>
-      </c>
-      <c r="U11" t="n">
-        <v>13</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>13</v>
-      </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1722,407 +1728,407 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>56.6</v>
+        <v>47.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>55.2</v>
+        <v>87.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH11" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897808</v>
+        <v>897809</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897808.html</t>
+          <t>https://text.khl.ru/text/897809.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K12" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P12" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>23</v>
+      </c>
+      <c r="R12" t="n">
         <v>17</v>
       </c>
-      <c r="Q12" t="n">
-        <v>26</v>
-      </c>
-      <c r="R12" t="n">
-        <v>14</v>
-      </c>
       <c r="S12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="T12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>39.5</v>
+        <v>59.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>95.5</v>
+        <v>60.7</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897766</v>
+        <v>897795</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897766.html</t>
+          <t>https://text.khl.ru/text/897795.html</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>39</v>
+      </c>
+      <c r="J13" t="n">
+        <v>18</v>
+      </c>
+      <c r="K13" t="n">
+        <v>57</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>15</v>
+      </c>
+      <c r="R13" t="n">
+        <v>9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>32</v>
+      </c>
+      <c r="T13" t="n">
+        <v>15</v>
+      </c>
+      <c r="U13" t="n">
+        <v>10</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14</v>
-      </c>
-      <c r="J13" t="n">
-        <v>42</v>
-      </c>
-      <c r="K13" t="n">
-        <v>56</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>27</v>
-      </c>
-      <c r="R13" t="n">
-        <v>17</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>11</v>
-      </c>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4</v>
-      </c>
-      <c r="X13" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>5</v>
       </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
       <c r="AB13" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>40</v>
+        <v>71.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>78.59999999999999</v>
+        <v>60</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.14</v>
+        <v>0.67</v>
       </c>
       <c r="AH13" t="n">
-        <v>28.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897756</v>
+        <v>897787</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897756.html</t>
+          <t>https://text.khl.ru/text/897787.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>31</v>
+      </c>
+      <c r="K14" t="n">
+        <v>59</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>24</v>
+      </c>
+      <c r="R14" t="n">
+        <v>15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>16</v>
+      </c>
+      <c r="U14" t="n">
+        <v>15</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="n">
         <v>5</v>
       </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22</v>
-      </c>
-      <c r="J14" t="n">
-        <v>32</v>
-      </c>
-      <c r="K14" t="n">
-        <v>54</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>26</v>
-      </c>
-      <c r="R14" t="n">
-        <v>16</v>
-      </c>
-      <c r="S14" t="n">
-        <v>18</v>
-      </c>
-      <c r="T14" t="n">
-        <v>14</v>
-      </c>
-      <c r="U14" t="n">
-        <v>14</v>
-      </c>
-      <c r="V14" t="n">
-        <v>7</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4</v>
-      </c>
-      <c r="X14" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>10</v>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>49</v>
+        <v>44.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>50</v>
+        <v>51.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>22.7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897747</v>
+        <v>897759</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897747.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="K15" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2131,57 +2137,57 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>8</v>
       </c>
       <c r="P15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q15" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="R15" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="S15" t="n">
+        <v>28</v>
+      </c>
+      <c r="T15" t="n">
+        <v>17</v>
+      </c>
+      <c r="U15" t="n">
+        <v>16</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA15" t="n">
         <v>7</v>
       </c>
-      <c r="T15" t="n">
-        <v>18</v>
-      </c>
-      <c r="U15" t="n">
-        <v>12</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>4</v>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>37.7</v>
+        <v>54.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>60</v>
+        <v>51.5</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2189,102 +2195,99 @@
       <c r="AF15" t="n">
         <v>0</v>
       </c>
-      <c r="AG15" t="n">
-        <v>1</v>
-      </c>
       <c r="AH15" t="n">
-        <v>7.1</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897735</v>
+        <v>897748</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897735.html</t>
+          <t>https://text.khl.ru/text/897748.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J16" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="K16" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P16" t="n">
         <v>27</v>
       </c>
       <c r="Q16" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R16" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T16" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
         <v>2</v>
       </c>
       <c r="AA16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2292,364 +2295,364 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>50</v>
+        <v>55.1</v>
       </c>
       <c r="AD16" t="n">
         <v>57.1</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>12.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897806</v>
+        <v>897791</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897806.html</t>
+          <t>https://text.khl.ru/text/897791.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="J17" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="K17" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="Q17" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="R17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="U17" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="V17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W17" t="n">
         <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>4</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>54.8</v>
+        <v>31.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>62.5</v>
+        <v>52.7</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>3.1</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897799</v>
+        <v>897781</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897799.html</t>
+          <t>https://text.khl.ru/text/897781.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>30</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>29</v>
+      </c>
+      <c r="O18" t="n">
+        <v>47</v>
+      </c>
+      <c r="P18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>34</v>
+      </c>
+      <c r="R18" t="n">
+        <v>16</v>
+      </c>
+      <c r="S18" t="n">
+        <v>11</v>
+      </c>
+      <c r="T18" t="n">
+        <v>14</v>
+      </c>
+      <c r="U18" t="n">
+        <v>11</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
         <v>3</v>
       </c>
-      <c r="I18" t="n">
-        <v>27</v>
-      </c>
-      <c r="J18" t="n">
-        <v>31</v>
-      </c>
-      <c r="K18" t="n">
-        <v>58</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>6</v>
-      </c>
-      <c r="P18" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>33</v>
-      </c>
-      <c r="R18" t="n">
-        <v>25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>28</v>
-      </c>
-      <c r="T18" t="n">
-        <v>25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>17</v>
-      </c>
-      <c r="V18" t="n">
-        <v>5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>5</v>
-      </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>50</v>
+        <v>39.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>59.5</v>
+        <v>56</v>
       </c>
       <c r="AE18" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.33</v>
+        <v>0.09</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897770</v>
+        <v>897771</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897770.html</t>
+          <t>https://text.khl.ru/text/897771.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
+        <v>38</v>
+      </c>
+      <c r="J19" t="n">
+        <v>18</v>
+      </c>
+      <c r="K19" t="n">
+        <v>56</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>13</v>
+      </c>
+      <c r="P19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>24</v>
+      </c>
+      <c r="R19" t="n">
+        <v>9</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="n">
+        <v>22</v>
+      </c>
+      <c r="U19" t="n">
         <v>27</v>
       </c>
-      <c r="J19" t="n">
-        <v>28</v>
-      </c>
-      <c r="K19" t="n">
-        <v>55</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
+      <c r="V19" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6</v>
+      </c>
+      <c r="X19" t="n">
         <v>30</v>
       </c>
-      <c r="Q19" t="n">
-        <v>23</v>
-      </c>
-      <c r="R19" t="n">
-        <v>26</v>
-      </c>
-      <c r="S19" t="n">
-        <v>18</v>
-      </c>
-      <c r="T19" t="n">
-        <v>29</v>
-      </c>
-      <c r="U19" t="n">
-        <v>15</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3</v>
-      </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z19" t="n">
         <v>5</v>
       </c>
-      <c r="X19" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>4</v>
       </c>
-      <c r="AA19" t="n">
-        <v>2</v>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>56.6</v>
+        <v>54.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>65.90000000000001</v>
+        <v>44.9</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>11.1</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="20">
@@ -2660,39 +2663,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897753</v>
+        <v>897759</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897753.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="K20" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2701,502 +2704,496 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="R20" t="n">
+        <v>28</v>
+      </c>
+      <c r="S20" t="n">
+        <v>12</v>
+      </c>
+      <c r="T20" t="n">
+        <v>16</v>
+      </c>
+      <c r="U20" t="n">
         <v>17</v>
-      </c>
-      <c r="S20" t="n">
-        <v>6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>41</v>
-      </c>
-      <c r="U20" t="n">
-        <v>30</v>
       </c>
       <c r="V20" t="n">
         <v>4</v>
       </c>
       <c r="W20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>47.8</v>
+        <v>45.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="AG20" t="n">
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>3.1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897741</v>
+        <v>897730</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897741.html</t>
+          <t>https://text.khl.ru/text/897730.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>25</v>
       </c>
       <c r="J21" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K21" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O21" t="n">
+        <v>14</v>
+      </c>
+      <c r="P21" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>34</v>
+      </c>
+      <c r="R21" t="n">
+        <v>16</v>
+      </c>
+      <c r="S21" t="n">
+        <v>9</v>
+      </c>
+      <c r="T21" t="n">
+        <v>11</v>
+      </c>
+      <c r="U21" t="n">
         <v>6</v>
       </c>
-      <c r="P21" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>30</v>
-      </c>
-      <c r="R21" t="n">
-        <v>21</v>
-      </c>
-      <c r="S21" t="n">
-        <v>15</v>
-      </c>
-      <c r="T21" t="n">
-        <v>28</v>
-      </c>
-      <c r="U21" t="n">
-        <v>20</v>
-      </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA21" t="n">
         <v>5</v>
       </c>
-      <c r="X21" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>4</v>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>47.4</v>
+        <v>42.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>58.3</v>
+        <v>64.7</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AG21" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AH21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Спартак</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Северсталь</t>
-        </is>
-      </c>
       <c r="D22" t="n">
-        <v>897769</v>
+        <v>897762</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897769.html</t>
+          <t>https://text.khl.ru/text/897762.html</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
         <v>3</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
+        <v>32</v>
+      </c>
+      <c r="J22" t="n">
+        <v>27</v>
+      </c>
+      <c r="K22" t="n">
+        <v>59</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>21</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11</v>
+      </c>
+      <c r="P22" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>26</v>
+      </c>
+      <c r="R22" t="n">
+        <v>18</v>
+      </c>
+      <c r="S22" t="n">
+        <v>19</v>
+      </c>
+      <c r="T22" t="n">
+        <v>17</v>
+      </c>
+      <c r="U22" t="n">
+        <v>21</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
         <v>4</v>
       </c>
-      <c r="I22" t="n">
-        <v>27</v>
-      </c>
-      <c r="J22" t="n">
-        <v>25</v>
-      </c>
-      <c r="K22" t="n">
-        <v>52</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>12</v>
-      </c>
-      <c r="P22" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>22</v>
-      </c>
-      <c r="R22" t="n">
-        <v>10</v>
-      </c>
-      <c r="S22" t="n">
-        <v>21</v>
-      </c>
-      <c r="T22" t="n">
-        <v>14</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>8</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4</v>
-      </c>
-      <c r="X22" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>3</v>
-      </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>56.9</v>
+        <v>58.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>87.5</v>
+        <v>44.7</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AH22" t="n">
-        <v>11.1</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897762</v>
+        <v>897754</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897754.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>17</v>
+      </c>
+      <c r="R23" t="n">
         <v>11</v>
       </c>
-      <c r="O23" t="n">
-        <v>21</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="S23" t="n">
+        <v>14</v>
+      </c>
+      <c r="T23" t="n">
+        <v>24</v>
+      </c>
+      <c r="U23" t="n">
+        <v>28</v>
+      </c>
+      <c r="V23" t="n">
+        <v>7</v>
+      </c>
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA23" t="n">
         <v>26</v>
       </c>
-      <c r="Q23" t="n">
-        <v>36</v>
-      </c>
-      <c r="R23" t="n">
-        <v>19</v>
-      </c>
-      <c r="S23" t="n">
-        <v>18</v>
-      </c>
-      <c r="T23" t="n">
-        <v>21</v>
-      </c>
-      <c r="U23" t="n">
-        <v>17</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
-      </c>
-      <c r="W23" t="n">
-        <v>3</v>
-      </c>
-      <c r="X23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1</v>
-      </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>41.9</v>
+        <v>70.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>55.3</v>
+        <v>46.2</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
         <v>1</v>
       </c>
       <c r="AH23" t="n">
-        <v>11.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897752</v>
+        <v>897721</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897752.html</t>
+          <t>https://text.khl.ru/text/897721.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J24" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K24" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O24" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="U24" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X24" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z24" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -3204,293 +3201,293 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>57.6</v>
+        <v>55.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>55.6</v>
+        <v>35.6</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>13</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897699</v>
+        <v>897675</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897699.html</t>
+          <t>https://text.khl.ru/text/897675.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>21</v>
+      </c>
+      <c r="J25" t="n">
+        <v>22</v>
+      </c>
+      <c r="K25" t="n">
+        <v>43</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>12</v>
+      </c>
+      <c r="P25" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>27</v>
+      </c>
+      <c r="R25" t="n">
+        <v>11</v>
+      </c>
+      <c r="S25" t="n">
+        <v>28</v>
+      </c>
+      <c r="T25" t="n">
+        <v>30</v>
+      </c>
+      <c r="U25" t="n">
+        <v>32</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
         <v>3</v>
       </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>20</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="X25" t="n">
         <v>26</v>
       </c>
-      <c r="K25" t="n">
-        <v>46</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="Y25" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA25" t="n">
         <v>3</v>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>6</v>
-      </c>
-      <c r="O25" t="n">
-        <v>10</v>
-      </c>
-      <c r="P25" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>29</v>
-      </c>
-      <c r="R25" t="n">
-        <v>19</v>
-      </c>
-      <c r="S25" t="n">
-        <v>15</v>
-      </c>
-      <c r="T25" t="n">
-        <v>16</v>
-      </c>
-      <c r="U25" t="n">
-        <v>11</v>
-      </c>
-      <c r="V25" t="n">
-        <v>5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2</v>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>53.2</v>
+        <v>49.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>59.3</v>
+        <v>48.4</v>
       </c>
       <c r="AE25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>20-10-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897694</v>
+        <v>897669</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897694.html</t>
+          <t>https://text.khl.ru/text/897669.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J26" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K26" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>21</v>
+      </c>
+      <c r="R26" t="n">
         <v>10</v>
-      </c>
-      <c r="P26" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>37</v>
-      </c>
-      <c r="R26" t="n">
-        <v>14</v>
       </c>
       <c r="S26" t="n">
         <v>21</v>
       </c>
       <c r="T26" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="U26" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="V26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA26" t="n">
         <v>4</v>
       </c>
-      <c r="X26" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>3</v>
-      </c>
       <c r="AB26" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>45.6</v>
+        <v>56.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>30.3</v>
+        <v>54.8</v>
       </c>
       <c r="AE26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>11.9</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897801</v>
+        <v>897810</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897801.html</t>
+          <t>https://text.khl.ru/text/897810.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J27" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K27" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3502,54 +3499,54 @@
         <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P27" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="R27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T27" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="U27" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="n">
         <v>3</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>47.4</v>
+        <v>28</v>
       </c>
       <c r="AD27" t="n">
-        <v>50.8</v>
+        <v>36.8</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -3561,18 +3558,18 @@
         <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>2.8</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3581,203 +3578,203 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897792</v>
+        <v>897763</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897792.html</t>
+          <t>https://text.khl.ru/text/897763.html</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J28" t="n">
         <v>30</v>
       </c>
       <c r="K28" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P28" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T28" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="U28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Z28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>60.4</v>
+        <v>48.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>64.3</v>
+        <v>50</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897782</v>
+        <v>897755</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897755.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J29" t="n">
+        <v>43</v>
+      </c>
+      <c r="K29" t="n">
+        <v>69</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" t="n">
         <v>28</v>
       </c>
-      <c r="K29" t="n">
-        <v>62</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2</v>
-      </c>
-      <c r="O29" t="n">
-        <v>7</v>
-      </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
+        <v>33</v>
+      </c>
+      <c r="R29" t="n">
+        <v>28</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>19</v>
+      </c>
+      <c r="U29" t="n">
         <v>29</v>
       </c>
-      <c r="Q29" t="n">
-        <v>29</v>
-      </c>
-      <c r="R29" t="n">
-        <v>13</v>
-      </c>
-      <c r="S29" t="n">
-        <v>18</v>
-      </c>
-      <c r="T29" t="n">
-        <v>24</v>
-      </c>
-      <c r="U29" t="n">
-        <v>31</v>
-      </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Y29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA29" t="n">
         <v>3</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>50</v>
+        <v>45.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>43.6</v>
+        <v>39.6</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -3786,101 +3783,101 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897771</v>
+        <v>897748</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897748.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>31</v>
+      </c>
+      <c r="J30" t="n">
+        <v>30</v>
+      </c>
+      <c r="K30" t="n">
+        <v>61</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>27</v>
+      </c>
+      <c r="R30" t="n">
+        <v>20</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15</v>
+      </c>
+      <c r="T30" t="n">
+        <v>9</v>
+      </c>
+      <c r="U30" t="n">
+        <v>12</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3</v>
+      </c>
+      <c r="W30" t="n">
         <v>4</v>
       </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>18</v>
-      </c>
-      <c r="J30" t="n">
-        <v>38</v>
-      </c>
-      <c r="K30" t="n">
-        <v>56</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2</v>
-      </c>
-      <c r="N30" t="n">
-        <v>13</v>
-      </c>
-      <c r="O30" t="n">
-        <v>6</v>
-      </c>
-      <c r="P30" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>29</v>
-      </c>
-      <c r="R30" t="n">
-        <v>10</v>
-      </c>
-      <c r="S30" t="n">
-        <v>9</v>
-      </c>
-      <c r="T30" t="n">
-        <v>27</v>
-      </c>
-      <c r="U30" t="n">
-        <v>22</v>
-      </c>
-      <c r="V30" t="n">
-        <v>6</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2</v>
-      </c>
       <c r="X30" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3888,136 +3885,1276 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>45.3</v>
+        <v>44.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>55.1</v>
+        <v>42.9</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AH30" t="n">
-        <v>22.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Локомотив</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>897664</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897664.html</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>34</v>
+      </c>
+      <c r="J31" t="n">
+        <v>33</v>
+      </c>
+      <c r="K31" t="n">
+        <v>67</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8</v>
+      </c>
+      <c r="P31" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>36</v>
+      </c>
+      <c r="R31" t="n">
+        <v>17</v>
+      </c>
+      <c r="S31" t="n">
+        <v>17</v>
+      </c>
+      <c r="T31" t="n">
+        <v>14</v>
+      </c>
+      <c r="U31" t="n">
+        <v>18</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>23-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Северсталь</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>897739</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://text.khl.ru/text/897739.html</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897808</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897808.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>29</v>
+      </c>
+      <c r="J32" t="n">
+        <v>23</v>
+      </c>
+      <c r="K32" t="n">
+        <v>52</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>17</v>
+      </c>
+      <c r="R32" t="n">
+        <v>12</v>
+      </c>
+      <c r="S32" t="n">
+        <v>14</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" t="n">
+        <v>21</v>
+      </c>
+      <c r="V32" t="n">
+        <v>11</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA32" t="n">
         <v>4</v>
       </c>
-      <c r="H31" t="n">
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897796</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897796.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>30</v>
+      </c>
+      <c r="J33" t="n">
+        <v>30</v>
+      </c>
+      <c r="K33" t="n">
+        <v>60</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>32</v>
+      </c>
+      <c r="R33" t="n">
+        <v>14</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="n">
         <v>5</v>
       </c>
-      <c r="I31" t="n">
+      <c r="U33" t="n">
+        <v>12</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4</v>
+      </c>
+      <c r="W33" t="n">
+        <v>3</v>
+      </c>
+      <c r="X33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897785</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897785.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>22</v>
+      </c>
+      <c r="J34" t="n">
+        <v>20</v>
+      </c>
+      <c r="K34" t="n">
+        <v>42</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>35</v>
+      </c>
+      <c r="R34" t="n">
+        <v>13</v>
+      </c>
+      <c r="S34" t="n">
+        <v>12</v>
+      </c>
+      <c r="T34" t="n">
+        <v>5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>15</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897777</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897777.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>22</v>
+      </c>
+      <c r="J35" t="n">
+        <v>27</v>
+      </c>
+      <c r="K35" t="n">
+        <v>49</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>29</v>
+      </c>
+      <c r="R35" t="n">
+        <v>13</v>
+      </c>
+      <c r="S35" t="n">
+        <v>20</v>
+      </c>
+      <c r="T35" t="n">
+        <v>10</v>
+      </c>
+      <c r="U35" t="n">
+        <v>7</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>01-11-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897717</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897717.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>28</v>
+      </c>
+      <c r="J36" t="n">
+        <v>23</v>
+      </c>
+      <c r="K36" t="n">
+        <v>51</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>26</v>
+      </c>
+      <c r="R36" t="n">
+        <v>16</v>
+      </c>
+      <c r="S36" t="n">
+        <v>18</v>
+      </c>
+      <c r="T36" t="n">
+        <v>14</v>
+      </c>
+      <c r="U36" t="n">
+        <v>28</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897793</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897793.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>48</v>
+      </c>
+      <c r="J37" t="n">
+        <v>24</v>
+      </c>
+      <c r="K37" t="n">
+        <v>72</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>8</v>
+      </c>
+      <c r="P37" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q37" t="n">
         <v>19</v>
       </c>
-      <c r="J31" t="n">
-        <v>37</v>
-      </c>
-      <c r="K31" t="n">
-        <v>56</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="R37" t="n">
+        <v>12</v>
+      </c>
+      <c r="S37" t="n">
+        <v>32</v>
+      </c>
+      <c r="T37" t="n">
+        <v>14</v>
+      </c>
+      <c r="U37" t="n">
+        <v>12</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2</v>
+      </c>
+      <c r="W37" t="n">
         <v>8</v>
       </c>
-      <c r="O31" t="n">
-        <v>2</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="X37" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897784</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897784.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>49</v>
+      </c>
+      <c r="J38" t="n">
+        <v>33</v>
+      </c>
+      <c r="K38" t="n">
+        <v>82</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>19</v>
+      </c>
+      <c r="R38" t="n">
+        <v>8</v>
+      </c>
+      <c r="S38" t="n">
+        <v>17</v>
+      </c>
+      <c r="T38" t="n">
+        <v>15</v>
+      </c>
+      <c r="U38" t="n">
+        <v>10</v>
+      </c>
+      <c r="V38" t="n">
+        <v>7</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897774</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897774.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>40</v>
+      </c>
+      <c r="J39" t="n">
+        <v>29</v>
+      </c>
+      <c r="K39" t="n">
+        <v>69</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>12</v>
+      </c>
+      <c r="O39" t="n">
+        <v>12</v>
+      </c>
+      <c r="P39" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>25</v>
+      </c>
+      <c r="R39" t="n">
+        <v>11</v>
+      </c>
+      <c r="S39" t="n">
+        <v>19</v>
+      </c>
+      <c r="T39" t="n">
+        <v>18</v>
+      </c>
+      <c r="U39" t="n">
+        <v>15</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897734</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897734.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>41</v>
+      </c>
+      <c r="J40" t="n">
+        <v>19</v>
+      </c>
+      <c r="K40" t="n">
+        <v>60</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4</v>
+      </c>
+      <c r="P40" t="n">
         <v>26</v>
       </c>
-      <c r="Q31" t="n">
-        <v>29</v>
-      </c>
-      <c r="R31" t="n">
-        <v>14</v>
-      </c>
-      <c r="S31" t="n">
-        <v>9</v>
-      </c>
-      <c r="T31" t="n">
+      <c r="Q40" t="n">
+        <v>27</v>
+      </c>
+      <c r="R40" t="n">
+        <v>18</v>
+      </c>
+      <c r="S40" t="n">
+        <v>30</v>
+      </c>
+      <c r="T40" t="n">
+        <v>18</v>
+      </c>
+      <c r="U40" t="n">
+        <v>23</v>
+      </c>
+      <c r="V40" t="n">
+        <v>4</v>
+      </c>
+      <c r="W40" t="n">
+        <v>7</v>
+      </c>
+      <c r="X40" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897719</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897719.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>39</v>
+      </c>
+      <c r="J41" t="n">
         <v>33</v>
       </c>
-      <c r="U31" t="n">
+      <c r="K41" t="n">
+        <v>72</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>30</v>
+      </c>
+      <c r="R41" t="n">
+        <v>17</v>
+      </c>
+      <c r="S41" t="n">
+        <v>16</v>
+      </c>
+      <c r="T41" t="n">
+        <v>22</v>
+      </c>
+      <c r="U41" t="n">
+        <v>21</v>
+      </c>
+      <c r="V41" t="n">
+        <v>5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y41" t="n">
         <v>10</v>
       </c>
-      <c r="V31" t="n">
-        <v>10</v>
-      </c>
-      <c r="W31" t="n">
-        <v>8</v>
-      </c>
-      <c r="X31" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC31" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>21.1</v>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>10.3</v>
       </c>
     </row>
   </sheetData>
@@ -4031,7 +5168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4184,529 +5321,705 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F2" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>37</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.699999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>52.02</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.5999999999999999</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X2" t="n">
         <v>-0.4</v>
       </c>
-      <c r="G2" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="H2" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>34</v>
-      </c>
-      <c r="K2" t="n">
-        <v>81</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>57.04000000000001</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-1.749999999999999</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.8325</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.201</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Y2" t="n">
-        <v>5.4</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.2</v>
+        <v>6.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.66</v>
+        <v>5.08</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.09</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="G3" t="n">
-        <v>35.2</v>
+        <v>23.8</v>
       </c>
       <c r="H3" t="n">
-        <v>107.7</v>
+        <v>18.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>28.6</v>
+        <v>45.4</v>
       </c>
       <c r="K3" t="n">
-        <v>19.3</v>
+        <v>70.3</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.2</v>
+        <v>-3.7</v>
       </c>
       <c r="M3" t="n">
-        <v>20.8</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>1.6</v>
+        <v>-2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>51.44</v>
+        <v>41.38</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7</v>
+        <v>-5.029999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.15</v>
+        <v>0.049</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9175</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.09899999999999999</v>
+        <v>-0.03700000000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V3" t="n">
-        <v>-1.2</v>
+        <v>-0.9999999999999998</v>
       </c>
       <c r="W3" t="n">
-        <v>5.8</v>
+        <v>10.4</v>
       </c>
       <c r="X3" t="n">
-        <v>-1.6</v>
+        <v>-0.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.519999999999999</v>
+        <v>15.76</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.6100000000000001</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>57.06</v>
+      </c>
+      <c r="P4" t="n">
         <v>2.6</v>
       </c>
-      <c r="D4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="H4" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-5.1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43.23999999999999</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-1.87</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>0.78</v>
+        <v>0.7725</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.038</v>
+        <v>-0.001666666666666646</v>
       </c>
       <c r="U4" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="V4" t="n">
         <v>0.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="X4" t="n">
-        <v>-1.9</v>
+        <v>0.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>-1.6</v>
+        <v>-0.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>14.18</v>
+        <v>7.459999999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.3499999999999996</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>28.6</v>
+        <v>24.4</v>
       </c>
       <c r="H5" t="n">
-        <v>10.3</v>
+        <v>76.3</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9</v>
+        <v>-1.9</v>
       </c>
       <c r="J5" t="n">
-        <v>36</v>
+        <v>34.2</v>
       </c>
       <c r="K5" t="n">
-        <v>88.5</v>
+        <v>130.7</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.7</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>27.6</v>
+        <v>18.4</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>51.31999999999999</v>
+        <v>42.66</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>-2.759999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.066</v>
+        <v>0.2175</v>
       </c>
       <c r="R5" t="n">
-        <v>0.033</v>
+        <v>-0.007666666666666673</v>
       </c>
       <c r="S5" t="n">
-        <v>0.764</v>
+        <v>0.976</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.03600000000000001</v>
+        <v>0.024</v>
       </c>
       <c r="U5" t="n">
         <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>-0.7</v>
       </c>
       <c r="W5" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>-1.7</v>
+        <v>0.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.6</v>
+        <v>16</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.74</v>
+        <v>14.68</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.2500000000000001</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>57.98</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="W6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
         <v>0.6</v>
       </c>
-      <c r="G6" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>122.3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>51.04000000000001</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.129999999999999</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.064</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.8280000000000001</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.09899999999999999</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AA6" t="n">
-        <v>12.42</v>
+        <v>8.52</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.5500000000000002</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="E7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="N7" t="n">
         <v>-0.8</v>
       </c>
-      <c r="F7" t="n">
-        <v>-0.7000000000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>72.30000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.9</v>
-      </c>
       <c r="O7" t="n">
-        <v>50.08</v>
+        <v>41.54000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>-2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2</v>
+        <v>0.116</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.2</v>
+        <v>0.008000000000000002</v>
       </c>
       <c r="S7" t="n">
-        <v>0.638</v>
+        <v>0.96</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05600000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="U7" t="n">
         <v>3.2</v>
       </c>
       <c r="V7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.669999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>47</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.5599999999999994</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.06599999999999999</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Z8" t="n">
         <v>-0.2</v>
       </c>
-      <c r="W7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X7" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>-5.23</v>
+      <c r="AA8" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-1.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>56.08</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5.670000000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.03300000000000001</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.5199999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -609,214 +609,214 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>25-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897761</v>
+        <v>897814</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897761.html</t>
+          <t>https://text.khl.ru/text/897814.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>36</v>
+      </c>
+      <c r="J2" t="n">
+        <v>40</v>
+      </c>
+      <c r="K2" t="n">
+        <v>76</v>
+      </c>
+      <c r="L2" t="n">
         <v>4</v>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>33</v>
-      </c>
-      <c r="J2" t="n">
-        <v>21</v>
-      </c>
-      <c r="K2" t="n">
-        <v>54</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="n">
         <v>22</v>
       </c>
       <c r="R2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T2" t="n">
+        <v>23</v>
+      </c>
+      <c r="U2" t="n">
+        <v>24</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4</v>
+      </c>
+      <c r="X2" t="n">
         <v>13</v>
       </c>
-      <c r="U2" t="n">
-        <v>16</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>12</v>
-      </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>57.7</v>
+        <v>62.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>44.8</v>
+        <v>48.9</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>0.44</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.11</v>
+        <v>0.47</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>12.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897751</v>
+        <v>897805</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897751.html</t>
+          <t>https://text.khl.ru/text/897805.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
         <v>26</v>
       </c>
       <c r="K3" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>33</v>
+      </c>
+      <c r="R3" t="n">
+        <v>16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>12</v>
+      </c>
+      <c r="T3" t="n">
+        <v>15</v>
+      </c>
+      <c r="U3" t="n">
+        <v>18</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
         <v>8</v>
       </c>
-      <c r="O3" t="n">
-        <v>12</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>26</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13</v>
-      </c>
-      <c r="S3" t="n">
-        <v>24</v>
-      </c>
-      <c r="T3" t="n">
-        <v>10</v>
-      </c>
-      <c r="U3" t="n">
-        <v>12</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="n">
         <v>4</v>
       </c>
-      <c r="X3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
       <c r="AA3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>56.7</v>
+        <v>44.1</v>
       </c>
       <c r="AD3" t="n">
         <v>45.5</v>
@@ -828,50 +828,50 @@
         <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.8</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897743</v>
+        <v>897789</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897743.html</t>
+          <t>https://text.khl.ru/text/897789.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" t="n">
         <v>61</v>
@@ -883,46 +883,46 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>4</v>
       </c>
-      <c r="O4" t="n">
-        <v>8</v>
-      </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="R4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="U4" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>36.4</v>
+        <v>66.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>41.7</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -941,216 +941,213 @@
       <c r="AF4" t="n">
         <v>0</v>
       </c>
-      <c r="AG4" t="n">
-        <v>1</v>
-      </c>
       <c r="AH4" t="n">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897732</v>
+        <v>897779</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897732.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K5" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9</v>
+      </c>
+      <c r="P5" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>24</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T5" t="n">
+        <v>33</v>
+      </c>
+      <c r="U5" t="n">
+        <v>44</v>
+      </c>
+      <c r="V5" t="n">
         <v>4</v>
       </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>21</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="W5" t="n">
         <v>8</v>
       </c>
-      <c r="S5" t="n">
-        <v>19</v>
-      </c>
-      <c r="T5" t="n">
-        <v>12</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="X5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y5" t="n">
         <v>9</v>
       </c>
-      <c r="V5" t="n">
-        <v>5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>11</v>
-      </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>61.1</v>
+        <v>56.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>57.1</v>
+        <v>42.9</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21-10-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Адмирал</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Северсталь</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>897674</v>
+        <v>897743</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897674.html</t>
+          <t>https://text.khl.ru/text/897743.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24</v>
+      </c>
+      <c r="J6" t="n">
+        <v>37</v>
+      </c>
+      <c r="K6" t="n">
+        <v>61</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
         <v>4</v>
       </c>
-      <c r="I6" t="n">
-        <v>43</v>
-      </c>
-      <c r="J6" t="n">
-        <v>25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>68</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6</v>
-      </c>
       <c r="P6" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="R6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA6" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1158,10 +1155,10 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>48.2</v>
+        <v>63.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>72.7</v>
+        <v>58.3</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1173,80 +1170,80 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897809</v>
+        <v>897774</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897809.html</t>
+          <t>https://text.khl.ru/text/897774.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J7" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K7" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
@@ -1255,70 +1252,70 @@
         <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>39.3</v>
+        <v>45.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>11-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897804</v>
+        <v>897761</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897804.html</t>
+          <t>https://text.khl.ru/text/897761.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -1327,10 +1324,10 @@
         <v>21</v>
       </c>
       <c r="J8" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K8" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1339,57 +1336,57 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="R8" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="S8" t="n">
+        <v>14</v>
+      </c>
+      <c r="T8" t="n">
+        <v>16</v>
+      </c>
+      <c r="U8" t="n">
         <v>13</v>
       </c>
-      <c r="T8" t="n">
-        <v>14</v>
-      </c>
-      <c r="U8" t="n">
-        <v>33</v>
-      </c>
       <c r="V8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>25</v>
+        <v>42.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>29.8</v>
+        <v>55.2</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1398,148 +1395,148 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AH8" t="n">
-        <v>28.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Амур</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Трактор</t>
-        </is>
-      </c>
       <c r="D9" t="n">
-        <v>897793</v>
+        <v>897749</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897793.html</t>
+          <t>https://text.khl.ru/text/897749.html</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="K9" t="n">
         <v>72</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R9" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="S9" t="n">
+        <v>11</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
         <v>12</v>
       </c>
-      <c r="T9" t="n">
-        <v>12</v>
-      </c>
-      <c r="U9" t="n">
-        <v>14</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>2</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
       <c r="Y9" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>33.3</v>
+        <v>45.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>46.2</v>
+        <v>45.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30-10-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897709</v>
+        <v>897742</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897709.html</t>
+          <t>https://text.khl.ru/text/897742.html</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1549,19 +1546,19 @@
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K10" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1570,43 +1567,43 @@
         <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P10" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="R10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S10" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="T10" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="U10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="V10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" t="n">
         <v>6</v>
       </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1614,22 +1611,22 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>60.3</v>
+        <v>42.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>54.8</v>
+        <v>50</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AG10" t="n">
         <v>0.83</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1640,87 +1637,87 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897703</v>
+        <v>897702</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897703.html</t>
+          <t>https://text.khl.ru/text/897702.html</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K11" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q11" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="R11" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1728,10 +1725,10 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>47.9</v>
+        <v>42.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>87.5</v>
+        <v>50</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1740,101 +1737,101 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897809</v>
+        <v>897782</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897809.html</t>
+          <t>https://text.khl.ru/text/897782.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K12" t="n">
         <v>62</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>29</v>
+      </c>
+      <c r="R12" t="n">
+        <v>18</v>
+      </c>
+      <c r="S12" t="n">
+        <v>13</v>
+      </c>
+      <c r="T12" t="n">
+        <v>31</v>
+      </c>
+      <c r="U12" t="n">
+        <v>24</v>
+      </c>
+      <c r="V12" t="n">
         <v>6</v>
       </c>
-      <c r="O12" t="n">
-        <v>10</v>
-      </c>
-      <c r="P12" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>23</v>
-      </c>
-      <c r="R12" t="n">
-        <v>17</v>
-      </c>
-      <c r="S12" t="n">
-        <v>23</v>
-      </c>
-      <c r="T12" t="n">
-        <v>17</v>
-      </c>
-      <c r="U12" t="n">
-        <v>11</v>
-      </c>
-      <c r="V12" t="n">
-        <v>4</v>
-      </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1842,227 +1839,227 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>59.6</v>
+        <v>50</v>
       </c>
       <c r="AD12" t="n">
-        <v>60.7</v>
+        <v>56.4</v>
       </c>
       <c r="AE12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>12.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897795</v>
+        <v>897772</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897795.html</t>
+          <t>https://text.khl.ru/text/897772.html</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K13" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8</v>
+      </c>
+      <c r="P13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>40</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17</v>
+      </c>
+      <c r="S13" t="n">
+        <v>13</v>
+      </c>
+      <c r="T13" t="n">
+        <v>13</v>
+      </c>
+      <c r="U13" t="n">
+        <v>20</v>
+      </c>
+      <c r="V13" t="n">
         <v>6</v>
       </c>
-      <c r="O13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>15</v>
-      </c>
-      <c r="R13" t="n">
-        <v>9</v>
-      </c>
-      <c r="S13" t="n">
-        <v>32</v>
-      </c>
-      <c r="T13" t="n">
-        <v>15</v>
-      </c>
-      <c r="U13" t="n">
-        <v>10</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
         <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>71.7</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
-        <v>60</v>
+        <v>39.4</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.7</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897787</v>
+        <v>897712</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897787.html</t>
+          <t>https://text.khl.ru/text/897712.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
         <v>28</v>
       </c>
       <c r="J14" t="n">
+        <v>33</v>
+      </c>
+      <c r="K14" t="n">
+        <v>61</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" t="n">
         <v>31</v>
       </c>
-      <c r="K14" t="n">
-        <v>59</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>19</v>
-      </c>
       <c r="Q14" t="n">
+        <v>40</v>
+      </c>
+      <c r="R14" t="n">
         <v>24</v>
       </c>
-      <c r="R14" t="n">
-        <v>15</v>
-      </c>
       <c r="S14" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="U14" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
@@ -2070,113 +2067,113 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>44.2</v>
+        <v>43.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>51.6</v>
+        <v>52.2</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897759</v>
+        <v>897707</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897759.html</t>
+          <t>https://text.khl.ru/text/897707.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K15" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q15" t="n">
+        <v>31</v>
+      </c>
+      <c r="R15" t="n">
+        <v>28</v>
+      </c>
+      <c r="S15" t="n">
+        <v>22</v>
+      </c>
+      <c r="T15" t="n">
+        <v>18</v>
+      </c>
+      <c r="U15" t="n">
+        <v>25</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" t="n">
         <v>24</v>
       </c>
-      <c r="R15" t="n">
-        <v>12</v>
-      </c>
-      <c r="S15" t="n">
-        <v>28</v>
-      </c>
-      <c r="T15" t="n">
-        <v>17</v>
-      </c>
-      <c r="U15" t="n">
-        <v>16</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4</v>
-      </c>
-      <c r="X15" t="n">
-        <v>8</v>
-      </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Z15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2184,10 +2181,10 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>54.7</v>
+        <v>45.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>51.5</v>
+        <v>41.9</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2195,36 +2192,39 @@
       <c r="AF15" t="n">
         <v>0</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.75</v>
+      </c>
       <c r="AH15" t="n">
-        <v>2.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>27-10-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897748</v>
+        <v>897695</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897748.html</t>
+          <t>https://text.khl.ru/text/897695.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -2233,175 +2233,175 @@
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J16" t="n">
+        <v>34</v>
+      </c>
+      <c r="K16" t="n">
+        <v>66</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q16" t="n">
         <v>31</v>
       </c>
-      <c r="K16" t="n">
-        <v>61</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="R16" t="n">
         <v>10</v>
       </c>
-      <c r="P16" t="n">
+      <c r="S16" t="n">
         <v>27</v>
       </c>
-      <c r="Q16" t="n">
-        <v>22</v>
-      </c>
-      <c r="R16" t="n">
-        <v>15</v>
-      </c>
-      <c r="S16" t="n">
-        <v>20</v>
-      </c>
       <c r="T16" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="U16" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="V16" t="n">
         <v>4</v>
       </c>
       <c r="W16" t="n">
+        <v>5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA16" t="n">
         <v>3</v>
       </c>
-      <c r="X16" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1</v>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>55.1</v>
+        <v>56.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>57.1</v>
+        <v>64.2</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>25-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897791</v>
+        <v>897813</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897791.html</t>
+          <t>https://text.khl.ru/text/897813.html</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="K17" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R17" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X17" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Z17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>31.6</v>
+        <v>41.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -2421,92 +2421,92 @@
         <v>0.33</v>
       </c>
       <c r="AG17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>28.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897781</v>
+        <v>897808</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897781.html</t>
+          <t>https://text.khl.ru/text/897808.html</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q18" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="R18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S18" t="n">
+        <v>12</v>
+      </c>
+      <c r="T18" t="n">
+        <v>21</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" t="n">
         <v>11</v>
       </c>
-      <c r="T18" t="n">
-        <v>14</v>
-      </c>
-      <c r="U18" t="n">
-        <v>11</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3</v>
-      </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -2515,121 +2515,121 @@
         <v>4</v>
       </c>
       <c r="AA18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>56</v>
+        <v>95.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897771</v>
+        <v>897766</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897766.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K19" t="n">
         <v>56</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P19" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="U19" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="Y19" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>5</v>
       </c>
       <c r="AA19" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2637,22 +2637,22 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>54.7</v>
+        <v>40</v>
       </c>
       <c r="AD19" t="n">
-        <v>44.9</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="AH19" t="n">
-        <v>5.3</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="20">
@@ -2663,87 +2663,87 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897759</v>
+        <v>897756</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897759.html</t>
+          <t>https://text.khl.ru/text/897756.html</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>22</v>
+      </c>
+      <c r="J20" t="n">
+        <v>32</v>
+      </c>
+      <c r="K20" t="n">
+        <v>54</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>21</v>
-      </c>
-      <c r="J20" t="n">
-        <v>35</v>
-      </c>
-      <c r="K20" t="n">
-        <v>56</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8</v>
-      </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="R20" t="n">
+        <v>16</v>
+      </c>
+      <c r="S20" t="n">
+        <v>18</v>
+      </c>
+      <c r="T20" t="n">
+        <v>14</v>
+      </c>
+      <c r="U20" t="n">
+        <v>14</v>
+      </c>
+      <c r="V20" t="n">
+        <v>7</v>
+      </c>
+      <c r="W20" t="n">
+        <v>4</v>
+      </c>
+      <c r="X20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y20" t="n">
         <v>28</v>
       </c>
-      <c r="S20" t="n">
-        <v>12</v>
-      </c>
-      <c r="T20" t="n">
-        <v>16</v>
-      </c>
-      <c r="U20" t="n">
-        <v>17</v>
-      </c>
-      <c r="V20" t="n">
-        <v>4</v>
-      </c>
-      <c r="W20" t="n">
-        <v>2</v>
-      </c>
-      <c r="X20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8</v>
-      </c>
       <c r="Z20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AA20" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
@@ -2751,449 +2751,455 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>45.3</v>
+        <v>49</v>
       </c>
       <c r="AD20" t="n">
-        <v>48.5</v>
+        <v>50</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2</v>
       </c>
       <c r="AG20" t="n">
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897730</v>
+        <v>897747</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897730.html</t>
+          <t>https://text.khl.ru/text/897747.html</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>49</v>
+      </c>
+      <c r="K21" t="n">
+        <v>63</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>8</v>
+      </c>
+      <c r="P21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>38</v>
+      </c>
+      <c r="R21" t="n">
+        <v>24</v>
+      </c>
+      <c r="S21" t="n">
+        <v>7</v>
+      </c>
+      <c r="T21" t="n">
+        <v>18</v>
+      </c>
+      <c r="U21" t="n">
+        <v>12</v>
+      </c>
+      <c r="V21" t="n">
         <v>3</v>
       </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>39</v>
-      </c>
-      <c r="K21" t="n">
-        <v>64</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>16</v>
-      </c>
-      <c r="O21" t="n">
-        <v>14</v>
-      </c>
-      <c r="P21" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>34</v>
-      </c>
-      <c r="R21" t="n">
-        <v>16</v>
-      </c>
-      <c r="S21" t="n">
-        <v>9</v>
-      </c>
-      <c r="T21" t="n">
-        <v>11</v>
-      </c>
-      <c r="U21" t="n">
-        <v>6</v>
-      </c>
-      <c r="V21" t="n">
-        <v>5</v>
-      </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
         <v>3</v>
       </c>
       <c r="AA21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>42.4</v>
+        <v>37.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>64.7</v>
+        <v>60</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>22-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897762</v>
+        <v>897802</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897802.html</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J22" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K22" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P22" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R22" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S22" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="T22" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="V22" t="n">
+        <v>4</v>
+      </c>
+      <c r="W22" t="n">
         <v>3</v>
       </c>
-      <c r="W22" t="n">
-        <v>2</v>
-      </c>
       <c r="X22" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA22" t="n">
         <v>9</v>
       </c>
-      <c r="Y22" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>4</v>
-      </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>58.1</v>
+        <v>45.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>44.7</v>
+        <v>27.3</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>18.8</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897754</v>
+        <v>897766</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897754.html</t>
+          <t>https://text.khl.ru/text/897766.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J23" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="K23" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
         <v>4</v>
       </c>
       <c r="O23" t="n">
+        <v>7</v>
+      </c>
+      <c r="P23" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>18</v>
+      </c>
+      <c r="R23" t="n">
         <v>4</v>
       </c>
-      <c r="P23" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>17</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
         <v>11</v>
       </c>
-      <c r="S23" t="n">
-        <v>14</v>
-      </c>
-      <c r="T23" t="n">
-        <v>24</v>
-      </c>
-      <c r="U23" t="n">
-        <v>28</v>
-      </c>
       <c r="V23" t="n">
+        <v>4</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y23" t="n">
         <v>7</v>
       </c>
-      <c r="W23" t="n">
-        <v>8</v>
-      </c>
-      <c r="X23" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>16</v>
-      </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>70.7</v>
+        <v>60</v>
       </c>
       <c r="AD23" t="n">
-        <v>46.2</v>
+        <v>21.4</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="AG23" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>3.3</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>03-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897721</v>
+        <v>897725</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897721.html</t>
+          <t>https://text.khl.ru/text/897725.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J24" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K24" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P24" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q24" t="n">
         <v>23</v>
       </c>
       <c r="R24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W24" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y24" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
@@ -3201,179 +3207,179 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>55.8</v>
+        <v>57.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>35.6</v>
+        <v>32.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.14</v>
+        <v>0.4</v>
       </c>
       <c r="AG24" t="n">
         <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>10.8</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22-10-2025</t>
+          <t>19-10-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897675</v>
+        <v>897665</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897675.html</t>
+          <t>https://text.khl.ru/text/897665.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J25" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K25" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O25" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P25" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q25" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="R25" t="n">
         <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="T25" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="U25" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>49.1</v>
+        <v>52.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>48.4</v>
+        <v>46.2</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20-10-2025</t>
+          <t>16-10-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897669</v>
+        <v>897652</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897669.html</t>
+          <t>https://text.khl.ru/text/897652.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J26" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K26" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3382,46 +3388,46 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P26" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q26" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="R26" t="n">
         <v>10</v>
       </c>
       <c r="S26" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="T26" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="U26" t="n">
         <v>14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="X26" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Y26" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z26" t="n">
         <v>12</v>
       </c>
-      <c r="Z26" t="n">
-        <v>2</v>
-      </c>
       <c r="AA26" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -3429,10 +3435,10 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>56.2</v>
+        <v>50</v>
       </c>
       <c r="AD26" t="n">
-        <v>54.8</v>
+        <v>39.1</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -3444,109 +3450,109 @@
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.699999999999999</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Салават Юлаев</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>СКА</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ЦСКА</t>
-        </is>
-      </c>
       <c r="D27" t="n">
-        <v>897810</v>
+        <v>897763</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897810.html</t>
+          <t>https://text.khl.ru/text/897763.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J27" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K27" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P27" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R27" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="T27" t="n">
+        <v>15</v>
+      </c>
+      <c r="U27" t="n">
+        <v>15</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA27" t="n">
         <v>7</v>
       </c>
-      <c r="U27" t="n">
-        <v>12</v>
-      </c>
-      <c r="V27" t="n">
-        <v>6</v>
-      </c>
-      <c r="W27" t="n">
-        <v>6</v>
-      </c>
-      <c r="X27" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>5</v>
-      </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>28</v>
+        <v>51.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>36.8</v>
+        <v>50</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -3555,101 +3561,101 @@
         <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH27" t="n">
-        <v>17.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897763</v>
+        <v>897756</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897763.html</t>
+          <t>https://text.khl.ru/text/897756.html</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J28" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K28" t="n">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S28" t="n">
+        <v>16</v>
+      </c>
+      <c r="T28" t="n">
+        <v>14</v>
+      </c>
+      <c r="U28" t="n">
+        <v>14</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>7</v>
+      </c>
+      <c r="X28" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y28" t="n">
         <v>20</v>
       </c>
-      <c r="T28" t="n">
-        <v>15</v>
-      </c>
-      <c r="U28" t="n">
-        <v>15</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2</v>
-      </c>
-      <c r="W28" t="n">
-        <v>5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>24</v>
-      </c>
       <c r="Z28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3657,124 +3663,124 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>48.9</v>
+        <v>51</v>
       </c>
       <c r="AD28" t="n">
         <v>50</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH28" t="n">
-        <v>3.4</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897755</v>
+        <v>897721</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897755.html</t>
+          <t>https://text.khl.ru/text/897721.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
+        <v>16</v>
+      </c>
+      <c r="J29" t="n">
+        <v>37</v>
+      </c>
+      <c r="K29" t="n">
+        <v>53</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>14</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>29</v>
+      </c>
+      <c r="R29" t="n">
+        <v>21</v>
+      </c>
+      <c r="S29" t="n">
+        <v>17</v>
+      </c>
+      <c r="T29" t="n">
+        <v>29</v>
+      </c>
+      <c r="U29" t="n">
+        <v>16</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3</v>
+      </c>
+      <c r="X29" t="n">
         <v>26</v>
       </c>
-      <c r="J29" t="n">
-        <v>43</v>
-      </c>
-      <c r="K29" t="n">
-        <v>69</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4</v>
-      </c>
-      <c r="O29" t="n">
-        <v>6</v>
-      </c>
-      <c r="P29" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>33</v>
-      </c>
-      <c r="R29" t="n">
-        <v>28</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>19</v>
-      </c>
-      <c r="U29" t="n">
-        <v>29</v>
-      </c>
-      <c r="V29" t="n">
-        <v>11</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1</v>
-      </c>
-      <c r="X29" t="n">
-        <v>12</v>
-      </c>
       <c r="Y29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA29" t="n">
         <v>9</v>
       </c>
-      <c r="Z29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>3</v>
-      </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>45.9</v>
+        <v>44.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>39.6</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -3783,170 +3789,170 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AH29" t="n">
-        <v>3.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897748</v>
+        <v>897713</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897748.html</t>
+          <t>https://text.khl.ru/text/897713.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J30" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K30" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
+        <v>21</v>
+      </c>
+      <c r="O30" t="n">
+        <v>22</v>
+      </c>
+      <c r="P30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>37</v>
+      </c>
+      <c r="R30" t="n">
+        <v>21</v>
+      </c>
+      <c r="S30" t="n">
+        <v>12</v>
+      </c>
+      <c r="T30" t="n">
+        <v>23</v>
+      </c>
+      <c r="U30" t="n">
+        <v>18</v>
+      </c>
+      <c r="V30" t="n">
+        <v>12</v>
+      </c>
+      <c r="W30" t="n">
         <v>10</v>
       </c>
-      <c r="O30" t="n">
-        <v>8</v>
-      </c>
-      <c r="P30" t="n">
+      <c r="X30" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y30" t="n">
         <v>22</v>
       </c>
-      <c r="Q30" t="n">
-        <v>27</v>
-      </c>
-      <c r="R30" t="n">
-        <v>20</v>
-      </c>
-      <c r="S30" t="n">
-        <v>15</v>
-      </c>
-      <c r="T30" t="n">
+      <c r="Z30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA30" t="n">
         <v>9</v>
       </c>
-      <c r="U30" t="n">
-        <v>12</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3</v>
-      </c>
-      <c r="W30" t="n">
-        <v>4</v>
-      </c>
-      <c r="X30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>2</v>
-      </c>
       <c r="AB30" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>44.9</v>
+        <v>36.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>42.9</v>
+        <v>56.1</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH30" t="n">
-        <v>9.699999999999999</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897664</v>
+        <v>897705</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897664.html</t>
+          <t>https://text.khl.ru/text/897705.html</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J31" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K31" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3958,154 +3964,154 @@
         <v>8</v>
       </c>
       <c r="P31" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q31" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="R31" t="n">
+        <v>16</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="n">
+        <v>19</v>
+      </c>
+      <c r="U31" t="n">
+        <v>10</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7</v>
+      </c>
+      <c r="X31" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y31" t="n">
         <v>17</v>
       </c>
-      <c r="S31" t="n">
-        <v>17</v>
-      </c>
-      <c r="T31" t="n">
-        <v>14</v>
-      </c>
-      <c r="U31" t="n">
-        <v>18</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>5</v>
-      </c>
-      <c r="X31" t="n">
-        <v>31</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>21</v>
-      </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>40</v>
+        <v>49.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>43.8</v>
+        <v>65.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG31" t="n">
         <v>1</v>
       </c>
       <c r="AH31" t="n">
-        <v>5.9</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>25-11-2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>897808</v>
+        <v>897812</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897808.html</t>
+          <t>https://text.khl.ru/text/897812.html</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J32" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K32" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O32" t="n">
         <v>6</v>
       </c>
       <c r="P32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q32" t="n">
+        <v>24</v>
+      </c>
+      <c r="R32" t="n">
+        <v>14</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>10</v>
+      </c>
+      <c r="U32" t="n">
+        <v>15</v>
+      </c>
+      <c r="V32" t="n">
+        <v>4</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y32" t="n">
         <v>17</v>
       </c>
-      <c r="R32" t="n">
-        <v>12</v>
-      </c>
-      <c r="S32" t="n">
-        <v>14</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
-      <c r="U32" t="n">
-        <v>21</v>
-      </c>
-      <c r="V32" t="n">
-        <v>11</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1</v>
-      </c>
-      <c r="X32" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>8</v>
-      </c>
       <c r="Z32" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AA32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
@@ -4113,46 +4119,46 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>60.5</v>
+        <v>54.7</v>
       </c>
       <c r="AD32" t="n">
-        <v>4.5</v>
+        <v>40</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG32" t="n">
         <v>1</v>
       </c>
       <c r="AH32" t="n">
-        <v>6.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Северсталь</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Адмирал</t>
-        </is>
-      </c>
       <c r="D33" t="n">
-        <v>897796</v>
+        <v>897769</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897796.html</t>
+          <t>https://text.khl.ru/text/897769.html</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4162,19 +4168,19 @@
         <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K33" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -4183,139 +4189,139 @@
         <v>4</v>
       </c>
       <c r="O33" t="n">
+        <v>12</v>
+      </c>
+      <c r="P33" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>22</v>
+      </c>
+      <c r="R33" t="n">
+        <v>10</v>
+      </c>
+      <c r="S33" t="n">
+        <v>21</v>
+      </c>
+      <c r="T33" t="n">
+        <v>14</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>8</v>
+      </c>
+      <c r="W33" t="n">
         <v>4</v>
       </c>
-      <c r="P33" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>32</v>
-      </c>
-      <c r="R33" t="n">
-        <v>14</v>
-      </c>
-      <c r="S33" t="n">
-        <v>15</v>
-      </c>
-      <c r="T33" t="n">
-        <v>5</v>
-      </c>
-      <c r="U33" t="n">
-        <v>12</v>
-      </c>
-      <c r="V33" t="n">
-        <v>4</v>
-      </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="n">
         <v>3</v>
       </c>
-      <c r="X33" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>9</v>
-      </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>36</v>
+        <v>56.9</v>
       </c>
       <c r="AD33" t="n">
-        <v>29.4</v>
+        <v>87.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>10</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>897785</v>
+        <v>897762</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897785.html</t>
+          <t>https://text.khl.ru/text/897762.html</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J34" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K34" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="P34" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q34" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R34" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="S34" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="T34" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="U34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V34" t="n">
         <v>2</v>
@@ -4327,174 +4333,174 @@
         <v>17</v>
       </c>
       <c r="Y34" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>40.7</v>
+        <v>41.9</v>
       </c>
       <c r="AD34" t="n">
-        <v>25</v>
+        <v>55.3</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH34" t="n">
-        <v>18.2</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>897777</v>
+        <v>897752</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897777.html</t>
+          <t>https://text.khl.ru/text/897752.html</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
         <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J35" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K35" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
         <v>6</v>
       </c>
       <c r="P35" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>25</v>
+      </c>
+      <c r="R35" t="n">
+        <v>15</v>
+      </c>
+      <c r="S35" t="n">
         <v>23</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>29</v>
-      </c>
-      <c r="R35" t="n">
-        <v>13</v>
-      </c>
-      <c r="S35" t="n">
-        <v>20</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
       </c>
       <c r="U35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X35" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AH35" t="n">
         <v>13</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC35" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>58.8</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>18.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>897717</v>
+        <v>897699</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897717.html</t>
+          <t>https://text.khl.ru/text/897699.html</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4504,19 +4510,19 @@
         <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K36" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
@@ -4525,457 +4531,454 @@
         <v>6</v>
       </c>
       <c r="O36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P36" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R36" t="n">
+        <v>19</v>
+      </c>
+      <c r="S36" t="n">
+        <v>15</v>
+      </c>
+      <c r="T36" t="n">
         <v>16</v>
       </c>
-      <c r="S36" t="n">
-        <v>18</v>
-      </c>
-      <c r="T36" t="n">
-        <v>14</v>
-      </c>
       <c r="U36" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Z36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>53.6</v>
+        <v>53.2</v>
       </c>
       <c r="AD36" t="n">
-        <v>33.3</v>
+        <v>59.3</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AG36" t="n">
         <v>0.67</v>
       </c>
       <c r="AH36" t="n">
-        <v>10.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>897793</v>
+        <v>897810</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897793.html</t>
+          <t>https://text.khl.ru/text/897810.html</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
         <v>4</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
+        <v>23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>23</v>
+      </c>
+      <c r="K37" t="n">
+        <v>46</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>6</v>
       </c>
-      <c r="I37" t="n">
-        <v>48</v>
-      </c>
-      <c r="J37" t="n">
-        <v>24</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="O37" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>14</v>
+      </c>
+      <c r="R37" t="n">
+        <v>13</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="n">
+        <v>12</v>
+      </c>
+      <c r="U37" t="n">
+        <v>7</v>
+      </c>
+      <c r="V37" t="n">
+        <v>6</v>
+      </c>
+      <c r="W37" t="n">
+        <v>6</v>
+      </c>
+      <c r="X37" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
         <v>72</v>
       </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2</v>
-      </c>
-      <c r="O37" t="n">
-        <v>8</v>
-      </c>
-      <c r="P37" t="n">
-        <v>38</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>19</v>
-      </c>
-      <c r="R37" t="n">
-        <v>12</v>
-      </c>
-      <c r="S37" t="n">
-        <v>32</v>
-      </c>
-      <c r="T37" t="n">
-        <v>14</v>
-      </c>
-      <c r="U37" t="n">
-        <v>12</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2</v>
-      </c>
-      <c r="W37" t="n">
-        <v>8</v>
-      </c>
-      <c r="X37" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC37" t="n">
-        <v>66.7</v>
-      </c>
       <c r="AD37" t="n">
-        <v>53.8</v>
+        <v>63.2</v>
       </c>
       <c r="AE37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37" t="n">
-        <v>8.300000000000001</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>897784</v>
+        <v>897758</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897784.html</t>
+          <t>https://text.khl.ru/text/897758.html</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>27</v>
+      </c>
+      <c r="J38" t="n">
+        <v>34</v>
+      </c>
+      <c r="K38" t="n">
+        <v>61</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>4</v>
       </c>
-      <c r="I38" t="n">
-        <v>49</v>
-      </c>
-      <c r="J38" t="n">
-        <v>33</v>
-      </c>
-      <c r="K38" t="n">
-        <v>82</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>28</v>
+      </c>
+      <c r="R38" t="n">
+        <v>20</v>
+      </c>
+      <c r="S38" t="n">
+        <v>9</v>
+      </c>
+      <c r="T38" t="n">
+        <v>14</v>
+      </c>
+      <c r="U38" t="n">
         <v>6</v>
       </c>
-      <c r="O38" t="n">
-        <v>6</v>
-      </c>
-      <c r="P38" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>19</v>
-      </c>
-      <c r="R38" t="n">
-        <v>8</v>
-      </c>
-      <c r="S38" t="n">
-        <v>17</v>
-      </c>
-      <c r="T38" t="n">
-        <v>15</v>
-      </c>
-      <c r="U38" t="n">
-        <v>10</v>
-      </c>
       <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>5</v>
+      </c>
+      <c r="X38" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z38" t="n">
         <v>7</v>
       </c>
-      <c r="W38" t="n">
-        <v>6</v>
-      </c>
-      <c r="X38" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>4</v>
-      </c>
       <c r="AA38" t="n">
         <v>2</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>61.2</v>
+        <v>46.2</v>
       </c>
       <c r="AD38" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="n">
         <v>1</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>897774</v>
+        <v>897746</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897774.html</t>
+          <t>https://text.khl.ru/text/897746.html</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J39" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K39" t="n">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q39" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="R39" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="S39" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="T39" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U39" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z39" t="n">
         <v>4</v>
       </c>
-      <c r="W39" t="n">
-        <v>2</v>
-      </c>
-      <c r="X39" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>2</v>
-      </c>
       <c r="AA39" t="n">
         <v>1</v>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>59</v>
+        <v>69.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>54.5</v>
+        <v>66.7</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AH39" t="n">
-        <v>2.5</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>897734</v>
+        <v>897736</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897734.html</t>
+          <t>https://text.khl.ru/text/897736.html</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K40" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>6</v>
@@ -4984,40 +4987,40 @@
         <v>4</v>
       </c>
       <c r="P40" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q40" t="n">
         <v>27</v>
       </c>
       <c r="R40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S40" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="T40" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U40" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W40" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X40" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y40" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Z40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
@@ -5025,10 +5028,10 @@
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>49.1</v>
+        <v>54.2</v>
       </c>
       <c r="AD40" t="n">
-        <v>43.9</v>
+        <v>51.9</v>
       </c>
       <c r="AE40" t="n">
         <v>0</v>
@@ -5037,53 +5040,53 @@
         <v>0</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH40" t="n">
-        <v>7.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>897719</v>
+        <v>897691</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897719.html</t>
+          <t>https://text.khl.ru/text/897691.html</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="J41" t="n">
         <v>33</v>
       </c>
       <c r="K41" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5092,46 +5095,46 @@
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P41" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q41" t="n">
         <v>30</v>
       </c>
       <c r="R41" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="S41" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T41" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="U41" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V41" t="n">
         <v>5</v>
       </c>
       <c r="W41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X41" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="Y41" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Z41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
@@ -5139,10 +5142,10 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>44.4</v>
+        <v>50.8</v>
       </c>
       <c r="AD41" t="n">
-        <v>51.2</v>
+        <v>32.4</v>
       </c>
       <c r="AE41" t="n">
         <v>0</v>
@@ -5151,10 +5154,10 @@
         <v>0</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AH41" t="n">
-        <v>10.3</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
@@ -5321,271 +5324,271 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>2.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>37</v>
+        <v>33.8</v>
       </c>
       <c r="H2" t="n">
-        <v>13.5</v>
+        <v>59.2</v>
       </c>
       <c r="I2" t="n">
-        <v>-2</v>
+        <v>0.9</v>
       </c>
       <c r="J2" t="n">
-        <v>23.2</v>
+        <v>33.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.699999999999999</v>
+        <v>77.70000000000002</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2</v>
+        <v>-1.1</v>
       </c>
       <c r="M2" t="n">
-        <v>13.2</v>
+        <v>22.8</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.8</v>
+        <v>-1.4</v>
       </c>
       <c r="O2" t="n">
-        <v>52.02</v>
+        <v>58.7</v>
       </c>
       <c r="P2" t="n">
-        <v>1.46</v>
+        <v>-1.409999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.022</v>
+        <v>0.228</v>
       </c>
       <c r="R2" t="n">
-        <v>0.022</v>
+        <v>0.02699999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="T2" t="n">
-        <v>0.025</v>
+        <v>-0.006666666666666672</v>
       </c>
       <c r="U2" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.5999999999999999</v>
+        <v>-2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>4.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.4</v>
+        <v>3</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.08</v>
+        <v>11.58</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.96</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>23.8</v>
+        <v>27.6</v>
       </c>
       <c r="H3" t="n">
-        <v>18.7</v>
+        <v>48.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
-        <v>45.4</v>
+        <v>36.8</v>
       </c>
       <c r="K3" t="n">
-        <v>70.3</v>
+        <v>12.7</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.7</v>
+        <v>-0.3</v>
       </c>
       <c r="M3" t="n">
-        <v>15</v>
+        <v>12.6</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41.38</v>
+        <v>42.77999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>-5.029999999999999</v>
+        <v>-0.3700000000000003</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3</v>
+        <v>0.134</v>
       </c>
       <c r="R3" t="n">
-        <v>0.049</v>
+        <v>-0.016</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.8440000000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.03700000000000001</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.9999999999999998</v>
+        <v>-0.2</v>
       </c>
       <c r="W3" t="n">
-        <v>10.4</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.6</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.2</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>15.76</v>
+        <v>7.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.29</v>
+        <v>2.759999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="D4" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="G4" t="n">
-        <v>32.6</v>
+        <v>31.2</v>
       </c>
       <c r="H4" t="n">
-        <v>19.3</v>
+        <v>13.7</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6</v>
+        <v>-1.4</v>
       </c>
       <c r="J4" t="n">
-        <v>26.4</v>
+        <v>31.6</v>
       </c>
       <c r="K4" t="n">
-        <v>40.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L4" t="n">
         <v>-0.3</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>24</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>57.06</v>
+        <v>47.64</v>
       </c>
       <c r="P4" t="n">
-        <v>2.6</v>
+        <v>-1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="R4" t="n">
-        <v>0.04000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7725</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.001666666666666646</v>
+        <v>0.025</v>
       </c>
       <c r="U4" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6</v>
+        <v>-0.2</v>
       </c>
       <c r="W4" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.459999999999999</v>
+        <v>9</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.72</v>
+        <v>0.6599999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5595,261 +5598,261 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="E5" t="n">
         <v>0.3</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>24.4</v>
+        <v>19.6</v>
       </c>
       <c r="H5" t="n">
-        <v>76.3</v>
+        <v>27.3</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.9</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>34.2</v>
+        <v>37.2</v>
       </c>
       <c r="K5" t="n">
-        <v>130.7</v>
+        <v>66.69999999999999</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>-3.3</v>
       </c>
       <c r="M5" t="n">
         <v>18.4</v>
       </c>
       <c r="N5" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O5" t="n">
-        <v>42.66</v>
+        <v>41.45999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.759999999999999</v>
+        <v>-0.2700000000000003</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2175</v>
+        <v>0.206</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.007666666666666673</v>
+        <v>0.046</v>
       </c>
       <c r="S5" t="n">
-        <v>0.976</v>
+        <v>0.728</v>
       </c>
       <c r="T5" t="n">
-        <v>0.024</v>
+        <v>-0.1</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="V5" t="n">
         <v>-0.7</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.68</v>
+        <v>15.68</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.47</v>
+        <v>0.3100000000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="G6" t="n">
-        <v>30.2</v>
+        <v>39</v>
       </c>
       <c r="H6" t="n">
-        <v>33.7</v>
+        <v>22.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>23.6</v>
+        <v>21.6</v>
       </c>
       <c r="K6" t="n">
-        <v>32.3</v>
+        <v>25.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.9</v>
+        <v>-2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>8.6</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.6</v>
+        <v>-1.5</v>
       </c>
       <c r="O6" t="n">
-        <v>57.98</v>
+        <v>53.02</v>
       </c>
       <c r="P6" t="n">
-        <v>2.54</v>
+        <v>-0.1200000000000003</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.028</v>
+        <v>0.316</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="S6" t="n">
-        <v>0.93</v>
+        <v>0.842</v>
       </c>
       <c r="T6" t="n">
-        <v>0.005000000000000004</v>
+        <v>-0.021</v>
       </c>
       <c r="U6" t="n">
-        <v>6.8</v>
+        <v>12.2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9999999999999998</v>
+        <v>-1.4</v>
       </c>
       <c r="W6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="X6" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>12.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.52</v>
+        <v>15.82</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.15</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.2</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.6</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>28.6</v>
+        <v>23.8</v>
       </c>
       <c r="H7" t="n">
-        <v>18.3</v>
+        <v>50.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.4</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
         <v>31.8</v>
       </c>
       <c r="K7" t="n">
-        <v>52.7</v>
+        <v>45.7</v>
       </c>
       <c r="L7" t="n">
-        <v>-2</v>
+        <v>-2.3</v>
       </c>
       <c r="M7" t="n">
-        <v>12.8</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.8</v>
+        <v>-1.7</v>
       </c>
       <c r="O7" t="n">
-        <v>41.54000000000001</v>
+        <v>46.32</v>
       </c>
       <c r="P7" t="n">
-        <v>-2</v>
+        <v>1.88</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.116</v>
+        <v>0.136</v>
       </c>
       <c r="R7" t="n">
-        <v>0.008000000000000002</v>
+        <v>-0.118</v>
       </c>
       <c r="S7" t="n">
-        <v>0.96</v>
+        <v>0.866</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="U7" t="n">
-        <v>3.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="W7" t="n">
-        <v>5.2</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.6</v>
+        <v>-3</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.039999999999999</v>
+        <v>15.24</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.669999999999999</v>
+        <v>-5.720000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5859,167 +5862,167 @@
         <v>3.2</v>
       </c>
       <c r="D8" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.3</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>103.3</v>
+      </c>
+      <c r="I8" t="n">
         <v>-1.3</v>
       </c>
-      <c r="G8" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
       <c r="J8" t="n">
-        <v>24.6</v>
+        <v>28</v>
       </c>
       <c r="K8" t="n">
-        <v>15.3</v>
+        <v>13.5</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>7</v>
+        <v>14.2</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.1</v>
+        <v>-0.8</v>
       </c>
       <c r="O8" t="n">
-        <v>47</v>
+        <v>52.86</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5599999999999994</v>
+        <v>0.2299999999999997</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.134</v>
+        <v>0.272</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.067</v>
+        <v>-0.02099999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>0.884</v>
+        <v>0.8940000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.06599999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="W8" t="n">
-        <v>5.6</v>
+        <v>7.4</v>
       </c>
       <c r="X8" t="n">
-        <v>-1.2</v>
+        <v>-0.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.6</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
         <v>-0.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>12.8</v>
+        <v>10.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>-1.58</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="U9" t="n">
         <v>4.4</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>22.3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-1.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>56.08</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5.670000000000001</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.03300000000000001</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.6</v>
-      </c>
       <c r="V9" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="W9" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.5199999999999999</v>
+        <v>-0.64</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,611 +609,614 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>25-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897814</v>
+        <v>897786</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897814.html</t>
+          <t>https://text.khl.ru/text/897786.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
         <v>40</v>
       </c>
-      <c r="K2" t="n">
-        <v>76</v>
-      </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
+        <v>11</v>
+      </c>
+      <c r="P2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>23</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8</v>
+      </c>
+      <c r="S2" t="n">
         <v>17</v>
       </c>
-      <c r="P2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="T2" t="n">
+        <v>19</v>
+      </c>
+      <c r="U2" t="n">
         <v>22</v>
       </c>
-      <c r="R2" t="n">
-        <v>12</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15</v>
-      </c>
-      <c r="T2" t="n">
-        <v>23</v>
-      </c>
-      <c r="U2" t="n">
-        <v>24</v>
-      </c>
       <c r="V2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH2" t="n">
         <v>4</v>
-      </c>
-      <c r="X2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC2" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897805</v>
+        <v>897778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897805.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27</v>
+      </c>
+      <c r="K3" t="n">
+        <v>61</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>5</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>28</v>
-      </c>
-      <c r="J3" t="n">
-        <v>26</v>
-      </c>
-      <c r="K3" t="n">
-        <v>54</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>22</v>
+      </c>
+      <c r="R3" t="n">
         <v>12</v>
       </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>33</v>
-      </c>
-      <c r="R3" t="n">
-        <v>16</v>
-      </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="T3" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="U3" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="V3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
+        <v>4</v>
+      </c>
+      <c r="X3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="n">
         <v>6</v>
       </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4</v>
-      </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>44.1</v>
+        <v>64.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>45.5</v>
+        <v>73.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AG3" t="n">
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897789</v>
+        <v>897768</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897789.html</t>
+          <t>https://text.khl.ru/text/897768.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>27</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38</v>
-      </c>
-      <c r="J4" t="n">
-        <v>23</v>
-      </c>
-      <c r="K4" t="n">
-        <v>61</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="n">
+        <v>24</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8</v>
+      </c>
+      <c r="S4" t="n">
         <v>17</v>
-      </c>
-      <c r="R4" t="n">
-        <v>20</v>
-      </c>
-      <c r="S4" t="n">
-        <v>25</v>
       </c>
       <c r="T4" t="n">
         <v>22</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="V4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="n">
         <v>3</v>
       </c>
-      <c r="X4" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>7</v>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>66.7</v>
+        <v>59.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>71</v>
+        <v>52.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.9</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897779</v>
+        <v>897716</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897779.html</t>
+          <t>https://text.khl.ru/text/897716.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>41</v>
+      </c>
+      <c r="J5" t="n">
+        <v>23</v>
+      </c>
+      <c r="K5" t="n">
+        <v>64</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R5" t="n">
+        <v>12</v>
+      </c>
+      <c r="S5" t="n">
+        <v>23</v>
+      </c>
+      <c r="T5" t="n">
+        <v>15</v>
+      </c>
+      <c r="U5" t="n">
+        <v>22</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>43</v>
-      </c>
-      <c r="J5" t="n">
-        <v>43</v>
-      </c>
-      <c r="K5" t="n">
-        <v>86</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="X5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA5" t="n">
         <v>3</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9</v>
-      </c>
-      <c r="P5" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>24</v>
-      </c>
-      <c r="R5" t="n">
-        <v>11</v>
-      </c>
-      <c r="S5" t="n">
-        <v>15</v>
-      </c>
-      <c r="T5" t="n">
-        <v>33</v>
-      </c>
-      <c r="U5" t="n">
-        <v>44</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>18</v>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>56.4</v>
+        <v>65.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>42.9</v>
+        <v>40.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="AG5" t="n">
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>29-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897743</v>
+        <v>897706</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897743.html</t>
+          <t>https://text.khl.ru/text/897706.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K6" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>19</v>
+      </c>
+      <c r="R6" t="n">
+        <v>19</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V6" t="n">
         <v>4</v>
       </c>
-      <c r="P6" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>24</v>
-      </c>
-      <c r="R6" t="n">
-        <v>14</v>
-      </c>
-      <c r="S6" t="n">
-        <v>15</v>
-      </c>
-      <c r="T6" t="n">
-        <v>21</v>
-      </c>
-      <c r="U6" t="n">
-        <v>15</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="Z6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>63.6</v>
+        <v>67.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>58.3</v>
+        <v>62.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG6" t="n">
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.2</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897774</v>
+        <v>897785</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897774.html</t>
+          <t>https://text.khl.ru/text/897785.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="K7" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -1222,171 +1225,171 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8</v>
+      </c>
+      <c r="P7" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>24</v>
+      </c>
+      <c r="R7" t="n">
         <v>12</v>
       </c>
-      <c r="O7" t="n">
-        <v>12</v>
-      </c>
-      <c r="P7" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>36</v>
-      </c>
-      <c r="R7" t="n">
-        <v>19</v>
-      </c>
       <c r="S7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T7" t="n">
         <v>15</v>
       </c>
       <c r="U7" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
+        <v>3</v>
+      </c>
+      <c r="W7" t="n">
         <v>2</v>
       </c>
-      <c r="W7" t="n">
-        <v>4</v>
-      </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
         <v>11</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>2</v>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>41</v>
+        <v>59.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>45.5</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AG7" t="n">
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>17.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897761</v>
+        <v>897778</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897761.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P8" t="n">
         <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R8" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="U8" t="n">
+        <v>36</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
         <v>13</v>
       </c>
-      <c r="V8" t="n">
-        <v>1</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3</v>
-      </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA8" t="n">
         <v>6</v>
       </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>4</v>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>42.3</v>
+        <v>35.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>55.2</v>
+        <v>26.5</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
@@ -1395,215 +1398,215 @@
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897749</v>
+        <v>897678</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897749.html</t>
+          <t>https://text.khl.ru/text/897678.html</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>26</v>
+      </c>
+      <c r="J9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>51</v>
+      </c>
+      <c r="L9" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
-        <v>39</v>
-      </c>
-      <c r="J9" t="n">
-        <v>33</v>
-      </c>
-      <c r="K9" t="n">
-        <v>72</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="R9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="T9" t="n">
+        <v>13</v>
+      </c>
+      <c r="U9" t="n">
+        <v>20</v>
+      </c>
+      <c r="V9" t="n">
         <v>5</v>
       </c>
-      <c r="U9" t="n">
-        <v>6</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>45.5</v>
+        <v>52.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>45.5</v>
+        <v>39.4</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>20-10-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897742</v>
+        <v>897670</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897742.html</t>
+          <t>https://text.khl.ru/text/897670.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K10" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q10" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R10" t="n">
+        <v>15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>30</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10</v>
+      </c>
+      <c r="U10" t="n">
         <v>11</v>
       </c>
-      <c r="S10" t="n">
-        <v>13</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8</v>
-      </c>
-      <c r="U10" t="n">
-        <v>8</v>
-      </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
@@ -1611,19 +1614,19 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>42.2</v>
+        <v>46.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>50</v>
+        <v>47.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="AH10" t="n">
         <v>8.300000000000001</v>
@@ -1632,25 +1635,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>11-10-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897702</v>
+        <v>897549</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897702.html</t>
+          <t>https://text.khl.ru/text/897549.html</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1660,61 +1663,61 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J11" t="n">
+        <v>33</v>
+      </c>
+      <c r="K11" t="n">
+        <v>73</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>31</v>
+      </c>
+      <c r="R11" t="n">
+        <v>14</v>
+      </c>
+      <c r="S11" t="n">
+        <v>19</v>
+      </c>
+      <c r="T11" t="n">
+        <v>21</v>
+      </c>
+      <c r="U11" t="n">
         <v>25</v>
       </c>
-      <c r="J11" t="n">
-        <v>38</v>
-      </c>
-      <c r="K11" t="n">
-        <v>63</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="V11" t="n">
+        <v>5</v>
+      </c>
+      <c r="W11" t="n">
         <v>4</v>
       </c>
-      <c r="P11" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>36</v>
-      </c>
-      <c r="R11" t="n">
-        <v>28</v>
-      </c>
-      <c r="S11" t="n">
-        <v>14</v>
-      </c>
-      <c r="T11" t="n">
-        <v>19</v>
-      </c>
-      <c r="U11" t="n">
-        <v>19</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z11" t="n">
         <v>4</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2</v>
       </c>
       <c r="AA11" t="n">
         <v>4</v>
@@ -1725,10 +1728,10 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>42.9</v>
+        <v>49.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>50</v>
+        <v>45.7</v>
       </c>
       <c r="AE11" t="n">
         <v>0</v>
@@ -1737,135 +1740,135 @@
         <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AH11" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897782</v>
+        <v>897816</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897816.html</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>27</v>
+      </c>
+      <c r="J12" t="n">
+        <v>48</v>
+      </c>
+      <c r="K12" t="n">
+        <v>75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28</v>
-      </c>
-      <c r="J12" t="n">
-        <v>34</v>
-      </c>
-      <c r="K12" t="n">
-        <v>62</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P12" t="n">
         <v>29</v>
       </c>
       <c r="Q12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T12" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U12" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="V12" t="n">
         <v>6</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>50</v>
+        <v>48.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>56.4</v>
+        <v>57.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1874,11 +1877,11 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897772</v>
+        <v>897791</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897791.html</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1888,46 +1891,46 @@
         <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K13" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P13" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Q13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="S13" t="n">
         <v>13</v>
       </c>
       <c r="T13" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="V13" t="n">
         <v>6</v>
@@ -1936,16 +1939,16 @@
         <v>5</v>
       </c>
       <c r="X13" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y13" t="n">
         <v>16</v>
       </c>
-      <c r="Y13" t="n">
-        <v>20</v>
-      </c>
       <c r="Z13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -1953,46 +1956,46 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>31.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>39.4</v>
+        <v>52.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AG13" t="n">
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.9</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897712</v>
+        <v>897781</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897712.html</t>
+          <t>https://text.khl.ru/text/897781.html</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2002,46 +2005,46 @@
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="O14" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="P14" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q14" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R14" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S14" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="T14" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="U14" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
         <v>2</v>
@@ -2050,130 +2053,130 @@
         <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>43.7</v>
+        <v>39.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>52.2</v>
+        <v>56</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>10.7</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897707</v>
+        <v>897771</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897707.html</t>
+          <t>https://text.khl.ru/text/897771.html</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J15" t="n">
+        <v>18</v>
+      </c>
+      <c r="K15" t="n">
+        <v>56</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>24</v>
+      </c>
+      <c r="R15" t="n">
+        <v>9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="n">
+        <v>22</v>
+      </c>
+      <c r="U15" t="n">
+        <v>27</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
         <v>30</v>
       </c>
-      <c r="K15" t="n">
-        <v>67</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>6</v>
-      </c>
-      <c r="P15" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>31</v>
-      </c>
-      <c r="R15" t="n">
-        <v>28</v>
-      </c>
-      <c r="S15" t="n">
-        <v>22</v>
-      </c>
-      <c r="T15" t="n">
-        <v>18</v>
-      </c>
-      <c r="U15" t="n">
-        <v>25</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="Y15" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z15" t="n">
         <v>5</v>
       </c>
-      <c r="W15" t="n">
-        <v>3</v>
-      </c>
-      <c r="X15" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>3</v>
-      </c>
       <c r="AA15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2181,65 +2184,65 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>45.6</v>
+        <v>54.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>41.9</v>
+        <v>44.9</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>27-10-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897695</v>
+        <v>897759</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897695.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2248,285 +2251,279 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="S16" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="T16" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="U16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V16" t="n">
         <v>4</v>
       </c>
       <c r="W16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Z16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="n">
         <v>4</v>
       </c>
-      <c r="AA16" t="n">
-        <v>3</v>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>56.9</v>
+        <v>45.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
+        <v>48.5</v>
       </c>
       <c r="AG16" t="n">
         <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897813</v>
+        <v>897815</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897813.html</t>
+          <t>https://text.khl.ru/text/897815.html</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="Q17" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="R17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U17" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="V17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>41.1</v>
+        <v>64.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>52.8</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897808</v>
+        <v>897762</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897808.html</t>
+          <t>https://text.khl.ru/text/897762.html</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P18" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="Q18" t="n">
         <v>26</v>
       </c>
       <c r="R18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="T18" t="n">
+        <v>17</v>
+      </c>
+      <c r="U18" t="n">
         <v>21</v>
       </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
         <v>4</v>
       </c>
-      <c r="AA18" t="n">
-        <v>10</v>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>39.5</v>
+        <v>58.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>95.5</v>
+        <v>44.7</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
@@ -2535,101 +2532,101 @@
         <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897766</v>
+        <v>897754</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897766.html</t>
+          <t>https://text.khl.ru/text/897754.html</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30</v>
+      </c>
+      <c r="J19" t="n">
+        <v>31</v>
+      </c>
+      <c r="K19" t="n">
+        <v>61</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-      <c r="I19" t="n">
-        <v>14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>42</v>
-      </c>
-      <c r="K19" t="n">
-        <v>56</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7</v>
       </c>
       <c r="O19" t="n">
         <v>4</v>
       </c>
       <c r="P19" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="Q19" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="R19" t="n">
+        <v>11</v>
+      </c>
+      <c r="S19" t="n">
+        <v>14</v>
+      </c>
+      <c r="T19" t="n">
+        <v>24</v>
+      </c>
+      <c r="U19" t="n">
+        <v>28</v>
+      </c>
+      <c r="V19" t="n">
+        <v>7</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8</v>
+      </c>
+      <c r="X19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z19" t="n">
         <v>17</v>
       </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>11</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4</v>
-      </c>
-      <c r="X19" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>5</v>
-      </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2637,33 +2634,33 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>40</v>
+        <v>70.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>78.59999999999999</v>
+        <v>46.2</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>28.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2672,30 +2669,30 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897756</v>
+        <v>897721</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897756.html</t>
+          <t>https://text.khl.ru/text/897721.html</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J20" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K20" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -2707,37 +2704,37 @@
         <v>4</v>
       </c>
       <c r="O20" t="n">
+        <v>14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>23</v>
+      </c>
+      <c r="R20" t="n">
+        <v>17</v>
+      </c>
+      <c r="S20" t="n">
+        <v>21</v>
+      </c>
+      <c r="T20" t="n">
+        <v>16</v>
+      </c>
+      <c r="U20" t="n">
+        <v>29</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" t="n">
         <v>10</v>
       </c>
-      <c r="P20" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="Y20" t="n">
         <v>26</v>
-      </c>
-      <c r="R20" t="n">
-        <v>16</v>
-      </c>
-      <c r="S20" t="n">
-        <v>18</v>
-      </c>
-      <c r="T20" t="n">
-        <v>14</v>
-      </c>
-      <c r="U20" t="n">
-        <v>14</v>
-      </c>
-      <c r="V20" t="n">
-        <v>7</v>
-      </c>
-      <c r="W20" t="n">
-        <v>4</v>
-      </c>
-      <c r="X20" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>28</v>
       </c>
       <c r="Z20" t="n">
         <v>9</v>
@@ -2751,124 +2748,124 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>49</v>
+        <v>55.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>50</v>
+        <v>35.6</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="AG20" t="n">
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>22.7</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897747</v>
+        <v>897675</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897747.html</t>
+          <t>https://text.khl.ru/text/897675.html</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J21" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="K21" t="n">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="R21" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="T21" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="U21" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
         <v>3</v>
       </c>
-      <c r="W21" t="n">
-        <v>2</v>
-      </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Z21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA21" t="n">
         <v>3</v>
       </c>
-      <c r="AA21" t="n">
-        <v>4</v>
-      </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>37.7</v>
+        <v>49.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>60</v>
+        <v>48.4</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -2877,443 +2874,443 @@
         <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>25-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897802</v>
+        <v>897814</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897802.html</t>
+          <t>https://text.khl.ru/text/897814.html</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J22" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K22" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="R22" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T22" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U22" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="V22" t="n">
         <v>4</v>
       </c>
       <c r="W22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>45.5</v>
+        <v>37.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>27.3</v>
+        <v>51.1</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.11</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>0.53</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897766</v>
+        <v>897806</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897766.html</t>
+          <t>https://text.khl.ru/text/897806.html</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J23" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="K23" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P23" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q23" t="n">
+        <v>28</v>
+      </c>
+      <c r="R23" t="n">
         <v>18</v>
       </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
       <c r="S23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="U23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V23" t="n">
         <v>4</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AA23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>60</v>
+        <v>54.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>21.4</v>
+        <v>62.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="AH23" t="n">
-        <v>14.3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897725</v>
+        <v>897799</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897725.html</t>
+          <t>https://text.khl.ru/text/897799.html</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>31</v>
+      </c>
+      <c r="K24" t="n">
+        <v>58</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
         <v>6</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>44</v>
-      </c>
-      <c r="J24" t="n">
-        <v>24</v>
-      </c>
-      <c r="K24" t="n">
-        <v>68</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>10</v>
-      </c>
       <c r="P24" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q24" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="R24" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="S24" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T24" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="U24" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="V24" t="n">
         <v>5</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z24" t="n">
         <v>6</v>
       </c>
-      <c r="Z24" t="n">
-        <v>19</v>
-      </c>
       <c r="AA24" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>57.4</v>
+        <v>50</v>
       </c>
       <c r="AD24" t="n">
-        <v>32.5</v>
+        <v>59.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AG24" t="n">
         <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>13.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>19-10-2025</t>
+          <t>14-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897665</v>
+        <v>897770</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897665.html</t>
+          <t>https://text.khl.ru/text/897770.html</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J25" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
         <v>2</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>2</v>
       </c>
-      <c r="N25" t="n">
-        <v>14</v>
-      </c>
-      <c r="O25" t="n">
-        <v>19</v>
-      </c>
       <c r="P25" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q25" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="R25" t="n">
+        <v>26</v>
+      </c>
+      <c r="S25" t="n">
+        <v>18</v>
+      </c>
+      <c r="T25" t="n">
+        <v>29</v>
+      </c>
+      <c r="U25" t="n">
+        <v>15</v>
+      </c>
+      <c r="V25" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y25" t="n">
         <v>11</v>
       </c>
-      <c r="S25" t="n">
-        <v>13</v>
-      </c>
-      <c r="T25" t="n">
-        <v>12</v>
-      </c>
-      <c r="U25" t="n">
-        <v>14</v>
-      </c>
-      <c r="V25" t="n">
-        <v>5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>8</v>
-      </c>
-      <c r="X25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12</v>
-      </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
@@ -3321,124 +3318,124 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>52.2</v>
+        <v>56.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>46.2</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>25.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16-10-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897652</v>
+        <v>897753</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897652.html</t>
+          <t>https://text.khl.ru/text/897753.html</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
       </c>
       <c r="I26" t="n">
+        <v>32</v>
+      </c>
+      <c r="J26" t="n">
+        <v>52</v>
+      </c>
+      <c r="K26" t="n">
+        <v>84</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>21</v>
+      </c>
+      <c r="O26" t="n">
+        <v>9</v>
+      </c>
+      <c r="P26" t="n">
         <v>33</v>
       </c>
-      <c r="J26" t="n">
-        <v>26</v>
-      </c>
-      <c r="K26" t="n">
-        <v>59</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>8</v>
-      </c>
-      <c r="O26" t="n">
-        <v>8</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
+        <v>36</v>
+      </c>
+      <c r="R26" t="n">
+        <v>17</v>
+      </c>
+      <c r="S26" t="n">
+        <v>6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>41</v>
+      </c>
+      <c r="U26" t="n">
         <v>30</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>30</v>
-      </c>
-      <c r="R26" t="n">
-        <v>10</v>
-      </c>
-      <c r="S26" t="n">
-        <v>9</v>
-      </c>
-      <c r="T26" t="n">
-        <v>9</v>
-      </c>
-      <c r="U26" t="n">
-        <v>14</v>
       </c>
       <c r="V26" t="n">
         <v>4</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Y26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>50</v>
+        <v>47.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>39.1</v>
+        <v>57.7</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -3450,223 +3447,223 @@
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>18.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897763</v>
+        <v>897817</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897763.html</t>
+          <t>https://text.khl.ru/text/897817.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>35</v>
+      </c>
+      <c r="K27" t="n">
+        <v>60</v>
+      </c>
+      <c r="L27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>30</v>
-      </c>
-      <c r="J27" t="n">
-        <v>29</v>
-      </c>
-      <c r="K27" t="n">
-        <v>59</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
+        <v>8</v>
+      </c>
+      <c r="O27" t="n">
         <v>6</v>
       </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
       <c r="P27" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="Q27" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S27" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="T27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U27" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="V27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>2</v>
       </c>
       <c r="X27" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC27" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH27" t="n">
         <v>24</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC27" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>6.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897756</v>
+        <v>897810</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897756.html</t>
+          <t>https://text.khl.ru/text/897810.html</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K28" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>36</v>
+      </c>
+      <c r="R28" t="n">
         <v>10</v>
       </c>
-      <c r="O28" t="n">
-        <v>4</v>
-      </c>
-      <c r="P28" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>25</v>
-      </c>
-      <c r="R28" t="n">
-        <v>18</v>
-      </c>
       <c r="S28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="T28" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="U28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X28" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
         <v>20</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="AD28" t="n">
-        <v>50</v>
+        <v>36.8</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -3675,101 +3672,101 @@
         <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>9.4</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>02-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Салават Юлаев</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Локомотив</t>
-        </is>
-      </c>
       <c r="D29" t="n">
-        <v>897721</v>
+        <v>897763</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897721.html</t>
+          <t>https://text.khl.ru/text/897763.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J29" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K29" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P29" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q29" t="n">
         <v>23</v>
       </c>
-      <c r="Q29" t="n">
-        <v>29</v>
-      </c>
       <c r="R29" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="S29" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T29" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="U29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="Z29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA29" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
@@ -3777,113 +3774,113 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>44.2</v>
+        <v>48.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>64.40000000000001</v>
+        <v>50</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897713</v>
+        <v>897755</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897713.html</t>
+          <t>https://text.khl.ru/text/897755.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J30" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K30" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="O30" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="P30" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q30" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R30" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>19</v>
+      </c>
+      <c r="U30" t="n">
+        <v>29</v>
+      </c>
+      <c r="V30" t="n">
+        <v>11</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
         <v>12</v>
       </c>
-      <c r="T30" t="n">
-        <v>23</v>
-      </c>
-      <c r="U30" t="n">
-        <v>18</v>
-      </c>
-      <c r="V30" t="n">
-        <v>12</v>
-      </c>
-      <c r="W30" t="n">
-        <v>10</v>
-      </c>
-      <c r="X30" t="n">
-        <v>20</v>
-      </c>
       <c r="Y30" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
         <v>5</v>
       </c>
       <c r="AA30" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3891,113 +3888,113 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>36.2</v>
+        <v>45.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>56.1</v>
+        <v>39.6</v>
       </c>
       <c r="AE30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="n">
         <v>1</v>
       </c>
       <c r="AH30" t="n">
-        <v>27.8</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>08-11-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>897705</v>
+        <v>897748</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897705.html</t>
+          <t>https://text.khl.ru/text/897748.html</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K31" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
         <v>8</v>
       </c>
       <c r="P31" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R31" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="U31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V31" t="n">
         <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
         <v>17</v>
       </c>
       <c r="Z31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
@@ -4005,274 +4002,274 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>49.1</v>
+        <v>44.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>65.5</v>
+        <v>42.9</v>
       </c>
       <c r="AE31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG31" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH31" t="n">
-        <v>26.1</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>25-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>897812</v>
+        <v>897817</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897812.html</t>
+          <t>https://text.khl.ru/text/897817.html</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J32" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32" t="n">
         <v>6</v>
       </c>
       <c r="O32" t="n">
+        <v>8</v>
+      </c>
+      <c r="P32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>32</v>
+      </c>
+      <c r="R32" t="n">
+        <v>9</v>
+      </c>
+      <c r="S32" t="n">
+        <v>18</v>
+      </c>
+      <c r="T32" t="n">
+        <v>7</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6</v>
       </c>
-      <c r="P32" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>24</v>
-      </c>
-      <c r="R32" t="n">
-        <v>14</v>
-      </c>
-      <c r="S32" t="n">
-        <v>8</v>
-      </c>
-      <c r="T32" t="n">
+      <c r="Z32" t="n">
         <v>10</v>
       </c>
-      <c r="U32" t="n">
-        <v>15</v>
-      </c>
-      <c r="V32" t="n">
-        <v>4</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>5</v>
-      </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>54.7</v>
+        <v>43.9</v>
       </c>
       <c r="AD32" t="n">
-        <v>40</v>
+        <v>41.2</v>
       </c>
       <c r="AE32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG32" t="n">
         <v>0.33</v>
       </c>
-      <c r="AF32" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1</v>
-      </c>
       <c r="AH32" t="n">
-        <v>4.3</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>897769</v>
+        <v>897808</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897769.html</t>
+          <t>https://text.khl.ru/text/897808.html</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J33" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K33" t="n">
         <v>52</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>2</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>17</v>
+      </c>
+      <c r="R33" t="n">
+        <v>12</v>
+      </c>
+      <c r="S33" t="n">
+        <v>14</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>21</v>
+      </c>
+      <c r="V33" t="n">
+        <v>11</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA33" t="n">
         <v>4</v>
       </c>
-      <c r="O33" t="n">
-        <v>12</v>
-      </c>
-      <c r="P33" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>22</v>
-      </c>
-      <c r="R33" t="n">
-        <v>10</v>
-      </c>
-      <c r="S33" t="n">
-        <v>21</v>
-      </c>
-      <c r="T33" t="n">
-        <v>14</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>8</v>
-      </c>
-      <c r="W33" t="n">
-        <v>4</v>
-      </c>
-      <c r="X33" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>3</v>
-      </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>56.9</v>
+        <v>60.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>87.5</v>
+        <v>4.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
         <v>1</v>
       </c>
       <c r="AH33" t="n">
-        <v>11.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>897762</v>
+        <v>897796</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897796.html</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4282,130 +4279,130 @@
         <v>3</v>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J34" t="n">
+        <v>30</v>
+      </c>
+      <c r="K34" t="n">
+        <v>60</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q34" t="n">
         <v>32</v>
       </c>
-      <c r="K34" t="n">
-        <v>59</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>11</v>
-      </c>
-      <c r="O34" t="n">
-        <v>21</v>
-      </c>
-      <c r="P34" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>36</v>
-      </c>
       <c r="R34" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S34" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T34" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="U34" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W34" t="n">
         <v>3</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>41.9</v>
+        <v>36</v>
       </c>
       <c r="AD34" t="n">
-        <v>55.3</v>
+        <v>29.4</v>
       </c>
       <c r="AE34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="n">
         <v>1</v>
       </c>
       <c r="AH34" t="n">
-        <v>11.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>897752</v>
+        <v>897785</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897752.html</t>
+          <t>https://text.khl.ru/text/897785.html</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="J35" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K35" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -4414,58 +4411,58 @@
         <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O35" t="n">
         <v>6</v>
       </c>
       <c r="P35" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Q35" t="n">
+        <v>35</v>
+      </c>
+      <c r="R35" t="n">
+        <v>13</v>
+      </c>
+      <c r="S35" t="n">
+        <v>12</v>
+      </c>
+      <c r="T35" t="n">
+        <v>5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>15</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3</v>
+      </c>
+      <c r="X35" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AD35" t="n">
         <v>25</v>
       </c>
-      <c r="R35" t="n">
-        <v>15</v>
-      </c>
-      <c r="S35" t="n">
-        <v>23</v>
-      </c>
-      <c r="T35" t="n">
-        <v>10</v>
-      </c>
-      <c r="U35" t="n">
-        <v>8</v>
-      </c>
-      <c r="V35" t="n">
-        <v>3</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1</v>
-      </c>
-      <c r="X35" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC35" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>55.6</v>
-      </c>
       <c r="AE35" t="n">
         <v>0</v>
       </c>
@@ -4473,21 +4470,21 @@
         <v>0</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AH35" t="n">
-        <v>13</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4496,203 +4493,203 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>897699</v>
+        <v>897777</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897699.html</t>
+          <t>https://text.khl.ru/text/897777.html</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
+        <v>22</v>
+      </c>
+      <c r="J36" t="n">
+        <v>27</v>
+      </c>
+      <c r="K36" t="n">
+        <v>49</v>
+      </c>
+      <c r="L36" t="n">
         <v>2</v>
       </c>
-      <c r="I36" t="n">
-        <v>20</v>
-      </c>
-      <c r="J36" t="n">
-        <v>26</v>
-      </c>
-      <c r="K36" t="n">
-        <v>46</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3</v>
-      </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>8</v>
+      </c>
+      <c r="O36" t="n">
         <v>6</v>
       </c>
-      <c r="O36" t="n">
-        <v>10</v>
-      </c>
       <c r="P36" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="Q36" t="n">
         <v>29</v>
       </c>
       <c r="R36" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T36" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="U36" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V36" t="n">
+        <v>1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2</v>
+      </c>
+      <c r="X36" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z36" t="n">
         <v>5</v>
       </c>
-      <c r="W36" t="n">
+      <c r="AA36" t="n">
         <v>5</v>
       </c>
-      <c r="X36" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>2</v>
-      </c>
       <c r="AB36" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>53.2</v>
+        <v>44.2</v>
       </c>
       <c r="AD36" t="n">
-        <v>59.3</v>
+        <v>58.8</v>
       </c>
       <c r="AE36" t="n">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH36" t="n">
-        <v>15</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>24-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>897810</v>
+        <v>897797</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897810.html</t>
+          <t>https://text.khl.ru/text/897797.html</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K37" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>8</v>
+      </c>
+      <c r="P37" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>36</v>
+      </c>
+      <c r="R37" t="n">
+        <v>17</v>
+      </c>
+      <c r="S37" t="n">
         <v>6</v>
       </c>
-      <c r="O37" t="n">
-        <v>6</v>
-      </c>
-      <c r="P37" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="T37" t="n">
+        <v>26</v>
+      </c>
+      <c r="U37" t="n">
+        <v>19</v>
+      </c>
+      <c r="V37" t="n">
+        <v>15</v>
+      </c>
+      <c r="W37" t="n">
+        <v>16</v>
+      </c>
+      <c r="X37" t="n">
         <v>14</v>
       </c>
-      <c r="R37" t="n">
+      <c r="Y37" t="n">
         <v>13</v>
       </c>
-      <c r="S37" t="n">
-        <v>10</v>
-      </c>
-      <c r="T37" t="n">
-        <v>12</v>
-      </c>
-      <c r="U37" t="n">
-        <v>7</v>
-      </c>
-      <c r="V37" t="n">
-        <v>6</v>
-      </c>
-      <c r="W37" t="n">
-        <v>6</v>
-      </c>
-      <c r="X37" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>21</v>
-      </c>
       <c r="Z37" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AA37" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>72</v>
+        <v>42.9</v>
       </c>
       <c r="AD37" t="n">
-        <v>63.2</v>
+        <v>57.8</v>
       </c>
       <c r="AE37" t="n">
         <v>0</v>
@@ -4701,373 +4698,376 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH37" t="n">
-        <v>4.3</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>897758</v>
+        <v>897788</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897758.html</t>
+          <t>https://text.khl.ru/text/897788.html</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J38" t="n">
         <v>34</v>
       </c>
       <c r="K38" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P38" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Q38" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="R38" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S38" t="n">
+        <v>21</v>
+      </c>
+      <c r="T38" t="n">
+        <v>31</v>
+      </c>
+      <c r="U38" t="n">
+        <v>22</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2</v>
+      </c>
+      <c r="W38" t="n">
         <v>9</v>
       </c>
-      <c r="T38" t="n">
-        <v>14</v>
-      </c>
-      <c r="U38" t="n">
-        <v>6</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1</v>
-      </c>
-      <c r="W38" t="n">
-        <v>5</v>
-      </c>
       <c r="X38" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y38" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="Z38" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AA38" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC38" t="n">
-        <v>46.2</v>
+        <v>45.2</v>
       </c>
       <c r="AD38" t="n">
-        <v>70</v>
+        <v>58.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG38" t="n">
         <v>1</v>
       </c>
       <c r="AH38" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>08-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>897746</v>
+        <v>897779</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897746.html</t>
+          <t>https://text.khl.ru/text/897779.html</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J39" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K39" t="n">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O39" t="n">
         <v>6</v>
       </c>
       <c r="P39" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="Q39" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="R39" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S39" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T39" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="U39" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X39" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Y39" t="n">
         <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>69.8</v>
+        <v>43.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>66.7</v>
+        <v>57.1</v>
       </c>
       <c r="AE39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.67</v>
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.33</v>
       </c>
       <c r="AH39" t="n">
-        <v>12.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>897736</v>
+        <v>897764</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897736.html</t>
+          <t>https://text.khl.ru/text/897764.html</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="J40" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K40" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="P40" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q40" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="R40" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="S40" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="T40" t="n">
         <v>14</v>
       </c>
       <c r="U40" t="n">
+        <v>17</v>
+      </c>
+      <c r="V40" t="n">
+        <v>9</v>
+      </c>
+      <c r="W40" t="n">
+        <v>10</v>
+      </c>
+      <c r="X40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z40" t="n">
         <v>13</v>
       </c>
-      <c r="V40" t="n">
-        <v>2</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1</v>
-      </c>
-      <c r="X40" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>33</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>2</v>
-      </c>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC40" t="n">
-        <v>54.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="AD40" t="n">
-        <v>51.9</v>
+        <v>45.2</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="AG40" t="n">
         <v>1</v>
       </c>
       <c r="AH40" t="n">
-        <v>3.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>897691</v>
+        <v>897754</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897691.html</t>
+          <t>https://text.khl.ru/text/897754.html</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -5080,84 +5080,1224 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
+        <v>31</v>
+      </c>
+      <c r="J41" t="n">
+        <v>30</v>
+      </c>
+      <c r="K41" t="n">
+        <v>61</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>41</v>
+      </c>
+      <c r="R41" t="n">
+        <v>14</v>
+      </c>
+      <c r="S41" t="n">
+        <v>11</v>
+      </c>
+      <c r="T41" t="n">
+        <v>28</v>
+      </c>
+      <c r="U41" t="n">
+        <v>24</v>
+      </c>
+      <c r="V41" t="n">
+        <v>8</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7</v>
+      </c>
+      <c r="X41" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC41" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>26-11-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>897816</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897816.html</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>48</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27</v>
+      </c>
+      <c r="K42" t="n">
+        <v>75</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>13</v>
+      </c>
+      <c r="P42" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>29</v>
+      </c>
+      <c r="R42" t="n">
+        <v>14</v>
+      </c>
+      <c r="S42" t="n">
+        <v>17</v>
+      </c>
+      <c r="T42" t="n">
+        <v>15</v>
+      </c>
+      <c r="U42" t="n">
+        <v>20</v>
+      </c>
+      <c r="V42" t="n">
+        <v>9</v>
+      </c>
+      <c r="W42" t="n">
+        <v>6</v>
+      </c>
+      <c r="X42" t="n">
         <v>21</v>
       </c>
-      <c r="J41" t="n">
+      <c r="Y42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC42" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>897793</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897793.html</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>48</v>
+      </c>
+      <c r="J43" t="n">
+        <v>24</v>
+      </c>
+      <c r="K43" t="n">
+        <v>72</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>8</v>
+      </c>
+      <c r="P43" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>19</v>
+      </c>
+      <c r="R43" t="n">
+        <v>12</v>
+      </c>
+      <c r="S43" t="n">
+        <v>32</v>
+      </c>
+      <c r="T43" t="n">
+        <v>14</v>
+      </c>
+      <c r="U43" t="n">
+        <v>12</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2</v>
+      </c>
+      <c r="W43" t="n">
+        <v>8</v>
+      </c>
+      <c r="X43" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC43" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>897784</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897784.html</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>49</v>
+      </c>
+      <c r="J44" t="n">
         <v>33</v>
       </c>
-      <c r="K41" t="n">
-        <v>54</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="n">
+      <c r="K44" t="n">
+        <v>82</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>6</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O44" t="n">
         <v>6</v>
       </c>
-      <c r="P41" t="n">
+      <c r="P44" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>19</v>
+      </c>
+      <c r="R44" t="n">
+        <v>8</v>
+      </c>
+      <c r="S44" t="n">
+        <v>17</v>
+      </c>
+      <c r="T44" t="n">
+        <v>15</v>
+      </c>
+      <c r="U44" t="n">
+        <v>10</v>
+      </c>
+      <c r="V44" t="n">
+        <v>7</v>
+      </c>
+      <c r="W44" t="n">
+        <v>6</v>
+      </c>
+      <c r="X44" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC44" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>16-11-2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>897774</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897774.html</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>40</v>
+      </c>
+      <c r="J45" t="n">
+        <v>29</v>
+      </c>
+      <c r="K45" t="n">
+        <v>69</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12</v>
+      </c>
+      <c r="O45" t="n">
+        <v>12</v>
+      </c>
+      <c r="P45" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>25</v>
+      </c>
+      <c r="R45" t="n">
+        <v>11</v>
+      </c>
+      <c r="S45" t="n">
+        <v>19</v>
+      </c>
+      <c r="T45" t="n">
+        <v>18</v>
+      </c>
+      <c r="U45" t="n">
+        <v>15</v>
+      </c>
+      <c r="V45" t="n">
+        <v>4</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC45" t="n">
+        <v>59</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>897734</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897734.html</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>41</v>
+      </c>
+      <c r="J46" t="n">
+        <v>19</v>
+      </c>
+      <c r="K46" t="n">
+        <v>60</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4</v>
+      </c>
+      <c r="P46" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>27</v>
+      </c>
+      <c r="R46" t="n">
+        <v>18</v>
+      </c>
+      <c r="S46" t="n">
+        <v>30</v>
+      </c>
+      <c r="T46" t="n">
+        <v>18</v>
+      </c>
+      <c r="U46" t="n">
+        <v>23</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4</v>
+      </c>
+      <c r="W46" t="n">
+        <v>7</v>
+      </c>
+      <c r="X46" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC46" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>12-11-2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>897764</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897764.html</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>43</v>
+      </c>
+      <c r="K47" t="n">
+        <v>67</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>11</v>
+      </c>
+      <c r="O47" t="n">
+        <v>4</v>
+      </c>
+      <c r="P47" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>38</v>
+      </c>
+      <c r="R47" t="n">
         <v>31</v>
       </c>
-      <c r="Q41" t="n">
-        <v>30</v>
-      </c>
-      <c r="R41" t="n">
-        <v>25</v>
-      </c>
-      <c r="S41" t="n">
+      <c r="S47" t="n">
+        <v>7</v>
+      </c>
+      <c r="T47" t="n">
+        <v>17</v>
+      </c>
+      <c r="U47" t="n">
         <v>14</v>
       </c>
-      <c r="T41" t="n">
-        <v>12</v>
-      </c>
-      <c r="U41" t="n">
-        <v>25</v>
-      </c>
-      <c r="V41" t="n">
+      <c r="V47" t="n">
+        <v>10</v>
+      </c>
+      <c r="W47" t="n">
+        <v>9</v>
+      </c>
+      <c r="X47" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC47" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>897757</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897757.html</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
         <v>5</v>
       </c>
-      <c r="W41" t="n">
+      <c r="I48" t="n">
+        <v>40</v>
+      </c>
+      <c r="J48" t="n">
+        <v>29</v>
+      </c>
+      <c r="K48" t="n">
+        <v>69</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>10</v>
+      </c>
+      <c r="P48" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>28</v>
+      </c>
+      <c r="R48" t="n">
+        <v>15</v>
+      </c>
+      <c r="S48" t="n">
+        <v>15</v>
+      </c>
+      <c r="T48" t="n">
+        <v>6</v>
+      </c>
+      <c r="U48" t="n">
+        <v>16</v>
+      </c>
+      <c r="V48" t="n">
+        <v>5</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC48" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Динамо Мн</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>897698</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897698.html</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>18</v>
+      </c>
+      <c r="J49" t="n">
+        <v>41</v>
+      </c>
+      <c r="K49" t="n">
+        <v>59</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
         <v>4</v>
       </c>
-      <c r="X41" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y41" t="n">
+      <c r="N49" t="n">
+        <v>5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>6</v>
+      </c>
+      <c r="P49" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>36</v>
+      </c>
+      <c r="R49" t="n">
+        <v>17</v>
+      </c>
+      <c r="S49" t="n">
+        <v>22</v>
+      </c>
+      <c r="T49" t="n">
+        <v>20</v>
+      </c>
+      <c r="U49" t="n">
+        <v>17</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC49" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>26-10-2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Спартак</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>897694</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897694.html</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>34</v>
+      </c>
+      <c r="J50" t="n">
+        <v>42</v>
+      </c>
+      <c r="K50" t="n">
+        <v>76</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10</v>
+      </c>
+      <c r="O50" t="n">
+        <v>6</v>
+      </c>
+      <c r="P50" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q50" t="n">
         <v>31</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="R50" t="n">
+        <v>21</v>
+      </c>
+      <c r="S50" t="n">
+        <v>14</v>
+      </c>
+      <c r="T50" t="n">
+        <v>23</v>
+      </c>
+      <c r="U50" t="n">
+        <v>10</v>
+      </c>
+      <c r="V50" t="n">
         <v>4</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="W50" t="n">
+        <v>6</v>
+      </c>
+      <c r="X50" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>42</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA50" t="n">
         <v>2</v>
       </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC41" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC50" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>24-10-2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>897685</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897685.html</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+      <c r="I51" t="n">
+        <v>26</v>
+      </c>
+      <c r="J51" t="n">
+        <v>40</v>
+      </c>
+      <c r="K51" t="n">
+        <v>66</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8</v>
+      </c>
+      <c r="P51" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>26</v>
+      </c>
+      <c r="R51" t="n">
+        <v>15</v>
+      </c>
+      <c r="S51" t="n">
+        <v>16</v>
+      </c>
+      <c r="T51" t="n">
+        <v>36</v>
+      </c>
+      <c r="U51" t="n">
+        <v>11</v>
+      </c>
+      <c r="V51" t="n">
+        <v>4</v>
+      </c>
+      <c r="W51" t="n">
+        <v>7</v>
+      </c>
+      <c r="X51" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC51" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG51" t="n">
         <v>0.67</v>
       </c>
-      <c r="AH41" t="n">
-        <v>9.5</v>
+      <c r="AH51" t="n">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -5171,7 +6311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5324,705 +6464,881 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="G2" t="n">
-        <v>33.8</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>59.2</v>
+        <v>40</v>
       </c>
       <c r="I2" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>22</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61.72000000000001</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.02600000000000001</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.9</v>
       </c>
-      <c r="J2" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>77.70000000000002</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="O2" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-1.409999999999999</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.228</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.02699999999999999</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.006666666666666672</v>
-      </c>
-      <c r="U2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-2.2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3</v>
-      </c>
       <c r="Y2" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>11.58</v>
+        <v>10.02</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.33</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.5999999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>27.6</v>
+        <v>29.8</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8</v>
+        <v>65.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>-4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>36.8</v>
+        <v>27.4</v>
       </c>
       <c r="K3" t="n">
-        <v>12.7</v>
+        <v>32.3</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="M3" t="n">
-        <v>12.6</v>
+        <v>14.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="O3" t="n">
-        <v>42.77999999999999</v>
+        <v>48.73999999999999</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3700000000000003</v>
+        <v>0.879999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.134</v>
+        <v>0.24</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.016</v>
+        <v>0.03000000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8440000000000001</v>
+        <v>0.7939999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0.006000000000000005</v>
+        <v>0.06200000000000001</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>7.8</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.2</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>-1.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.8</v>
+        <v>12.42</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.759999999999999</v>
+        <v>3.259999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="n">
-        <v>31.2</v>
+        <v>24.8</v>
       </c>
       <c r="H4" t="n">
-        <v>13.7</v>
+        <v>77.7</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="J4" t="n">
-        <v>31.6</v>
+        <v>36</v>
       </c>
       <c r="K4" t="n">
-        <v>9.300000000000001</v>
+        <v>168.5</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.3</v>
+        <v>5.7</v>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>20.2</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.1</v>
+        <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>47.64</v>
+        <v>43.84</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.74</v>
+        <v>-1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.35</v>
+        <v>0.1825</v>
       </c>
       <c r="R4" t="n">
-        <v>0.25</v>
+        <v>0.02966666666666667</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8699999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0.025</v>
+        <v>-0.06200000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.2</v>
+        <v>-1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>6.2</v>
+        <v>12.4</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>14.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AA4" t="n">
-        <v>9</v>
+        <v>13.08</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6599999999999999</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>19.6</v>
+        <v>28.6</v>
       </c>
       <c r="H5" t="n">
-        <v>27.3</v>
+        <v>43.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>-0.1</v>
       </c>
       <c r="J5" t="n">
-        <v>37.2</v>
+        <v>25.6</v>
       </c>
       <c r="K5" t="n">
-        <v>66.69999999999999</v>
+        <v>44.3</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M5" t="n">
-        <v>18.4</v>
+        <v>21.8</v>
       </c>
       <c r="N5" t="n">
-        <v>2.7</v>
+        <v>-1.5</v>
       </c>
       <c r="O5" t="n">
-        <v>41.45999999999999</v>
+        <v>59.68000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2700000000000003</v>
+        <v>3.350000000000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.206</v>
+        <v>0.028</v>
       </c>
       <c r="R5" t="n">
-        <v>0.046</v>
+        <v>-0.014</v>
       </c>
       <c r="S5" t="n">
-        <v>0.728</v>
+        <v>0.908</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.1</v>
+        <v>0.01800000000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>4.6</v>
+        <v>6.8</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.7</v>
+        <v>-1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>9.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>15.68</v>
+        <v>6.580000000000001</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3100000000000002</v>
+        <v>0.7999999999999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="D6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4</v>
+        <v>0.3</v>
       </c>
       <c r="G6" t="n">
-        <v>39</v>
+        <v>31.6</v>
       </c>
       <c r="H6" t="n">
-        <v>22.5</v>
+        <v>28.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>21.6</v>
+        <v>36</v>
       </c>
       <c r="K6" t="n">
-        <v>25.3</v>
+        <v>88.5</v>
       </c>
       <c r="L6" t="n">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="M6" t="n">
-        <v>8.6</v>
+        <v>26.8</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.5</v>
+        <v>-4.8</v>
       </c>
       <c r="O6" t="n">
-        <v>53.02</v>
+        <v>49.3</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1200000000000003</v>
+        <v>-2.28</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.316</v>
+        <v>0.106</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="S6" t="n">
-        <v>0.842</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.021</v>
+        <v>-0.012</v>
       </c>
       <c r="U6" t="n">
-        <v>12.2</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>-1.4</v>
+        <v>0.2</v>
       </c>
       <c r="W6" t="n">
-        <v>8.4</v>
+        <v>10.6</v>
       </c>
       <c r="X6" t="n">
-        <v>-1</v>
+        <v>0.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.4</v>
+        <v>9.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.82</v>
+        <v>7.94</v>
       </c>
       <c r="AB6" t="n">
-        <v>-3.32</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="E7" t="n">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="F7" t="n">
         <v>0.5</v>
       </c>
       <c r="G7" t="n">
-        <v>23.8</v>
+        <v>26.8</v>
       </c>
       <c r="H7" t="n">
-        <v>50.2</v>
+        <v>10.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>-1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>31.8</v>
+        <v>32.2</v>
       </c>
       <c r="K7" t="n">
-        <v>45.7</v>
+        <v>54.7</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.3</v>
+        <v>-1</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.7</v>
+        <v>-1</v>
       </c>
       <c r="O7" t="n">
-        <v>46.32</v>
+        <v>44.76</v>
       </c>
       <c r="P7" t="n">
-        <v>1.88</v>
+        <v>0.4500000000000007</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.136</v>
+        <v>0.25</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.118</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="S7" t="n">
-        <v>0.866</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.08599999999999999</v>
+        <v>-0.01000000000000001</v>
       </c>
       <c r="U7" t="n">
-        <v>8.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="V7" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>-3</v>
+        <v>-0.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>15.24</v>
+        <v>11.66</v>
       </c>
       <c r="AB7" t="n">
-        <v>-5.720000000000001</v>
+        <v>4.220000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G8" t="n">
-        <v>28.6</v>
+        <v>27.6</v>
       </c>
       <c r="H8" t="n">
-        <v>103.3</v>
+        <v>31.3</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.3</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>-0.1</v>
       </c>
       <c r="M8" t="n">
-        <v>14.2</v>
+        <v>5.6</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="O8" t="n">
-        <v>52.86</v>
+        <v>45.06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2299999999999997</v>
+        <v>1.919999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.272</v>
+        <v>0.184</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.02099999999999999</v>
+        <v>-0.08399999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8940000000000001</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.08599999999999999</v>
+        <v>-0.109</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="V8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0.4</v>
       </c>
-      <c r="W8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="X8" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>-0.2</v>
-      </c>
       <c r="AA8" t="n">
-        <v>10.9</v>
+        <v>12.94</v>
       </c>
       <c r="AB8" t="n">
-        <v>-2.33</v>
+        <v>-2.489999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D9" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.3300000000000004</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.03000000000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.03999999999999999</v>
+      </c>
+      <c r="U9" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.4</v>
       </c>
-      <c r="E9" t="n">
+      <c r="Y9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.980000000000001</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.5800000000000002</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>16</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>57.54</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V10" t="n">
         <v>-0.1</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="W10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>74.80000000000001</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.2</v>
       </c>
-      <c r="J9" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.9175</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.121</v>
-      </c>
-      <c r="U9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X9" t="n">
-        <v>-0.2</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>-0.64</v>
+      <c r="J11" t="n">
+        <v>39</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-3.64</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.083</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.004000000000000004</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -609,320 +609,320 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>27-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897820</v>
+        <v>897818</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897820.html</t>
+          <t>https://text.khl.ru/text/897818.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
+        <v>42</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27</v>
+      </c>
+      <c r="K2" t="n">
+        <v>69</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>11</v>
+      </c>
+      <c r="P2" t="n">
         <v>35</v>
       </c>
-      <c r="J2" t="n">
-        <v>25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>60</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6</v>
-      </c>
-      <c r="P2" t="n">
-        <v>30</v>
-      </c>
       <c r="Q2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" t="n">
         <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>52.6</v>
+        <v>55.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>56.5</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>11-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Автомобилист</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Трактор</t>
-        </is>
-      </c>
       <c r="D3" t="n">
-        <v>897774</v>
+        <v>897761</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897774.html</t>
+          <t>https://text.khl.ru/text/897761.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K3" t="n">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>35</v>
+      </c>
+      <c r="P3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>22</v>
+      </c>
+      <c r="R3" t="n">
+        <v>14</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16</v>
+      </c>
+      <c r="T3" t="n">
+        <v>13</v>
+      </c>
+      <c r="U3" t="n">
+        <v>16</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
         <v>12</v>
       </c>
-      <c r="O3" t="n">
-        <v>12</v>
-      </c>
-      <c r="P3" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>36</v>
-      </c>
-      <c r="R3" t="n">
-        <v>19</v>
-      </c>
-      <c r="S3" t="n">
-        <v>11</v>
-      </c>
-      <c r="T3" t="n">
-        <v>15</v>
-      </c>
-      <c r="U3" t="n">
-        <v>18</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AE3" t="n">
         <v>2</v>
       </c>
-      <c r="W3" t="n">
-        <v>4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>45.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
       <c r="AF3" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="AG3" t="n">
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897761</v>
+        <v>897751</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897761.html</t>
+          <t>https://text.khl.ru/text/897751.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>62</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>26</v>
+      </c>
+      <c r="R4" t="n">
+        <v>13</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12</v>
+      </c>
+      <c r="V4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="W4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
-        <v>21</v>
-      </c>
-      <c r="J4" t="n">
-        <v>33</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>35</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>30</v>
-      </c>
-      <c r="R4" t="n">
-        <v>16</v>
-      </c>
-      <c r="S4" t="n">
-        <v>14</v>
-      </c>
-      <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
-        <v>13</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3</v>
-      </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>42.3</v>
+        <v>56.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>55.2</v>
+        <v>45.5</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -942,112 +942,112 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897749</v>
+        <v>897743</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897749.html</t>
+          <t>https://text.khl.ru/text/897743.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J5" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K5" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R5" t="n">
         <v>15</v>
       </c>
       <c r="S5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="V5" t="n">
         <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>45.5</v>
+        <v>36.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>45.5</v>
+        <v>41.7</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1056,608 +1056,608 @@
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897742</v>
+        <v>897732</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897742.html</t>
+          <t>https://text.khl.ru/text/897732.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
+        <v>4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21</v>
+      </c>
+      <c r="R6" t="n">
+        <v>8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>19</v>
+      </c>
+      <c r="T6" t="n">
         <v>12</v>
       </c>
-      <c r="O6" t="n">
-        <v>8</v>
-      </c>
-      <c r="P6" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>37</v>
-      </c>
-      <c r="R6" t="n">
-        <v>11</v>
-      </c>
-      <c r="S6" t="n">
-        <v>13</v>
-      </c>
-      <c r="T6" t="n">
-        <v>8</v>
-      </c>
       <c r="U6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W6" t="n">
         <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>3</v>
       </c>
-      <c r="AA6" t="n">
-        <v>7</v>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>42.2</v>
+        <v>61.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>50</v>
+        <v>57.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.5</v>
       </c>
-      <c r="AG6" t="n">
-        <v>0.83</v>
-      </c>
       <c r="AH6" t="n">
-        <v>8.300000000000001</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>27-11-2025</t>
+          <t>28-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897819</v>
+        <v>897823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897819.html</t>
+          <t>https://text.khl.ru/text/897823.html</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K7" t="n">
         <v>68</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>12</v>
+      </c>
+      <c r="P7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>16</v>
+      </c>
+      <c r="S7" t="n">
+        <v>11</v>
+      </c>
+      <c r="T7" t="n">
+        <v>18</v>
+      </c>
+      <c r="U7" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
+      <c r="V7" t="n">
+        <v>11</v>
+      </c>
+      <c r="W7" t="n">
+        <v>8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="n">
         <v>4</v>
       </c>
-      <c r="P7" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>28</v>
-      </c>
-      <c r="R7" t="n">
-        <v>21</v>
-      </c>
-      <c r="S7" t="n">
-        <v>10</v>
-      </c>
-      <c r="T7" t="n">
-        <v>19</v>
-      </c>
-      <c r="U7" t="n">
-        <v>17</v>
-      </c>
-      <c r="V7" t="n">
-        <v>10</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AA7" t="n">
         <v>4</v>
       </c>
-      <c r="X7" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>5</v>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>56.2</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>52.8</v>
+        <v>64.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>12.1</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897782</v>
+        <v>897786</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897782.html</t>
+          <t>https://text.khl.ru/text/897786.html</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>40</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>34</v>
-      </c>
-      <c r="K8" t="n">
-        <v>62</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="R8" t="n">
+        <v>8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>17</v>
+      </c>
+      <c r="T8" t="n">
+        <v>19</v>
+      </c>
+      <c r="U8" t="n">
+        <v>22</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3</v>
+      </c>
+      <c r="X8" t="n">
         <v>18</v>
       </c>
-      <c r="S8" t="n">
-        <v>13</v>
-      </c>
-      <c r="T8" t="n">
-        <v>31</v>
-      </c>
-      <c r="U8" t="n">
-        <v>24</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6</v>
-      </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Z8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA8" t="n">
         <v>3</v>
       </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>50</v>
+        <v>52.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>56.4</v>
+        <v>46.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="AG8" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897772</v>
+        <v>897778</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897772.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J9" t="n">
         <v>27</v>
       </c>
       <c r="K9" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P9" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="R9" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
+        <v>25</v>
+      </c>
+      <c r="T9" t="n">
+        <v>36</v>
+      </c>
+      <c r="U9" t="n">
         <v>13</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y9" t="n">
         <v>13</v>
       </c>
-      <c r="U9" t="n">
-        <v>20</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="Z9" t="n">
         <v>6</v>
       </c>
-      <c r="W9" t="n">
-        <v>5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>3</v>
-      </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>42</v>
+        <v>64.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>39.4</v>
+        <v>73.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="AG9" t="n">
         <v>1</v>
       </c>
       <c r="AH9" t="n">
-        <v>12.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>31-10-2025</t>
+          <t>13-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897712</v>
+        <v>897768</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897712.html</t>
+          <t>https://text.khl.ru/text/897768.html</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>60</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
         <v>3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="N10" t="n">
         <v>6</v>
       </c>
-      <c r="I10" t="n">
-        <v>28</v>
-      </c>
-      <c r="J10" t="n">
-        <v>33</v>
-      </c>
-      <c r="K10" t="n">
-        <v>61</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>2</v>
       </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>24</v>
+      </c>
+      <c r="R10" t="n">
         <v>8</v>
       </c>
-      <c r="P10" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>40</v>
-      </c>
-      <c r="R10" t="n">
-        <v>24</v>
-      </c>
       <c r="S10" t="n">
+        <v>17</v>
+      </c>
+      <c r="T10" t="n">
+        <v>22</v>
+      </c>
+      <c r="U10" t="n">
         <v>20</v>
       </c>
-      <c r="T10" t="n">
-        <v>24</v>
-      </c>
-      <c r="U10" t="n">
-        <v>22</v>
-      </c>
       <c r="V10" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z10" t="n">
         <v>2</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AA10" t="n">
         <v>3</v>
       </c>
-      <c r="X10" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>43.7</v>
+        <v>59.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>52.2</v>
+        <v>52.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>10.7</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>29-10-2025</t>
+          <t>01-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897707</v>
+        <v>897716</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897707.html</t>
+          <t>https://text.khl.ru/text/897716.html</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -1666,175 +1666,175 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
         <v>8</v>
       </c>
-      <c r="O11" t="n">
-        <v>6</v>
-      </c>
       <c r="P11" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="R11" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="S11" t="n">
+        <v>23</v>
+      </c>
+      <c r="T11" t="n">
+        <v>15</v>
+      </c>
+      <c r="U11" t="n">
         <v>22</v>
       </c>
-      <c r="T11" t="n">
-        <v>18</v>
-      </c>
-      <c r="U11" t="n">
-        <v>25</v>
-      </c>
       <c r="V11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA11" t="n">
         <v>3</v>
       </c>
-      <c r="X11" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2</v>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>45.6</v>
+        <v>65.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>41.9</v>
+        <v>40.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>27-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897822</v>
+        <v>897775</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897822.html</t>
+          <t>https://text.khl.ru/text/897775.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K12" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
         <v>8</v>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R12" t="n">
+        <v>12</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
         <v>19</v>
       </c>
-      <c r="S12" t="n">
-        <v>8</v>
-      </c>
-      <c r="T12" t="n">
-        <v>9</v>
-      </c>
-      <c r="U12" t="n">
-        <v>9</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6</v>
-      </c>
-      <c r="X12" t="n">
-        <v>14</v>
-      </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="Z12" t="n">
         <v>4</v>
       </c>
       <c r="AA12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
@@ -1842,261 +1842,261 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>29.2</v>
+        <v>44.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>50</v>
+        <v>54.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AH12" t="n">
-        <v>10.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>25-11-2025</t>
+          <t>11-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897813</v>
+        <v>897760</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897813.html</t>
+          <t>https://text.khl.ru/text/897760.html</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>8</v>
+      </c>
+      <c r="P13" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>18</v>
+      </c>
+      <c r="R13" t="n">
+        <v>9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>17</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>7</v>
+      </c>
+      <c r="V13" t="n">
         <v>4</v>
       </c>
-      <c r="O13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P13" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>33</v>
-      </c>
-      <c r="R13" t="n">
-        <v>15</v>
-      </c>
-      <c r="S13" t="n">
-        <v>15</v>
-      </c>
-      <c r="T13" t="n">
-        <v>28</v>
-      </c>
-      <c r="U13" t="n">
-        <v>25</v>
-      </c>
-      <c r="V13" t="n">
-        <v>7</v>
-      </c>
       <c r="W13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>41.1</v>
+        <v>60</v>
       </c>
       <c r="AD13" t="n">
-        <v>52.8</v>
+        <v>46.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>23-11-2025</t>
+          <t>09-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897808</v>
+        <v>897749</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897808.html</t>
+          <t>https://text.khl.ru/text/897749.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>39</v>
+      </c>
+      <c r="K14" t="n">
+        <v>72</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>2</v>
       </c>
-      <c r="I14" t="n">
-        <v>23</v>
-      </c>
-      <c r="J14" t="n">
-        <v>29</v>
-      </c>
-      <c r="K14" t="n">
-        <v>52</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>30</v>
+      </c>
+      <c r="R14" t="n">
+        <v>11</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15</v>
+      </c>
+      <c r="T14" t="n">
         <v>6</v>
       </c>
-      <c r="O14" t="n">
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7</v>
+      </c>
+      <c r="W14" t="n">
         <v>2</v>
       </c>
-      <c r="P14" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>26</v>
-      </c>
-      <c r="R14" t="n">
-        <v>14</v>
-      </c>
-      <c r="S14" t="n">
-        <v>12</v>
-      </c>
-      <c r="T14" t="n">
-        <v>21</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1</v>
-      </c>
-      <c r="W14" t="n">
-        <v>11</v>
-      </c>
       <c r="X14" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
         <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>39.5</v>
+        <v>54.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>95.5</v>
+        <v>54.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG14" t="n">
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2105,78 +2105,78 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897766</v>
+        <v>897740</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897766.html</t>
+          <t>https://text.khl.ru/text/897740.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>29</v>
+      </c>
+      <c r="J15" t="n">
+        <v>31</v>
+      </c>
+      <c r="K15" t="n">
+        <v>60</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
         <v>6</v>
       </c>
-      <c r="I15" t="n">
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>24</v>
+      </c>
+      <c r="R15" t="n">
+        <v>12</v>
+      </c>
+      <c r="S15" t="n">
+        <v>11</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" t="n">
         <v>14</v>
       </c>
-      <c r="J15" t="n">
-        <v>42</v>
-      </c>
-      <c r="K15" t="n">
-        <v>56</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="Y15" t="n">
         <v>3</v>
       </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>27</v>
-      </c>
-      <c r="R15" t="n">
-        <v>17</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>11</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
-      <c r="V15" t="n">
-        <v>3</v>
-      </c>
-      <c r="W15" t="n">
-        <v>4</v>
-      </c>
-      <c r="X15" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>8</v>
-      </c>
       <c r="Z15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
@@ -2184,113 +2184,113 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>40</v>
+        <v>55.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>78.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.14</v>
+        <v>0.67</v>
       </c>
       <c r="AH15" t="n">
-        <v>28.6</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>05-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>Авангард</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897756</v>
+        <v>897731</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897756.html</t>
+          <t>https://text.khl.ru/text/897731.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J16" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K16" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>37</v>
+      </c>
+      <c r="R16" t="n">
+        <v>17</v>
+      </c>
+      <c r="S16" t="n">
         <v>10</v>
       </c>
-      <c r="P16" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>26</v>
-      </c>
-      <c r="R16" t="n">
-        <v>16</v>
-      </c>
-      <c r="S16" t="n">
-        <v>18</v>
-      </c>
       <c r="T16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V16" t="n">
         <v>7</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AA16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
@@ -2298,125 +2298,125 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>49</v>
+        <v>45.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>50</v>
+        <v>61.3</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AG16" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>22.7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>27-11-2025</t>
+          <t>28-11-2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897821</v>
+        <v>897824</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897821.html</t>
+          <t>https://text.khl.ru/text/897824.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>31</v>
+      </c>
+      <c r="J17" t="n">
+        <v>37</v>
+      </c>
+      <c r="K17" t="n">
+        <v>68</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>34</v>
+      </c>
+      <c r="R17" t="n">
+        <v>19</v>
+      </c>
+      <c r="S17" t="n">
+        <v>14</v>
+      </c>
+      <c r="T17" t="n">
+        <v>18</v>
+      </c>
+      <c r="U17" t="n">
+        <v>26</v>
+      </c>
+      <c r="V17" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
-        <v>60</v>
-      </c>
-      <c r="J17" t="n">
-        <v>30</v>
-      </c>
-      <c r="K17" t="n">
-        <v>90</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>14</v>
-      </c>
-      <c r="P17" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>39</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>23</v>
-      </c>
-      <c r="T17" t="n">
-        <v>8</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" t="n">
         <v>20</v>
       </c>
-      <c r="V17" t="n">
-        <v>6</v>
-      </c>
-      <c r="W17" t="n">
-        <v>8</v>
-      </c>
-      <c r="X17" t="n">
-        <v>27</v>
-      </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC17" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AD17" t="n">
         <v>40.9</v>
       </c>
-      <c r="AD17" t="n">
-        <v>28.6</v>
-      </c>
       <c r="AE17" t="n">
         <v>0</v>
       </c>
@@ -2427,50 +2427,50 @@
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>22-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897802</v>
+        <v>897785</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897802.html</t>
+          <t>https://text.khl.ru/text/897785.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K18" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -2479,46 +2479,46 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
         <v>8</v>
       </c>
-      <c r="O18" t="n">
-        <v>18</v>
-      </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q18" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
         <v>13</v>
       </c>
       <c r="T18" t="n">
+        <v>15</v>
+      </c>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" t="n">
         <v>6</v>
       </c>
-      <c r="U18" t="n">
-        <v>16</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3</v>
-      </c>
-      <c r="X18" t="n">
-        <v>7</v>
-      </c>
       <c r="Y18" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2526,113 +2526,113 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>45.5</v>
+        <v>59.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>27.3</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="AG18" t="n">
         <v>1</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>16-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897766</v>
+        <v>897778</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897766.html</t>
+          <t>https://text.khl.ru/text/897778.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J19" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K19" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="S19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="V19" t="n">
         <v>4</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z19" t="n">
         <v>7</v>
       </c>
-      <c r="Z19" t="n">
-        <v>11</v>
-      </c>
       <c r="AA19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
@@ -2640,407 +2640,407 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>60</v>
+        <v>35.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>21.4</v>
+        <v>26.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AH19" t="n">
-        <v>14.3</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>03-11-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897725</v>
+        <v>897678</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897725.html</t>
+          <t>https://text.khl.ru/text/897678.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26</v>
+      </c>
+      <c r="J20" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>51</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>6</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>44</v>
-      </c>
-      <c r="J20" t="n">
-        <v>24</v>
-      </c>
-      <c r="K20" t="n">
-        <v>68</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>8</v>
       </c>
-      <c r="O20" t="n">
-        <v>10</v>
-      </c>
       <c r="P20" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="S20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T20" t="n">
         <v>13</v>
       </c>
       <c r="U20" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="V20" t="n">
         <v>5</v>
       </c>
       <c r="W20" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA20" t="n">
         <v>9</v>
       </c>
-      <c r="X20" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>13</v>
-      </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>57.4</v>
+        <v>52.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>32.5</v>
+        <v>39.4</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AG20" t="n">
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>13.6</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19-10-2025</t>
+          <t>20-10-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>897665</v>
+        <v>897670</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897665.html</t>
+          <t>https://text.khl.ru/text/897670.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
         <v>14</v>
       </c>
       <c r="O21" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P21" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R21" t="n">
+        <v>15</v>
+      </c>
+      <c r="S21" t="n">
+        <v>30</v>
+      </c>
+      <c r="T21" t="n">
+        <v>10</v>
+      </c>
+      <c r="U21" t="n">
         <v>11</v>
       </c>
-      <c r="S21" t="n">
-        <v>13</v>
-      </c>
-      <c r="T21" t="n">
-        <v>12</v>
-      </c>
-      <c r="U21" t="n">
-        <v>14</v>
-      </c>
       <c r="V21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>52.2</v>
+        <v>46.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>46.2</v>
+        <v>47.6</v>
       </c>
       <c r="AE21" t="n">
         <v>0.2</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="AH21" t="n">
-        <v>25.7</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>28-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897781</v>
+        <v>897826</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897781.html</t>
+          <t>https://text.khl.ru/text/897826.html</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J22" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K22" t="n">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O22" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="P22" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q22" t="n">
         <v>34</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
+        <v>10</v>
+      </c>
+      <c r="S22" t="n">
+        <v>11</v>
+      </c>
+      <c r="T22" t="n">
+        <v>21</v>
+      </c>
+      <c r="U22" t="n">
+        <v>15</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>4</v>
+      </c>
+      <c r="X22" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y22" t="n">
         <v>22</v>
       </c>
-      <c r="R22" t="n">
-        <v>11</v>
-      </c>
-      <c r="S22" t="n">
-        <v>16</v>
-      </c>
-      <c r="T22" t="n">
-        <v>11</v>
-      </c>
-      <c r="U22" t="n">
-        <v>14</v>
-      </c>
-      <c r="V22" t="n">
+      <c r="Z22" t="n">
         <v>3</v>
       </c>
-      <c r="W22" t="n">
-        <v>2</v>
-      </c>
-      <c r="X22" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y22" t="n">
+      <c r="AA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC22" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AH22" t="n">
         <v>10</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC22" t="n">
-        <v>60.7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>897773</v>
+        <v>897816</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897773.html</t>
+          <t>https://text.khl.ru/text/897816.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I23" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J23" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="K23" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3049,46 +3049,46 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
+        <v>13</v>
+      </c>
+      <c r="O23" t="n">
         <v>8</v>
       </c>
-      <c r="O23" t="n">
-        <v>4</v>
-      </c>
       <c r="P23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q23" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R23" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T23" t="n">
         <v>20</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -3096,10 +3096,10 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>50.8</v>
+        <v>48.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>50</v>
+        <v>57.1</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3108,329 +3108,329 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>04-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897728</v>
+        <v>897791</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897728.html</t>
+          <t>https://text.khl.ru/text/897791.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J24" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K24" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
         <v>6</v>
       </c>
       <c r="P24" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Q24" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R24" t="n">
         <v>23</v>
       </c>
       <c r="S24" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T24" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="U24" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="V24" t="n">
+        <v>6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
         <v>4</v>
       </c>
-      <c r="W24" t="n">
-        <v>3</v>
-      </c>
-      <c r="X24" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>3</v>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>40.8</v>
+        <v>31.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>37.5</v>
+        <v>52.7</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH24" t="n">
-        <v>12</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25-10-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Сибирь</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Трактор</t>
-        </is>
-      </c>
       <c r="D25" t="n">
-        <v>897688</v>
+        <v>897781</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897688.html</t>
+          <t>https://text.khl.ru/text/897781.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J25" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K25" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="O25" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="P25" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q25" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="R25" t="n">
         <v>16</v>
       </c>
       <c r="S25" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U25" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="V25" t="n">
         <v>2</v>
       </c>
       <c r="W25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>52.5</v>
+        <v>39.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>42.9</v>
+        <v>56</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AG25" t="n">
         <v>1</v>
       </c>
       <c r="AH25" t="n">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23-10-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Салават Юлаев</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897679</v>
+        <v>897771</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897679.html</t>
+          <t>https://text.khl.ru/text/897771.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J26" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="K26" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>6</v>
       </c>
       <c r="O26" t="n">
+        <v>13</v>
+      </c>
+      <c r="P26" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>24</v>
+      </c>
+      <c r="R26" t="n">
+        <v>9</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="n">
+        <v>22</v>
+      </c>
+      <c r="U26" t="n">
+        <v>27</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
         <v>6</v>
       </c>
-      <c r="P26" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>28</v>
-      </c>
-      <c r="R26" t="n">
-        <v>12</v>
-      </c>
-      <c r="S26" t="n">
-        <v>18</v>
-      </c>
-      <c r="T26" t="n">
-        <v>15</v>
-      </c>
-      <c r="U26" t="n">
-        <v>9</v>
-      </c>
-      <c r="V26" t="n">
-        <v>7</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2</v>
-      </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Z26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -3438,338 +3438,332 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>50</v>
+        <v>54.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>62.5</v>
+        <v>44.9</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.1</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27-11-2025</t>
+          <t>28-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897820</v>
+        <v>897827</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897820.html</t>
+          <t>https://text.khl.ru/text/897827.html</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>32</v>
+      </c>
+      <c r="J27" t="n">
+        <v>33</v>
+      </c>
+      <c r="K27" t="n">
+        <v>65</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>29</v>
+      </c>
+      <c r="R27" t="n">
+        <v>12</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>21</v>
+      </c>
+      <c r="U27" t="n">
+        <v>17</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9</v>
+      </c>
+      <c r="W27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>25</v>
-      </c>
-      <c r="J27" t="n">
-        <v>35</v>
-      </c>
-      <c r="K27" t="n">
-        <v>60</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>6</v>
-      </c>
-      <c r="O27" t="n">
-        <v>6</v>
-      </c>
-      <c r="P27" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>30</v>
-      </c>
-      <c r="R27" t="n">
-        <v>25</v>
-      </c>
-      <c r="S27" t="n">
-        <v>13</v>
-      </c>
-      <c r="T27" t="n">
-        <v>10</v>
-      </c>
-      <c r="U27" t="n">
-        <v>13</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1</v>
-      </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>47.4</v>
+        <v>45.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0.33</v>
+        <v>55.3</v>
       </c>
       <c r="AG27" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25-11-2025</t>
+          <t>12-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897812</v>
+        <v>897764</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897812.html</t>
+          <t>https://text.khl.ru/text/897764.html</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J28" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K28" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="Q28" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="R28" t="n">
+        <v>31</v>
+      </c>
+      <c r="S28" t="n">
+        <v>7</v>
+      </c>
+      <c r="T28" t="n">
+        <v>17</v>
+      </c>
+      <c r="U28" t="n">
         <v>14</v>
       </c>
-      <c r="S28" t="n">
+      <c r="V28" t="n">
+        <v>10</v>
+      </c>
+      <c r="W28" t="n">
+        <v>9</v>
+      </c>
+      <c r="X28" t="n">
         <v>8</v>
       </c>
-      <c r="T28" t="n">
+      <c r="Y28" t="n">
         <v>10</v>
       </c>
-      <c r="U28" t="n">
-        <v>15</v>
-      </c>
-      <c r="V28" t="n">
-        <v>4</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2</v>
-      </c>
-      <c r="X28" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>17</v>
-      </c>
       <c r="Z28" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>54.7</v>
+        <v>30.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>40</v>
+        <v>54.8</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="AH28" t="n">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897769</v>
+        <v>897757</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897769.html</t>
+          <t>https://text.khl.ru/text/897757.html</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J29" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K29" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>10</v>
+      </c>
+      <c r="P29" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>28</v>
+      </c>
+      <c r="R29" t="n">
+        <v>15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6</v>
+      </c>
+      <c r="U29" t="n">
+        <v>16</v>
+      </c>
+      <c r="V29" t="n">
+        <v>5</v>
+      </c>
+      <c r="W29" t="n">
         <v>2</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4</v>
-      </c>
-      <c r="O29" t="n">
-        <v>12</v>
-      </c>
-      <c r="P29" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>22</v>
-      </c>
-      <c r="R29" t="n">
-        <v>10</v>
-      </c>
-      <c r="S29" t="n">
-        <v>21</v>
-      </c>
-      <c r="T29" t="n">
-        <v>14</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>8</v>
-      </c>
-      <c r="W29" t="n">
-        <v>4</v>
-      </c>
       <c r="X29" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Z29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA29" t="n">
         <v>3</v>
@@ -3780,62 +3774,62 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>56.9</v>
+        <v>56.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>87.5</v>
+        <v>27.3</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
         <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>11.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>28-10-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897762</v>
+        <v>897698</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897762.html</t>
+          <t>https://text.khl.ru/text/897698.html</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I30" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J30" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K30" t="n">
         <v>59</v>
@@ -3844,49 +3838,49 @@
         <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O30" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="P30" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q30" t="n">
         <v>36</v>
       </c>
       <c r="R30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S30" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="T30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U30" t="n">
         <v>17</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
@@ -3894,19 +3888,19 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>41.9</v>
+        <v>32.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>55.3</v>
+        <v>54.1</v>
       </c>
       <c r="AE30" t="n">
         <v>1</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="AG30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH30" t="n">
         <v>11.1</v>
@@ -3915,50 +3909,50 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>26-10-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>ХК Сочи</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Спартак</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Сибирь</t>
-        </is>
-      </c>
       <c r="D31" t="n">
-        <v>897752</v>
+        <v>897694</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897752.html</t>
+          <t>https://text.khl.ru/text/897694.html</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J31" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K31" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
         <v>10</v>
@@ -3967,63 +3961,63 @@
         <v>6</v>
       </c>
       <c r="P31" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q31" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="R31" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="S31" t="n">
+        <v>14</v>
+      </c>
+      <c r="T31" t="n">
         <v>23</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>10</v>
       </c>
-      <c r="U31" t="n">
-        <v>8</v>
-      </c>
       <c r="V31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X31" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Y31" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Z31" t="n">
         <v>3</v>
       </c>
       <c r="AA31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>57.6</v>
+        <v>54.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>55.6</v>
+        <v>69.7</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="AH31" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4190,529 +4184,529 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>29.6</v>
+        <v>36.8</v>
       </c>
       <c r="H2" t="n">
-        <v>55.8</v>
+        <v>10.7</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J2" t="n">
-        <v>34.2</v>
+        <v>23.6</v>
       </c>
       <c r="K2" t="n">
-        <v>38.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.3</v>
+        <v>1.1</v>
       </c>
       <c r="M2" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>-1.4</v>
       </c>
       <c r="O2" t="n">
-        <v>44.72</v>
+        <v>53.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63</v>
+        <v>1.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.134</v>
+        <v>0.058</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08299999999999999</v>
+        <v>0.047</v>
       </c>
       <c r="S2" t="n">
-        <v>0.778</v>
+        <v>0.85</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01800000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="W2" t="n">
-        <v>13.8</v>
+        <v>6.2</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.4</v>
+        <v>1.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.58</v>
+        <v>6.52</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6399999999999999</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Барыс</t>
+          <t>Ак Барс</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="G3" t="n">
-        <v>31.4</v>
+        <v>34.4</v>
       </c>
       <c r="H3" t="n">
-        <v>14.3</v>
+        <v>38.8</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.8</v>
+        <v>-1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>31.8</v>
+        <v>24.2</v>
       </c>
       <c r="K3" t="n">
-        <v>10.7</v>
+        <v>31.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="O3" t="n">
-        <v>47.5</v>
+        <v>63.46</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>1.360000000000002</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.45</v>
+        <v>0.344</v>
       </c>
       <c r="R3" t="n">
-        <v>0.175</v>
+        <v>-0.132</v>
       </c>
       <c r="S3" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.02999999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="W3" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>10.18</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.4400000000000001</v>
+        <v>-0.01999999999999975</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="n">
-        <v>20.6</v>
+        <v>30.6</v>
       </c>
       <c r="H4" t="n">
-        <v>18.3</v>
+        <v>46.8</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>-3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>35.2</v>
+        <v>35.6</v>
       </c>
       <c r="K4" t="n">
-        <v>27.7</v>
+        <v>58.3</v>
       </c>
       <c r="L4" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>52.06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2399999999999999</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.134</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.04899999999999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0.6</v>
       </c>
-      <c r="M4" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39.76</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.007000000000000001</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.628</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-0.064</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="V4" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>-0.2</v>
-      </c>
       <c r="AA4" t="n">
-        <v>16.36</v>
+        <v>6.44</v>
       </c>
       <c r="AB4" t="n">
-        <v>-3.3</v>
+        <v>0.3099999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Динамо Мн</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.9</v>
+        <v>-0.4</v>
       </c>
       <c r="F5" t="n">
         <v>-0.4</v>
       </c>
       <c r="G5" t="n">
-        <v>44.4</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>87.3</v>
+        <v>35.5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>-1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>22.4</v>
+        <v>28.2</v>
       </c>
       <c r="K5" t="n">
-        <v>37.3</v>
+        <v>46.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="M5" t="n">
-        <v>8.4</v>
+        <v>13.8</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O5" t="n">
-        <v>51.2</v>
+        <v>48.44</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.450000000000001</v>
+        <v>0.8100000000000008</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.316</v>
+        <v>0.24</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.07099999999999999</v>
+        <v>-0.09</v>
       </c>
       <c r="S5" t="n">
-        <v>0.842</v>
+        <v>0.828</v>
       </c>
       <c r="T5" t="n">
-        <v>0.05800000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="U5" t="n">
-        <v>11.4</v>
+        <v>10.2</v>
       </c>
       <c r="V5" t="n">
-        <v>-2.3</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="X5" t="n">
-        <v>-2</v>
+        <v>-0.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>12.52</v>
+        <v>13.22</v>
       </c>
       <c r="AB5" t="n">
-        <v>-5.43</v>
+        <v>-0.9000000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4</v>
+        <v>1.5</v>
       </c>
       <c r="G6" t="n">
-        <v>29.4</v>
+        <v>30.6</v>
       </c>
       <c r="H6" t="n">
-        <v>46.8</v>
+        <v>190.8</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>34.2</v>
+        <v>36.8</v>
       </c>
       <c r="K6" t="n">
-        <v>92.7</v>
+        <v>169.7</v>
       </c>
       <c r="L6" t="n">
-        <v>-5.7</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>15.2</v>
+        <v>21.2</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O6" t="n">
-        <v>50.96</v>
+        <v>45.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.97</v>
+        <v>0.2399999999999992</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.134</v>
+        <v>0.246</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.029</v>
       </c>
       <c r="S6" t="n">
-        <v>0.75</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.002000000000000002</v>
+        <v>-0.08900000000000001</v>
       </c>
       <c r="U6" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.1</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="W6" t="n">
-        <v>15.4</v>
+        <v>13.6</v>
       </c>
       <c r="X6" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.4</v>
+        <v>16.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.3</v>
+        <v>-4.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.06</v>
+        <v>11.28</v>
       </c>
       <c r="AB6" t="n">
-        <v>-1.9</v>
+        <v>-0.3099999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Спартак</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="D7" t="n">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8</v>
+        <v>-0.3</v>
       </c>
       <c r="F7" t="n">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="G7" t="n">
         <v>29.6</v>
       </c>
       <c r="H7" t="n">
-        <v>86.8</v>
+        <v>74.8</v>
       </c>
       <c r="I7" t="n">
-        <v>-4.6</v>
+        <v>0.2</v>
       </c>
       <c r="J7" t="n">
-        <v>29.8</v>
+        <v>37.6</v>
       </c>
       <c r="K7" t="n">
-        <v>20.7</v>
+        <v>38.8</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>-1.6</v>
       </c>
       <c r="M7" t="n">
-        <v>13</v>
+        <v>17.4</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.1</v>
+        <v>-0.7</v>
       </c>
       <c r="O7" t="n">
-        <v>51.7</v>
+        <v>43.77999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.7600000000000001</v>
+        <v>-1.940000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.218</v>
+        <v>0.165</v>
       </c>
       <c r="R7" t="n">
-        <v>0.089</v>
+        <v>-0.132</v>
       </c>
       <c r="S7" t="n">
-        <v>0.96</v>
+        <v>0.53</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03999999999999999</v>
+        <v>0.045</v>
       </c>
       <c r="U7" t="n">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.3</v>
+        <v>0.6</v>
       </c>
       <c r="W7" t="n">
         <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>-1.3</v>
+        <v>-0.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.2</v>
+        <v>5.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.3</v>
+        <v>8.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.8800000000000001</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,226 +609,226 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26-11-2025</t>
+          <t>29-11-2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Металлург Мг</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>897818</v>
+        <v>897829</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897818.html</t>
+          <t>https://text.khl.ru/text/897829.html</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="R2" t="n">
         <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>55.6</v>
+        <v>61</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>61.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>27-11-2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>897761</v>
+        <v>897819</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897761.html</t>
+          <t>https://text.khl.ru/text/897819.html</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>33</v>
       </c>
       <c r="J3" t="n">
+        <v>35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>68</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>28</v>
+      </c>
+      <c r="R3" t="n">
         <v>21</v>
       </c>
-      <c r="K3" t="n">
-        <v>54</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>35</v>
-      </c>
-      <c r="P3" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>22</v>
-      </c>
-      <c r="R3" t="n">
-        <v>14</v>
-      </c>
       <c r="S3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="T3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>57.7</v>
+        <v>56.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>44.8</v>
+        <v>52.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AH3" t="n">
         <v>12.1</v>
@@ -837,206 +837,206 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>897751</v>
+        <v>897782</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897751.html</t>
+          <t>https://text.khl.ru/text/897782.html</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K4" t="n">
         <v>62</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="n">
+        <v>29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>13</v>
+      </c>
+      <c r="T4" t="n">
+        <v>31</v>
+      </c>
+      <c r="U4" t="n">
+        <v>24</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
         <v>26</v>
       </c>
-      <c r="R4" t="n">
-        <v>13</v>
-      </c>
-      <c r="S4" t="n">
-        <v>24</v>
-      </c>
-      <c r="T4" t="n">
-        <v>10</v>
-      </c>
-      <c r="U4" t="n">
-        <v>12</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>56.7</v>
+        <v>50</v>
       </c>
       <c r="AD4" t="n">
-        <v>45.5</v>
+        <v>56.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>897743</v>
+        <v>897772</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897743.html</t>
+          <t>https://text.khl.ru/text/897772.html</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J5" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K5" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
         <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
@@ -1044,113 +1044,113 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>36.4</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
-        <v>41.7</v>
+        <v>39.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AG5" t="n">
         <v>1</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.4</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>31-10-2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>897732</v>
+        <v>897712</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897732.html</t>
+          <t>https://text.khl.ru/text/897712.html</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
+        <v>33</v>
+      </c>
+      <c r="K6" t="n">
+        <v>61</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10</v>
+      </c>
+      <c r="O6" t="n">
+        <v>8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>40</v>
+      </c>
+      <c r="R6" t="n">
+        <v>24</v>
+      </c>
+      <c r="S6" t="n">
         <v>20</v>
       </c>
-      <c r="K6" t="n">
-        <v>56</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>21</v>
-      </c>
-      <c r="R6" t="n">
-        <v>8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>19</v>
-      </c>
       <c r="T6" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="V6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
@@ -1158,221 +1158,221 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>61.1</v>
+        <v>43.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>57.1</v>
+        <v>52.2</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.8</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>28-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>СКА</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>897823</v>
+        <v>897815</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897823.html</t>
+          <t>https://text.khl.ru/text/897815.html</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J7" t="n">
+        <v>23</v>
+      </c>
+      <c r="K7" t="n">
+        <v>55</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>25</v>
+      </c>
+      <c r="S7" t="n">
+        <v>14</v>
+      </c>
+      <c r="T7" t="n">
+        <v>9</v>
+      </c>
+      <c r="U7" t="n">
+        <v>22</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>4</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC7" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="AD7" t="n">
         <v>29</v>
       </c>
-      <c r="K7" t="n">
-        <v>68</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>12</v>
-      </c>
-      <c r="P7" t="n">
-        <v>41</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>13</v>
-      </c>
-      <c r="R7" t="n">
-        <v>16</v>
-      </c>
-      <c r="S7" t="n">
-        <v>11</v>
-      </c>
-      <c r="T7" t="n">
-        <v>18</v>
-      </c>
-      <c r="U7" t="n">
-        <v>10</v>
-      </c>
-      <c r="V7" t="n">
-        <v>11</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC7" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>64.3</v>
-      </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AG7" t="n">
         <v>1</v>
       </c>
       <c r="AH7" t="n">
-        <v>12.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>24-11-2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ЦСКА</t>
+          <t>Амур</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>897786</v>
+        <v>897809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897786.html</t>
+          <t>https://text.khl.ru/text/897809.html</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K8" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
-        <v>11</v>
-      </c>
       <c r="P8" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="n">
         <v>23</v>
       </c>
       <c r="R8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="S8" t="n">
+        <v>23</v>
+      </c>
+      <c r="T8" t="n">
         <v>17</v>
       </c>
-      <c r="T8" t="n">
-        <v>19</v>
-      </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="V8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>5</v>
@@ -1382,50 +1382,50 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>52.1</v>
+        <v>59.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>46.3</v>
+        <v>60.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AH8" t="n">
-        <v>4</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>897778</v>
+        <v>897795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897778.html</t>
+          <t>https://text.khl.ru/text/897795.html</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1435,292 +1435,292 @@
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J9" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K9" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>32</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA9" t="n">
         <v>5</v>
       </c>
-      <c r="O9" t="n">
-        <v>7</v>
-      </c>
-      <c r="P9" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>22</v>
-      </c>
-      <c r="R9" t="n">
-        <v>12</v>
-      </c>
-      <c r="S9" t="n">
-        <v>25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>36</v>
-      </c>
-      <c r="U9" t="n">
-        <v>13</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>4</v>
-      </c>
-      <c r="X9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>7</v>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>64.5</v>
+        <v>71.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>73.5</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>13-11-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Динамо М</t>
+          <t>Спартак</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>897768</v>
+        <v>897787</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897768.html</t>
+          <t>https://text.khl.ru/text/897787.html</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J10" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K10" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="n">
         <v>24</v>
       </c>
       <c r="R10" t="n">
+        <v>15</v>
+      </c>
+      <c r="S10" t="n">
+        <v>12</v>
+      </c>
+      <c r="T10" t="n">
+        <v>16</v>
+      </c>
+      <c r="U10" t="n">
+        <v>15</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8</v>
       </c>
-      <c r="S10" t="n">
-        <v>17</v>
-      </c>
-      <c r="T10" t="n">
-        <v>22</v>
-      </c>
-      <c r="U10" t="n">
-        <v>20</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="Z10" t="n">
         <v>3</v>
       </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>2</v>
-      </c>
       <c r="AA10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>59.3</v>
+        <v>44.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>52.4</v>
+        <v>51.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" t="n">
-        <v>15.2</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01-11-2025</t>
+          <t>10-11-2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Драконы</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>897716</v>
+        <v>897759</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897716.html</t>
+          <t>https://text.khl.ru/text/897759.html</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>8</v>
       </c>
       <c r="P11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q11" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R11" t="n">
         <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U11" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
@@ -1728,164 +1728,161 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>65.5</v>
+        <v>54.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>40.5</v>
+        <v>51.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.3</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>897775</v>
+        <v>897806</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897775.html</t>
+          <t>https://text.khl.ru/text/897806.html</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>33</v>
+      </c>
+      <c r="J12" t="n">
+        <v>32</v>
+      </c>
+      <c r="K12" t="n">
+        <v>65</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>34</v>
+      </c>
+      <c r="R12" t="n">
+        <v>15</v>
+      </c>
+      <c r="S12" t="n">
+        <v>18</v>
+      </c>
+      <c r="T12" t="n">
+        <v>9</v>
+      </c>
+      <c r="U12" t="n">
+        <v>15</v>
+      </c>
+      <c r="V12" t="n">
         <v>5</v>
       </c>
-      <c r="I12" t="n">
-        <v>23</v>
-      </c>
-      <c r="J12" t="n">
-        <v>26</v>
-      </c>
-      <c r="K12" t="n">
-        <v>49</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>12</v>
-      </c>
-      <c r="O12" t="n">
-        <v>8</v>
-      </c>
-      <c r="P12" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>31</v>
-      </c>
-      <c r="R12" t="n">
-        <v>12</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="W12" t="n">
+        <v>4</v>
+      </c>
+      <c r="X12" t="n">
         <v>15</v>
       </c>
-      <c r="T12" t="n">
-        <v>6</v>
-      </c>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>19</v>
-      </c>
       <c r="Y12" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
         <v>4</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>44.6</v>
+        <v>45.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>54.5</v>
+        <v>37.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11-11-2025</t>
+          <t>21-11-2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>897760</v>
+        <v>897800</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897760.html</t>
+          <t>https://text.khl.ru/text/897800.html</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1897,10 +1894,10 @@
         <v>27</v>
       </c>
       <c r="J13" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K13" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1909,46 +1906,46 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P13" t="n">
         <v>27</v>
       </c>
       <c r="Q13" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="R13" t="n">
+        <v>19</v>
+      </c>
+      <c r="S13" t="n">
+        <v>14</v>
+      </c>
+      <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
         <v>9</v>
       </c>
-      <c r="S13" t="n">
-        <v>17</v>
-      </c>
-      <c r="T13" t="n">
-        <v>6</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>7</v>
       </c>
-      <c r="V13" t="n">
-        <v>4</v>
-      </c>
       <c r="W13" t="n">
         <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Y13" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
@@ -1956,10 +1953,10 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>60</v>
+        <v>42.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>46.2</v>
+        <v>55</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
@@ -1977,167 +1974,167 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>09-11-2025</t>
+          <t>19-11-2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Автомобилист</t>
+          <t>ХК Сочи</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>897749</v>
+        <v>897792</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897749.html</t>
+          <t>https://text.khl.ru/text/897792.html</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>31</v>
+      </c>
+      <c r="K14" t="n">
+        <v>61</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>32</v>
+      </c>
+      <c r="R14" t="n">
+        <v>18</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13</v>
+      </c>
+      <c r="T14" t="n">
+        <v>20</v>
+      </c>
+      <c r="U14" t="n">
+        <v>36</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>33</v>
-      </c>
-      <c r="J14" t="n">
-        <v>39</v>
-      </c>
-      <c r="K14" t="n">
-        <v>72</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="X14" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
         <v>4</v>
       </c>
-      <c r="P14" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>30</v>
-      </c>
-      <c r="R14" t="n">
-        <v>11</v>
-      </c>
-      <c r="S14" t="n">
-        <v>15</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6</v>
-      </c>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>7</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2</v>
-      </c>
-      <c r="X14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2</v>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>54.5</v>
+        <v>39.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>54.5</v>
+        <v>35.7</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG14" t="n">
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>07-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Металлург Мг</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>897740</v>
+        <v>897783</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897740.html</t>
+          <t>https://text.khl.ru/text/897783.html</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J15" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K15" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>6</v>
@@ -2146,48 +2143,48 @@
         <v>30</v>
       </c>
       <c r="Q15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="R15" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S15" t="n">
         <v>11</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
         <v>3</v>
       </c>
-      <c r="X15" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>12</v>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>55.6</v>
+        <v>50.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>83.3</v>
+        <v>42.6</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2196,124 +2193,124 @@
         <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>3.4</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>05-11-2025</t>
+          <t>07-11-2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Авангард</t>
+          <t>Нефтехимик</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>897731</v>
+        <v>897741</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897731.html</t>
+          <t>https://text.khl.ru/text/897741.html</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q16" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="R16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="T16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U16" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="V16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y16" t="n">
         <v>18</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9</v>
-      </c>
       <c r="Z16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>45.6</v>
+        <v>52.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>61.3</v>
+        <v>41.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2324,87 +2321,87 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Локомотив</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>897824</v>
+        <v>897825</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897824.html</t>
+          <t>https://text.khl.ru/text/897825.html</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32</v>
+      </c>
+      <c r="K17" t="n">
+        <v>50</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>29</v>
+      </c>
+      <c r="R17" t="n">
+        <v>16</v>
+      </c>
+      <c r="S17" t="n">
+        <v>11</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5</v>
+      </c>
+      <c r="U17" t="n">
         <v>31</v>
       </c>
-      <c r="J17" t="n">
-        <v>37</v>
-      </c>
-      <c r="K17" t="n">
-        <v>68</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="V17" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y17" t="n">
         <v>10</v>
       </c>
-      <c r="O17" t="n">
-        <v>8</v>
-      </c>
-      <c r="P17" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>34</v>
-      </c>
-      <c r="R17" t="n">
-        <v>19</v>
-      </c>
-      <c r="S17" t="n">
-        <v>14</v>
-      </c>
-      <c r="T17" t="n">
-        <v>18</v>
-      </c>
-      <c r="U17" t="n">
-        <v>26</v>
-      </c>
-      <c r="V17" t="n">
-        <v>3</v>
-      </c>
-      <c r="W17" t="n">
-        <v>11</v>
-      </c>
-      <c r="X17" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>25</v>
-      </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
@@ -2412,10 +2409,10 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>47.7</v>
+        <v>39.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>40.9</v>
+        <v>13.9</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2427,56 +2424,56 @@
         <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18-11-2025</t>
+          <t>26-11-2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Северсталь</t>
+          <t>СКА</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>897785</v>
+        <v>897817</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897785.html</t>
+          <t>https://text.khl.ru/text/897817.html</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
         <v>6</v>
@@ -2485,40 +2482,40 @@
         <v>8</v>
       </c>
       <c r="P18" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S18" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="T18" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6</v>
       </c>
-      <c r="Y18" t="n">
-        <v>17</v>
-      </c>
       <c r="Z18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
@@ -2526,10 +2523,10 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>59.3</v>
+        <v>43.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>75</v>
+        <v>41.2</v>
       </c>
       <c r="AE18" t="n">
         <v>0.25</v>
@@ -2538,112 +2535,112 @@
         <v>0.25</v>
       </c>
       <c r="AG18" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16-11-2025</t>
+          <t>23-11-2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>897778</v>
+        <v>897808</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897778.html</t>
+          <t>https://text.khl.ru/text/897808.html</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J19" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K19" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P19" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q19" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="R19" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
+        <v>14</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>21</v>
+      </c>
+      <c r="V19" t="n">
+        <v>11</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
         <v>12</v>
       </c>
-      <c r="T19" t="n">
-        <v>13</v>
-      </c>
-      <c r="U19" t="n">
-        <v>36</v>
-      </c>
-      <c r="V19" t="n">
+      <c r="Y19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="n">
         <v>4</v>
       </c>
-      <c r="W19" t="n">
-        <v>1</v>
-      </c>
-      <c r="X19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>6</v>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>35.5</v>
+        <v>60.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>26.5</v>
+        <v>4.5</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
@@ -2652,98 +2649,98 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AH19" t="n">
-        <v>25.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>22-10-2025</t>
+          <t>20-11-2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Лада</t>
+          <t>Адмирал</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>897678</v>
+        <v>897796</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897678.html</t>
+          <t>https://text.khl.ru/text/897796.html</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>30</v>
+      </c>
+      <c r="J20" t="n">
+        <v>30</v>
+      </c>
+      <c r="K20" t="n">
+        <v>60</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26</v>
-      </c>
-      <c r="J20" t="n">
-        <v>25</v>
-      </c>
-      <c r="K20" t="n">
-        <v>51</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6</v>
-      </c>
       <c r="O20" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Q20" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="S20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="T20" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="V20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W20" t="n">
         <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
         <v>9</v>
@@ -2754,227 +2751,227 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>52.8</v>
+        <v>36</v>
       </c>
       <c r="AD20" t="n">
-        <v>39.4</v>
+        <v>29.4</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>1</v>
       </c>
       <c r="AH20" t="n">
-        <v>15.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20-10-2025</t>
+          <t>18-11-2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Динамо Мн</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ЦСКА</t>
-        </is>
-      </c>
       <c r="D21" t="n">
-        <v>897670</v>
+        <v>897785</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897670.html</t>
+          <t>https://text.khl.ru/text/897785.html</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22</v>
+      </c>
+      <c r="J21" t="n">
+        <v>20</v>
+      </c>
+      <c r="K21" t="n">
+        <v>42</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>35</v>
+      </c>
+      <c r="R21" t="n">
+        <v>13</v>
+      </c>
+      <c r="S21" t="n">
+        <v>12</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>15</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
         <v>3</v>
       </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>23</v>
-      </c>
-      <c r="K21" t="n">
-        <v>59</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="n">
-        <v>14</v>
-      </c>
-      <c r="O21" t="n">
-        <v>10</v>
-      </c>
-      <c r="P21" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>34</v>
-      </c>
-      <c r="R21" t="n">
-        <v>15</v>
-      </c>
-      <c r="S21" t="n">
-        <v>30</v>
-      </c>
-      <c r="T21" t="n">
-        <v>10</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="X21" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z21" t="n">
         <v>11</v>
       </c>
-      <c r="V21" t="n">
-        <v>1</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2</v>
-      </c>
-      <c r="X21" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2</v>
-      </c>
       <c r="AA21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>46.9</v>
+        <v>40.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>47.6</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.300000000000001</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28-11-2025</t>
+          <t>29-11-2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Нефтехимик</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>897826</v>
+        <v>897828</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897826.html</t>
+          <t>https://text.khl.ru/text/897828.html</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>18</v>
+      </c>
+      <c r="K22" t="n">
+        <v>51</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11</v>
+      </c>
+      <c r="P22" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>26</v>
+      </c>
+      <c r="R22" t="n">
+        <v>11</v>
+      </c>
+      <c r="S22" t="n">
+        <v>26</v>
+      </c>
+      <c r="T22" t="n">
+        <v>22</v>
+      </c>
+      <c r="U22" t="n">
+        <v>18</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2</v>
+      </c>
+      <c r="W22" t="n">
         <v>5</v>
       </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-      <c r="I22" t="n">
-        <v>50</v>
-      </c>
-      <c r="J22" t="n">
-        <v>39</v>
-      </c>
-      <c r="K22" t="n">
-        <v>89</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>14</v>
-      </c>
-      <c r="O22" t="n">
-        <v>8</v>
-      </c>
-      <c r="P22" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>34</v>
-      </c>
-      <c r="R22" t="n">
-        <v>10</v>
-      </c>
-      <c r="S22" t="n">
-        <v>11</v>
-      </c>
-      <c r="T22" t="n">
-        <v>21</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="X22" t="n">
         <v>15</v>
       </c>
-      <c r="V22" t="n">
-        <v>5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4</v>
-      </c>
-      <c r="X22" t="n">
-        <v>14</v>
-      </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
         <v>3</v>
       </c>
       <c r="AA22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
@@ -2982,65 +2979,65 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>51.4</v>
+        <v>55.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>58.3</v>
+        <v>55</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>26-11-2025</t>
+          <t>17-11-2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Драконы</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Трактор</t>
-        </is>
-      </c>
       <c r="D23" t="n">
-        <v>897816</v>
+        <v>897781</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897816.html</t>
+          <t>https://text.khl.ru/text/897781.html</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K23" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3049,46 +3046,46 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="O23" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="P23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q23" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="R23" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S23" t="n">
+        <v>16</v>
+      </c>
+      <c r="T23" t="n">
+        <v>11</v>
+      </c>
+      <c r="U23" t="n">
         <v>14</v>
       </c>
-      <c r="T23" t="n">
-        <v>20</v>
-      </c>
-      <c r="U23" t="n">
-        <v>15</v>
-      </c>
       <c r="V23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
@@ -3096,10 +3093,10 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>48.3</v>
+        <v>60.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>57.1</v>
+        <v>44</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3108,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
@@ -3117,320 +3114,320 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>19-11-2025</t>
+          <t>15-11-2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Локомотив</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>897791</v>
+        <v>897773</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897791.html</t>
+          <t>https://text.khl.ru/text/897773.html</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J24" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="K24" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>29</v>
+      </c>
+      <c r="R24" t="n">
+        <v>12</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="n">
+        <v>20</v>
+      </c>
+      <c r="U24" t="n">
+        <v>20</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>18</v>
       </c>
-      <c r="Q24" t="n">
-        <v>39</v>
-      </c>
-      <c r="R24" t="n">
-        <v>23</v>
-      </c>
-      <c r="S24" t="n">
-        <v>13</v>
-      </c>
-      <c r="T24" t="n">
-        <v>29</v>
-      </c>
-      <c r="U24" t="n">
-        <v>26</v>
-      </c>
-      <c r="V24" t="n">
-        <v>6</v>
-      </c>
-      <c r="W24" t="n">
-        <v>5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>36</v>
-      </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
         <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>31.6</v>
+        <v>50.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>52.7</v>
+        <v>50</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>28.6</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17-11-2025</t>
+          <t>04-11-2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Сибирь</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>897781</v>
+        <v>897728</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897781.html</t>
+          <t>https://text.khl.ru/text/897728.html</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J25" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="K25" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
+        <v>12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" t="n">
         <v>29</v>
       </c>
-      <c r="O25" t="n">
-        <v>47</v>
-      </c>
-      <c r="P25" t="n">
-        <v>22</v>
-      </c>
       <c r="Q25" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R25" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="S25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="U25" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W25" t="n">
         <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC25" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH25" t="n">
         <v>12</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="AC25" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>56</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>12.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>15-11-2025</t>
+          <t>25-10-2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Трактор</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>897771</v>
+        <v>897688</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897771.html</t>
+          <t>https://text.khl.ru/text/897688.html</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>40</v>
+      </c>
+      <c r="J26" t="n">
+        <v>39</v>
+      </c>
+      <c r="K26" t="n">
+        <v>79</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>4</v>
       </c>
-      <c r="I26" t="n">
-        <v>38</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="O26" t="n">
+        <v>7</v>
+      </c>
+      <c r="P26" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>28</v>
+      </c>
+      <c r="R26" t="n">
+        <v>16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>21</v>
+      </c>
+      <c r="T26" t="n">
         <v>18</v>
       </c>
-      <c r="K26" t="n">
-        <v>56</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="U26" t="n">
+        <v>24</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="n">
         <v>13</v>
       </c>
-      <c r="P26" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>24</v>
-      </c>
-      <c r="R26" t="n">
-        <v>9</v>
-      </c>
-      <c r="S26" t="n">
-        <v>10</v>
-      </c>
-      <c r="T26" t="n">
-        <v>22</v>
-      </c>
-      <c r="U26" t="n">
-        <v>27</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6</v>
-      </c>
-      <c r="X26" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>30</v>
-      </c>
       <c r="Z26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
@@ -3438,154 +3435,160 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>54.7</v>
+        <v>52.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>44.9</v>
+        <v>42.9</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>28-11-2025</t>
+          <t>06-11-2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Трактор</t>
+          <t>ЦСКА</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>897827</v>
+        <v>897736</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897827.html</t>
+          <t>https://text.khl.ru/text/897736.html</t>
         </is>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>29</v>
+      </c>
+      <c r="K27" t="n">
+        <v>49</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="n">
         <v>6</v>
       </c>
-      <c r="I27" t="n">
+      <c r="P27" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="n">
         <v>32</v>
       </c>
-      <c r="J27" t="n">
+      <c r="R27" t="n">
+        <v>19</v>
+      </c>
+      <c r="S27" t="n">
+        <v>19</v>
+      </c>
+      <c r="T27" t="n">
+        <v>13</v>
+      </c>
+      <c r="U27" t="n">
+        <v>14</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" t="n">
         <v>33</v>
       </c>
-      <c r="K27" t="n">
-        <v>65</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>29</v>
-      </c>
-      <c r="R27" t="n">
-        <v>12</v>
-      </c>
-      <c r="S27" t="n">
-        <v>8</v>
-      </c>
-      <c r="T27" t="n">
+      <c r="Y27" t="n">
         <v>21</v>
       </c>
-      <c r="U27" t="n">
-        <v>17</v>
-      </c>
-      <c r="V27" t="n">
-        <v>9</v>
-      </c>
-      <c r="W27" t="n">
-        <v>3</v>
-      </c>
-      <c r="X27" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>24</v>
-      </c>
       <c r="Z27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>45.3</v>
+        <v>45.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>55.3</v>
+        <v>48.1</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AH27" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>12-11-2025</t>
+          <t>04-11-2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Торпедо</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>897764</v>
+        <v>897728</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897764.html</t>
+          <t>https://text.khl.ru/text/897728.html</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3595,64 +3598,64 @@
         <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J28" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K28" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>12</v>
+      </c>
+      <c r="P28" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>29</v>
+      </c>
+      <c r="R28" t="n">
+        <v>8</v>
+      </c>
+      <c r="S28" t="n">
+        <v>23</v>
+      </c>
+      <c r="T28" t="n">
+        <v>20</v>
+      </c>
+      <c r="U28" t="n">
+        <v>12</v>
+      </c>
+      <c r="V28" t="n">
         <v>3</v>
       </c>
-      <c r="N28" t="n">
-        <v>11</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="W28" t="n">
         <v>4</v>
-      </c>
-      <c r="P28" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>38</v>
-      </c>
-      <c r="R28" t="n">
-        <v>31</v>
-      </c>
-      <c r="S28" t="n">
-        <v>7</v>
-      </c>
-      <c r="T28" t="n">
-        <v>17</v>
-      </c>
-      <c r="U28" t="n">
-        <v>14</v>
-      </c>
-      <c r="V28" t="n">
-        <v>10</v>
-      </c>
-      <c r="W28" t="n">
-        <v>9</v>
       </c>
       <c r="X28" t="n">
         <v>8</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AA28" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
@@ -3660,46 +3663,46 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>30.9</v>
+        <v>59.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>54.8</v>
+        <v>62.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="AH28" t="n">
-        <v>12.5</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10-11-2025</t>
+          <t>02-11-2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Автомобилист</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>897757</v>
+        <v>897720</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897757.html</t>
+          <t>https://text.khl.ru/text/897720.html</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3709,16 +3712,16 @@
         <v>2</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J29" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K29" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3727,57 +3730,57 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q29" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
       </c>
       <c r="T29" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="U29" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="V29" t="n">
+        <v>9</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA29" t="n">
         <v>5</v>
       </c>
-      <c r="W29" t="n">
-        <v>2</v>
-      </c>
-      <c r="X29" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>3</v>
-      </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>56.2</v>
+        <v>53.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>27.3</v>
+        <v>33.3</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -3789,31 +3792,31 @@
         <v>1</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>28-10-2025</t>
+          <t>24-10-2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Лада</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>897698</v>
+        <v>897684</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897698.html</t>
+          <t>https://text.khl.ru/text/897684.html</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3823,111 +3826,111 @@
         <v>2</v>
       </c>
       <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>50</v>
+      </c>
+      <c r="J30" t="n">
+        <v>22</v>
+      </c>
+      <c r="K30" t="n">
+        <v>72</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" t="n">
         <v>8</v>
       </c>
-      <c r="I30" t="n">
-        <v>18</v>
-      </c>
-      <c r="J30" t="n">
-        <v>41</v>
-      </c>
-      <c r="K30" t="n">
-        <v>59</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="n">
+      <c r="P30" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>27</v>
+      </c>
+      <c r="R30" t="n">
+        <v>9</v>
+      </c>
+      <c r="S30" t="n">
+        <v>24</v>
+      </c>
+      <c r="T30" t="n">
+        <v>13</v>
+      </c>
+      <c r="U30" t="n">
+        <v>16</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>10</v>
+      </c>
+      <c r="X30" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC30" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="n">
         <v>4</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5</v>
-      </c>
-      <c r="O30" t="n">
-        <v>6</v>
-      </c>
-      <c r="P30" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>36</v>
-      </c>
-      <c r="R30" t="n">
-        <v>17</v>
-      </c>
-      <c r="S30" t="n">
-        <v>22</v>
-      </c>
-      <c r="T30" t="n">
-        <v>20</v>
-      </c>
-      <c r="U30" t="n">
-        <v>17</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1</v>
-      </c>
-      <c r="X30" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="AC30" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>54.1</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>11.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>26-10-2025</t>
+          <t>22-10-2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>ХК Сочи</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Спартак</t>
-        </is>
-      </c>
       <c r="D31" t="n">
-        <v>897694</v>
+        <v>897677</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://text.khl.ru/text/897694.html</t>
+          <t>https://text.khl.ru/text/897677.html</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3937,87 +3940,1224 @@
         <v>3</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>36</v>
+      </c>
+      <c r="J31" t="n">
+        <v>30</v>
+      </c>
+      <c r="K31" t="n">
+        <v>66</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>8</v>
+      </c>
+      <c r="P31" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>25</v>
+      </c>
+      <c r="R31" t="n">
+        <v>15</v>
+      </c>
+      <c r="S31" t="n">
+        <v>16</v>
+      </c>
+      <c r="T31" t="n">
+        <v>24</v>
+      </c>
+      <c r="U31" t="n">
+        <v>37</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4</v>
+      </c>
+      <c r="X31" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC31" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>13-11-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Авангард</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>897767</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897767.html</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>35</v>
+      </c>
+      <c r="J32" t="n">
+        <v>21</v>
+      </c>
+      <c r="K32" t="n">
+        <v>56</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>34</v>
+      </c>
+      <c r="R32" t="n">
+        <v>14</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>20</v>
+      </c>
+      <c r="U32" t="n">
+        <v>28</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA32" t="n">
         <v>5</v>
       </c>
-      <c r="I31" t="n">
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC32" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>11-11-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Амур</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>897760</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897760.html</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>36</v>
+      </c>
+      <c r="J33" t="n">
+        <v>27</v>
+      </c>
+      <c r="K33" t="n">
+        <v>63</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>27</v>
+      </c>
+      <c r="R33" t="n">
+        <v>17</v>
+      </c>
+      <c r="S33" t="n">
+        <v>9</v>
+      </c>
+      <c r="T33" t="n">
+        <v>7</v>
+      </c>
+      <c r="U33" t="n">
+        <v>6</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4</v>
+      </c>
+      <c r="X33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09-11-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Адмирал</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>897751</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897751.html</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>26</v>
+      </c>
+      <c r="J34" t="n">
+        <v>36</v>
+      </c>
+      <c r="K34" t="n">
+        <v>62</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q34" t="n">
         <v>34</v>
       </c>
-      <c r="J31" t="n">
-        <v>42</v>
-      </c>
-      <c r="K31" t="n">
-        <v>76</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2</v>
-      </c>
-      <c r="N31" t="n">
+      <c r="R34" t="n">
+        <v>24</v>
+      </c>
+      <c r="S34" t="n">
+        <v>13</v>
+      </c>
+      <c r="T34" t="n">
+        <v>12</v>
+      </c>
+      <c r="U34" t="n">
         <v>10</v>
       </c>
-      <c r="O31" t="n">
+      <c r="V34" t="n">
+        <v>4</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2</v>
+      </c>
+      <c r="X34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>25-10-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>897688</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897688.html</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>39</v>
+      </c>
+      <c r="J35" t="n">
+        <v>40</v>
+      </c>
+      <c r="K35" t="n">
+        <v>79</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>31</v>
+      </c>
+      <c r="R35" t="n">
+        <v>21</v>
+      </c>
+      <c r="S35" t="n">
+        <v>16</v>
+      </c>
+      <c r="T35" t="n">
+        <v>24</v>
+      </c>
+      <c r="U35" t="n">
+        <v>18</v>
+      </c>
+      <c r="V35" t="n">
+        <v>5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2</v>
+      </c>
+      <c r="X35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>23-10-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>897682</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897682.html</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>28</v>
+      </c>
+      <c r="J36" t="n">
+        <v>28</v>
+      </c>
+      <c r="K36" t="n">
+        <v>56</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>26</v>
+      </c>
+      <c r="O36" t="n">
         <v>6</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P36" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>35</v>
+      </c>
+      <c r="R36" t="n">
+        <v>19</v>
+      </c>
+      <c r="S36" t="n">
+        <v>19</v>
+      </c>
+      <c r="T36" t="n">
+        <v>24</v>
+      </c>
+      <c r="U36" t="n">
+        <v>17</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3</v>
+      </c>
+      <c r="X36" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>27-11-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Лада</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>897822</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897822.html</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>39</v>
+      </c>
+      <c r="J37" t="n">
+        <v>19</v>
+      </c>
+      <c r="K37" t="n">
+        <v>58</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>14</v>
+      </c>
+      <c r="R37" t="n">
+        <v>8</v>
+      </c>
+      <c r="S37" t="n">
+        <v>19</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9</v>
+      </c>
+      <c r="U37" t="n">
+        <v>9</v>
+      </c>
+      <c r="V37" t="n">
+        <v>6</v>
+      </c>
+      <c r="W37" t="n">
+        <v>3</v>
+      </c>
+      <c r="X37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>24-11-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>СКА</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>897810</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897810.html</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>23</v>
+      </c>
+      <c r="J38" t="n">
+        <v>23</v>
+      </c>
+      <c r="K38" t="n">
+        <v>46</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>14</v>
+      </c>
+      <c r="R38" t="n">
+        <v>13</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="n">
+        <v>12</v>
+      </c>
+      <c r="U38" t="n">
+        <v>7</v>
+      </c>
+      <c r="V38" t="n">
+        <v>6</v>
+      </c>
+      <c r="W38" t="n">
+        <v>6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC38" t="n">
+        <v>72</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Северсталь</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>897758</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897758.html</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>27</v>
+      </c>
+      <c r="J39" t="n">
+        <v>34</v>
+      </c>
+      <c r="K39" t="n">
+        <v>61</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4</v>
+      </c>
+      <c r="P39" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>28</v>
+      </c>
+      <c r="R39" t="n">
+        <v>20</v>
+      </c>
+      <c r="S39" t="n">
+        <v>9</v>
+      </c>
+      <c r="T39" t="n">
+        <v>14</v>
+      </c>
+      <c r="U39" t="n">
+        <v>6</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>5</v>
+      </c>
+      <c r="X39" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>31</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC39" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>897746</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897746.html</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>31</v>
+      </c>
+      <c r="J40" t="n">
+        <v>24</v>
+      </c>
+      <c r="K40" t="n">
+        <v>55</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" t="n">
         <v>37</v>
       </c>
-      <c r="Q31" t="n">
-        <v>31</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="Q40" t="n">
+        <v>16</v>
+      </c>
+      <c r="R40" t="n">
+        <v>19</v>
+      </c>
+      <c r="S40" t="n">
+        <v>16</v>
+      </c>
+      <c r="T40" t="n">
+        <v>14</v>
+      </c>
+      <c r="U40" t="n">
+        <v>7</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2</v>
+      </c>
+      <c r="X40" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC40" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>897736</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897736.html</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>29</v>
+      </c>
+      <c r="J41" t="n">
+        <v>20</v>
+      </c>
+      <c r="K41" t="n">
+        <v>49</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6</v>
+      </c>
+      <c r="O41" t="n">
+        <v>4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>27</v>
+      </c>
+      <c r="R41" t="n">
+        <v>19</v>
+      </c>
+      <c r="S41" t="n">
+        <v>19</v>
+      </c>
+      <c r="T41" t="n">
+        <v>14</v>
+      </c>
+      <c r="U41" t="n">
+        <v>13</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
         <v>21</v>
       </c>
-      <c r="S31" t="n">
-        <v>14</v>
-      </c>
-      <c r="T31" t="n">
-        <v>23</v>
-      </c>
-      <c r="U31" t="n">
-        <v>10</v>
-      </c>
-      <c r="V31" t="n">
-        <v>4</v>
-      </c>
-      <c r="W31" t="n">
-        <v>6</v>
-      </c>
-      <c r="X31" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB31" t="inlineStr">
+      <c r="Y41" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="AC31" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>69.7</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>8.800000000000001</v>
+      <c r="AC41" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -4031,7 +5171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4184,529 +5324,705 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Адмирал</t>
+          <t>Барыс</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>36.8</v>
+        <v>30.4</v>
       </c>
       <c r="H2" t="n">
-        <v>10.7</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>23.6</v>
+        <v>32.8</v>
       </c>
       <c r="K2" t="n">
-        <v>9.300000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="M2" t="n">
-        <v>11.2</v>
+        <v>19.6</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.4</v>
+        <v>-2</v>
       </c>
       <c r="O2" t="n">
-        <v>53.5</v>
+        <v>50.58</v>
       </c>
       <c r="P2" t="n">
-        <v>1.03</v>
+        <v>4.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.058</v>
+        <v>0.45</v>
       </c>
       <c r="R2" t="n">
-        <v>0.047</v>
+        <v>-0.05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.85</v>
+        <v>0.734</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1</v>
+        <v>-0.04599999999999999</v>
       </c>
       <c r="U2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.1</v>
+        <v>-0.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.52</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.01</v>
+        <v>-0.9799999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ак Барс</t>
+          <t>Динамо М</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="D3" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4</v>
+        <v>-1</v>
       </c>
       <c r="G3" t="n">
-        <v>34.4</v>
+        <v>33</v>
       </c>
       <c r="H3" t="n">
-        <v>38.8</v>
+        <v>17.5</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.2</v>
+        <v>-0.3</v>
       </c>
       <c r="J3" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>31.2</v>
+        <v>38.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>22</v>
+        <v>14.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3</v>
+        <v>-1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>63.46</v>
+        <v>53.1</v>
       </c>
       <c r="P3" t="n">
-        <v>1.360000000000002</v>
+        <v>-2.340000000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.344</v>
+        <v>0.102</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.132</v>
+        <v>0.06200000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>0.72</v>
+        <v>0.835</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06</v>
+        <v>-0.11</v>
       </c>
       <c r="U3" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="W3" t="n">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>9.619999999999999</v>
+        <v>6.74</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.01999999999999975</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Амур</t>
+          <t>Салават Юлаев</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.2</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.5</v>
-      </c>
       <c r="G4" t="n">
-        <v>30.6</v>
+        <v>29.4</v>
       </c>
       <c r="H4" t="n">
-        <v>46.8</v>
+        <v>33.3</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.8</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.6</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3</v>
+        <v>15.5</v>
       </c>
       <c r="L4" t="n">
-        <v>-3.5</v>
+        <v>0.9</v>
       </c>
       <c r="M4" t="n">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.5</v>
+        <v>-3.1</v>
       </c>
       <c r="O4" t="n">
-        <v>52.06</v>
+        <v>46.08</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2399999999999999</v>
+        <v>-2.339999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.234</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.134</v>
+        <v>0.036</v>
       </c>
       <c r="S4" t="n">
-        <v>0.85</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04899999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="U4" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.8</v>
+        <v>0.3</v>
       </c>
       <c r="W4" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AA4" t="n">
-        <v>6.44</v>
+        <v>6.08</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3099999999999999</v>
+        <v>0.7599999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Динамо Мн</t>
+          <t>Северсталь</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="H5" t="n">
-        <v>35.5</v>
+        <v>45.7</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.6</v>
+        <v>-0.3</v>
       </c>
       <c r="J5" t="n">
-        <v>28.2</v>
+        <v>26</v>
       </c>
       <c r="K5" t="n">
-        <v>46.7</v>
+        <v>24.5</v>
       </c>
       <c r="L5" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="M5" t="n">
-        <v>13.8</v>
+        <v>4.6</v>
       </c>
       <c r="N5" t="n">
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="O5" t="n">
-        <v>48.44</v>
+        <v>44.14</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8100000000000008</v>
+        <v>0.5699999999999996</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.09</v>
+        <v>0.025</v>
       </c>
       <c r="S5" t="n">
-        <v>0.828</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>0.114</v>
+        <v>-0.01699999999999999</v>
       </c>
       <c r="U5" t="n">
-        <v>10.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="W5" t="n">
-        <v>8.6</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.8</v>
+        <v>0.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.4</v>
+        <v>1</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.22</v>
+        <v>11.52</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.9000000000000001</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Драконы</t>
+          <t>Сибирь</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>30.6</v>
+        <v>31.6</v>
       </c>
       <c r="H6" t="n">
-        <v>190.8</v>
+        <v>30.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>-0.9</v>
       </c>
       <c r="J6" t="n">
-        <v>36.8</v>
+        <v>28.8</v>
       </c>
       <c r="K6" t="n">
-        <v>169.7</v>
+        <v>92.70000000000002</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>-5.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.2</v>
+        <v>16.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="O6" t="n">
-        <v>45.06</v>
+        <v>52</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2399999999999992</v>
+        <v>2.530000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.246</v>
+        <v>0.17</v>
       </c>
       <c r="R6" t="n">
-        <v>0.029</v>
+        <v>-0.031</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8800000000000001</v>
+        <v>0.8160000000000001</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.08900000000000001</v>
+        <v>0.024</v>
       </c>
       <c r="U6" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="W6" t="n">
-        <v>13.6</v>
+        <v>15.6</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.4</v>
+        <v>11.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>-4.9</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.28</v>
+        <v>6.459999999999999</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.3099999999999999</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ХК Сочи</t>
+          <t>Торпедо</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D7" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>29.6</v>
+        <v>33.8</v>
       </c>
       <c r="H7" t="n">
-        <v>74.8</v>
+        <v>145.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2</v>
+        <v>-4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>37.6</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
-        <v>38.8</v>
+        <v>11.5</v>
       </c>
       <c r="L7" t="n">
-        <v>-1.6</v>
+        <v>0.1</v>
       </c>
       <c r="M7" t="n">
         <v>17.4</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.7</v>
+        <v>-1.5</v>
       </c>
       <c r="O7" t="n">
-        <v>43.77999999999999</v>
+        <v>53.98</v>
       </c>
       <c r="P7" t="n">
-        <v>-1.940000000000001</v>
+        <v>-1.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.165</v>
+        <v>0.066</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.132</v>
+        <v>0.033</v>
       </c>
       <c r="S7" t="n">
-        <v>0.53</v>
+        <v>0.8220000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>0.045</v>
+        <v>-0.023</v>
       </c>
       <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W7" t="n">
         <v>5.4</v>
       </c>
-      <c r="V7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7.4</v>
-      </c>
       <c r="X7" t="n">
-        <v>-0.4</v>
+        <v>-1</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.1</v>
+        <v>7.659999999999999</v>
       </c>
       <c r="AB7" t="n">
-        <v>-1</v>
+        <v>0.7099999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.5999999999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>57.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-1.21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ЦСКА</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>24</v>
+      </c>
+      <c r="K9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.539999999999999</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.03299999999999999</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.008333333333333333</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.660000000000001</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.5200000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/khl/Form-5_Games_home_away.xlsx
+++ b/khl/Form-5_Games_home_away.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,10 +605,6821 @@
           <t>SH_pct</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>_order_in_team</t>
-        </is>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20-11-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Металлург Мг</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>897794</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897794.html</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>36</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27</v>
+      </c>
+      <c r="K2" t="n">
+        <v>63</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>14</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>27</v>
+      </c>
+      <c r="R2" t="n">
+        <v>18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>16</v>
+      </c>
+      <c r="T2" t="n">
+        <v>18</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>18-11-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Нефтехимик</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>897790</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897790.html</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>33</v>
+      </c>
+      <c r="K3" t="n">
+        <v>66</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>21</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13</v>
+      </c>
+      <c r="S3" t="n">
+        <v>14</v>
+      </c>
+      <c r="T3" t="n">
+        <v>11</v>
+      </c>
+      <c r="U3" t="n">
+        <v>21</v>
+      </c>
+      <c r="V3" t="n">
+        <v>12</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>02-11-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Торпедо</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>897720</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897720.html</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>24</v>
+      </c>
+      <c r="J4" t="n">
+        <v>24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>48</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>28</v>
+      </c>
+      <c r="R4" t="n">
+        <v>15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>17</v>
+      </c>
+      <c r="T4" t="n">
+        <v>34</v>
+      </c>
+      <c r="U4" t="n">
+        <v>17</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Сибирь</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>897711</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897711.html</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>20</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8</v>
+      </c>
+      <c r="P5" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>21</v>
+      </c>
+      <c r="R5" t="n">
+        <v>14</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T5" t="n">
+        <v>17</v>
+      </c>
+      <c r="U5" t="n">
+        <v>16</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC5" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23-10-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Автомобилист</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Трактор</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>897682</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897682.html</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28</v>
+      </c>
+      <c r="K6" t="n">
+        <v>56</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>26</v>
+      </c>
+      <c r="P6" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>35</v>
+      </c>
+      <c r="R6" t="n">
+        <v>19</v>
+      </c>
+      <c r="S6" t="n">
+        <v>19</v>
+      </c>
+      <c r="T6" t="n">
+        <v>17</v>
+      </c>
+      <c r="U6" t="n">
+        <v>24</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="AC6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>17.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>30-11-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ак Барс</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Драконы</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>897833</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://text.khl.ru/text/897833.html</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>36</v>
+      </c>
+      <c r="K7" t="n">
+        <v>68</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>16</v>
+      </c>
+      <c r="O7" t="n">
+        <v>18</v>
+      </c>
+      <c r="P7" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>22</v>
+      </c>
+      <c r="R7" t="n">
+        <v>17</v>
+      </c>
+      <c r="S7" t="n">
+        <v>16</v>
+      </c>
+      <c r="T7" t="n">
+        <v>22</v>
+      </c>
+      <c r="U7" t="n">
+        <v>28</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16</v>
+      </c>
+     